--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B1050-061E-4639-885C-62792F190DDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB391698-A98F-4CF6-B706-94AD35DFBC5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="432">
   <si>
     <t>Action</t>
   </si>
@@ -425,12 +425,6 @@
     <t>Lease Clasification</t>
   </si>
   <si>
-    <t>FASB.FIRevisions.dpLeaseClasification</t>
-  </si>
-  <si>
-    <t>Lease classification verified?Wrong lease classification</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify FASB/IASB Start Date </t>
   </si>
   <si>
@@ -1326,6 +1320,9 @@
   </si>
   <si>
     <t>Leesor STL Update for Edit Revision</t>
+  </si>
+  <si>
+    <t>UIDropDown.compareDropDownValue</t>
   </si>
 </sst>
 </file>
@@ -1885,6 +1882,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1894,9 +1894,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -1935,6 +1932,1140 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -1977,55 +3108,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -2048,1091 +3130,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4743,7 +4740,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,7 +4777,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -4814,7 +4811,7 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -4899,7 +4896,7 @@
         <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -4916,7 +4913,7 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
@@ -4933,7 +4930,7 @@
         <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -4950,7 +4947,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -4967,7 +4964,13 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>429</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4980,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051757C9-E9D7-4F28-A8DF-E175144BA412}">
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301:D301"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,11 +5563,11 @@
       <c r="D19" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
+      <c r="E19" s="42" t="s">
+        <v>431</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>97</v>
@@ -5575,11 +5578,8 @@
       <c r="J19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K19" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
+      <c r="L19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5588,13 +5588,13 @@
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>80</v>
@@ -5610,7 +5610,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L20" s="40">
         <v>1</v>
@@ -5622,13 +5622,13 @@
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>84</v>
@@ -5644,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L21" s="40">
         <v>1</v>
@@ -5656,13 +5656,13 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>109</v>
@@ -5678,7 +5678,7 @@
         <v>12</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L22" s="40">
         <v>1</v>
@@ -5690,13 +5690,13 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>113</v>
@@ -5712,7 +5712,7 @@
         <v>12</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L23" s="40">
         <v>1</v>
@@ -5724,13 +5724,13 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>117</v>
@@ -5746,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L24" s="40">
         <v>1</v>
@@ -5758,13 +5758,13 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>121</v>
@@ -5780,7 +5780,7 @@
         <v>12</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L25" s="40">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>78</v>
@@ -5820,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="27" t="s">
@@ -5868,7 +5868,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>91</v>
@@ -5880,7 +5880,7 @@
         <v>84</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="27" t="s">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>94</v>
@@ -5936,7 +5936,7 @@
         <v>96</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="1" t="s">
@@ -5946,7 +5946,7 @@
         <v>12</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L31" s="40">
         <v>2</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>107</v>
@@ -5970,7 +5970,7 @@
         <v>109</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="1" t="s">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>112</v>
@@ -6002,7 +6002,7 @@
         <v>113</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="1" t="s">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>116</v>
@@ -6034,7 +6034,7 @@
         <v>117</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="1" t="s">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>120</v>
@@ -6066,7 +6066,7 @@
         <v>121</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="1" t="s">
@@ -6130,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L37" s="40">
         <v>0</v>
@@ -6143,7 +6143,7 @@
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
       <c r="C39" s="110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
@@ -6349,19 +6349,19 @@
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="1" t="s">
@@ -6381,19 +6381,19 @@
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>108</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G47" s="57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H47" s="58"/>
       <c r="I47" s="55" t="s">
@@ -6413,16 +6413,16 @@
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E48" s="55" t="s">
         <v>108</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G48" s="61">
         <v>10000</v>
@@ -6445,19 +6445,19 @@
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="1" t="s">
@@ -6521,7 +6521,7 @@
         <v>96</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="1" t="s">
@@ -6531,7 +6531,7 @@
         <v>12</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L51" s="40"/>
     </row>
@@ -6649,7 +6649,9 @@
         <v>12</v>
       </c>
       <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
+      <c r="L55" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
@@ -6687,13 +6689,13 @@
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>109</v>
@@ -6709,9 +6711,11 @@
         <v>12</v>
       </c>
       <c r="K57" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="L57" s="40"/>
+        <v>141</v>
+      </c>
+      <c r="L57" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
@@ -6720,20 +6724,20 @@
       <c r="B58" s="14">
         <v>21</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D58" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>58</v>
+      <c r="E58" s="42" t="s">
+        <v>431</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>2</v>
@@ -6741,11 +6745,8 @@
       <c r="J58" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K58" t="s">
-        <v>133</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
+      <c r="L58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6754,13 +6755,13 @@
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="F59" s="39" t="s">
         <v>80</v>
@@ -6776,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="K59" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L59" s="40">
         <v>1</v>
@@ -6788,13 +6789,13 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>84</v>
@@ -6810,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="K60" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L60" s="40">
         <v>1</v>
@@ -6822,19 +6823,19 @@
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="40" t="s">
@@ -6844,7 +6845,7 @@
         <v>12</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L61" s="40">
         <v>1</v>
@@ -6856,19 +6857,19 @@
       </c>
       <c r="B62" s="64"/>
       <c r="C62" s="65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="57" t="s">
         <v>167</v>
-      </c>
-      <c r="E62" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="57" t="s">
-        <v>169</v>
       </c>
       <c r="H62" s="68"/>
       <c r="I62" s="60" t="s">
@@ -6878,7 +6879,7 @@
         <v>12</v>
       </c>
       <c r="K62" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L62" s="60">
         <v>1</v>
@@ -6890,16 +6891,16 @@
       </c>
       <c r="B63" s="64"/>
       <c r="C63" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E63" s="67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F63" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G63" s="61">
         <v>10000</v>
@@ -6912,7 +6913,7 @@
         <v>12</v>
       </c>
       <c r="K63" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L63" s="60">
         <v>1</v>
@@ -6924,19 +6925,19 @@
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="40" t="s">
@@ -6946,7 +6947,7 @@
         <v>12</v>
       </c>
       <c r="K64" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L64" s="40">
         <v>1</v>
@@ -6976,7 +6977,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>78</v>
@@ -6988,7 +6989,7 @@
         <v>80</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H66" s="37"/>
       <c r="I66" s="27" t="s">
@@ -7036,7 +7037,7 @@
         <v>20</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>91</v>
@@ -7048,7 +7049,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H68" s="37"/>
       <c r="I68" s="27" t="s">
@@ -7094,7 +7095,7 @@
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>94</v>
@@ -7106,7 +7107,7 @@
         <v>96</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="1" t="s">
@@ -7116,7 +7117,7 @@
         <v>12</v>
       </c>
       <c r="K70" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L70" s="40">
         <v>2</v>
@@ -7128,19 +7129,19 @@
       </c>
       <c r="B71" s="35"/>
       <c r="C71" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="1" t="s">
@@ -7160,19 +7161,19 @@
       </c>
       <c r="B72" s="52"/>
       <c r="C72" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E72" s="55" t="s">
         <v>108</v>
       </c>
       <c r="F72" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G72" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H72" s="58"/>
       <c r="I72" s="55" t="s">
@@ -7192,19 +7193,19 @@
       </c>
       <c r="B73" s="52"/>
       <c r="C73" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D73" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E73" s="55" t="s">
         <v>108</v>
       </c>
       <c r="F73" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G73" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H73" s="58"/>
       <c r="I73" s="55" t="s">
@@ -7224,19 +7225,19 @@
       </c>
       <c r="B74" s="35"/>
       <c r="C74" s="51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G74" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="1" t="s">
@@ -7300,7 +7301,7 @@
         <v>12</v>
       </c>
       <c r="K76" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L76" s="40">
         <v>0</v>
@@ -7327,7 +7328,7 @@
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
       <c r="C79" s="110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D79" s="110"/>
       <c r="E79" s="110"/>
@@ -7428,7 +7429,7 @@
         <v>96</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="1" t="s">
@@ -7438,9 +7439,11 @@
         <v>12</v>
       </c>
       <c r="K83" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="L83" s="40"/>
+        <v>175</v>
+      </c>
+      <c r="L83" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
@@ -7492,7 +7495,7 @@
         <v>104</v>
       </c>
       <c r="G85" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="1" t="s">
@@ -7822,7 +7825,7 @@
         <v>96</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="1" t="s">
@@ -7832,7 +7835,7 @@
         <v>12</v>
       </c>
       <c r="K96" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L96" s="40">
         <v>1</v>
@@ -7888,7 +7891,7 @@
         <v>104</v>
       </c>
       <c r="G98" s="44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="1" t="s">
@@ -7988,7 +7991,7 @@
       <c r="A102" s="70"/>
       <c r="B102" s="71"/>
       <c r="C102" s="72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
@@ -8007,20 +8010,20 @@
       <c r="B103" s="14">
         <v>21</v>
       </c>
-      <c r="C103" s="50" t="s">
+      <c r="C103" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D103" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>58</v>
+      <c r="E103" s="42" t="s">
+        <v>431</v>
       </c>
       <c r="F103" s="46" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I103" s="25" t="s">
         <v>2</v>
@@ -8028,11 +8031,8 @@
       <c r="J103" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K103" t="s">
-        <v>133</v>
-      </c>
-      <c r="L103" s="2">
-        <v>1</v>
+      <c r="L103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -8041,13 +8041,13 @@
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="F104" s="39" t="s">
         <v>80</v>
@@ -8063,7 +8063,7 @@
         <v>12</v>
       </c>
       <c r="K104" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L104" s="40">
         <v>1</v>
@@ -8075,13 +8075,13 @@
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F105" s="19" t="s">
         <v>84</v>
@@ -8097,7 +8097,7 @@
         <v>12</v>
       </c>
       <c r="K105" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L105" s="40">
         <v>1</v>
@@ -8109,13 +8109,13 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F106" s="24" t="s">
         <v>109</v>
@@ -8131,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="K106" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L106" s="40">
         <v>1</v>
@@ -8143,13 +8143,13 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F107" s="24" t="s">
         <v>113</v>
@@ -8165,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="K107" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L107" s="40">
         <v>1</v>
@@ -8177,13 +8177,13 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F108" s="24" t="s">
         <v>117</v>
@@ -8199,7 +8199,7 @@
         <v>12</v>
       </c>
       <c r="K108" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L108" s="40">
         <v>1</v>
@@ -8209,7 +8209,7 @@
       <c r="A109" s="70"/>
       <c r="B109" s="71"/>
       <c r="C109" s="72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D109" s="73"/>
       <c r="E109" s="73"/>
@@ -8229,7 +8229,7 @@
         <v>19</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>78</v>
@@ -8241,7 +8241,7 @@
         <v>80</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H110" s="37"/>
       <c r="I110" s="27" t="s">
@@ -8289,7 +8289,7 @@
         <v>20</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>91</v>
@@ -8301,7 +8301,7 @@
         <v>84</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H112" s="37"/>
       <c r="I112" s="27" t="s">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B114" s="35"/>
       <c r="C114" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D114" s="38" t="s">
         <v>94</v>
@@ -8359,7 +8359,7 @@
         <v>96</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="1" t="s">
@@ -8369,7 +8369,7 @@
         <v>12</v>
       </c>
       <c r="K114" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L114" s="40">
         <v>1</v>
@@ -8425,7 +8425,7 @@
         <v>104</v>
       </c>
       <c r="G116" s="44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" s="1" t="s">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="B117" s="35"/>
       <c r="C117" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>107</v>
@@ -8457,7 +8457,7 @@
         <v>109</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" s="1" t="s">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B118" s="35"/>
       <c r="C118" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D118" s="38" t="s">
         <v>112</v>
@@ -8489,7 +8489,7 @@
         <v>113</v>
       </c>
       <c r="G118" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" s="1" t="s">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B119" s="35"/>
       <c r="C119" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D119" s="38" t="s">
         <v>116</v>
@@ -8521,7 +8521,7 @@
         <v>117</v>
       </c>
       <c r="G119" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H119" s="11"/>
       <c r="I119" s="1" t="s">
@@ -8585,7 +8585,7 @@
         <v>12</v>
       </c>
       <c r="K121" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L121" s="40">
         <v>0</v>
@@ -8612,7 +8612,7 @@
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
       <c r="C124" s="110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D124" s="110"/>
       <c r="E124" s="110"/>
@@ -8710,7 +8710,7 @@
         <v>96</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H127" s="11"/>
       <c r="I127" s="27" t="s">
@@ -8720,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="K127" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L127" s="40">
         <v>1</v>
@@ -8776,7 +8776,7 @@
         <v>104</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" s="27" t="s">
@@ -8982,7 +8982,7 @@
       <c r="G136" s="41"/>
       <c r="H136" s="11"/>
       <c r="I136" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J136" s="38" t="s">
         <v>2</v>
@@ -9106,7 +9106,7 @@
         <v>96</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="27" t="s">
@@ -9116,7 +9116,7 @@
         <v>12</v>
       </c>
       <c r="K140" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L140" s="40">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>104</v>
       </c>
       <c r="G142" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H142" s="11"/>
       <c r="I142" s="27" t="s">
@@ -9272,7 +9272,7 @@
       <c r="A146" s="70"/>
       <c r="B146" s="71"/>
       <c r="C146" s="72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D146" s="73"/>
       <c r="E146" s="73"/>
@@ -9293,32 +9293,29 @@
       <c r="B147" s="14">
         <v>21</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D147" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>58</v>
+      <c r="E147" s="42" t="s">
+        <v>431</v>
       </c>
       <c r="F147" s="46" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G147" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="I147" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I147" s="25" t="s">
         <v>2</v>
       </c>
       <c r="J147" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K147" t="s">
-        <v>133</v>
-      </c>
-      <c r="L147" s="2">
-        <v>1</v>
+      <c r="L147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -9327,13 +9324,13 @@
       </c>
       <c r="B148" s="39"/>
       <c r="C148" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D148" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E148" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="D148" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E148" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="F148" s="39" t="s">
         <v>80</v>
@@ -9349,9 +9346,11 @@
         <v>12</v>
       </c>
       <c r="K148" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="L148" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="L148" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="70">
@@ -9359,13 +9358,13 @@
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F149" s="19" t="s">
         <v>84</v>
@@ -9381,9 +9380,11 @@
         <v>12</v>
       </c>
       <c r="K149" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="L149" s="40"/>
+        <v>138</v>
+      </c>
+      <c r="L149" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="70">
@@ -9391,13 +9392,13 @@
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F150" s="24" t="s">
         <v>109</v>
@@ -9413,9 +9414,11 @@
         <v>12</v>
       </c>
       <c r="K150" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="L150" s="40"/>
+        <v>141</v>
+      </c>
+      <c r="L150" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="70">
@@ -9423,13 +9426,13 @@
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F151" s="24" t="s">
         <v>113</v>
@@ -9445,9 +9448,11 @@
         <v>12</v>
       </c>
       <c r="K151" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="L151" s="40"/>
+        <v>143</v>
+      </c>
+      <c r="L151" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="70">
@@ -9455,13 +9460,13 @@
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F152" s="24" t="s">
         <v>117</v>
@@ -9477,15 +9482,17 @@
         <v>12</v>
       </c>
       <c r="K152" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="L152" s="40"/>
+        <v>145</v>
+      </c>
+      <c r="L152" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="70"/>
       <c r="B153" s="71"/>
       <c r="C153" s="72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D153" s="73"/>
       <c r="E153" s="73"/>
@@ -9507,7 +9514,7 @@
         <v>19</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D154" s="23" t="s">
         <v>78</v>
@@ -9519,7 +9526,7 @@
         <v>80</v>
       </c>
       <c r="G154" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H154" s="37"/>
       <c r="I154" s="27" t="s">
@@ -9567,7 +9574,7 @@
         <v>20</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D156" s="23" t="s">
         <v>91</v>
@@ -9579,7 +9586,7 @@
         <v>84</v>
       </c>
       <c r="G156" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H156" s="37"/>
       <c r="I156" s="27" t="s">
@@ -9625,7 +9632,7 @@
       </c>
       <c r="B158" s="35"/>
       <c r="C158" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D158" s="38" t="s">
         <v>94</v>
@@ -9637,7 +9644,7 @@
         <v>96</v>
       </c>
       <c r="G158" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H158" s="11"/>
       <c r="I158" s="27" t="s">
@@ -9647,7 +9654,7 @@
         <v>12</v>
       </c>
       <c r="K158" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L158" s="40">
         <v>1</v>
@@ -9659,7 +9666,7 @@
       </c>
       <c r="B159" s="35"/>
       <c r="C159" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D159" s="38" t="s">
         <v>107</v>
@@ -9671,7 +9678,7 @@
         <v>109</v>
       </c>
       <c r="G159" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H159" s="11"/>
       <c r="I159" s="27" t="s">
@@ -9691,7 +9698,7 @@
       </c>
       <c r="B160" s="35"/>
       <c r="C160" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D160" s="38" t="s">
         <v>112</v>
@@ -9703,7 +9710,7 @@
         <v>113</v>
       </c>
       <c r="G160" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H160" s="11"/>
       <c r="I160" s="27" t="s">
@@ -9723,7 +9730,7 @@
       </c>
       <c r="B161" s="35"/>
       <c r="C161" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D161" s="38" t="s">
         <v>116</v>
@@ -9735,7 +9742,7 @@
         <v>117</v>
       </c>
       <c r="G161" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H161" s="11"/>
       <c r="I161" s="27" t="s">
@@ -9799,7 +9806,7 @@
         <v>104</v>
       </c>
       <c r="G163" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H163" s="11"/>
       <c r="I163" s="27" t="s">
@@ -9863,7 +9870,7 @@
         <v>12</v>
       </c>
       <c r="K165" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L165" s="40">
         <v>0</v>
@@ -9871,7 +9878,7 @@
     </row>
     <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C167" s="111"/>
       <c r="D167" s="111"/>
@@ -9916,10 +9923,10 @@
         <v>2</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>48</v>
@@ -9928,7 +9935,7 @@
         <v>13</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="2" t="s">
@@ -10236,7 +10243,7 @@
         <v>33</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="2" t="s">
@@ -10354,7 +10361,7 @@
     </row>
     <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C184" s="112"/>
       <c r="D184" s="112"/>
@@ -10368,19 +10375,19 @@
         <v>1</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D185" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F185" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="87" t="s">
@@ -10401,19 +10408,19 @@
         <v>2</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D186" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F186" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="87" t="s">
@@ -10434,19 +10441,19 @@
         <v>3</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D187" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F187" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="87" t="s">
@@ -10467,19 +10474,19 @@
         <v>4</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D188" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F188" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="87" t="s">
@@ -10500,19 +10507,19 @@
         <v>5</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D189" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F189" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="87" t="s">
@@ -10533,19 +10540,19 @@
         <v>6</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D190" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F190" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="87" t="s">
@@ -10566,19 +10573,19 @@
         <v>7</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D191" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F191" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="87" t="s">
@@ -10599,19 +10606,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F192" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="87" t="s">
@@ -10632,19 +10639,19 @@
         <v>9</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D193" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F193" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="87" t="s">
@@ -10665,19 +10672,19 @@
         <v>10</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D194" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F194" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="87" t="s">
@@ -10698,19 +10705,19 @@
         <v>11</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D195" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F195" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H195" s="1"/>
       <c r="I195" s="87" t="s">
@@ -10731,19 +10738,19 @@
         <v>12</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D196" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F196" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="87" t="s">
@@ -10764,13 +10771,13 @@
         <v>13</v>
       </c>
       <c r="C197" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D197" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E197" s="90" t="s">
         <v>241</v>
-      </c>
-      <c r="D197" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="E197" s="90" t="s">
-        <v>243</v>
       </c>
       <c r="F197" s="88"/>
       <c r="G197" s="18"/>
@@ -10786,11 +10793,11 @@
       </c>
     </row>
     <row r="199" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="C199" s="113"/>
-      <c r="D199" s="113"/>
+      <c r="B199" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199" s="114"/>
+      <c r="D199" s="114"/>
       <c r="H199" s="92"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -10861,19 +10868,19 @@
       </c>
       <c r="B202" s="94"/>
       <c r="C202" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="D202" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D202" s="94" t="s">
+      <c r="F202" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="G202" s="97" t="s">
         <v>246</v>
-      </c>
-      <c r="F202" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="G202" s="97" t="s">
-        <v>248</v>
       </c>
       <c r="H202" s="94"/>
       <c r="I202" s="94" t="s">
@@ -10892,19 +10899,19 @@
       </c>
       <c r="B203" s="94"/>
       <c r="C203" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="D203" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F203" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="D203" s="94" t="s">
+      <c r="G203" s="97" t="s">
         <v>250</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F203" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="G203" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="H203" s="94"/>
       <c r="I203" s="94" t="s">
@@ -10926,16 +10933,16 @@
         <v>59</v>
       </c>
       <c r="D204" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F204" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="G204" s="103" t="s">
         <v>253</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F204" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="G204" s="103" t="s">
-        <v>255</v>
       </c>
       <c r="H204" s="100"/>
       <c r="I204" s="100" t="s">
@@ -10954,19 +10961,19 @@
       </c>
       <c r="B205" s="100"/>
       <c r="C205" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="D205" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F205" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="D205" s="100" t="s">
+      <c r="G205" s="103" t="s">
         <v>257</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F205" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="G205" s="103" t="s">
-        <v>259</v>
       </c>
       <c r="H205" s="100"/>
       <c r="I205" s="100" t="s">
@@ -10985,19 +10992,19 @@
       </c>
       <c r="B206" s="100"/>
       <c r="C206" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="D206" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F206" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="D206" s="100" t="s">
+      <c r="G206" s="103" t="s">
         <v>261</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F206" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="G206" s="103" t="s">
-        <v>263</v>
       </c>
       <c r="H206" s="100"/>
       <c r="I206" s="100" t="s">
@@ -11016,16 +11023,16 @@
       </c>
       <c r="B207" s="94"/>
       <c r="C207" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="D207" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F207" s="96" t="s">
         <v>264</v>
-      </c>
-      <c r="D207" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F207" s="96" t="s">
-        <v>266</v>
       </c>
       <c r="G207" s="97">
         <v>1</v>
@@ -11047,16 +11054,16 @@
       </c>
       <c r="B208" s="100"/>
       <c r="C208" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="D208" s="100" t="s">
+        <v>266</v>
+      </c>
+      <c r="F208" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="D208" s="100" t="s">
+      <c r="G208" s="103" t="s">
         <v>268</v>
-      </c>
-      <c r="F208" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="G208" s="103" t="s">
-        <v>270</v>
       </c>
       <c r="H208" s="100"/>
       <c r="I208" s="100" t="s">
@@ -11075,19 +11082,19 @@
       </c>
       <c r="B209" s="94"/>
       <c r="C209" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D209" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E209" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F209" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="D209" s="94" t="s">
-        <v>272</v>
-      </c>
-      <c r="E209" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="F209" s="96" t="s">
-        <v>273</v>
-      </c>
       <c r="G209" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H209" s="94"/>
       <c r="I209" s="94" t="s">
@@ -11106,16 +11113,16 @@
       </c>
       <c r="B210" s="100"/>
       <c r="C210" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="E210" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="D210" s="100" t="s">
+      <c r="F210" s="102" t="s">
         <v>275</v>
-      </c>
-      <c r="E210" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="F210" s="102" t="s">
-        <v>277</v>
       </c>
       <c r="G210" s="103"/>
       <c r="H210" s="100"/>
@@ -11135,19 +11142,19 @@
       </c>
       <c r="B211" s="100"/>
       <c r="C211" s="101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D211" s="100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F211" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G211" s="103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H211" s="100"/>
       <c r="I211" s="100" t="s">
@@ -11166,16 +11173,16 @@
       </c>
       <c r="B212" s="94"/>
       <c r="C212" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="D212" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="E212" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="D212" s="94" t="s">
+      <c r="F212" s="96" t="s">
         <v>281</v>
-      </c>
-      <c r="E212" s="97" t="s">
-        <v>282</v>
-      </c>
-      <c r="F212" s="96" t="s">
-        <v>283</v>
       </c>
       <c r="G212" s="97"/>
       <c r="H212" s="94"/>
@@ -11195,19 +11202,19 @@
       </c>
       <c r="B213" s="100"/>
       <c r="C213" s="101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D213" s="100" t="s">
         <v>78</v>
       </c>
       <c r="E213" s="103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F213" s="102" t="s">
         <v>80</v>
       </c>
       <c r="G213" s="103" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H213" s="100"/>
       <c r="I213" s="100" t="s">
@@ -11226,19 +11233,19 @@
       </c>
       <c r="B214" s="100"/>
       <c r="C214" s="101" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D214" s="100" t="s">
         <v>91</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F214" s="102" t="s">
         <v>84</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H214" s="100"/>
       <c r="I214" s="100" t="s">
@@ -11257,19 +11264,19 @@
       </c>
       <c r="B215" s="100"/>
       <c r="C215" s="101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D215" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="E215" s="103" t="s">
         <v>286</v>
-      </c>
-      <c r="D215" s="100" t="s">
-        <v>287</v>
-      </c>
-      <c r="E215" s="103" t="s">
-        <v>288</v>
       </c>
       <c r="F215" s="102" t="s">
         <v>89</v>
       </c>
       <c r="G215" s="103" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H215" s="100"/>
       <c r="I215" s="100" t="s">
@@ -11288,19 +11295,19 @@
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F216" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G216" s="84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="25" t="s">
@@ -11319,19 +11326,19 @@
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G217" s="84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="25" t="s">
@@ -11345,11 +11352,11 @@
       </c>
     </row>
     <row r="219" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="C219" s="114"/>
-      <c r="D219" s="114"/>
+      <c r="B219" s="115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C219" s="115"/>
+      <c r="D219" s="115"/>
       <c r="H219" s="78"/>
     </row>
     <row r="220" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -11358,16 +11365,16 @@
       </c>
       <c r="B220" s="94"/>
       <c r="C220" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D220" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="E220" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F220" s="96" t="s">
         <v>297</v>
-      </c>
-      <c r="D220" s="94" t="s">
-        <v>298</v>
-      </c>
-      <c r="E220" s="97" t="s">
-        <v>282</v>
-      </c>
-      <c r="F220" s="96" t="s">
-        <v>299</v>
       </c>
       <c r="G220" s="97"/>
       <c r="H220" s="94"/>
@@ -11387,16 +11394,16 @@
       </c>
       <c r="B221" s="100"/>
       <c r="C221" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D221" s="100" t="s">
+        <v>299</v>
+      </c>
+      <c r="E221" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="F221" s="102" t="s">
         <v>300</v>
-      </c>
-      <c r="D221" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="E221" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="F221" s="102" t="s">
-        <v>302</v>
       </c>
       <c r="G221" s="103"/>
       <c r="H221" s="100"/>
@@ -11416,19 +11423,19 @@
       </c>
       <c r="B222" s="100"/>
       <c r="C222" s="101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D222" s="100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F222" s="102" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H222" s="100"/>
       <c r="I222" s="100" t="s">
@@ -11447,16 +11454,16 @@
       </c>
       <c r="B223" s="100"/>
       <c r="C223" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="D223" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="E223" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="F223" s="102" t="s">
         <v>304</v>
-      </c>
-      <c r="D223" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="E223" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="F223" s="102" t="s">
-        <v>306</v>
       </c>
       <c r="G223" s="103"/>
       <c r="H223" s="100"/>
@@ -11476,19 +11483,19 @@
       </c>
       <c r="B224" s="100"/>
       <c r="C224" s="101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D224" s="100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F224" s="102" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G224" s="103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H224" s="100"/>
       <c r="I224" s="100" t="s">
@@ -11507,16 +11514,16 @@
       </c>
       <c r="B225" s="100"/>
       <c r="C225" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D225" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="E225" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="F225" s="102" t="s">
         <v>308</v>
-      </c>
-      <c r="D225" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="E225" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="F225" s="102" t="s">
-        <v>310</v>
       </c>
       <c r="G225" s="103"/>
       <c r="H225" s="100"/>
@@ -11536,19 +11543,19 @@
       </c>
       <c r="B226" s="100"/>
       <c r="C226" s="101" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D226" s="100" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F226" s="102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G226" s="103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H226" s="100"/>
       <c r="I226" s="100" t="s">
@@ -11567,19 +11574,19 @@
       </c>
       <c r="B227" s="100"/>
       <c r="C227" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D227" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="E227" s="103" t="s">
         <v>312</v>
       </c>
-      <c r="D227" s="100" t="s">
+      <c r="F227" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="E227" s="103" t="s">
+      <c r="G227" s="103" t="s">
         <v>314</v>
-      </c>
-      <c r="F227" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="G227" s="103" t="s">
-        <v>316</v>
       </c>
       <c r="H227" s="100"/>
       <c r="I227" s="100" t="s">
@@ -11598,17 +11605,17 @@
       </c>
       <c r="B228" s="100"/>
       <c r="C228" s="101" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D228" s="100" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E228" s="103" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F228" s="102"/>
       <c r="G228" s="103" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H228" s="100"/>
       <c r="I228" s="100" t="s">
@@ -11627,19 +11634,19 @@
       </c>
       <c r="B229" s="100"/>
       <c r="C229" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D229" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F229" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="D229" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F229" s="102" t="s">
-        <v>322</v>
-      </c>
       <c r="G229" s="103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H229" s="100"/>
       <c r="I229" s="100" t="s">
@@ -11658,19 +11665,19 @@
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D230" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F230" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D230" s="45" t="s">
+      <c r="G230" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F230" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="I230" s="25" t="s">
         <v>2</v>
@@ -11686,14 +11693,14 @@
       </c>
       <c r="B231" s="12"/>
       <c r="D231" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F231" s="24"/>
       <c r="G231" s="84" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="25" t="s">
@@ -11712,19 +11719,19 @@
       </c>
       <c r="B232" s="14"/>
       <c r="C232" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D232" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F232" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="D232" s="45" t="s">
+      <c r="G232" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F232" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="I232" s="25" t="s">
         <v>2</v>
@@ -11741,16 +11748,16 @@
       <c r="B233" s="14"/>
       <c r="C233" s="22"/>
       <c r="D233" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F233" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F233" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="I233" s="25" t="s">
         <v>2</v>
@@ -11766,14 +11773,14 @@
       </c>
       <c r="B234" s="12"/>
       <c r="D234" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F234" s="24"/>
       <c r="G234" s="84" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="25" t="s">
@@ -11792,19 +11799,19 @@
       </c>
       <c r="B235" s="14"/>
       <c r="C235" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D235" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F235" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="D235" s="45" t="s">
+      <c r="G235" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F235" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="I235" s="25" t="s">
         <v>2</v>
@@ -11821,22 +11828,22 @@
       <c r="B236" s="14"/>
       <c r="C236" s="106"/>
       <c r="D236" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F236" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F236" s="46" t="s">
+      <c r="I236" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J236" s="26" t="s">
         <v>343</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I236" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J236" s="26" t="s">
-        <v>345</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -11848,14 +11855,14 @@
       </c>
       <c r="B237" s="12"/>
       <c r="D237" s="23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F237" s="24"/>
       <c r="G237" s="84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="25" t="s">
@@ -11876,13 +11883,13 @@
         <v>21</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D238" s="45" t="s">
         <v>107</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F238" s="46" t="s">
         <v>109</v>
@@ -11908,13 +11915,13 @@
         <v>21</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D239" s="45" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F239" s="46" t="s">
         <v>113</v>
@@ -11940,13 +11947,13 @@
         <v>21</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D240" s="45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F240" s="46" t="s">
         <v>117</v>
@@ -11972,16 +11979,16 @@
         <v>21</v>
       </c>
       <c r="C241" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D241" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F241" s="46" t="s">
         <v>353</v>
-      </c>
-      <c r="D241" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F241" s="46" t="s">
-        <v>355</v>
       </c>
       <c r="G241" s="2">
         <v>0</v>
@@ -12004,16 +12011,16 @@
         <v>21</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D242" s="45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F242" s="46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G242" s="2"/>
       <c r="I242" s="25" t="s">
@@ -12032,25 +12039,25 @@
       </c>
       <c r="B243" s="14"/>
       <c r="C243" s="106" t="s">
+        <v>355</v>
+      </c>
+      <c r="D243" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F243" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="D243" s="45" t="s">
+      <c r="G243" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F243" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="I243" s="25" t="s">
         <v>2</v>
       </c>
       <c r="J243" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -12063,20 +12070,20 @@
       <c r="B244" s="14"/>
       <c r="C244" s="22"/>
       <c r="D244" s="45" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F244" s="46"/>
       <c r="G244" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I244" s="25" t="s">
         <v>2</v>
       </c>
       <c r="J244" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L244">
         <v>0</v>
@@ -12088,13 +12095,13 @@
       </c>
       <c r="B245" s="35"/>
       <c r="C245" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D245" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E245" s="27" t="s">
         <v>363</v>
-      </c>
-      <c r="D245" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="E245" s="27" t="s">
-        <v>365</v>
       </c>
       <c r="F245" s="24" t="s">
         <v>101</v>
@@ -12108,7 +12115,7 @@
         <v>12</v>
       </c>
       <c r="K245" s="39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -12120,16 +12127,16 @@
       </c>
       <c r="B246" s="35"/>
       <c r="C246" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D246" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="E246" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F246" s="24" t="s">
         <v>367</v>
-      </c>
-      <c r="D246" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="E246" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="F246" s="24" t="s">
-        <v>369</v>
       </c>
       <c r="G246" s="41"/>
       <c r="H246" s="11"/>
@@ -12140,7 +12147,7 @@
         <v>12</v>
       </c>
       <c r="K246" s="39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -12152,16 +12159,16 @@
       </c>
       <c r="B247" s="35"/>
       <c r="C247" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="D247" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E247" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F247" s="24" t="s">
         <v>371</v>
-      </c>
-      <c r="D247" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="E247" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="F247" s="24" t="s">
-        <v>373</v>
       </c>
       <c r="G247" s="41"/>
       <c r="H247" s="11"/>
@@ -12172,7 +12179,7 @@
         <v>12</v>
       </c>
       <c r="K247" s="39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -12184,13 +12191,13 @@
       </c>
       <c r="B248" s="35"/>
       <c r="C248" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D248" s="38" t="s">
         <v>124</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F248" s="24" t="s">
         <v>125</v>
@@ -12204,7 +12211,7 @@
         <v>12</v>
       </c>
       <c r="K248" s="39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -12216,16 +12223,16 @@
       </c>
       <c r="B249" s="35"/>
       <c r="C249" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D249" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="E249" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F249" s="24" t="s">
         <v>376</v>
-      </c>
-      <c r="D249" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E249" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="F249" s="24" t="s">
-        <v>378</v>
       </c>
       <c r="G249" s="41"/>
       <c r="H249" s="11"/>
@@ -12236,7 +12243,7 @@
         <v>12</v>
       </c>
       <c r="K249" s="39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -12248,16 +12255,16 @@
       </c>
       <c r="B250" s="35"/>
       <c r="C250" s="39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D250" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E250" s="27" t="s">
         <v>47</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G250" s="41"/>
       <c r="H250" s="11"/>
@@ -12277,17 +12284,17 @@
       </c>
       <c r="B251" s="12"/>
       <c r="C251" s="107" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D251" s="17"/>
       <c r="E251" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F251" s="24" t="s">
         <v>66</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="25" t="s">
@@ -12297,7 +12304,7 @@
         <v>12</v>
       </c>
       <c r="K251" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -12311,13 +12318,13 @@
         <v>22</v>
       </c>
       <c r="C252" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E252" s="108" t="s">
         <v>241</v>
-      </c>
-      <c r="D252" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="E252" s="108" t="s">
-        <v>243</v>
       </c>
       <c r="F252" s="88"/>
       <c r="G252" s="18"/>
@@ -12333,34 +12340,34 @@
       </c>
     </row>
     <row r="253" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C253" s="115"/>
-      <c r="D253" s="115"/>
+      <c r="B253" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C253" s="116"/>
+      <c r="D253" s="116"/>
       <c r="H253" s="86"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B254" s="12">
         <v>19</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F254" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H254" s="1"/>
       <c r="I254" s="25" t="s">
@@ -12375,25 +12382,25 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B255" s="12">
         <v>20</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G255" s="109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="25" t="s">
@@ -12408,25 +12415,25 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B256" s="14">
         <v>21</v>
       </c>
       <c r="C256" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D256" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F256" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="D256" s="45" t="s">
+      <c r="G256" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F256" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="I256" s="25" t="s">
         <v>2</v>
@@ -12440,14 +12447,14 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B257" s="14"/>
       <c r="C257" s="106" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D257" s="45" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>79</v>
@@ -12456,7 +12463,7 @@
         <v>89</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I257" s="25" t="s">
         <v>2</v>
@@ -12468,21 +12475,21 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B258" s="14"/>
       <c r="C258" s="22"/>
       <c r="D258" s="45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F258" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I258" s="25" t="s">
         <v>2</v>
@@ -12494,19 +12501,19 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B259" s="14"/>
       <c r="C259" s="22"/>
       <c r="D259" s="45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F259" s="46"/>
       <c r="G259" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I259" s="25" t="s">
         <v>2</v>
@@ -12518,20 +12525,20 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B260" s="12"/>
       <c r="C260" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>12</v>
@@ -12549,18 +12556,18 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B261" s="12"/>
       <c r="C261" s="22"/>
       <c r="D261" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>12</v>
@@ -12578,18 +12585,18 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B262" s="12"/>
       <c r="C262" s="22"/>
       <c r="D262" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F262" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>12</v>
@@ -12607,18 +12614,18 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B263" s="12"/>
       <c r="C263" s="22"/>
       <c r="D263" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F263" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>12</v>
@@ -12636,18 +12643,18 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B264" s="12"/>
       <c r="C264" s="22"/>
       <c r="D264" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>12</v>
@@ -12665,20 +12672,20 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B265" s="12"/>
       <c r="C265" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="1"/>
@@ -12694,18 +12701,18 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B266" s="12"/>
       <c r="C266" s="22"/>
       <c r="D266" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F266" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="1"/>
@@ -12720,11 +12727,11 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="C267" s="115"/>
-      <c r="D267" s="115"/>
+      <c r="B267" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="C267" s="116"/>
+      <c r="D267" s="116"/>
       <c r="H267" s="86"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12735,16 +12742,16 @@
         <v>19</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F268" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G268" s="2"/>
       <c r="H268" s="1"/>
@@ -12766,16 +12773,16 @@
         <v>20</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F269" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G269" s="109"/>
       <c r="H269" s="1"/>
@@ -12797,16 +12804,16 @@
         <v>21</v>
       </c>
       <c r="C270" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D270" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F270" s="46" t="s">
         <v>413</v>
-      </c>
-      <c r="D270" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F270" s="46" t="s">
-        <v>415</v>
       </c>
       <c r="G270" s="2"/>
       <c r="I270" s="25" t="s">
@@ -12827,16 +12834,16 @@
         <v>21</v>
       </c>
       <c r="C271" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D271" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F271" s="46" t="s">
         <v>416</v>
-      </c>
-      <c r="D271" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F271" s="46" t="s">
-        <v>418</v>
       </c>
       <c r="G271" s="2"/>
       <c r="I271" s="25" t="s">
@@ -12857,16 +12864,16 @@
         <v>21</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D272" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F272" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G272" s="2"/>
       <c r="I272" s="25" t="s">
@@ -12887,16 +12894,16 @@
         <v>21</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D273" s="45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F273" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G273" s="2"/>
       <c r="I273" s="25" t="s">
@@ -12917,16 +12924,16 @@
         <v>21</v>
       </c>
       <c r="C274" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D274" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F274" s="46" t="s">
         <v>389</v>
-      </c>
-      <c r="D274" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F274" s="46" t="s">
-        <v>391</v>
       </c>
       <c r="G274" s="2"/>
       <c r="I274" s="25" t="s">
@@ -12945,10 +12952,10 @@
       </c>
       <c r="B275" s="14"/>
       <c r="C275" s="106" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D275" s="45" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>79</v>
@@ -12957,7 +12964,7 @@
         <v>89</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I275" s="25" t="s">
         <v>2</v>
@@ -12971,16 +12978,16 @@
       <c r="B276" s="14"/>
       <c r="C276" s="22"/>
       <c r="D276" s="45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F276" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I276" s="25" t="s">
         <v>2</v>
@@ -12994,14 +13001,14 @@
       <c r="B277" s="14"/>
       <c r="C277" s="22"/>
       <c r="D277" s="45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F277" s="46"/>
       <c r="G277" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I277" s="25" t="s">
         <v>2</v>
@@ -13014,16 +13021,16 @@
       </c>
       <c r="B278" s="12"/>
       <c r="C278" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>12</v>
@@ -13046,13 +13053,13 @@
       <c r="B279" s="12"/>
       <c r="C279" s="22"/>
       <c r="D279" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>12</v>
@@ -13075,13 +13082,13 @@
       <c r="B280" s="12"/>
       <c r="C280" s="22"/>
       <c r="D280" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>12</v>
@@ -13104,13 +13111,13 @@
       <c r="B281" s="12"/>
       <c r="C281" s="22"/>
       <c r="D281" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>12</v>
@@ -13133,13 +13140,13 @@
       <c r="B282" s="12"/>
       <c r="C282" s="22"/>
       <c r="D282" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>12</v>
@@ -13162,13 +13169,13 @@
       <c r="B283" s="12"/>
       <c r="C283" s="22"/>
       <c r="D283" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>12</v>
@@ -13191,13 +13198,13 @@
       <c r="B284" s="12"/>
       <c r="C284" s="22"/>
       <c r="D284" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>12</v>
@@ -13219,16 +13226,16 @@
       </c>
       <c r="B285" s="12"/>
       <c r="C285" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G285" s="3"/>
       <c r="H285" s="1"/>
@@ -13249,13 +13256,13 @@
       <c r="B286" s="12"/>
       <c r="C286" s="22"/>
       <c r="D286" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G286" s="3"/>
       <c r="H286" s="1"/>
@@ -13276,13 +13283,13 @@
       <c r="B287" s="12"/>
       <c r="C287" s="22"/>
       <c r="D287" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G287" s="3"/>
       <c r="H287" s="1"/>
@@ -13302,19 +13309,19 @@
       </c>
       <c r="B288" s="12"/>
       <c r="C288" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F288" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="G288" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F288" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="G288" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="H288" s="1"/>
       <c r="I288" s="25" t="s">
@@ -13334,16 +13341,16 @@
       <c r="B289" s="12"/>
       <c r="C289" s="22"/>
       <c r="D289" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H289" s="1"/>
       <c r="I289" s="25" t="s">
@@ -13363,16 +13370,16 @@
       <c r="B290" s="12"/>
       <c r="C290" s="22"/>
       <c r="D290" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H290" s="1"/>
       <c r="I290" s="25" t="s">
@@ -13387,7 +13394,7 @@
     </row>
     <row r="291" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="112" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C291" s="112"/>
       <c r="D291" s="112"/>
@@ -13475,7 +13482,7 @@
         <v>96</v>
       </c>
       <c r="G294" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I294" t="s">
         <v>2</v>
@@ -13484,7 +13491,7 @@
         <v>12</v>
       </c>
       <c r="K294" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -13536,7 +13543,7 @@
         <v>104</v>
       </c>
       <c r="G296" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I296" t="s">
         <v>2</v>
@@ -13554,19 +13561,19 @@
       </c>
       <c r="B297" s="35"/>
       <c r="C297" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G297" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H297" s="11"/>
       <c r="I297" s="1" t="s">
@@ -13586,19 +13593,19 @@
       </c>
       <c r="B298" s="35"/>
       <c r="C298" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G298" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H298" s="11"/>
       <c r="I298" s="1" t="s">
@@ -13662,18 +13669,18 @@
         <v>12</v>
       </c>
       <c r="K300" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L300" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="116" t="s">
-        <v>431</v>
-      </c>
-      <c r="C301" s="116"/>
-      <c r="D301" s="116"/>
+      <c r="B301" s="113" t="s">
+        <v>429</v>
+      </c>
+      <c r="C301" s="113"/>
+      <c r="D301" s="113"/>
       <c r="H301" s="86"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13758,7 +13765,7 @@
         <v>96</v>
       </c>
       <c r="G304" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I304" t="s">
         <v>2</v>
@@ -13767,7 +13774,7 @@
         <v>12</v>
       </c>
       <c r="K304" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -13819,7 +13826,7 @@
         <v>104</v>
       </c>
       <c r="G306" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I306" t="s">
         <v>2</v>
@@ -13837,19 +13844,19 @@
       </c>
       <c r="B307" s="35"/>
       <c r="C307" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D307" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F307" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G307" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H307" s="11"/>
       <c r="I307" s="1" t="s">
@@ -13913,7 +13920,7 @@
         <v>12</v>
       </c>
       <c r="K309" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L309" s="40">
         <v>0</v>
@@ -14689,62 +14696,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="21" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H293">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H293">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="17" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H302">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H302">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="9" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H303">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H303">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="5" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H21:H26 H60:H65 H57 H105:H108 H168:H183 H185:H197 H216:H217 H200:H201 H251:H252 H234 H237 H231 H254:H255 H260:H266 H278:H290 H268:H269" xr:uid="{F92D16DC-E946-4815-834C-49BC06D77CAA}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H292:H293 H302:H303" xr:uid="{F5A3E277-5BBE-47D5-9478-5EEF9EEE03EB}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H21:H26 H60:H65 H57 H105:H108 H168:H183 H185:H197 H216:H217 H200:H201 H251:H252 H234 H237 H231 H254:H255 H260:H266 H278:H290 H268:H269 H292:H293 H302:H303" xr:uid="{F92D16DC-E946-4815-834C-49BC06D77CAA}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F943AFD-8FDF-4926-BA28-227A1696E86C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7818E-DDF4-4638-BBE6-1727BB85086E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="427">
   <si>
     <t>Action</t>
   </si>
@@ -1302,6 +1302,12 @@
   </si>
   <si>
     <t>1003</t>
+  </si>
+  <si>
+    <t>Verify AccruedBeginningBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accrued Beginning Balance verified?Wrong  Accrued Beginning Balance</t>
   </si>
 </sst>
 </file>
@@ -1863,12 +1869,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,6 +1882,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4770,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051757C9-E9D7-4F28-A8DF-E175144BA412}">
   <dimension ref="A1:L306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4828,16 +4834,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -5552,11 +5558,11 @@
         <v>76</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>112</v>
+      <c r="C25" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>134</v>
@@ -5577,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>143</v>
+        <v>426</v>
       </c>
       <c r="L25" s="40">
         <v>1</v>
@@ -5947,16 +5953,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="115" t="s">
+      <c r="C39" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -7132,16 +7138,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="115" t="s">
+      <c r="C79" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
+      <c r="D79" s="120"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="120"/>
+      <c r="I79" s="120"/>
+      <c r="J79" s="120"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -8416,16 +8422,16 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
-      <c r="C124" s="115" t="s">
+      <c r="C124" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="115"/>
-      <c r="E124" s="115"/>
-      <c r="F124" s="115"/>
-      <c r="G124" s="115"/>
-      <c r="H124" s="115"/>
-      <c r="I124" s="115"/>
-      <c r="J124" s="115"/>
+      <c r="D124" s="120"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="120"/>
+      <c r="G124" s="120"/>
+      <c r="H124" s="120"/>
+      <c r="I124" s="120"/>
+      <c r="J124" s="120"/>
       <c r="K124" s="32"/>
       <c r="L124" s="33"/>
     </row>
@@ -9682,11 +9688,11 @@
       </c>
     </row>
     <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="116" t="s">
+      <c r="B167" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="C167" s="116"/>
-      <c r="D167" s="116"/>
+      <c r="C167" s="121"/>
+      <c r="D167" s="121"/>
       <c r="H167" s="78"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -10165,11 +10171,11 @@
       <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="117" t="s">
+      <c r="B184" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="C184" s="117"/>
-      <c r="D184" s="117"/>
+      <c r="C184" s="115"/>
+      <c r="D184" s="115"/>
       <c r="H184" s="86"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -10470,11 +10476,11 @@
       </c>
     </row>
     <row r="198" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="119" t="s">
+      <c r="B198" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="C198" s="119"/>
-      <c r="D198" s="119"/>
+      <c r="C198" s="117"/>
+      <c r="D198" s="117"/>
       <c r="H198" s="91"/>
     </row>
     <row r="199" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
@@ -11000,11 +11006,11 @@
       </c>
     </row>
     <row r="217" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="120" t="s">
+      <c r="B217" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="120"/>
-      <c r="D217" s="120"/>
+      <c r="C217" s="118"/>
+      <c r="D217" s="118"/>
       <c r="H217" s="78"/>
     </row>
     <row r="218" spans="1:12" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -11988,11 +11994,11 @@
       </c>
     </row>
     <row r="251" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="121" t="s">
+      <c r="B251" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="C251" s="121"/>
-      <c r="D251" s="121"/>
+      <c r="C251" s="119"/>
+      <c r="D251" s="119"/>
       <c r="H251" s="86"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -12342,11 +12348,11 @@
       </c>
     </row>
     <row r="264" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="121" t="s">
+      <c r="B264" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C264" s="121"/>
-      <c r="D264" s="121"/>
+      <c r="C264" s="119"/>
+      <c r="D264" s="119"/>
       <c r="H264" s="86"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -13008,11 +13014,11 @@
       </c>
     </row>
     <row r="288" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="117" t="s">
+      <c r="B288" s="115" t="s">
         <v>415</v>
       </c>
-      <c r="C288" s="117"/>
-      <c r="D288" s="117"/>
+      <c r="C288" s="115"/>
+      <c r="D288" s="115"/>
       <c r="H288" s="86"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -13291,11 +13297,11 @@
       </c>
     </row>
     <row r="298" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="118" t="s">
+      <c r="B298" s="116" t="s">
         <v>414</v>
       </c>
-      <c r="C298" s="118"/>
-      <c r="D298" s="118"/>
+      <c r="C298" s="116"/>
+      <c r="D298" s="116"/>
       <c r="H298" s="86"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13543,6 +13549,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="B167:D167"/>
     <mergeCell ref="B288:D288"/>
     <mergeCell ref="B298:D298"/>
     <mergeCell ref="B184:D184"/>
@@ -13550,11 +13561,6 @@
     <mergeCell ref="B217:D217"/>
     <mergeCell ref="B251:D251"/>
     <mergeCell ref="B264:D264"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="B167:D167"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="322" priority="357" operator="equal">

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7818E-DDF4-4638-BBE6-1727BB85086E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4230" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="467">
   <si>
     <t>Action</t>
   </si>
@@ -1308,12 +1307,132 @@
   </si>
   <si>
     <t xml:space="preserve"> Accrued Beginning Balance verified?Wrong  Accrued Beginning Balance</t>
+  </si>
+  <si>
+    <t>First Common Add Revision</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Store no of periods</t>
+  </si>
+  <si>
+    <t>UITable.StoreLastRowColumnValue</t>
+  </si>
+  <si>
+    <t># of Periods,noofPeriodsTrigger</t>
+  </si>
+  <si>
+    <t>Select Add Revision</t>
+  </si>
+  <si>
+    <t>Add Revision Button</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.btnAddRevision</t>
+  </si>
+  <si>
+    <t>Verify Add Revision page</t>
+  </si>
+  <si>
+    <t>Add Revision Page</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.dpSpace</t>
+  </si>
+  <si>
+    <t>Verify Revision Adjustment Period</t>
+  </si>
+  <si>
+    <t>Revision Adjustment Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UtilRevision.verifyRevisionAdjustmentPeriod</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.dateAdjPeriodDate</t>
+  </si>
+  <si>
+    <t>UICheckBox.VerifyCheckboxCheckedFalse</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.txtCalender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Common Part 2 Add Revision</t>
+  </si>
+  <si>
+    <t>UIBase.CustomEnabledTrue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Common Part 3 Add Revision</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Space,$RecurringPayment_spaceInfo_0</t>
+  </si>
+  <si>
+    <t>Verify Revision is *</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Space,$RecurringPayment_spaceInfo_1</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Revision Description, ,</t>
+  </si>
+  <si>
+    <t>Revision,$revision,FASB/IASB Classification,FASB - Operating</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Payment/Charge Type,$RecurringPayment_chargeName_0</t>
+  </si>
+  <si>
+    <t>Revision,$revision,FASB/IASB Start Date,$Space_startDate_0</t>
+  </si>
+  <si>
+    <t>Revision,$revision,FASB/IASB End Date,$Space_endDate_0</t>
+  </si>
+  <si>
+    <t>Verify # of Period is the correct number of months.</t>
+  </si>
+  <si>
+    <t>UtilRevision.VerifyNoOfPeriodsInRevision</t>
+  </si>
+  <si>
+    <t>Revision,$revision</t>
+  </si>
+  <si>
+    <t>Revision,$revision,$RecurringPayment_amount_0</t>
+  </si>
+  <si>
+    <t>Verify straight line amount</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Straight Line,$RecurringPayment_amount_0</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Last Posted Period, ,</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Revision Adj. Period, ,</t>
+  </si>
+  <si>
+    <t>Verify Revision Adj amount</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Rev Adj. Amount,$0.00</t>
+  </si>
+  <si>
+    <t>Common Part 3 Add Revision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1563,7 +1682,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1869,6 +1988,12 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,11 +2009,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1896,7 +2042,343 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="323">
+  <dxfs count="371">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4529,11 +5011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4766,6 +5248,57 @@
         <v>69</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="76">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="109">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="109">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4773,11 +5306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051757C9-E9D7-4F28-A8DF-E175144BA412}">
-  <dimension ref="A1:L306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="D345" workbookViewId="0">
+      <selection activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4834,16 +5367,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -5953,16 +6486,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -7138,16 +7671,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="120" t="s">
+      <c r="C79" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="120"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="120"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="115"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -8422,16 +8955,16 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
-      <c r="C124" s="120" t="s">
+      <c r="C124" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="120"/>
-      <c r="E124" s="120"/>
-      <c r="F124" s="120"/>
-      <c r="G124" s="120"/>
-      <c r="H124" s="120"/>
-      <c r="I124" s="120"/>
-      <c r="J124" s="120"/>
+      <c r="D124" s="115"/>
+      <c r="E124" s="115"/>
+      <c r="F124" s="115"/>
+      <c r="G124" s="115"/>
+      <c r="H124" s="115"/>
+      <c r="I124" s="115"/>
+      <c r="J124" s="115"/>
       <c r="K124" s="32"/>
       <c r="L124" s="33"/>
     </row>
@@ -9688,11 +10221,11 @@
       </c>
     </row>
     <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="121" t="s">
+      <c r="B167" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="C167" s="121"/>
-      <c r="D167" s="121"/>
+      <c r="C167" s="116"/>
+      <c r="D167" s="116"/>
       <c r="H167" s="78"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -10171,11 +10704,11 @@
       <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="115" t="s">
+      <c r="B184" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="C184" s="115"/>
-      <c r="D184" s="115"/>
+      <c r="C184" s="117"/>
+      <c r="D184" s="117"/>
       <c r="H184" s="86"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -10476,11 +11009,11 @@
       </c>
     </row>
     <row r="198" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="117" t="s">
+      <c r="B198" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="C198" s="117"/>
-      <c r="D198" s="117"/>
+      <c r="C198" s="119"/>
+      <c r="D198" s="119"/>
       <c r="H198" s="91"/>
     </row>
     <row r="199" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
@@ -11006,11 +11539,11 @@
       </c>
     </row>
     <row r="217" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="118" t="s">
+      <c r="B217" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="118"/>
-      <c r="D217" s="118"/>
+      <c r="C217" s="120"/>
+      <c r="D217" s="120"/>
       <c r="H217" s="78"/>
     </row>
     <row r="218" spans="1:12" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -11994,11 +12527,11 @@
       </c>
     </row>
     <row r="251" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="119" t="s">
+      <c r="B251" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="C251" s="119"/>
-      <c r="D251" s="119"/>
+      <c r="C251" s="121"/>
+      <c r="D251" s="121"/>
       <c r="H251" s="86"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -12348,11 +12881,11 @@
       </c>
     </row>
     <row r="264" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="119" t="s">
+      <c r="B264" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="C264" s="119"/>
-      <c r="D264" s="119"/>
+      <c r="C264" s="121"/>
+      <c r="D264" s="121"/>
       <c r="H264" s="86"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -13014,11 +13547,11 @@
       </c>
     </row>
     <row r="288" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="115" t="s">
+      <c r="B288" s="117" t="s">
         <v>415</v>
       </c>
-      <c r="C288" s="115"/>
-      <c r="D288" s="115"/>
+      <c r="C288" s="117"/>
+      <c r="D288" s="117"/>
       <c r="H288" s="86"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -13297,11 +13830,11 @@
       </c>
     </row>
     <row r="298" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="116" t="s">
+      <c r="B298" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="C298" s="116"/>
-      <c r="D298" s="116"/>
+      <c r="C298" s="118"/>
+      <c r="D298" s="118"/>
       <c r="H298" s="86"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13547,13 +14080,2023 @@
         <v>0</v>
       </c>
     </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="122"/>
+      <c r="B307" s="123" t="s">
+        <v>427</v>
+      </c>
+      <c r="C307" s="123"/>
+      <c r="D307" s="123"/>
+      <c r="E307" s="123"/>
+      <c r="F307" s="122"/>
+      <c r="G307" s="122"/>
+      <c r="H307" s="124"/>
+      <c r="I307" s="122"/>
+      <c r="J307" s="122"/>
+      <c r="K307" s="122"/>
+      <c r="L307" s="122"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B308" s="12">
+        <v>17</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F308" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G308" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H308" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I308" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J308" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K308" s="39"/>
+      <c r="L308" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B309" s="12">
+        <v>17</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D309" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E309" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F309" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="G309" s="3"/>
+      <c r="H309" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I309" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J309" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K309" s="39"/>
+      <c r="L309" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="125">
+        <v>113</v>
+      </c>
+      <c r="B310" s="12">
+        <v>18</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D310" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E310" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F310" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G310" s="3"/>
+      <c r="H310" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J310" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K310" s="39"/>
+      <c r="L310" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="125">
+        <v>113</v>
+      </c>
+      <c r="B311" s="93"/>
+      <c r="C311" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D311" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F311" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="G311" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="H311" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J311" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K311" s="126"/>
+      <c r="L311" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="125">
+        <v>113</v>
+      </c>
+      <c r="B312" s="93"/>
+      <c r="C312" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D312" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F312" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="G312" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="H312" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I312" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J312" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K312" s="126"/>
+      <c r="L312" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="125">
+        <v>113</v>
+      </c>
+      <c r="B313" s="99"/>
+      <c r="C313" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D313" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F313" s="101" t="s">
+        <v>437</v>
+      </c>
+      <c r="G313" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="H313" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I313" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J313" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K313" s="127"/>
+      <c r="L313" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="125">
+        <v>113</v>
+      </c>
+      <c r="B314" s="99"/>
+      <c r="C314" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="D314" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F314" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="G314" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="H314" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I314" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J314" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K314" s="127"/>
+      <c r="L314" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="125">
+        <v>113</v>
+      </c>
+      <c r="B315" s="99"/>
+      <c r="C315" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="D315" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F315" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="G315" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="H315" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I315" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J315" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K315" s="127"/>
+      <c r="L315" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="39"/>
+      <c r="B316" s="39"/>
+      <c r="C316" s="39"/>
+      <c r="D316" s="39"/>
+      <c r="E316" s="39"/>
+      <c r="F316" s="39"/>
+      <c r="G316" s="39"/>
+      <c r="H316" s="37"/>
+      <c r="I316" s="39"/>
+      <c r="J316" s="39"/>
+      <c r="K316" s="39"/>
+      <c r="L316" s="39"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="125">
+        <v>113</v>
+      </c>
+      <c r="B317" s="99"/>
+      <c r="C317" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="D317" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F317" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="G317" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="H317" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I317" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J317" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K317" s="127"/>
+      <c r="L317" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="125">
+        <v>113</v>
+      </c>
+      <c r="B318" s="93"/>
+      <c r="C318" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="D318" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E318" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F318" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G318" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="H318" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I318" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J318" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K318" s="126"/>
+      <c r="L318" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="125">
+        <v>113</v>
+      </c>
+      <c r="B319" s="93"/>
+      <c r="C319" s="94" t="s">
+        <v>438</v>
+      </c>
+      <c r="D319" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="E319" s="96" t="s">
+        <v>440</v>
+      </c>
+      <c r="F319" s="95" t="s">
+        <v>441</v>
+      </c>
+      <c r="G319" s="96"/>
+      <c r="H319" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I319" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="J319" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K319" s="126"/>
+      <c r="L319" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="125">
+        <v>113</v>
+      </c>
+      <c r="B320" s="93"/>
+      <c r="C320" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="D320" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="E320" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="F320" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="G320" s="96"/>
+      <c r="H320" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I320" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J320" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" s="126"/>
+      <c r="L320" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="125">
+        <v>113</v>
+      </c>
+      <c r="B321" s="99"/>
+      <c r="C321" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D321" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="E321" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F321" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G321" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="H321" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I321" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J321" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K321" s="127"/>
+      <c r="L321" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" s="125">
+        <v>113</v>
+      </c>
+      <c r="B322" s="99"/>
+      <c r="C322" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="D322" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E322" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F322" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="G322" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="H322" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I322" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J322" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K322" s="127"/>
+      <c r="L322" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" s="125">
+        <v>113</v>
+      </c>
+      <c r="B323" s="12"/>
+      <c r="C323" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D323" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F323" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H323" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I323" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J323" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K323" s="39"/>
+      <c r="L323" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="125"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="22"/>
+      <c r="D324" s="23"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="24"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="124"/>
+      <c r="I324" s="125"/>
+      <c r="J324" s="38"/>
+      <c r="K324" s="39"/>
+      <c r="L324" s="39"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="122"/>
+      <c r="B325" s="123" t="s">
+        <v>444</v>
+      </c>
+      <c r="C325" s="123"/>
+      <c r="D325" s="123"/>
+      <c r="E325" s="123"/>
+      <c r="F325" s="122"/>
+      <c r="G325" s="122"/>
+      <c r="H325" s="124"/>
+      <c r="I325" s="122"/>
+      <c r="J325" s="122"/>
+      <c r="K325" s="122"/>
+      <c r="L325" s="122"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="125">
+        <v>114</v>
+      </c>
+      <c r="B326" s="93"/>
+      <c r="C326" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="D326" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="E326" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="F326" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="G326" s="96"/>
+      <c r="H326" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I326" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="J326" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K326" s="126"/>
+      <c r="L326" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="125">
+        <v>114</v>
+      </c>
+      <c r="B327" s="99"/>
+      <c r="C327" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D327" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E327" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="F327" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G327" s="102"/>
+      <c r="H327" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I327" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J327" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K327" s="127"/>
+      <c r="L327" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="125">
+        <v>114</v>
+      </c>
+      <c r="B328" s="99"/>
+      <c r="C328" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D328" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F328" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G328" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="H328" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I328" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J328" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K328" s="127"/>
+      <c r="L328" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="125">
+        <v>114</v>
+      </c>
+      <c r="B329" s="99"/>
+      <c r="C329" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="D329" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E329" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="F329" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="G329" s="102"/>
+      <c r="H329" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I329" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J329" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K329" s="127"/>
+      <c r="L329" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="125">
+        <v>114</v>
+      </c>
+      <c r="B330" s="99"/>
+      <c r="C330" s="100" t="s">
+        <v>290</v>
+      </c>
+      <c r="D330" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F330" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="G330" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="H330" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I330" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J330" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K330" s="127"/>
+      <c r="L330" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="125">
+        <v>114</v>
+      </c>
+      <c r="B331" s="99"/>
+      <c r="C331" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="D331" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="E331" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="F331" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="G331" s="102"/>
+      <c r="H331" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I331" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J331" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K331" s="127"/>
+      <c r="L331" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="125">
+        <v>114</v>
+      </c>
+      <c r="B332" s="99"/>
+      <c r="C332" s="100" t="s">
+        <v>294</v>
+      </c>
+      <c r="D332" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F332" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="G332" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="H332" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I332" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J332" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K332" s="127"/>
+      <c r="L332" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="39"/>
+      <c r="B333" s="39"/>
+      <c r="C333" s="39"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="39"/>
+      <c r="F333" s="39"/>
+      <c r="G333" s="39"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="39"/>
+      <c r="J333" s="39"/>
+      <c r="K333" s="39"/>
+      <c r="L333" s="39"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="125">
+        <v>114</v>
+      </c>
+      <c r="B334" s="99"/>
+      <c r="C334" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="D334" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F334" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="G334" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="H334" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I334" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J334" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K334" s="127"/>
+      <c r="L334" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="125">
+        <v>114</v>
+      </c>
+      <c r="B335" s="99"/>
+      <c r="C335" s="100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D335" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="E335" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="F335" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="G335" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="H335" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I335" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="J335" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K335" s="104"/>
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="125">
+        <v>114</v>
+      </c>
+      <c r="B336" s="12"/>
+      <c r="C336" s="39"/>
+      <c r="D336" s="129" t="s">
+        <v>307</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F336" s="130" t="s">
+        <v>308</v>
+      </c>
+      <c r="G336" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H336" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I336" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J336" s="38"/>
+      <c r="K336" s="39"/>
+      <c r="L336" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="125">
+        <v>114</v>
+      </c>
+      <c r="B337" s="12"/>
+      <c r="C337" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D337" s="23"/>
+      <c r="E337" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F337" s="24"/>
+      <c r="G337" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H337" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I337" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J337" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K337" s="39"/>
+      <c r="L337" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338" s="125">
+        <v>114</v>
+      </c>
+      <c r="B338" s="12"/>
+      <c r="C338" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D338" s="129" t="s">
+        <v>314</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F338" s="130" t="s">
+        <v>315</v>
+      </c>
+      <c r="G338" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="H338" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I338" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J338" s="38"/>
+      <c r="K338" s="39"/>
+      <c r="L338" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" s="125">
+        <v>114</v>
+      </c>
+      <c r="B339" s="12"/>
+      <c r="C339" s="22"/>
+      <c r="D339" s="129" t="s">
+        <v>317</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F339" s="130" t="s">
+        <v>318</v>
+      </c>
+      <c r="G339" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="H339" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I339" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J339" s="38"/>
+      <c r="K339" s="39"/>
+      <c r="L339" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A340" s="125">
+        <v>114</v>
+      </c>
+      <c r="B340" s="12"/>
+      <c r="C340" s="39"/>
+      <c r="D340" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F340" s="24"/>
+      <c r="G340" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H340" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I340" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J340" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K340" s="39"/>
+      <c r="L340" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="125">
+        <v>114</v>
+      </c>
+      <c r="B341" s="12"/>
+      <c r="C341" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D341" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F341" s="130" t="s">
+        <v>323</v>
+      </c>
+      <c r="G341" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="H341" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I341" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J341" s="38"/>
+      <c r="K341" s="39"/>
+      <c r="L341" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A342" s="125">
+        <v>114</v>
+      </c>
+      <c r="B342" s="12"/>
+      <c r="C342" s="131"/>
+      <c r="D342" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F342" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="G342" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="H342" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I342" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J342" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K342" s="39"/>
+      <c r="L342" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="125">
+        <v>114</v>
+      </c>
+      <c r="B343" s="12"/>
+      <c r="C343" s="39"/>
+      <c r="D343" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F343" s="24"/>
+      <c r="G343" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H343" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I343" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J343" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K343" s="39"/>
+      <c r="L343" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A344" s="125">
+        <v>114</v>
+      </c>
+      <c r="B344" s="12">
+        <v>21</v>
+      </c>
+      <c r="C344" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D344" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F344" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="G344" s="40">
+        <v>0</v>
+      </c>
+      <c r="H344" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I344" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J344" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K344" s="39"/>
+      <c r="L344" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="125">
+        <v>114</v>
+      </c>
+      <c r="B345" s="12">
+        <v>21</v>
+      </c>
+      <c r="C345" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D345" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F345" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="G345" s="40">
+        <v>0</v>
+      </c>
+      <c r="H345" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I345" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J345" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K345" s="39"/>
+      <c r="L345" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A346" s="125">
+        <v>114</v>
+      </c>
+      <c r="B346" s="12">
+        <v>21</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D346" s="129" t="s">
+        <v>335</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F346" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="G346" s="40">
+        <v>0</v>
+      </c>
+      <c r="H346" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I346" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J346" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K346" s="39"/>
+      <c r="L346" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A347" s="125">
+        <v>114</v>
+      </c>
+      <c r="B347" s="12">
+        <v>21</v>
+      </c>
+      <c r="C347" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D347" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F347" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="G347" s="40">
+        <v>0</v>
+      </c>
+      <c r="H347" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I347" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J347" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K347" s="39"/>
+      <c r="L347" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="125">
+        <v>114</v>
+      </c>
+      <c r="B348" s="12">
+        <v>21</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D348" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F348" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="G348" s="40"/>
+      <c r="H348" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I348" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J348" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K348" s="39"/>
+      <c r="L348" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="125">
+        <v>114</v>
+      </c>
+      <c r="B349" s="12"/>
+      <c r="C349" s="131"/>
+      <c r="D349" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F349" s="130" t="s">
+        <v>342</v>
+      </c>
+      <c r="G349" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="H349" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I349" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J349" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K349" s="39"/>
+      <c r="L349" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="125">
+        <v>114</v>
+      </c>
+      <c r="B350" s="12"/>
+      <c r="C350" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="D350" s="129" t="s">
+        <v>344</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F350" s="130"/>
+      <c r="G350" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="H350" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I350" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J350" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K350" s="39"/>
+      <c r="L350" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351" s="125">
+        <v>114</v>
+      </c>
+      <c r="B351" s="35"/>
+      <c r="C351" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D351" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="E351" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F351" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G351" s="41"/>
+      <c r="H351" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I351" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J351" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K351" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="L351" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A352" s="125">
+        <v>114</v>
+      </c>
+      <c r="B352" s="35"/>
+      <c r="C352" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D352" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E352" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F352" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G352" s="41"/>
+      <c r="H352" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I352" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J352" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K352" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L352" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A353" s="125">
+        <v>114</v>
+      </c>
+      <c r="B353" s="35"/>
+      <c r="C353" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="D353" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E353" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F353" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="G353" s="41"/>
+      <c r="H353" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I353" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J353" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K353" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L353" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A354" s="125">
+        <v>114</v>
+      </c>
+      <c r="B354" s="35"/>
+      <c r="C354" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D354" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E354" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F354" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G354" s="41"/>
+      <c r="H354" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I354" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J354" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K354" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L354" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="125">
+        <v>114</v>
+      </c>
+      <c r="B355" s="35"/>
+      <c r="C355" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="D355" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="E355" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F355" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="G355" s="41"/>
+      <c r="H355" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I355" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J355" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K355" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="L355" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A356" s="39"/>
+      <c r="B356" s="39"/>
+      <c r="C356" s="39"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="39"/>
+      <c r="F356" s="39"/>
+      <c r="G356" s="39"/>
+      <c r="H356" s="37"/>
+      <c r="I356" s="39"/>
+      <c r="J356" s="39"/>
+      <c r="K356" s="39"/>
+      <c r="L356" s="39"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A357" s="122"/>
+      <c r="B357" s="123" t="s">
+        <v>446</v>
+      </c>
+      <c r="C357" s="123"/>
+      <c r="D357" s="123"/>
+      <c r="E357" s="123"/>
+      <c r="F357" s="122"/>
+      <c r="G357" s="122"/>
+      <c r="H357" s="124"/>
+      <c r="I357" s="122"/>
+      <c r="J357" s="122"/>
+      <c r="K357" s="122"/>
+      <c r="L357" s="122"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A358" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B358" s="12">
+        <v>16</v>
+      </c>
+      <c r="C358" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D358" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F358" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H358" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="I358" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J358" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K358" s="39"/>
+      <c r="L358" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B359" s="12">
+        <v>1</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D359" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F359" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H359" s="1"/>
+      <c r="I359" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J359" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K359" s="39"/>
+      <c r="L359" s="39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B360" s="12">
+        <v>2</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D360" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F360" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H360" s="1"/>
+      <c r="I360" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J360" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K360" s="39"/>
+      <c r="L360" s="39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B361" s="12">
+        <v>3</v>
+      </c>
+      <c r="C361" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D361" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H361" s="1"/>
+      <c r="I361" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J361" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K361" s="39"/>
+      <c r="L361" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B362" s="12">
+        <v>4</v>
+      </c>
+      <c r="C362" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D362" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F362" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H362" s="1"/>
+      <c r="I362" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J362" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K362" s="39"/>
+      <c r="L362" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A363" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B363" s="12">
+        <v>5</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D363" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F363" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H363" s="1"/>
+      <c r="I363" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J363" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K363" s="39"/>
+      <c r="L363" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B364" s="12">
+        <v>6</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D364" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F364" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H364" s="1"/>
+      <c r="I364" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J364" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K364" s="39"/>
+      <c r="L364" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365" s="38">
+        <v>115</v>
+      </c>
+      <c r="B365" s="12">
+        <v>8</v>
+      </c>
+      <c r="C365" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D365" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F365" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H365" s="1"/>
+      <c r="I365" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J365" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K365" s="39"/>
+      <c r="L365" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B366" s="12">
+        <v>0</v>
+      </c>
+      <c r="C366" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D366" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F366" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H366" s="1"/>
+      <c r="I366" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J366" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K366" s="39"/>
+      <c r="L366" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B367" s="12">
+        <v>6</v>
+      </c>
+      <c r="C367" s="132" t="s">
+        <v>460</v>
+      </c>
+      <c r="D367" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H367" s="1"/>
+      <c r="I367" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J367" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K367" s="39"/>
+      <c r="L367" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A368" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B368" s="12">
+        <v>9</v>
+      </c>
+      <c r="C368" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D368" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F368" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H368" s="1"/>
+      <c r="I368" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J368" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K368" s="39"/>
+      <c r="L368" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A369" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B369" s="12">
+        <v>10</v>
+      </c>
+      <c r="C369" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D369" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F369" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H369" s="1"/>
+      <c r="I369" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J369" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K369" s="39"/>
+      <c r="L369" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A370" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B370" s="12">
+        <v>10</v>
+      </c>
+      <c r="C370" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D370" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F370" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H370" s="1"/>
+      <c r="I370" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J370" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K370" s="39"/>
+      <c r="L370" s="39">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="B167:D167"/>
+  <mergeCells count="15">
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B357:E357"/>
     <mergeCell ref="B288:D288"/>
     <mergeCell ref="B298:D298"/>
     <mergeCell ref="B184:D184"/>
@@ -13561,711 +16104,875 @@
     <mergeCell ref="B217:D217"/>
     <mergeCell ref="B251:D251"/>
     <mergeCell ref="B264:D264"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="B167:D167"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="322" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="405" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="321" priority="355" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="403" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="404" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="319" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="341" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="318" priority="291" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="339" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="340" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="316" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="337" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="315" priority="287" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="335" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="336" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="313" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="333" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="312" priority="283" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="331" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="332" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="310" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="329" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="309" priority="279" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="327" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="328" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H65">
-    <cfRule type="cellIs" dxfId="307" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="365" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H65">
-    <cfRule type="cellIs" dxfId="306" priority="315" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="363" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="364" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="304" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="324" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="303" priority="274" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="322" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="323" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="301" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="305" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="300" priority="255" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="303" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="304" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="cellIs" dxfId="298" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="301" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="cellIs" dxfId="297" priority="251" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="299" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="300" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" dxfId="295" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="297" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" dxfId="294" priority="247" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="295" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="296" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="292" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="293" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="291" priority="243" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="291" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="292" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="289" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="264" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="288" priority="214" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="262" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="263" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="286" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="260" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="285" priority="210" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="258" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="259" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="283" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="256" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="282" priority="206" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="254" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="255" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="280" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="279" priority="202" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="250" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="251" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H181">
-    <cfRule type="cellIs" dxfId="277" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="237" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H181">
-    <cfRule type="cellIs" dxfId="276" priority="187" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="235" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="236" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:H183">
-    <cfRule type="cellIs" dxfId="274" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:H183">
-    <cfRule type="cellIs" dxfId="273" priority="183" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="231" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="271" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="229" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="270" priority="179" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="227" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="228" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185">
-    <cfRule type="cellIs" dxfId="268" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185">
-    <cfRule type="cellIs" dxfId="267" priority="175" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="223" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188">
-    <cfRule type="cellIs" dxfId="265" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188">
-    <cfRule type="cellIs" dxfId="264" priority="171" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="219" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="262" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="261" priority="159" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="207" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="259" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="258" priority="155" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="203" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193">
-    <cfRule type="cellIs" dxfId="256" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193">
-    <cfRule type="cellIs" dxfId="255" priority="151" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="199" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="253" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="252" priority="147" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="195" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190">
-    <cfRule type="cellIs" dxfId="250" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190">
-    <cfRule type="cellIs" dxfId="249" priority="143" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="191" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="247" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="246" priority="139" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="187" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214">
-    <cfRule type="cellIs" dxfId="244" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214">
-    <cfRule type="cellIs" dxfId="243" priority="131" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="179" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H215">
-    <cfRule type="cellIs" dxfId="241" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H215">
-    <cfRule type="cellIs" dxfId="240" priority="127" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="175" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="238" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="237" priority="123" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="171" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201">
-    <cfRule type="cellIs" dxfId="235" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201">
-    <cfRule type="cellIs" dxfId="234" priority="119" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="167" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H250">
-    <cfRule type="cellIs" dxfId="232" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H250">
-    <cfRule type="cellIs" dxfId="231" priority="115" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="163" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H249">
-    <cfRule type="cellIs" dxfId="229" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H249">
-    <cfRule type="cellIs" dxfId="228" priority="111" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="159" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="226" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="225" priority="101" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="149" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H235">
-    <cfRule type="cellIs" dxfId="223" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H235">
-    <cfRule type="cellIs" dxfId="222" priority="97" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="145" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="220" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="219" priority="93" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="141" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H252">
-    <cfRule type="cellIs" dxfId="217" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H252">
-    <cfRule type="cellIs" dxfId="216" priority="89" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="137" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H257:H261">
-    <cfRule type="cellIs" dxfId="214" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H257:H261">
-    <cfRule type="cellIs" dxfId="213" priority="85" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="133" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263">
-    <cfRule type="cellIs" dxfId="211" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263">
-    <cfRule type="cellIs" dxfId="210" priority="77" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="125" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="cellIs" dxfId="208" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="cellIs" dxfId="207" priority="73" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="121" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H266">
-    <cfRule type="cellIs" dxfId="205" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H266">
-    <cfRule type="cellIs" dxfId="204" priority="69" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="117" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275:H279">
-    <cfRule type="cellIs" dxfId="202" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275:H279">
-    <cfRule type="cellIs" dxfId="201" priority="65" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="113" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="199" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="198" priority="61" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="109" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="196" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="195" priority="57" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="105" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="193" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="192" priority="53" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="101" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="190" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="189" priority="49" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="97" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="187" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="186" priority="45" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="93" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="184" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="183" priority="41" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="89" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="181" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="180" priority="37" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="85" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="178" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="177" priority="33" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="81" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="175" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="174" priority="29" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="77" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="172" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="171" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="73" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="169" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="168" priority="21" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="69" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299">
-    <cfRule type="cellIs" dxfId="166" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299">
-    <cfRule type="cellIs" dxfId="165" priority="13" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="163" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="57" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H185:H193 H60:H65 H57 H105:H108 H168:H183 H214:H215 H200:H201 H249:H250 H232 H235 H229 H257:H263 H275:H287 H265:H266 H289:H290 H299:H300 H252 H26" xr:uid="{F92D16DC-E946-4815-834C-49BC06D77CAA}">
+  <conditionalFormatting sqref="H359">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H359">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H360">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H360">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H361">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H361">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H362">
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H362">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H363">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H363">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H364">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H364">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H366">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H366">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H367">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H367">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H368">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H368">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H369">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H369">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H370">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H370">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H365">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H365">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H185:H193 H60:H65 H57 H105:H108 H168:H183 H214:H215 H200:H201 H249:H250 H232 H235 H229 H257:H263 H275:H287 H265:H266 H289:H290 H299:H300 H252 H26">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H359:H370">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -14275,8 +16982,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="504" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="552" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14288,8 +16995,8 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="354" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="402" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14301,8 +17008,8 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="353" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="401" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14314,8 +17021,8 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="352" operator="equal" id="{7B3EDBCF-3180-499C-AB93-CE115CDE027D}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="400" operator="equal" id="{7B3EDBCF-3180-499C-AB93-CE115CDE027D}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14327,8 +17034,8 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="351" operator="equal" id="{B6A2E261-AE66-4901-A91C-AF97DAE3C150}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{B6A2E261-AE66-4901-A91C-AF97DAE3C150}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14340,8 +17047,8 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="350" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="398" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14353,8 +17060,8 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="349" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="397" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14366,8 +17073,8 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="348" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="396" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14379,8 +17086,8 @@
           <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="347" operator="equal" id="{9651D644-7698-44E9-88B8-A8BCE54229A6}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="395" operator="equal" id="{9651D644-7698-44E9-88B8-A8BCE54229A6}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14392,8 +17099,8 @@
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="346" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="394" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14405,8 +17112,8 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="345" operator="equal" id="{E7D21979-2F5E-4798-8ECA-EB79645DDC0E}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="393" operator="equal" id="{E7D21979-2F5E-4798-8ECA-EB79645DDC0E}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14418,8 +17125,8 @@
           <xm:sqref>H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="344" operator="equal" id="{3C8BA078-2EA9-452F-8A15-2781AED4C03B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="392" operator="equal" id="{3C8BA078-2EA9-452F-8A15-2781AED4C03B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14431,8 +17138,8 @@
           <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="343" operator="equal" id="{F4D5B11F-D694-4B95-B2E3-5B7C0B6C5DBC}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="391" operator="equal" id="{F4D5B11F-D694-4B95-B2E3-5B7C0B6C5DBC}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14444,8 +17151,8 @@
           <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="342" operator="equal" id="{88DD819C-DC4D-4F39-AAA0-671522C986BE}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="390" operator="equal" id="{88DD819C-DC4D-4F39-AAA0-671522C986BE}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14457,8 +17164,8 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="341" operator="equal" id="{F766F3BE-C3A2-4CC2-9D5D-54170773D097}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="389" operator="equal" id="{F766F3BE-C3A2-4CC2-9D5D-54170773D097}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14470,8 +17177,8 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="340" operator="equal" id="{C74B1717-04DA-4D85-9120-F11959714901}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="388" operator="equal" id="{C74B1717-04DA-4D85-9120-F11959714901}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14483,8 +17190,8 @@
           <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="339" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="387" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14496,8 +17203,8 @@
           <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="338" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="386" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14509,8 +17216,8 @@
           <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="321" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="369" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14522,8 +17229,8 @@
           <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="320" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="368" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14535,8 +17242,8 @@
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="319" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="367" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14548,8 +17255,8 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="318" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="366" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14561,8 +17268,8 @@
           <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="290" operator="equal" id="{95B203CB-931D-4307-BBF2-D270FAA153A2}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="338" operator="equal" id="{95B203CB-931D-4307-BBF2-D270FAA153A2}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14574,8 +17281,8 @@
           <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="286" operator="equal" id="{7ADBFAB0-3574-44DF-861F-50CDE0AB938D}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="334" operator="equal" id="{7ADBFAB0-3574-44DF-861F-50CDE0AB938D}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14587,8 +17294,8 @@
           <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="282" operator="equal" id="{543ACA0C-9877-4A80-998B-01FECDE46C3A}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="330" operator="equal" id="{543ACA0C-9877-4A80-998B-01FECDE46C3A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14600,8 +17307,8 @@
           <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="278" operator="equal" id="{F811B527-E5E0-46B8-8EE7-5A07886E19B6}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="326" operator="equal" id="{F811B527-E5E0-46B8-8EE7-5A07886E19B6}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14613,8 +17320,8 @@
           <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="314" operator="equal" id="{759708D2-56A3-4E99-B979-F65EADC0982B}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="362" operator="equal" id="{759708D2-56A3-4E99-B979-F65EADC0982B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14626,8 +17333,8 @@
           <xm:sqref>H60 H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="313" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="361" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14639,8 +17346,8 @@
           <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="312" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="360" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14652,8 +17359,8 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="308" operator="equal" id="{D3DC635C-516A-476F-BE7F-2E9120B2AF5C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="356" operator="equal" id="{D3DC635C-516A-476F-BE7F-2E9120B2AF5C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14665,8 +17372,8 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="311" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="359" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14678,8 +17385,8 @@
           <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="307" operator="equal" id="{F925D297-E147-454C-88CE-672CA62AAC74}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="355" operator="equal" id="{F925D297-E147-454C-88CE-672CA62AAC74}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14691,8 +17398,8 @@
           <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="310" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="358" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14704,8 +17411,8 @@
           <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="303" operator="equal" id="{DB7C1304-1148-499E-A53E-F4CBFA55669E}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="351" operator="equal" id="{DB7C1304-1148-499E-A53E-F4CBFA55669E}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14717,8 +17424,8 @@
           <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="309" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="357" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14730,8 +17437,8 @@
           <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="305" operator="equal" id="{0F060ECE-3C3C-4E74-9F32-71CECC956411}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="353" operator="equal" id="{0F060ECE-3C3C-4E74-9F32-71CECC956411}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14743,8 +17450,8 @@
           <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="304" operator="equal" id="{2E0B05EF-2E66-4CFE-BA5B-A399958ACE09}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="352" operator="equal" id="{2E0B05EF-2E66-4CFE-BA5B-A399958ACE09}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14756,8 +17463,8 @@
           <xm:sqref>H70:H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="306" operator="equal" id="{F75462CF-AF70-4411-9A1A-CAF10D2BD619}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="354" operator="equal" id="{F75462CF-AF70-4411-9A1A-CAF10D2BD619}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14769,8 +17476,8 @@
           <xm:sqref>H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="301" operator="equal" id="{4D26B22A-86B6-4E3D-A45F-92354E2D4688}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="349" operator="equal" id="{4D26B22A-86B6-4E3D-A45F-92354E2D4688}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14782,8 +17489,8 @@
           <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="300" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="348" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14795,8 +17502,8 @@
           <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="299" operator="equal" id="{30AABA22-471D-458D-ABF9-2B93FC520620}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="347" operator="equal" id="{30AABA22-471D-458D-ABF9-2B93FC520620}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14808,8 +17515,8 @@
           <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="295" operator="equal" id="{AF9E87D2-6962-4690-8DD2-59FC2282AFCF}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="343" operator="equal" id="{AF9E87D2-6962-4690-8DD2-59FC2282AFCF}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14821,8 +17528,8 @@
           <xm:sqref>H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="302" operator="equal" id="{81339615-94F2-429D-AA7D-78CDCB08A79C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="350" operator="equal" id="{81339615-94F2-429D-AA7D-78CDCB08A79C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14834,8 +17541,8 @@
           <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="297" operator="equal" id="{A5A77643-22C8-4EB3-B136-46A854749992}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="345" operator="equal" id="{A5A77643-22C8-4EB3-B136-46A854749992}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14847,8 +17554,8 @@
           <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="296" operator="equal" id="{1B64392E-DC80-4DC6-951A-CF83FB311B37}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="344" operator="equal" id="{1B64392E-DC80-4DC6-951A-CF83FB311B37}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14860,8 +17567,8 @@
           <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="298" operator="equal" id="{32996BEF-D55D-484A-8D44-C23B076E4BF1}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="346" operator="equal" id="{32996BEF-D55D-484A-8D44-C23B076E4BF1}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14873,8 +17580,8 @@
           <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="294" operator="equal" id="{87BD8FAD-E776-4575-8CD5-A8D6362768B0}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="342" operator="equal" id="{87BD8FAD-E776-4575-8CD5-A8D6362768B0}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14886,8 +17593,8 @@
           <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="277" operator="equal" id="{66524CED-D010-4F43-A0C0-BEDDE2B7DB66}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="325" operator="equal" id="{66524CED-D010-4F43-A0C0-BEDDE2B7DB66}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14899,8 +17606,8 @@
           <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="273" operator="equal" id="{27F624A9-D1BB-4ED3-BE3B-7619BF6061A3}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="321" operator="equal" id="{27F624A9-D1BB-4ED3-BE3B-7619BF6061A3}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14912,8 +17619,8 @@
           <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="269" operator="equal" id="{B990D286-7B6C-4BDE-A166-2939CC7FF873}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="317" operator="equal" id="{B990D286-7B6C-4BDE-A166-2939CC7FF873}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14925,8 +17632,8 @@
           <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{DB8ABF8A-E987-4C6E-B27A-4C2945CBB1B3}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="319" operator="equal" id="{DB8ABF8A-E987-4C6E-B27A-4C2945CBB1B3}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14938,8 +17645,8 @@
           <xm:sqref>H87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{502058AB-1F1B-4210-B0BC-59A8A99C2EDA}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="318" operator="equal" id="{502058AB-1F1B-4210-B0BC-59A8A99C2EDA}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14951,8 +17658,8 @@
           <xm:sqref>H83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="272" operator="equal" id="{7E1C713B-3E0F-4B15-802B-417850DDF44C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="320" operator="equal" id="{7E1C713B-3E0F-4B15-802B-417850DDF44C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14964,8 +17671,8 @@
           <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{3247083F-D106-456A-8951-FCE9B0667E01}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="315" operator="equal" id="{3247083F-D106-456A-8951-FCE9B0667E01}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14977,8 +17684,8 @@
           <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="263" operator="equal" id="{08DF4AD1-C22B-4CEF-9EFE-AA94934F1E64}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="311" operator="equal" id="{08DF4AD1-C22B-4CEF-9EFE-AA94934F1E64}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14990,8 +17697,8 @@
           <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="268" operator="equal" id="{5F1F888D-4E6F-4DFE-B5EE-938050551834}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="316" operator="equal" id="{5F1F888D-4E6F-4DFE-B5EE-938050551834}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15003,8 +17710,8 @@
           <xm:sqref>H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="262" operator="equal" id="{68E30C5B-D736-4A67-B587-F71A7E1BF122}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="310" operator="equal" id="{68E30C5B-D736-4A67-B587-F71A7E1BF122}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15016,8 +17723,8 @@
           <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="261" operator="equal" id="{EF153EFE-B2C5-41B6-8EF2-8E531B43C629}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="309" operator="equal" id="{EF153EFE-B2C5-41B6-8EF2-8E531B43C629}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15029,8 +17736,8 @@
           <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="260" operator="equal" id="{29ED5D2B-4B8C-413D-B184-3A7C0EB2608C}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="308" operator="equal" id="{29ED5D2B-4B8C-413D-B184-3A7C0EB2608C}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15042,8 +17749,8 @@
           <xm:sqref>H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{9C2532D7-4CF2-43EF-9F9C-A019C4141D86}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="307" operator="equal" id="{9C2532D7-4CF2-43EF-9F9C-A019C4141D86}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15055,8 +17762,8 @@
           <xm:sqref>H100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="266" operator="equal" id="{3FDE94BB-1A4F-42AF-807B-2686DC39AA91}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="314" operator="equal" id="{3FDE94BB-1A4F-42AF-807B-2686DC39AA91}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15068,8 +17775,8 @@
           <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="265" operator="equal" id="{131C4708-F366-44DF-9551-40154407E104}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="313" operator="equal" id="{131C4708-F366-44DF-9551-40154407E104}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15081,8 +17788,8 @@
           <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="264" operator="equal" id="{8C8D20E7-86A3-444A-A234-6609DD4E737E}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="312" operator="equal" id="{8C8D20E7-86A3-444A-A234-6609DD4E737E}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15094,8 +17801,8 @@
           <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="241" operator="equal" id="{F05E8388-C71C-445A-8D17-F63C511E9B88}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="289" operator="equal" id="{F05E8388-C71C-445A-8D17-F63C511E9B88}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15107,8 +17814,8 @@
           <xm:sqref>H111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{EC3723C3-389D-46B9-8C33-CCBBCE9675E6}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="288" operator="equal" id="{EC3723C3-389D-46B9-8C33-CCBBCE9675E6}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15120,8 +17827,8 @@
           <xm:sqref>H113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{F2FFE4F8-A609-42AC-AE4B-36FE20184D63}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="287" operator="equal" id="{F2FFE4F8-A609-42AC-AE4B-36FE20184D63}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15133,8 +17840,8 @@
           <xm:sqref>H114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{37A8CCA4-A96C-42F8-9E90-78167B64E498}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="286" operator="equal" id="{37A8CCA4-A96C-42F8-9E90-78167B64E498}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15146,8 +17853,8 @@
           <xm:sqref>H117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{0113D7FC-E5F4-4667-B39D-22D6E3404251}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="285" operator="equal" id="{0113D7FC-E5F4-4667-B39D-22D6E3404251}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15159,8 +17866,8 @@
           <xm:sqref>H118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{BA59CA1D-B130-40C9-B262-8A6E978C85D9}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="283" operator="equal" id="{BA59CA1D-B130-40C9-B262-8A6E978C85D9}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15172,8 +17879,8 @@
           <xm:sqref>H120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="254" operator="equal" id="{4E71FAB7-3859-46F4-9540-C553DE6D6027}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="302" operator="equal" id="{4E71FAB7-3859-46F4-9540-C553DE6D6027}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15185,8 +17892,8 @@
           <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{9C5C8CC7-7DDC-4053-AE21-587D7F432970}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="298" operator="equal" id="{9C5C8CC7-7DDC-4053-AE21-587D7F432970}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15198,8 +17905,8 @@
           <xm:sqref>H106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="258" operator="equal" id="{4FE1B072-07AD-4907-ABEC-3D3628A4199B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="306" operator="equal" id="{4FE1B072-07AD-4907-ABEC-3D3628A4199B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15211,8 +17918,8 @@
           <xm:sqref>H101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{BE01577D-8F55-4F71-A8F7-3DAA0329833F}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="294" operator="equal" id="{BE01577D-8F55-4F71-A8F7-3DAA0329833F}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15224,8 +17931,8 @@
           <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="242" operator="equal" id="{04170D2A-61EC-4831-8AAD-9CA77AA39046}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="290" operator="equal" id="{04170D2A-61EC-4831-8AAD-9CA77AA39046}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15237,8 +17944,8 @@
           <xm:sqref>H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{A06A5CAD-5612-4DD9-8FF5-F284C3CFD917}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="284" operator="equal" id="{A06A5CAD-5612-4DD9-8FF5-F284C3CFD917}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15250,8 +17957,8 @@
           <xm:sqref>H119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{9BA9696E-FBBD-4271-9185-CB4170073696}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="282" operator="equal" id="{9BA9696E-FBBD-4271-9185-CB4170073696}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15263,8 +17970,8 @@
           <xm:sqref>H121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{D5653E61-3D7A-4DF5-BA5F-26AF334E9B67}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="281" operator="equal" id="{D5653E61-3D7A-4DF5-BA5F-26AF334E9B67}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15276,8 +17983,8 @@
           <xm:sqref>H116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="232" operator="equal" id="{6B829E21-478D-4990-80B4-42618E78614A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="280" operator="equal" id="{6B829E21-478D-4990-80B4-42618E78614A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15289,8 +17996,8 @@
           <xm:sqref>H115:H116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{D377B39B-CEC1-4F04-95F2-D898C90DEF82}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="276" operator="equal" id="{D377B39B-CEC1-4F04-95F2-D898C90DEF82}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15302,8 +18009,8 @@
           <xm:sqref>H129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{A27253B0-B881-48C0-86F2-167C5A3FB6C4}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="278" operator="equal" id="{A27253B0-B881-48C0-86F2-167C5A3FB6C4}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15315,8 +18022,8 @@
           <xm:sqref>H131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="277" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15328,8 +18035,8 @@
           <xm:sqref>H127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{834F9917-A8A1-4F99-822E-3D31624B4338}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="279" operator="equal" id="{834F9917-A8A1-4F99-822E-3D31624B4338}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15341,8 +18048,8 @@
           <xm:sqref>H130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{A064F738-93CA-4945-8851-79A92DB74D9B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="274" operator="equal" id="{A064F738-93CA-4945-8851-79A92DB74D9B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15354,8 +18061,8 @@
           <xm:sqref>H134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{8408F83D-D540-4853-8C4F-1BDD31491A57}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{8408F83D-D540-4853-8C4F-1BDD31491A57}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15367,8 +18074,8 @@
           <xm:sqref>H139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{E0FA73A1-C505-413B-BCFF-7763F1E72A51}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="275" operator="equal" id="{E0FA73A1-C505-413B-BCFF-7763F1E72A51}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15380,8 +18087,8 @@
           <xm:sqref>H132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="221" operator="equal" id="{D69ABFB5-6DA7-49AB-8DD4-2B1B76ED4736}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="269" operator="equal" id="{D69ABFB5-6DA7-49AB-8DD4-2B1B76ED4736}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15393,8 +18100,8 @@
           <xm:sqref>H140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="220" operator="equal" id="{21A9E785-091D-4EBA-A8AD-13AC8E32F91B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="268" operator="equal" id="{21A9E785-091D-4EBA-A8AD-13AC8E32F91B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15406,8 +18113,8 @@
           <xm:sqref>H142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{1C4FBC2D-F9F2-45B7-9545-1A41CEF40162}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{1C4FBC2D-F9F2-45B7-9545-1A41CEF40162}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15419,8 +18126,8 @@
           <xm:sqref>H143</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{0AD15D4B-B823-4308-8C60-1C53AD029A46}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="266" operator="equal" id="{0AD15D4B-B823-4308-8C60-1C53AD029A46}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15432,8 +18139,8 @@
           <xm:sqref>H144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{A4F0BE62-38BF-496E-BB8E-FD24C29EC175}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="273" operator="equal" id="{A4F0BE62-38BF-496E-BB8E-FD24C29EC175}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15445,8 +18152,8 @@
           <xm:sqref>H136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{155AAD3D-60AC-4918-A736-DDFEA16C96D5}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="272" operator="equal" id="{155AAD3D-60AC-4918-A736-DDFEA16C96D5}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15458,8 +18165,8 @@
           <xm:sqref>H137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{CA50AB1C-057F-4D40-87AE-0D6BAB9A3B78}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{CA50AB1C-057F-4D40-87AE-0D6BAB9A3B78}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15471,8 +18178,8 @@
           <xm:sqref>H138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{C85DD401-0769-4E66-AC36-D27E2635CD7A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{C85DD401-0769-4E66-AC36-D27E2635CD7A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15484,8 +18191,8 @@
           <xm:sqref>H155</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{C8A565BD-04CD-4DF1-92EF-7AA72D736625}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{C8A565BD-04CD-4DF1-92EF-7AA72D736625}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15497,8 +18204,8 @@
           <xm:sqref>H157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{16289366-C1D8-45FF-9ECC-FF5CD05BE9DE}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{16289366-C1D8-45FF-9ECC-FF5CD05BE9DE}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15510,8 +18217,8 @@
           <xm:sqref>H158</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="197" operator="equal" id="{62AEDA56-010A-416A-8708-B60F56CD8708}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{62AEDA56-010A-416A-8708-B60F56CD8708}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15523,8 +18230,8 @@
           <xm:sqref>H159</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{7AE9C757-794A-45C8-BBD5-D4F0BD198186}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{7AE9C757-794A-45C8-BBD5-D4F0BD198186}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15536,8 +18243,8 @@
           <xm:sqref>H160</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{E68D9A04-EDDD-4250-A6BD-A1556E056ECB}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="261" operator="equal" id="{E68D9A04-EDDD-4250-A6BD-A1556E056ECB}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15549,8 +18256,8 @@
           <xm:sqref>H149</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="209" operator="equal" id="{5BCEE587-73C2-4FE8-89FB-FE7568D3E012}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="257" operator="equal" id="{5BCEE587-73C2-4FE8-89FB-FE7568D3E012}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15562,8 +18269,8 @@
           <xm:sqref>H150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{9A22DFF6-6F63-4B3B-8EE6-13C51591B8AB}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="265" operator="equal" id="{9A22DFF6-6F63-4B3B-8EE6-13C51591B8AB}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15575,8 +18282,8 @@
           <xm:sqref>H145</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{79C824D7-0BED-4BF0-8031-DBF0D0B614E0}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="253" operator="equal" id="{79C824D7-0BED-4BF0-8031-DBF0D0B614E0}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15588,8 +18295,8 @@
           <xm:sqref>H151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{53B13078-1CCB-4028-B7A1-001E22D9D2F7}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{53B13078-1CCB-4028-B7A1-001E22D9D2F7}">
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15601,8 +18308,8 @@
           <xm:sqref>H152</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{09CA1D2A-5F44-4815-BA21-C556C0BCA291}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="243" operator="equal" id="{09CA1D2A-5F44-4815-BA21-C556C0BCA291}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15614,8 +18321,8 @@
           <xm:sqref>H161:H162</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{D3EA0C06-7B50-4691-9177-571690327B1A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="242" operator="equal" id="{D3EA0C06-7B50-4691-9177-571690327B1A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15627,8 +18334,8 @@
           <xm:sqref>H164</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{58494411-46EA-4D29-95E8-C0B46372EE1D}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="241" operator="equal" id="{58494411-46EA-4D29-95E8-C0B46372EE1D}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15640,8 +18347,8 @@
           <xm:sqref>H165</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{A01DB15D-8BE5-4DF9-A8AF-2B84B7B421B5}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{A01DB15D-8BE5-4DF9-A8AF-2B84B7B421B5}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15653,8 +18360,8 @@
           <xm:sqref>H163</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{AC36DB1B-67BE-4F87-B14F-DFBA47D510A6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{AC36DB1B-67BE-4F87-B14F-DFBA47D510A6}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15666,8 +18373,8 @@
           <xm:sqref>H168:H181</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15679,8 +18386,8 @@
           <xm:sqref>H182:H183</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{F74FD476-2A12-4127-B3BB-765B41AA5E4C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{F74FD476-2A12-4127-B3BB-765B41AA5E4C}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15692,8 +18399,8 @@
           <xm:sqref>H187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{67A281F5-9870-4712-B783-41DA9AC37722}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{67A281F5-9870-4712-B783-41DA9AC37722}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15705,8 +18412,8 @@
           <xm:sqref>H185</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{8AB8E9F4-37A0-4560-8752-9C25E43F7DDC}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{8AB8E9F4-37A0-4560-8752-9C25E43F7DDC}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15718,8 +18425,8 @@
           <xm:sqref>H188</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{D89A27E5-3E08-45A8-BC3B-D1E42A94EE2B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{D89A27E5-3E08-45A8-BC3B-D1E42A94EE2B}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15731,8 +18438,8 @@
           <xm:sqref>H186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{914406C8-372B-4516-A779-B5ED2B1236A2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{914406C8-372B-4516-A779-B5ED2B1236A2}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15744,8 +18451,8 @@
           <xm:sqref>H192</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{2DE790F5-8687-4BE1-8477-6CB91FAB69B4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{2DE790F5-8687-4BE1-8477-6CB91FAB69B4}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15757,8 +18464,8 @@
           <xm:sqref>H193</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{AB5F1695-7235-4312-9252-8E18E0877E9D}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{AB5F1695-7235-4312-9252-8E18E0877E9D}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15770,8 +18477,8 @@
           <xm:sqref>H189</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="142" operator="equal" id="{27E2AB3A-0D99-4E1F-B260-77A83B4F8CC2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{27E2AB3A-0D99-4E1F-B260-77A83B4F8CC2}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15783,8 +18490,8 @@
           <xm:sqref>H190</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{0C820A40-336B-410F-B67B-1BCDF85F573C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{0C820A40-336B-410F-B67B-1BCDF85F573C}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15796,8 +18503,8 @@
           <xm:sqref>H191</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{BB7D1CA3-2161-4DF0-A0F6-791A5F771643}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{BB7D1CA3-2161-4DF0-A0F6-791A5F771643}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15809,8 +18516,8 @@
           <xm:sqref>H214</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{BB98DCF3-FA93-41D2-93E4-7DEA1ECFDFC8}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{BB98DCF3-FA93-41D2-93E4-7DEA1ECFDFC8}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15822,8 +18529,8 @@
           <xm:sqref>H215</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{B3D8D607-3DBE-48B5-AE89-9A7BFB746C4A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{B3D8D607-3DBE-48B5-AE89-9A7BFB746C4A}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15835,8 +18542,8 @@
           <xm:sqref>H200</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{7F65A749-405A-4E9B-964B-F7E1EE4BDB9F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{7F65A749-405A-4E9B-964B-F7E1EE4BDB9F}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15848,8 +18555,8 @@
           <xm:sqref>H201</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{A61DE460-E853-4FC1-A496-E51BD39CCBD4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{A61DE460-E853-4FC1-A496-E51BD39CCBD4}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15861,8 +18568,8 @@
           <xm:sqref>H250</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{8C3723F0-524E-41BB-8E1D-819AB13149C6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{8C3723F0-524E-41BB-8E1D-819AB13149C6}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15874,8 +18581,8 @@
           <xm:sqref>H249</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{F1DDA5A3-8F7B-4510-BD94-2B36F26B450D}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{F1DDA5A3-8F7B-4510-BD94-2B36F26B450D}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15887,8 +18594,8 @@
           <xm:sqref>H243</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{9074E930-4738-4256-B38D-FC2AB66B3F18}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{9074E930-4738-4256-B38D-FC2AB66B3F18}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15900,8 +18607,8 @@
           <xm:sqref>H244</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{ACA2A656-B802-4DE3-86D2-8DDACEF9561E}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{ACA2A656-B802-4DE3-86D2-8DDACEF9561E}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15913,8 +18620,8 @@
           <xm:sqref>H245</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{BAF592F1-20ED-4E14-8656-95044B2BCC39}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{BAF592F1-20ED-4E14-8656-95044B2BCC39}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15926,8 +18633,8 @@
           <xm:sqref>H246</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{9EB71451-2704-4BFA-B2A2-980B3147E5CA}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{9EB71451-2704-4BFA-B2A2-980B3147E5CA}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15939,8 +18646,8 @@
           <xm:sqref>H247</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{CEC1A580-E3CA-42C8-829A-311E54684C4C}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{CEC1A580-E3CA-42C8-829A-311E54684C4C}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15952,8 +18659,8 @@
           <xm:sqref>H248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{0A5F02ED-AEAB-4B39-A366-DC56528DA2F2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{0A5F02ED-AEAB-4B39-A366-DC56528DA2F2}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15965,8 +18672,8 @@
           <xm:sqref>H232</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{0BC33068-CB2C-4A0C-B0E4-CAF691BA3951}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="144" operator="equal" id="{0BC33068-CB2C-4A0C-B0E4-CAF691BA3951}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15978,8 +18685,8 @@
           <xm:sqref>H235</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{D56B6E72-1B7B-4FD8-B9FC-6B69F5ADE418}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{D56B6E72-1B7B-4FD8-B9FC-6B69F5ADE418}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15991,8 +18698,8 @@
           <xm:sqref>H229</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{A7E167A1-9127-451D-A23C-9A5E92503443}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{A7E167A1-9127-451D-A23C-9A5E92503443}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16004,8 +18711,8 @@
           <xm:sqref>H252</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{F60888F0-1955-4FCE-92E3-E8B7E7EF361E}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{F60888F0-1955-4FCE-92E3-E8B7E7EF361E}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16017,8 +18724,8 @@
           <xm:sqref>H257:H261</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{55DCE9B8-A6D4-493D-A2CF-86FFCF3A187A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{55DCE9B8-A6D4-493D-A2CF-86FFCF3A187A}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16030,8 +18737,8 @@
           <xm:sqref>H263</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{B9DA4304-C3AE-4017-8F58-7B53A63E700D}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="120" operator="equal" id="{B9DA4304-C3AE-4017-8F58-7B53A63E700D}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16043,8 +18750,8 @@
           <xm:sqref>H262</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{84A1DD77-B5E9-46A4-B883-B7E2E69525C7}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{84A1DD77-B5E9-46A4-B883-B7E2E69525C7}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16056,8 +18763,8 @@
           <xm:sqref>H266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{43BA54FF-D371-4295-82E4-8D06C8AEE7EE}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{43BA54FF-D371-4295-82E4-8D06C8AEE7EE}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16069,8 +18776,8 @@
           <xm:sqref>H275:H279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{7837B752-C48B-4742-97BD-3FF6BE81B554}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{7837B752-C48B-4742-97BD-3FF6BE81B554}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16082,8 +18789,8 @@
           <xm:sqref>H265</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{1E866765-209C-43BB-998E-993F61A0DE9C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{1E866765-209C-43BB-998E-993F61A0DE9C}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16095,8 +18802,8 @@
           <xm:sqref>H283</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{140B2292-4E79-4100-B3CD-CCE5656154F1}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{140B2292-4E79-4100-B3CD-CCE5656154F1}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16108,8 +18815,8 @@
           <xm:sqref>H282</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{C085B4AF-0697-4B75-9B3C-FA370C3036F3}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{C085B4AF-0697-4B75-9B3C-FA370C3036F3}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16121,8 +18828,8 @@
           <xm:sqref>H281</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{0AB89C36-381B-45F0-88D3-417B33794A24}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{0AB89C36-381B-45F0-88D3-417B33794A24}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16134,8 +18841,8 @@
           <xm:sqref>H280</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{BF4F5B79-FCD7-4A72-A760-06A1FC06C6A9}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{BF4F5B79-FCD7-4A72-A760-06A1FC06C6A9}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16147,8 +18854,8 @@
           <xm:sqref>H284</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{A1C2E199-5979-4BE2-85F6-21B6847FD5E5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{A1C2E199-5979-4BE2-85F6-21B6847FD5E5}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16160,8 +18867,8 @@
           <xm:sqref>H285</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{01EACC01-B6DE-4DCA-B8ED-1130EF679D5E}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{01EACC01-B6DE-4DCA-B8ED-1130EF679D5E}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16173,8 +18880,8 @@
           <xm:sqref>H286</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{CF8981F1-F662-4255-A9D1-FEA74EB6DC1A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{CF8981F1-F662-4255-A9D1-FEA74EB6DC1A}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16186,8 +18893,8 @@
           <xm:sqref>H287</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{26E22F3E-5421-42E8-8E37-3A0877BF830C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{26E22F3E-5421-42E8-8E37-3A0877BF830C}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16199,8 +18906,8 @@
           <xm:sqref>H289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{F6710BBA-D921-4333-A84E-16A2FF915DD5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{F6710BBA-D921-4333-A84E-16A2FF915DD5}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16212,8 +18919,8 @@
           <xm:sqref>H290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{2179D22A-CEC6-4D81-9413-8A71C8E8E5E2}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{2179D22A-CEC6-4D81-9413-8A71C8E8E5E2}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16225,8 +18932,8 @@
           <xm:sqref>H296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{315B79B7-6BFE-4C68-B102-925319F5C63A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{315B79B7-6BFE-4C68-B102-925319F5C63A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16238,8 +18945,8 @@
           <xm:sqref>H297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{D7294231-DEA8-4CA2-AB65-50CCAD008A2A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{D7294231-DEA8-4CA2-AB65-50CCAD008A2A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16251,8 +18958,8 @@
           <xm:sqref>H295</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{FD31D8D3-676F-4D93-872D-E385F0818B6A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{FD31D8D3-676F-4D93-872D-E385F0818B6A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16264,8 +18971,8 @@
           <xm:sqref>H294</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{28E670FF-2384-4E6A-9D44-216E12314F0B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{28E670FF-2384-4E6A-9D44-216E12314F0B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16277,8 +18984,8 @@
           <xm:sqref>H304</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{3B4246FC-7D15-43EE-BE87-3DE252E1ABD0}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{3B4246FC-7D15-43EE-BE87-3DE252E1ABD0}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16290,8 +18997,8 @@
           <xm:sqref>H299</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{A388F7EF-05AE-433A-96C7-69A0F55F832C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{A388F7EF-05AE-433A-96C7-69A0F55F832C}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16303,8 +19010,8 @@
           <xm:sqref>H300</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{054AE6E4-5D37-4B19-A4DB-80399E1E14D0}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{054AE6E4-5D37-4B19-A4DB-80399E1E14D0}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16316,8 +19023,8 @@
           <xm:sqref>H305</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{C94F7996-83A7-40EE-9448-D8D7594AB068}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{C94F7996-83A7-40EE-9448-D8D7594AB068}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16329,8 +19036,8 @@
           <xm:sqref>H306</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16342,8 +19049,8 @@
           <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16355,8 +19062,8 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16367,6 +19074,162 @@
           </x14:cfRule>
           <xm:sqref>H23:H25</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{00C4F72D-025F-43D3-BEFC-7008F5900837}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H359</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{7492812D-1B9A-40A6-8B3D-1F60652E47D7}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H360</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{72666761-D695-4CEC-B3D5-6E5051729CC9}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H361</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{6C51A7B2-1AC2-4035-818C-C48B99D25972}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H362</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{82D9EC7F-9CC2-432A-8D83-6E9D4332FA3A}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H363</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{8C51DFEC-3313-4BAE-B217-89BFD3A5274E}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H364</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{BE650146-F2DA-4952-87C2-7A8CC98687BC}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H366</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{6CC4CF67-54EF-4ADD-97D6-CA12FDEE3E3B}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H367</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{D4D8B286-3AE0-4236-A558-A82C6834D7CD}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H368</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{CCF98C23-7DA1-4A78-A374-30C9C8061AFE}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H369</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{328F12C8-781F-4A1A-8E64-6CF8D287525F}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H370</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{BB08CC85-3E8F-4588-B167-225385799277}">
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H365</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4230" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1988,31 +1988,7 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2036,6 +2012,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2130,6 +2130,1133 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -2362,1133 +3489,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5014,7 +5014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -5309,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L370"/>
   <sheetViews>
-    <sheetView topLeftCell="D345" workbookViewId="0">
-      <selection activeCell="G370" sqref="G370"/>
+    <sheetView tabSelected="1" topLeftCell="F345" workbookViewId="0">
+      <selection activeCell="I368" sqref="I368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,16 +5367,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -6486,16 +6486,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="115" t="s">
+      <c r="C39" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -7671,16 +7671,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="115" t="s">
+      <c r="C79" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -8955,16 +8955,16 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
-      <c r="C124" s="115" t="s">
+      <c r="C124" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="115"/>
-      <c r="E124" s="115"/>
-      <c r="F124" s="115"/>
-      <c r="G124" s="115"/>
-      <c r="H124" s="115"/>
-      <c r="I124" s="115"/>
-      <c r="J124" s="115"/>
+      <c r="D124" s="131"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="131"/>
+      <c r="G124" s="131"/>
+      <c r="H124" s="131"/>
+      <c r="I124" s="131"/>
+      <c r="J124" s="131"/>
       <c r="K124" s="32"/>
       <c r="L124" s="33"/>
     </row>
@@ -10221,11 +10221,11 @@
       </c>
     </row>
     <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="116" t="s">
+      <c r="B167" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C167" s="116"/>
-      <c r="D167" s="116"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="132"/>
       <c r="H167" s="78"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -10704,11 +10704,11 @@
       <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="117" t="s">
+      <c r="B184" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="C184" s="117"/>
-      <c r="D184" s="117"/>
+      <c r="C184" s="126"/>
+      <c r="D184" s="126"/>
       <c r="H184" s="86"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -11009,11 +11009,11 @@
       </c>
     </row>
     <row r="198" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="119" t="s">
+      <c r="B198" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="C198" s="119"/>
-      <c r="D198" s="119"/>
+      <c r="C198" s="128"/>
+      <c r="D198" s="128"/>
       <c r="H198" s="91"/>
     </row>
     <row r="199" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
@@ -11539,11 +11539,11 @@
       </c>
     </row>
     <row r="217" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="120" t="s">
+      <c r="B217" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="120"/>
-      <c r="D217" s="120"/>
+      <c r="C217" s="129"/>
+      <c r="D217" s="129"/>
       <c r="H217" s="78"/>
     </row>
     <row r="218" spans="1:12" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12527,11 +12527,11 @@
       </c>
     </row>
     <row r="251" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="121" t="s">
+      <c r="B251" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="C251" s="121"/>
-      <c r="D251" s="121"/>
+      <c r="C251" s="130"/>
+      <c r="D251" s="130"/>
       <c r="H251" s="86"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -12881,11 +12881,11 @@
       </c>
     </row>
     <row r="264" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="121" t="s">
+      <c r="B264" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C264" s="121"/>
-      <c r="D264" s="121"/>
+      <c r="C264" s="130"/>
+      <c r="D264" s="130"/>
       <c r="H264" s="86"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -13547,11 +13547,11 @@
       </c>
     </row>
     <row r="288" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="117" t="s">
+      <c r="B288" s="126" t="s">
         <v>415</v>
       </c>
-      <c r="C288" s="117"/>
-      <c r="D288" s="117"/>
+      <c r="C288" s="126"/>
+      <c r="D288" s="126"/>
       <c r="H288" s="86"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -13830,11 +13830,11 @@
       </c>
     </row>
     <row r="298" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="118" t="s">
+      <c r="B298" s="127" t="s">
         <v>414</v>
       </c>
-      <c r="C298" s="118"/>
-      <c r="D298" s="118"/>
+      <c r="C298" s="127"/>
+      <c r="D298" s="127"/>
       <c r="H298" s="86"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -14081,20 +14081,20 @@
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A307" s="122"/>
-      <c r="B307" s="123" t="s">
+      <c r="A307" s="115"/>
+      <c r="B307" s="125" t="s">
         <v>427</v>
       </c>
-      <c r="C307" s="123"/>
-      <c r="D307" s="123"/>
-      <c r="E307" s="123"/>
-      <c r="F307" s="122"/>
-      <c r="G307" s="122"/>
-      <c r="H307" s="124"/>
-      <c r="I307" s="122"/>
-      <c r="J307" s="122"/>
-      <c r="K307" s="122"/>
-      <c r="L307" s="122"/>
+      <c r="C307" s="125"/>
+      <c r="D307" s="125"/>
+      <c r="E307" s="125"/>
+      <c r="F307" s="115"/>
+      <c r="G307" s="115"/>
+      <c r="H307" s="116"/>
+      <c r="I307" s="115"/>
+      <c r="J307" s="115"/>
+      <c r="K307" s="115"/>
+      <c r="L307" s="115"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
@@ -14118,7 +14118,7 @@
       <c r="G308" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="H308" s="124" t="s">
+      <c r="H308" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I308" s="27" t="s">
@@ -14152,7 +14152,7 @@
         <v>434</v>
       </c>
       <c r="G309" s="3"/>
-      <c r="H309" s="124" t="s">
+      <c r="H309" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I309" s="27" t="s">
@@ -14167,7 +14167,7 @@
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" s="125">
+      <c r="A310" s="117">
         <v>113</v>
       </c>
       <c r="B310" s="12">
@@ -14186,10 +14186,10 @@
         <v>66</v>
       </c>
       <c r="G310" s="3"/>
-      <c r="H310" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I310" s="125" t="s">
+      <c r="H310" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J310" s="38" t="s">
@@ -14201,7 +14201,7 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" s="125">
+      <c r="A311" s="117">
         <v>113</v>
       </c>
       <c r="B311" s="93"/>
@@ -14220,22 +14220,22 @@
       <c r="G311" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="H311" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I311" s="125" t="s">
+      <c r="H311" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J311" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K311" s="126"/>
-      <c r="L311" s="126">
+      <c r="K311" s="118"/>
+      <c r="L311" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" s="125">
+      <c r="A312" s="117">
         <v>113</v>
       </c>
       <c r="B312" s="93"/>
@@ -14254,22 +14254,22 @@
       <c r="G312" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="H312" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I312" s="125" t="s">
+      <c r="H312" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I312" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J312" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K312" s="126"/>
-      <c r="L312" s="126">
+      <c r="K312" s="118"/>
+      <c r="L312" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A313" s="125">
+      <c r="A313" s="117">
         <v>113</v>
       </c>
       <c r="B313" s="99"/>
@@ -14288,22 +14288,22 @@
       <c r="G313" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="H313" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I313" s="125" t="s">
+      <c r="H313" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I313" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J313" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K313" s="127"/>
-      <c r="L313" s="127">
+      <c r="K313" s="119"/>
+      <c r="L313" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A314" s="125">
+      <c r="A314" s="117">
         <v>113</v>
       </c>
       <c r="B314" s="99"/>
@@ -14322,22 +14322,22 @@
       <c r="G314" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="H314" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I314" s="125" t="s">
+      <c r="H314" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I314" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J314" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K314" s="127"/>
-      <c r="L314" s="127">
+      <c r="K314" s="119"/>
+      <c r="L314" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A315" s="125">
+      <c r="A315" s="117">
         <v>113</v>
       </c>
       <c r="B315" s="99"/>
@@ -14356,17 +14356,17 @@
       <c r="G315" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="H315" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I315" s="125" t="s">
+      <c r="H315" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I315" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J315" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K315" s="127"/>
-      <c r="L315" s="127">
+      <c r="K315" s="119"/>
+      <c r="L315" s="119">
         <v>0</v>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="L316" s="39"/>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A317" s="125">
+      <c r="A317" s="117">
         <v>113</v>
       </c>
       <c r="B317" s="99"/>
@@ -14404,22 +14404,22 @@
       <c r="G317" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="H317" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I317" s="125" t="s">
+      <c r="H317" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I317" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J317" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K317" s="127"/>
-      <c r="L317" s="127">
+      <c r="K317" s="119"/>
+      <c r="L317" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" s="125">
+      <c r="A318" s="117">
         <v>113</v>
       </c>
       <c r="B318" s="93"/>
@@ -14438,22 +14438,22 @@
       <c r="G318" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="H318" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I318" s="125" t="s">
+      <c r="H318" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I318" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J318" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K318" s="126"/>
-      <c r="L318" s="126">
+      <c r="K318" s="118"/>
+      <c r="L318" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A319" s="125">
+      <c r="A319" s="117">
         <v>113</v>
       </c>
       <c r="B319" s="93"/>
@@ -14470,22 +14470,22 @@
         <v>441</v>
       </c>
       <c r="G319" s="96"/>
-      <c r="H319" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I319" s="125" t="s">
+      <c r="H319" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I319" s="117" t="s">
         <v>12</v>
       </c>
       <c r="J319" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K319" s="126"/>
-      <c r="L319" s="126">
+      <c r="K319" s="118"/>
+      <c r="L319" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A320" s="125">
+      <c r="A320" s="117">
         <v>113</v>
       </c>
       <c r="B320" s="93"/>
@@ -14502,22 +14502,22 @@
         <v>268</v>
       </c>
       <c r="G320" s="96"/>
-      <c r="H320" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I320" s="125" t="s">
+      <c r="H320" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I320" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J320" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K320" s="126"/>
-      <c r="L320" s="126">
+      <c r="K320" s="118"/>
+      <c r="L320" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A321" s="125">
+      <c r="A321" s="117">
         <v>113</v>
       </c>
       <c r="B321" s="99"/>
@@ -14536,22 +14536,22 @@
       <c r="G321" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="H321" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I321" s="125" t="s">
+      <c r="H321" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I321" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J321" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K321" s="127"/>
-      <c r="L321" s="127">
+      <c r="K321" s="119"/>
+      <c r="L321" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" s="125">
+      <c r="A322" s="117">
         <v>113</v>
       </c>
       <c r="B322" s="99"/>
@@ -14570,22 +14570,22 @@
       <c r="G322" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="H322" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I322" s="125" t="s">
+      <c r="H322" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I322" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J322" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K322" s="127"/>
-      <c r="L322" s="127">
+      <c r="K322" s="119"/>
+      <c r="L322" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A323" s="125">
+      <c r="A323" s="117">
         <v>113</v>
       </c>
       <c r="B323" s="12"/>
@@ -14604,10 +14604,10 @@
       <c r="G323" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H323" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I323" s="125" t="s">
+      <c r="H323" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I323" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J323" s="38" t="s">
@@ -14619,37 +14619,37 @@
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A324" s="125"/>
+      <c r="A324" s="117"/>
       <c r="B324" s="12"/>
       <c r="C324" s="22"/>
       <c r="D324" s="23"/>
       <c r="E324" s="1"/>
       <c r="F324" s="24"/>
       <c r="G324" s="3"/>
-      <c r="H324" s="124"/>
-      <c r="I324" s="125"/>
+      <c r="H324" s="116"/>
+      <c r="I324" s="117"/>
       <c r="J324" s="38"/>
       <c r="K324" s="39"/>
       <c r="L324" s="39"/>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A325" s="122"/>
-      <c r="B325" s="123" t="s">
+      <c r="A325" s="115"/>
+      <c r="B325" s="125" t="s">
         <v>444</v>
       </c>
-      <c r="C325" s="123"/>
-      <c r="D325" s="123"/>
-      <c r="E325" s="123"/>
-      <c r="F325" s="122"/>
-      <c r="G325" s="122"/>
-      <c r="H325" s="124"/>
-      <c r="I325" s="122"/>
-      <c r="J325" s="122"/>
-      <c r="K325" s="122"/>
-      <c r="L325" s="122"/>
+      <c r="C325" s="125"/>
+      <c r="D325" s="125"/>
+      <c r="E325" s="125"/>
+      <c r="F325" s="115"/>
+      <c r="G325" s="115"/>
+      <c r="H325" s="116"/>
+      <c r="I325" s="115"/>
+      <c r="J325" s="115"/>
+      <c r="K325" s="115"/>
+      <c r="L325" s="115"/>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="125">
+      <c r="A326" s="117">
         <v>114</v>
       </c>
       <c r="B326" s="93"/>
@@ -14666,7 +14666,7 @@
         <v>282</v>
       </c>
       <c r="G326" s="96"/>
-      <c r="H326" s="124" t="s">
+      <c r="H326" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I326" s="93" t="s">
@@ -14675,13 +14675,13 @@
       <c r="J326" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K326" s="126"/>
+      <c r="K326" s="118"/>
       <c r="L326" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" s="125">
+      <c r="A327" s="117">
         <v>114</v>
       </c>
       <c r="B327" s="99"/>
@@ -14698,7 +14698,7 @@
         <v>285</v>
       </c>
       <c r="G327" s="102"/>
-      <c r="H327" s="124" t="s">
+      <c r="H327" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I327" s="99" t="s">
@@ -14707,13 +14707,13 @@
       <c r="J327" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K327" s="127"/>
+      <c r="K327" s="119"/>
       <c r="L327" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A328" s="125">
+      <c r="A328" s="117">
         <v>114</v>
       </c>
       <c r="B328" s="99"/>
@@ -14732,7 +14732,7 @@
       <c r="G328" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="H328" s="124" t="s">
+      <c r="H328" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I328" s="99" t="s">
@@ -14741,13 +14741,13 @@
       <c r="J328" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K328" s="127"/>
+      <c r="K328" s="119"/>
       <c r="L328" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A329" s="125">
+      <c r="A329" s="117">
         <v>114</v>
       </c>
       <c r="B329" s="99"/>
@@ -14764,7 +14764,7 @@
         <v>289</v>
       </c>
       <c r="G329" s="102"/>
-      <c r="H329" s="124" t="s">
+      <c r="H329" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I329" s="99" t="s">
@@ -14773,13 +14773,13 @@
       <c r="J329" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K329" s="127"/>
+      <c r="K329" s="119"/>
       <c r="L329" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A330" s="125">
+      <c r="A330" s="117">
         <v>114</v>
       </c>
       <c r="B330" s="99"/>
@@ -14798,7 +14798,7 @@
       <c r="G330" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="H330" s="124" t="s">
+      <c r="H330" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I330" s="99" t="s">
@@ -14807,13 +14807,13 @@
       <c r="J330" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K330" s="127"/>
+      <c r="K330" s="119"/>
       <c r="L330" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" s="125">
+      <c r="A331" s="117">
         <v>114</v>
       </c>
       <c r="B331" s="99"/>
@@ -14830,7 +14830,7 @@
         <v>293</v>
       </c>
       <c r="G331" s="102"/>
-      <c r="H331" s="124" t="s">
+      <c r="H331" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I331" s="99" t="s">
@@ -14839,13 +14839,13 @@
       <c r="J331" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K331" s="127"/>
+      <c r="K331" s="119"/>
       <c r="L331" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A332" s="125">
+      <c r="A332" s="117">
         <v>114</v>
       </c>
       <c r="B332" s="99"/>
@@ -14864,7 +14864,7 @@
       <c r="G332" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="H332" s="124" t="s">
+      <c r="H332" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I332" s="99" t="s">
@@ -14873,7 +14873,7 @@
       <c r="J332" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K332" s="127"/>
+      <c r="K332" s="119"/>
       <c r="L332" s="39">
         <v>0</v>
       </c>
@@ -14893,7 +14893,7 @@
       <c r="L333" s="39"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A334" s="125">
+      <c r="A334" s="117">
         <v>114</v>
       </c>
       <c r="B334" s="99"/>
@@ -14912,7 +14912,7 @@
       <c r="G334" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="H334" s="124" t="s">
+      <c r="H334" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I334" s="99" t="s">
@@ -14921,13 +14921,13 @@
       <c r="J334" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K334" s="127"/>
+      <c r="K334" s="119"/>
       <c r="L334" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335" s="125">
+      <c r="A335" s="117">
         <v>114</v>
       </c>
       <c r="B335" s="99"/>
@@ -14946,7 +14946,7 @@
       <c r="G335" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="H335" s="128" t="s">
+      <c r="H335" s="120" t="s">
         <v>12</v>
       </c>
       <c r="I335" s="99" t="s">
@@ -14961,24 +14961,24 @@
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A336" s="125">
+      <c r="A336" s="117">
         <v>114</v>
       </c>
       <c r="B336" s="12"/>
       <c r="C336" s="39"/>
-      <c r="D336" s="129" t="s">
+      <c r="D336" s="121" t="s">
         <v>307</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F336" s="130" t="s">
+      <c r="F336" s="122" t="s">
         <v>308</v>
       </c>
       <c r="G336" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="H336" s="124" t="s">
+      <c r="H336" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I336" s="27" t="s">
@@ -14991,7 +14991,7 @@
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A337" s="125">
+      <c r="A337" s="117">
         <v>114</v>
       </c>
       <c r="B337" s="12"/>
@@ -15006,7 +15006,7 @@
       <c r="G337" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H337" s="124" t="s">
+      <c r="H337" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I337" s="27" t="s">
@@ -15021,26 +15021,26 @@
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A338" s="125">
+      <c r="A338" s="117">
         <v>114</v>
       </c>
       <c r="B338" s="12"/>
       <c r="C338" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D338" s="129" t="s">
+      <c r="D338" s="121" t="s">
         <v>314</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F338" s="130" t="s">
+      <c r="F338" s="122" t="s">
         <v>315</v>
       </c>
       <c r="G338" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="H338" s="124" t="s">
+      <c r="H338" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I338" s="27" t="s">
@@ -15053,24 +15053,24 @@
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A339" s="125">
+      <c r="A339" s="117">
         <v>114</v>
       </c>
       <c r="B339" s="12"/>
       <c r="C339" s="22"/>
-      <c r="D339" s="129" t="s">
+      <c r="D339" s="121" t="s">
         <v>317</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F339" s="130" t="s">
+      <c r="F339" s="122" t="s">
         <v>318</v>
       </c>
       <c r="G339" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="H339" s="124" t="s">
+      <c r="H339" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I339" s="27" t="s">
@@ -15083,7 +15083,7 @@
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A340" s="125">
+      <c r="A340" s="117">
         <v>114</v>
       </c>
       <c r="B340" s="12"/>
@@ -15098,7 +15098,7 @@
       <c r="G340" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H340" s="124" t="s">
+      <c r="H340" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I340" s="27" t="s">
@@ -15113,26 +15113,26 @@
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A341" s="125">
+      <c r="A341" s="117">
         <v>114</v>
       </c>
       <c r="B341" s="12"/>
       <c r="C341" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D341" s="129" t="s">
+      <c r="D341" s="121" t="s">
         <v>322</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F341" s="130" t="s">
+      <c r="F341" s="122" t="s">
         <v>323</v>
       </c>
       <c r="G341" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="H341" s="124" t="s">
+      <c r="H341" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I341" s="27" t="s">
@@ -15145,24 +15145,24 @@
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A342" s="125">
+      <c r="A342" s="117">
         <v>114</v>
       </c>
       <c r="B342" s="12"/>
-      <c r="C342" s="131"/>
-      <c r="D342" s="129" t="s">
+      <c r="C342" s="123"/>
+      <c r="D342" s="121" t="s">
         <v>325</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F342" s="130" t="s">
+      <c r="F342" s="122" t="s">
         <v>326</v>
       </c>
       <c r="G342" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="H342" s="124" t="s">
+      <c r="H342" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I342" s="27" t="s">
@@ -15177,7 +15177,7 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="125">
+      <c r="A343" s="117">
         <v>114</v>
       </c>
       <c r="B343" s="12"/>
@@ -15192,7 +15192,7 @@
       <c r="G343" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H343" s="124" t="s">
+      <c r="H343" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I343" s="27" t="s">
@@ -15207,7 +15207,7 @@
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A344" s="125">
+      <c r="A344" s="117">
         <v>114</v>
       </c>
       <c r="B344" s="12">
@@ -15216,19 +15216,19 @@
       <c r="C344" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D344" s="129" t="s">
+      <c r="D344" s="121" t="s">
         <v>107</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F344" s="130" t="s">
+      <c r="F344" s="122" t="s">
         <v>109</v>
       </c>
       <c r="G344" s="40">
         <v>0</v>
       </c>
-      <c r="H344" s="124" t="s">
+      <c r="H344" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I344" s="27" t="s">
@@ -15243,7 +15243,7 @@
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A345" s="125">
+      <c r="A345" s="117">
         <v>114</v>
       </c>
       <c r="B345" s="12">
@@ -15252,19 +15252,19 @@
       <c r="C345" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D345" s="129" t="s">
+      <c r="D345" s="121" t="s">
         <v>333</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F345" s="130" t="s">
+      <c r="F345" s="122" t="s">
         <v>113</v>
       </c>
       <c r="G345" s="40">
         <v>0</v>
       </c>
-      <c r="H345" s="124" t="s">
+      <c r="H345" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I345" s="27" t="s">
@@ -15279,7 +15279,7 @@
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A346" s="125">
+      <c r="A346" s="117">
         <v>114</v>
       </c>
       <c r="B346" s="12">
@@ -15288,19 +15288,19 @@
       <c r="C346" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D346" s="129" t="s">
+      <c r="D346" s="121" t="s">
         <v>335</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F346" s="130" t="s">
+      <c r="F346" s="122" t="s">
         <v>117</v>
       </c>
       <c r="G346" s="40">
         <v>0</v>
       </c>
-      <c r="H346" s="124" t="s">
+      <c r="H346" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I346" s="27" t="s">
@@ -15315,7 +15315,7 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A347" s="125">
+      <c r="A347" s="117">
         <v>114</v>
       </c>
       <c r="B347" s="12">
@@ -15324,19 +15324,19 @@
       <c r="C347" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="D347" s="129" t="s">
+      <c r="D347" s="121" t="s">
         <v>337</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F347" s="130" t="s">
+      <c r="F347" s="122" t="s">
         <v>338</v>
       </c>
       <c r="G347" s="40">
         <v>0</v>
       </c>
-      <c r="H347" s="124" t="s">
+      <c r="H347" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I347" s="27" t="s">
@@ -15351,7 +15351,7 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A348" s="125">
+      <c r="A348" s="117">
         <v>114</v>
       </c>
       <c r="B348" s="12">
@@ -15360,17 +15360,17 @@
       <c r="C348" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D348" s="129" t="s">
+      <c r="D348" s="121" t="s">
         <v>337</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F348" s="130" t="s">
+      <c r="F348" s="122" t="s">
         <v>338</v>
       </c>
       <c r="G348" s="40"/>
-      <c r="H348" s="124" t="s">
+      <c r="H348" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I348" s="27" t="s">
@@ -15385,24 +15385,24 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A349" s="125">
+      <c r="A349" s="117">
         <v>114</v>
       </c>
       <c r="B349" s="12"/>
-      <c r="C349" s="131"/>
-      <c r="D349" s="129" t="s">
+      <c r="C349" s="123"/>
+      <c r="D349" s="121" t="s">
         <v>341</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F349" s="130" t="s">
+      <c r="F349" s="122" t="s">
         <v>342</v>
       </c>
       <c r="G349" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="H349" s="124" t="s">
+      <c r="H349" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I349" s="27" t="s">
@@ -15417,24 +15417,24 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A350" s="125">
+      <c r="A350" s="117">
         <v>114</v>
       </c>
       <c r="B350" s="12"/>
-      <c r="C350" s="131" t="s">
+      <c r="C350" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="D350" s="129" t="s">
+      <c r="D350" s="121" t="s">
         <v>344</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F350" s="130"/>
+      <c r="F350" s="122"/>
       <c r="G350" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="H350" s="124" t="s">
+      <c r="H350" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I350" s="27" t="s">
@@ -15449,7 +15449,7 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" s="125">
+      <c r="A351" s="117">
         <v>114</v>
       </c>
       <c r="B351" s="35"/>
@@ -15466,7 +15466,7 @@
         <v>101</v>
       </c>
       <c r="G351" s="41"/>
-      <c r="H351" s="124" t="s">
+      <c r="H351" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I351" s="27" t="s">
@@ -15483,7 +15483,7 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A352" s="125">
+      <c r="A352" s="117">
         <v>114</v>
       </c>
       <c r="B352" s="35"/>
@@ -15500,7 +15500,7 @@
         <v>352</v>
       </c>
       <c r="G352" s="41"/>
-      <c r="H352" s="124" t="s">
+      <c r="H352" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I352" s="27" t="s">
@@ -15517,7 +15517,7 @@
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A353" s="125">
+      <c r="A353" s="117">
         <v>114</v>
       </c>
       <c r="B353" s="35"/>
@@ -15534,7 +15534,7 @@
         <v>356</v>
       </c>
       <c r="G353" s="41"/>
-      <c r="H353" s="124" t="s">
+      <c r="H353" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I353" s="27" t="s">
@@ -15551,7 +15551,7 @@
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A354" s="125">
+      <c r="A354" s="117">
         <v>114</v>
       </c>
       <c r="B354" s="35"/>
@@ -15568,7 +15568,7 @@
         <v>125</v>
       </c>
       <c r="G354" s="41"/>
-      <c r="H354" s="124" t="s">
+      <c r="H354" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I354" s="27" t="s">
@@ -15585,7 +15585,7 @@
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A355" s="125">
+      <c r="A355" s="117">
         <v>114</v>
       </c>
       <c r="B355" s="35"/>
@@ -15602,7 +15602,7 @@
         <v>361</v>
       </c>
       <c r="G355" s="41"/>
-      <c r="H355" s="124" t="s">
+      <c r="H355" s="116" t="s">
         <v>12</v>
       </c>
       <c r="I355" s="27" t="s">
@@ -15633,20 +15633,20 @@
       <c r="L356" s="39"/>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A357" s="122"/>
-      <c r="B357" s="123" t="s">
+      <c r="A357" s="115"/>
+      <c r="B357" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="C357" s="123"/>
-      <c r="D357" s="123"/>
-      <c r="E357" s="123"/>
-      <c r="F357" s="122"/>
-      <c r="G357" s="122"/>
-      <c r="H357" s="124"/>
-      <c r="I357" s="122"/>
-      <c r="J357" s="122"/>
-      <c r="K357" s="122"/>
-      <c r="L357" s="122"/>
+      <c r="C357" s="125"/>
+      <c r="D357" s="125"/>
+      <c r="E357" s="125"/>
+      <c r="F357" s="115"/>
+      <c r="G357" s="115"/>
+      <c r="H357" s="116"/>
+      <c r="I357" s="115"/>
+      <c r="J357" s="115"/>
+      <c r="K357" s="115"/>
+      <c r="L357" s="115"/>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
@@ -15670,7 +15670,7 @@
       <c r="G358" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="H358" s="124" t="s">
+      <c r="H358" s="116" t="s">
         <v>2</v>
       </c>
       <c r="I358" s="40" t="s">
@@ -15963,7 +15963,7 @@
       <c r="B367" s="12">
         <v>6</v>
       </c>
-      <c r="C367" s="132" t="s">
+      <c r="C367" s="124" t="s">
         <v>460</v>
       </c>
       <c r="D367" s="20" t="s">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="H368" s="1"/>
       <c r="I368" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J368" s="47" t="s">
         <v>12</v>
@@ -16094,21 +16094,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B264:D264"/>
     <mergeCell ref="B307:E307"/>
     <mergeCell ref="B325:E325"/>
     <mergeCell ref="B357:E357"/>
     <mergeCell ref="B288:D288"/>
     <mergeCell ref="B298:D298"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="B167:D167"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="370" priority="405" operator="equal">
@@ -16813,158 +16813,158 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H359">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H359">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H361">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H361">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H362">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H362">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H363">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H363">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H364">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H364">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H366">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H366">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H370">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H370">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H365">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H365">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-3330" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="467">
   <si>
     <t>Action</t>
   </si>
@@ -1423,10 +1423,10 @@
     <t>Verify Revision Adj amount</t>
   </si>
   <si>
-    <t>Revision,$revision,Rev Adj. Amount,$0.00</t>
-  </si>
-  <si>
     <t>Common Part 3 Add Revision</t>
+  </si>
+  <si>
+    <t>Revision,$revision,Rev Adj. Amount,0.00</t>
   </si>
 </sst>
 </file>
@@ -2012,13 +2012,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,10 +2030,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5290,7 +5290,7 @@
         <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
@@ -5307,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L370"/>
+  <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F345" workbookViewId="0">
-      <selection activeCell="I368" sqref="I368"/>
+    <sheetView tabSelected="1" topLeftCell="F342" workbookViewId="0">
+      <selection activeCell="I370" sqref="I370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,16 +5367,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -6486,16 +6486,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -7671,16 +7671,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="125"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -8955,16 +8955,16 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
-      <c r="C124" s="131" t="s">
+      <c r="C124" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="131"/>
-      <c r="E124" s="131"/>
-      <c r="F124" s="131"/>
-      <c r="G124" s="131"/>
-      <c r="H124" s="131"/>
-      <c r="I124" s="131"/>
-      <c r="J124" s="131"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="125"/>
+      <c r="G124" s="125"/>
+      <c r="H124" s="125"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="125"/>
       <c r="K124" s="32"/>
       <c r="L124" s="33"/>
     </row>
@@ -10221,11 +10221,11 @@
       </c>
     </row>
     <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="132" t="s">
+      <c r="B167" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="C167" s="132"/>
-      <c r="D167" s="132"/>
+      <c r="C167" s="126"/>
+      <c r="D167" s="126"/>
       <c r="H167" s="78"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -10704,11 +10704,11 @@
       <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="126" t="s">
+      <c r="B184" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="C184" s="126"/>
-      <c r="D184" s="126"/>
+      <c r="C184" s="127"/>
+      <c r="D184" s="127"/>
       <c r="H184" s="86"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -13547,11 +13547,11 @@
       </c>
     </row>
     <row r="288" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="126" t="s">
+      <c r="B288" s="127" t="s">
         <v>415</v>
       </c>
-      <c r="C288" s="126"/>
-      <c r="D288" s="126"/>
+      <c r="C288" s="127"/>
+      <c r="D288" s="127"/>
       <c r="H288" s="86"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -13830,11 +13830,11 @@
       </c>
     </row>
     <row r="298" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="127" t="s">
+      <c r="B298" s="132" t="s">
         <v>414</v>
       </c>
-      <c r="C298" s="127"/>
-      <c r="D298" s="127"/>
+      <c r="C298" s="132"/>
+      <c r="D298" s="132"/>
       <c r="H298" s="86"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -14082,12 +14082,12 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="115"/>
-      <c r="B307" s="125" t="s">
+      <c r="B307" s="131" t="s">
         <v>427</v>
       </c>
-      <c r="C307" s="125"/>
-      <c r="D307" s="125"/>
-      <c r="E307" s="125"/>
+      <c r="C307" s="131"/>
+      <c r="D307" s="131"/>
+      <c r="E307" s="131"/>
       <c r="F307" s="115"/>
       <c r="G307" s="115"/>
       <c r="H307" s="116"/>
@@ -14634,12 +14634,12 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="115"/>
-      <c r="B325" s="125" t="s">
+      <c r="B325" s="131" t="s">
         <v>444</v>
       </c>
-      <c r="C325" s="125"/>
-      <c r="D325" s="125"/>
-      <c r="E325" s="125"/>
+      <c r="C325" s="131"/>
+      <c r="D325" s="131"/>
+      <c r="E325" s="131"/>
       <c r="F325" s="115"/>
       <c r="G325" s="115"/>
       <c r="H325" s="116"/>
@@ -15634,12 +15634,12 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="115"/>
-      <c r="B357" s="125" t="s">
+      <c r="B357" s="131" t="s">
         <v>446</v>
       </c>
-      <c r="C357" s="125"/>
-      <c r="D357" s="125"/>
-      <c r="E357" s="125"/>
+      <c r="C357" s="131"/>
+      <c r="D357" s="131"/>
+      <c r="E357" s="131"/>
       <c r="F357" s="115"/>
       <c r="G357" s="115"/>
       <c r="H357" s="116"/>
@@ -15706,7 +15706,9 @@
       <c r="G359" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H359" s="1"/>
+      <c r="H359" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I359" s="27" t="s">
         <v>12</v>
       </c>
@@ -15740,7 +15742,9 @@
       <c r="G360" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="H360" s="1"/>
+      <c r="H360" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I360" s="17" t="s">
         <v>2</v>
       </c>
@@ -15774,7 +15778,9 @@
       <c r="G361" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="H361" s="1"/>
+      <c r="H361" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I361" s="17" t="s">
         <v>2</v>
       </c>
@@ -15808,7 +15814,9 @@
       <c r="G362" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H362" s="1"/>
+      <c r="H362" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I362" s="17" t="s">
         <v>2</v>
       </c>
@@ -15842,7 +15850,9 @@
       <c r="G363" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="H363" s="1"/>
+      <c r="H363" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I363" s="17" t="s">
         <v>2</v>
       </c>
@@ -15876,7 +15886,9 @@
       <c r="G364" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H364" s="1"/>
+      <c r="H364" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I364" s="17" t="s">
         <v>2</v>
       </c>
@@ -15910,7 +15922,9 @@
       <c r="G365" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H365" s="1"/>
+      <c r="H365" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I365" s="17" t="s">
         <v>2</v>
       </c>
@@ -15944,7 +15958,9 @@
       <c r="G366" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="H366" s="1"/>
+      <c r="H366" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I366" s="17" t="s">
         <v>2</v>
       </c>
@@ -15978,8 +15994,10 @@
       <c r="G367" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="H367" s="1"/>
-      <c r="I367" s="17" t="s">
+      <c r="H367" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I367" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J367" s="47" t="s">
@@ -16012,7 +16030,9 @@
       <c r="G368" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="H368" s="1"/>
+      <c r="H368" s="116" t="s">
+        <v>12</v>
+      </c>
       <c r="I368" s="27" t="s">
         <v>2</v>
       </c>
@@ -16046,9 +16066,11 @@
       <c r="G369" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H369" s="1"/>
-      <c r="I369" s="17" t="s">
-        <v>2</v>
+      <c r="H369" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I369" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="J369" s="47" t="s">
         <v>12</v>
@@ -16078,11 +16100,13 @@
         <v>39</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="H370" s="1"/>
-      <c r="I370" s="17" t="s">
-        <v>2</v>
+        <v>466</v>
+      </c>
+      <c r="H370" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I370" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="J370" s="47" t="s">
         <v>12</v>
@@ -16092,23 +16116,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H371" s="116"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="B298:D298"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B264:D264"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C124:J124"/>
     <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B325:E325"/>
-    <mergeCell ref="B357:E357"/>
-    <mergeCell ref="B288:D288"/>
-    <mergeCell ref="B298:D298"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="370" priority="405" operator="equal">
@@ -16812,167 +16839,8 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H359">
-    <cfRule type="cellIs" dxfId="208" priority="48" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H359">
-    <cfRule type="cellIs" dxfId="207" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="47" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="205" priority="44" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="204" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="43" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H361">
-    <cfRule type="cellIs" dxfId="202" priority="40" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H361">
-    <cfRule type="cellIs" dxfId="201" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="39" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H362">
-    <cfRule type="cellIs" dxfId="199" priority="36" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H362">
-    <cfRule type="cellIs" dxfId="198" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="35" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H363">
-    <cfRule type="cellIs" dxfId="196" priority="32" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H363">
-    <cfRule type="cellIs" dxfId="195" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="31" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H364">
-    <cfRule type="cellIs" dxfId="193" priority="28" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H364">
-    <cfRule type="cellIs" dxfId="192" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="27" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H366">
-    <cfRule type="cellIs" dxfId="190" priority="24" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H366">
-    <cfRule type="cellIs" dxfId="189" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="23" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H367">
-    <cfRule type="cellIs" dxfId="187" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H367">
-    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H368">
-    <cfRule type="cellIs" dxfId="184" priority="16" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H368">
-    <cfRule type="cellIs" dxfId="183" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="15" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H369">
-    <cfRule type="cellIs" dxfId="181" priority="12" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H369">
-    <cfRule type="cellIs" dxfId="180" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="11" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H370">
-    <cfRule type="cellIs" dxfId="178" priority="8" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H370">
-    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H365">
-    <cfRule type="cellIs" dxfId="175" priority="4" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H365">
-    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H185:H193 H60:H65 H57 H105:H108 H168:H183 H214:H215 H200:H201 H249:H250 H232 H235 H229 H257:H263 H275:H287 H265:H266 H289:H290 H299:H300 H252 H26">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H359:H370">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -19074,162 +18942,6 @@
           </x14:cfRule>
           <xm:sqref>H23:H25</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{00C4F72D-025F-43D3-BEFC-7008F5900837}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H359</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{7492812D-1B9A-40A6-8B3D-1F60652E47D7}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H360</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{72666761-D695-4CEC-B3D5-6E5051729CC9}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H361</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{6C51A7B2-1AC2-4035-818C-C48B99D25972}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H362</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{82D9EC7F-9CC2-432A-8D83-6E9D4332FA3A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H363</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{8C51DFEC-3313-4BAE-B217-89BFD3A5274E}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H364</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{BE650146-F2DA-4952-87C2-7A8CC98687BC}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H366</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{6CC4CF67-54EF-4ADD-97D6-CA12FDEE3E3B}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H367</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{D4D8B286-3AE0-4236-A558-A82C6834D7CD}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H368</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{CCF98C23-7DA1-4A78-A374-30C9C8061AFE}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H369</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{328F12C8-781F-4A1A-8E64-6CF8D287525F}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H370</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{BB08CC85-3E8F-4588-B167-225385799277}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H365</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47486440-7B56-694B-AD91-00DEDC506C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3330" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="468">
   <si>
     <t>Action</t>
   </si>
@@ -1427,12 +1428,15 @@
   </si>
   <si>
     <t>Revision,$revision,Rev Adj. Amount,0.00</t>
+  </si>
+  <si>
+    <t>Common Part 2 Add Revision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2012,13 +2016,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,10 +2034,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2042,1453 +2046,1117 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="371">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
+  <dxfs count="323">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4664,13 +4332,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Controller"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="TC001_TC050"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5011,23 +4675,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="29"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
@@ -5044,7 +4708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5061,7 +4725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5078,7 +4742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5095,7 +4759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5112,7 +4776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5129,7 +4793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5146,7 +4810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5163,7 +4827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5180,7 +4844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5197,7 +4861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5214,7 +4878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5231,7 +4895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5248,7 +4912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5265,7 +4929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5273,7 +4937,7 @@
         <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
@@ -5282,7 +4946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5306,27 +4970,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F342" workbookViewId="0">
-      <selection activeCell="I370" sqref="I370"/>
+    <sheetView tabSelected="1" topLeftCell="F155" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="111.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="111.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" style="21" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -5364,23 +5028,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>76</v>
       </c>
@@ -5414,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>76</v>
       </c>
@@ -5448,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
@@ -5482,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>76</v>
       </c>
@@ -5508,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>76</v>
       </c>
@@ -5542,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>76</v>
       </c>
@@ -5568,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>76</v>
       </c>
@@ -5602,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>76</v>
       </c>
@@ -5634,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>76</v>
       </c>
@@ -5666,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>76</v>
       </c>
@@ -5698,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>76</v>
       </c>
@@ -5730,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>76</v>
       </c>
@@ -5762,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>76</v>
       </c>
@@ -5794,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>76</v>
       </c>
@@ -5824,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>76</v>
       </c>
@@ -5846,7 +5510,7 @@
       <c r="K17" s="39"/>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>76</v>
       </c>
@@ -5876,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>76</v>
       </c>
@@ -5908,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>76</v>
       </c>
@@ -5942,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>76</v>
       </c>
@@ -5978,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>76</v>
       </c>
@@ -6014,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>76</v>
       </c>
@@ -6050,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>76</v>
       </c>
@@ -6086,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>76</v>
       </c>
@@ -6122,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="12"/>
       <c r="C26" s="16"/>
@@ -6136,7 +5800,7 @@
       <c r="K26" s="39"/>
       <c r="L26" s="40"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>76</v>
       </c>
@@ -6170,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>76</v>
       </c>
@@ -6196,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
@@ -6230,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="C30" s="39"/>
@@ -6254,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>76</v>
       </c>
@@ -6288,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>76</v>
       </c>
@@ -6322,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
@@ -6356,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>76</v>
       </c>
@@ -6390,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>76</v>
       </c>
@@ -6424,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>76</v>
       </c>
@@ -6454,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
@@ -6480,26 +6144,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49">
         <v>105</v>
       </c>
@@ -6533,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="49">
         <v>105</v>
       </c>
@@ -6567,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="49">
         <v>105</v>
       </c>
@@ -6601,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="49">
         <v>105</v>
       </c>
@@ -6627,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="49">
         <v>105</v>
       </c>
@@ -6661,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="49">
         <v>105</v>
       </c>
@@ -6687,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="49">
         <v>105</v>
       </c>
@@ -6719,7 +6383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="49">
         <v>105</v>
       </c>
@@ -6751,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="49">
         <v>105</v>
       </c>
@@ -6783,7 +6447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="49">
         <v>105</v>
       </c>
@@ -6815,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="49">
         <v>105</v>
       </c>
@@ -6847,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="49">
         <v>105</v>
       </c>
@@ -6879,7 +6543,7 @@
       </c>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="49">
         <v>105</v>
       </c>
@@ -6911,7 +6575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="49">
         <v>105</v>
       </c>
@@ -6943,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="49">
         <v>105</v>
       </c>
@@ -6973,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="49">
         <v>105</v>
       </c>
@@ -6997,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="49">
         <v>105</v>
       </c>
@@ -7027,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="49">
         <v>105</v>
       </c>
@@ -7061,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="49">
         <v>105</v>
       </c>
@@ -7093,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="49">
         <v>105</v>
       </c>
@@ -7127,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="49">
         <v>105</v>
       </c>
@@ -7161,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="49">
         <v>105</v>
       </c>
@@ -7195,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="49">
         <v>105</v>
       </c>
@@ -7229,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="49">
         <v>105</v>
       </c>
@@ -7263,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="49">
         <v>105</v>
       </c>
@@ -7297,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="49">
         <v>105</v>
       </c>
@@ -7313,7 +6977,7 @@
       <c r="K65" s="39"/>
       <c r="L65" s="40"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="49">
         <v>105</v>
       </c>
@@ -7347,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="49">
         <v>105</v>
       </c>
@@ -7373,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="49">
         <v>105</v>
       </c>
@@ -7407,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="49">
         <v>105</v>
       </c>
@@ -7433,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="49">
         <v>105</v>
       </c>
@@ -7467,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="49">
         <v>105</v>
       </c>
@@ -7499,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="49">
         <v>105</v>
       </c>
@@ -7531,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="49">
         <v>105</v>
       </c>
@@ -7563,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="49">
         <v>105</v>
       </c>
@@ -7595,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="49">
         <v>105</v>
       </c>
@@ -7625,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="49">
         <v>105</v>
       </c>
@@ -7651,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="47"/>
       <c r="B77" s="39"/>
       <c r="C77" s="51"/>
@@ -7665,29 +7329,29 @@
       <c r="K77" s="39"/>
       <c r="L77" s="40"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="125" t="s">
+      <c r="C79" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="125"/>
-      <c r="E79" s="125"/>
-      <c r="F79" s="125"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="125"/>
-      <c r="J79" s="125"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="70">
         <v>106</v>
       </c>
@@ -7721,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="70">
         <v>106</v>
       </c>
@@ -7755,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="70">
         <v>106</v>
       </c>
@@ -7789,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="70">
         <v>106</v>
       </c>
@@ -7821,7 +7485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="70">
         <v>106</v>
       </c>
@@ -7853,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="70">
         <v>106</v>
       </c>
@@ -7883,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="70">
         <v>106</v>
       </c>
@@ -7905,7 +7569,7 @@
       <c r="K87" s="39"/>
       <c r="L87" s="40"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="70">
         <v>106</v>
       </c>
@@ -7935,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="70">
         <v>106</v>
       </c>
@@ -7969,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="70">
         <v>106</v>
       </c>
@@ -7995,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="70">
         <v>106</v>
       </c>
@@ -8029,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="70">
         <v>106</v>
       </c>
@@ -8055,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="70">
         <v>106</v>
       </c>
@@ -8087,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="70">
         <v>106</v>
       </c>
@@ -8119,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="70">
         <v>106</v>
       </c>
@@ -8151,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="70">
         <v>106</v>
       </c>
@@ -8185,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="70">
         <v>106</v>
       </c>
@@ -8217,7 +7881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="70">
         <v>106</v>
       </c>
@@ -8249,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="70">
         <v>106</v>
       </c>
@@ -8279,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="70">
         <v>106</v>
       </c>
@@ -8301,7 +7965,7 @@
       <c r="K100" s="39"/>
       <c r="L100" s="40"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="70">
         <v>106</v>
       </c>
@@ -8331,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="70"/>
       <c r="B102" s="71"/>
       <c r="C102" s="72" t="s">
@@ -8347,7 +8011,7 @@
       <c r="K102" s="71"/>
       <c r="L102" s="73"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="70">
         <v>106</v>
       </c>
@@ -8379,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="70">
         <v>106</v>
       </c>
@@ -8413,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="70">
         <v>106</v>
       </c>
@@ -8447,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="70">
         <v>106</v>
       </c>
@@ -8481,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="70">
         <v>106</v>
       </c>
@@ -8515,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="70">
         <v>106</v>
       </c>
@@ -8549,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="70"/>
       <c r="B109" s="71"/>
       <c r="C109" s="72" t="s">
@@ -8565,7 +8229,7 @@
       <c r="K109" s="71"/>
       <c r="L109" s="73"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="70">
         <v>106</v>
       </c>
@@ -8599,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="70">
         <v>106</v>
       </c>
@@ -8625,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="70">
         <v>106</v>
       </c>
@@ -8659,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="70">
         <v>106</v>
       </c>
@@ -8685,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="70">
         <v>106</v>
       </c>
@@ -8719,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="70">
         <v>106</v>
       </c>
@@ -8751,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="70">
         <v>106</v>
       </c>
@@ -8783,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="70">
         <v>106</v>
       </c>
@@ -8815,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="70">
         <v>106</v>
       </c>
@@ -8847,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="70">
         <v>106</v>
       </c>
@@ -8879,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="70">
         <v>106</v>
       </c>
@@ -8909,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="70">
         <v>106</v>
       </c>
@@ -8935,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="47"/>
       <c r="B122" s="39"/>
       <c r="C122" s="51"/>
@@ -8949,26 +8613,26 @@
       <c r="K122" s="39"/>
       <c r="L122" s="40"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
-      <c r="C124" s="125" t="s">
+      <c r="C124" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="125"/>
-      <c r="E124" s="125"/>
-      <c r="F124" s="125"/>
-      <c r="G124" s="125"/>
-      <c r="H124" s="125"/>
-      <c r="I124" s="125"/>
-      <c r="J124" s="125"/>
+      <c r="D124" s="131"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="131"/>
+      <c r="G124" s="131"/>
+      <c r="H124" s="131"/>
+      <c r="I124" s="131"/>
+      <c r="J124" s="131"/>
       <c r="K124" s="32"/>
       <c r="L124" s="33"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="70">
         <v>107</v>
       </c>
@@ -9002,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="70">
         <v>107</v>
       </c>
@@ -9036,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="70">
         <v>107</v>
       </c>
@@ -9070,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="70">
         <v>107</v>
       </c>
@@ -9102,7 +8766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="70">
         <v>107</v>
       </c>
@@ -9134,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="70">
         <v>107</v>
       </c>
@@ -9164,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="70">
         <v>107</v>
       </c>
@@ -9186,7 +8850,7 @@
       <c r="K131" s="39"/>
       <c r="L131" s="40"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="70">
         <v>107</v>
       </c>
@@ -9216,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="70">
         <v>107</v>
       </c>
@@ -9250,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="70">
         <v>107</v>
       </c>
@@ -9276,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="70">
         <v>107</v>
       </c>
@@ -9310,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="70">
         <v>107</v>
       </c>
@@ -9336,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="70">
         <v>107</v>
       </c>
@@ -9368,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="70">
         <v>107</v>
       </c>
@@ -9400,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="70">
         <v>107</v>
       </c>
@@ -9432,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="70">
         <v>107</v>
       </c>
@@ -9466,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="70">
         <v>107</v>
       </c>
@@ -9498,7 +9162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="70">
         <v>107</v>
       </c>
@@ -9530,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="70">
         <v>107</v>
       </c>
@@ -9560,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="70">
         <v>107</v>
       </c>
@@ -9582,7 +9246,7 @@
       <c r="K144" s="39"/>
       <c r="L144" s="40"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="70">
         <v>107</v>
       </c>
@@ -9612,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="70"/>
       <c r="B146" s="71"/>
       <c r="C146" s="72" t="s">
@@ -9630,7 +9294,7 @@
       <c r="K146" s="71"/>
       <c r="L146" s="73"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="70">
         <v>107</v>
       </c>
@@ -9662,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="70">
         <v>107</v>
       </c>
@@ -9696,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="70">
         <v>107</v>
       </c>
@@ -9730,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="70">
         <v>107</v>
       </c>
@@ -9764,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="70">
         <v>107</v>
       </c>
@@ -9798,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="70">
         <v>107</v>
       </c>
@@ -9832,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="70"/>
       <c r="B153" s="71"/>
       <c r="C153" s="72" t="s">
@@ -9850,7 +9514,7 @@
       <c r="K153" s="71"/>
       <c r="L153" s="73"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="70">
         <v>107</v>
       </c>
@@ -9884,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="70">
         <v>107</v>
       </c>
@@ -9910,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="70">
         <v>107</v>
       </c>
@@ -9944,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="70">
         <v>107</v>
       </c>
@@ -9970,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="70">
         <v>107</v>
       </c>
@@ -10004,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="70">
         <v>107</v>
       </c>
@@ -10036,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="70">
         <v>107</v>
       </c>
@@ -10068,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="70">
         <v>107</v>
       </c>
@@ -10100,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="70">
         <v>107</v>
       </c>
@@ -10132,7 +9796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="70">
         <v>107</v>
       </c>
@@ -10164,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="70">
         <v>107</v>
       </c>
@@ -10194,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="70">
         <v>107</v>
       </c>
@@ -10220,15 +9884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="126" t="s">
+    <row r="167" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C167" s="126"/>
-      <c r="D167" s="126"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="132"/>
       <c r="H167" s="78"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>68</v>
       </c>
@@ -10259,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>68</v>
       </c>
@@ -10292,7 +9956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>68</v>
       </c>
@@ -10325,7 +9989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>68</v>
       </c>
@@ -10356,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>68</v>
       </c>
@@ -10385,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>68</v>
       </c>
@@ -10418,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>68</v>
       </c>
@@ -10447,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>68</v>
       </c>
@@ -10478,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>68</v>
       </c>
@@ -10507,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>68</v>
       </c>
@@ -10538,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>68</v>
       </c>
@@ -10569,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>68</v>
       </c>
@@ -10600,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>68</v>
       </c>
@@ -10631,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>68</v>
       </c>
@@ -10658,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>68</v>
       </c>
@@ -10691,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="75"/>
       <c r="B183" s="79"/>
       <c r="C183" s="80"/>
@@ -10703,15 +10367,15 @@
       <c r="I183" s="2"/>
       <c r="J183" s="18"/>
     </row>
-    <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="127" t="s">
+    <row r="184" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="C184" s="127"/>
-      <c r="D184" s="127"/>
+      <c r="C184" s="126"/>
+      <c r="D184" s="126"/>
       <c r="H184" s="86"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>67</v>
       </c>
@@ -10744,7 +10408,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>67</v>
       </c>
@@ -10777,7 +10441,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>67</v>
       </c>
@@ -10810,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>67</v>
       </c>
@@ -10843,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>67</v>
       </c>
@@ -10876,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>67</v>
       </c>
@@ -10909,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>67</v>
       </c>
@@ -10942,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>67</v>
       </c>
@@ -10975,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>67</v>
       </c>
@@ -11008,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="128" t="s">
         <v>202</v>
       </c>
@@ -11016,7 +10680,7 @@
       <c r="D198" s="128"/>
       <c r="H198" s="91"/>
     </row>
-    <row r="199" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="109">
         <v>103</v>
       </c>
@@ -11044,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="109">
         <v>103</v>
       </c>
@@ -11075,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="109">
         <v>103</v>
       </c>
@@ -11106,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="109">
         <v>103</v>
       </c>
@@ -11137,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="109">
         <v>103</v>
       </c>
@@ -11168,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="109">
         <v>103</v>
       </c>
@@ -11199,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="109">
         <v>103</v>
       </c>
@@ -11230,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="109">
         <v>103</v>
       </c>
@@ -11261,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="109">
         <v>103</v>
       </c>
@@ -11292,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="109">
         <v>103</v>
       </c>
@@ -11323,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="109">
         <v>103</v>
       </c>
@@ -11354,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="109">
         <v>103</v>
       </c>
@@ -11383,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="109">
         <v>103</v>
       </c>
@@ -11414,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="109">
         <v>103</v>
       </c>
@@ -11445,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="104" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" s="104" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="109">
         <v>103</v>
       </c>
@@ -11476,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="109">
         <v>103</v>
       </c>
@@ -11507,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="109">
         <v>103</v>
       </c>
@@ -11538,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="129" t="s">
         <v>203</v>
       </c>
@@ -11546,7 +11210,7 @@
       <c r="D217" s="129"/>
       <c r="H217" s="78"/>
     </row>
-    <row r="218" spans="1:12" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" s="98" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="92">
         <v>108</v>
       </c>
@@ -11575,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="92">
         <v>108</v>
       </c>
@@ -11604,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="92">
         <v>108</v>
       </c>
@@ -11635,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="92">
         <v>108</v>
       </c>
@@ -11664,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="92">
         <v>108</v>
       </c>
@@ -11695,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="92">
         <v>108</v>
       </c>
@@ -11724,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="92">
         <v>108</v>
       </c>
@@ -11755,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="92">
         <v>108</v>
       </c>
@@ -11786,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="92">
         <v>108</v>
       </c>
@@ -11815,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="92">
         <v>108</v>
       </c>
@@ -11846,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="92">
         <v>108</v>
       </c>
@@ -11874,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="92">
         <v>108</v>
       </c>
@@ -11900,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="92">
         <v>108</v>
       </c>
@@ -11928,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="92">
         <v>108</v>
       </c>
@@ -11954,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="92">
         <v>108</v>
       </c>
@@ -11980,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="92">
         <v>108</v>
       </c>
@@ -12008,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="92">
         <v>108</v>
       </c>
@@ -12036,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="92">
         <v>108</v>
       </c>
@@ -12062,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="92">
         <v>108</v>
       </c>
@@ -12094,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="92">
         <v>108</v>
       </c>
@@ -12126,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="92">
         <v>108</v>
       </c>
@@ -12158,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="92">
         <v>108</v>
       </c>
@@ -12190,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="92">
         <v>108</v>
       </c>
@@ -12220,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="92">
         <v>108</v>
       </c>
@@ -12250,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="92">
         <v>108</v>
       </c>
@@ -12276,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="92">
         <v>108</v>
       </c>
@@ -12308,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="92">
         <v>108</v>
       </c>
@@ -12340,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="92">
         <v>108</v>
       </c>
@@ -12372,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="92">
         <v>108</v>
       </c>
@@ -12404,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="92">
         <v>108</v>
       </c>
@@ -12436,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="92">
         <v>108</v>
       </c>
@@ -12465,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="92">
         <v>108</v>
       </c>
@@ -12497,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="92">
         <v>108</v>
       </c>
@@ -12526,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="130" t="s">
         <v>204</v>
       </c>
@@ -12534,7 +12198,7 @@
       <c r="D251" s="130"/>
       <c r="H251" s="86"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>367</v>
       </c>
@@ -12567,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>367</v>
       </c>
@@ -12599,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
         <v>367</v>
       </c>
@@ -12627,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>367</v>
       </c>
@@ -12653,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
         <v>367</v>
       </c>
@@ -12677,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
         <v>367</v>
       </c>
@@ -12708,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>367</v>
       </c>
@@ -12737,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>367</v>
       </c>
@@ -12766,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>367</v>
       </c>
@@ -12795,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>367</v>
       </c>
@@ -12824,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>367</v>
       </c>
@@ -12853,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>367</v>
       </c>
@@ -12880,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="130" t="s">
         <v>205</v>
       </c>
@@ -12888,7 +12552,7 @@
       <c r="D264" s="130"/>
       <c r="H264" s="86"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>110</v>
       </c>
@@ -12919,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>110</v>
       </c>
@@ -12950,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>110</v>
       </c>
@@ -12980,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>110</v>
       </c>
@@ -13010,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>110</v>
       </c>
@@ -13040,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>110</v>
       </c>
@@ -13070,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>110</v>
       </c>
@@ -13100,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>110</v>
       </c>
@@ -13125,7 +12789,7 @@
       </c>
       <c r="J272" s="26"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>110</v>
       </c>
@@ -13148,7 +12812,7 @@
       </c>
       <c r="J273" s="26"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>110</v>
       </c>
@@ -13169,7 +12833,7 @@
       </c>
       <c r="J274" s="26"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>110</v>
       </c>
@@ -13200,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>110</v>
       </c>
@@ -13229,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>110</v>
       </c>
@@ -13258,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>110</v>
       </c>
@@ -13287,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>110</v>
       </c>
@@ -13316,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>110</v>
       </c>
@@ -13345,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>110</v>
       </c>
@@ -13374,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>110</v>
       </c>
@@ -13403,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>110</v>
       </c>
@@ -13430,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>110</v>
       </c>
@@ -13457,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>110</v>
       </c>
@@ -13488,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>110</v>
       </c>
@@ -13517,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>110</v>
       </c>
@@ -13546,15 +13210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="127" t="s">
+    <row r="288" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="126" t="s">
         <v>415</v>
       </c>
-      <c r="C288" s="127"/>
-      <c r="D288" s="127"/>
+      <c r="C288" s="126"/>
+      <c r="D288" s="126"/>
       <c r="H288" s="86"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>111</v>
       </c>
@@ -13585,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>111</v>
       </c>
@@ -13616,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>111</v>
       </c>
@@ -13648,7 +13312,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>111</v>
       </c>
@@ -13677,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>111</v>
       </c>
@@ -13709,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>111</v>
       </c>
@@ -13741,7 +13405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>111</v>
       </c>
@@ -13773,7 +13437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>111</v>
       </c>
@@ -13803,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>111</v>
       </c>
@@ -13829,15 +13493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="132" t="s">
+    <row r="298" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="127" t="s">
         <v>414</v>
       </c>
-      <c r="C298" s="132"/>
-      <c r="D298" s="132"/>
+      <c r="C298" s="127"/>
+      <c r="D298" s="127"/>
       <c r="H298" s="86"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>112</v>
       </c>
@@ -13868,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>112</v>
       </c>
@@ -13899,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>112</v>
       </c>
@@ -13931,7 +13595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>112</v>
       </c>
@@ -13960,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>112</v>
       </c>
@@ -13992,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>112</v>
       </c>
@@ -14024,7 +13688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>112</v>
       </c>
@@ -14054,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>112</v>
       </c>
@@ -14080,14 +13744,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="115"/>
-      <c r="B307" s="131" t="s">
+      <c r="B307" s="125" t="s">
         <v>427</v>
       </c>
-      <c r="C307" s="131"/>
-      <c r="D307" s="131"/>
-      <c r="E307" s="131"/>
+      <c r="C307" s="125"/>
+      <c r="D307" s="125"/>
+      <c r="E307" s="125"/>
       <c r="F307" s="115"/>
       <c r="G307" s="115"/>
       <c r="H307" s="116"/>
@@ -14096,7 +13760,7 @@
       <c r="K307" s="115"/>
       <c r="L307" s="115"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
         <v>428</v>
       </c>
@@ -14132,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
         <v>428</v>
       </c>
@@ -14166,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="117">
         <v>113</v>
       </c>
@@ -14200,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="117">
         <v>113</v>
       </c>
@@ -14234,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="117">
         <v>113</v>
       </c>
@@ -14268,7 +13932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="117">
         <v>113</v>
       </c>
@@ -14302,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="117">
         <v>113</v>
       </c>
@@ -14336,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="117">
         <v>113</v>
       </c>
@@ -14370,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="39"/>
       <c r="B316" s="39"/>
       <c r="C316" s="39"/>
@@ -14384,7 +14048,7 @@
       <c r="K316" s="39"/>
       <c r="L316" s="39"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="117">
         <v>113</v>
       </c>
@@ -14418,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="117">
         <v>113</v>
       </c>
@@ -14452,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="117">
         <v>113</v>
       </c>
@@ -14484,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="117">
         <v>113</v>
       </c>
@@ -14516,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="117">
         <v>113</v>
       </c>
@@ -14550,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="117">
         <v>113</v>
       </c>
@@ -14584,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="117">
         <v>113</v>
       </c>
@@ -14618,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="117"/>
       <c r="B324" s="12"/>
       <c r="C324" s="22"/>
@@ -14632,14 +14296,14 @@
       <c r="K324" s="39"/>
       <c r="L324" s="39"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="115"/>
-      <c r="B325" s="131" t="s">
+      <c r="B325" s="125" t="s">
         <v>444</v>
       </c>
-      <c r="C325" s="131"/>
-      <c r="D325" s="131"/>
-      <c r="E325" s="131"/>
+      <c r="C325" s="125"/>
+      <c r="D325" s="125"/>
+      <c r="E325" s="125"/>
       <c r="F325" s="115"/>
       <c r="G325" s="115"/>
       <c r="H325" s="116"/>
@@ -14648,7 +14312,7 @@
       <c r="K325" s="115"/>
       <c r="L325" s="115"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="117">
         <v>114</v>
       </c>
@@ -14680,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="117">
         <v>114</v>
       </c>
@@ -14712,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="117">
         <v>114</v>
       </c>
@@ -14746,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="117">
         <v>114</v>
       </c>
@@ -14778,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="117">
         <v>114</v>
       </c>
@@ -14812,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="117">
         <v>114</v>
       </c>
@@ -14844,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="117">
         <v>114</v>
       </c>
@@ -14878,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="39"/>
       <c r="B333" s="39"/>
       <c r="C333" s="39"/>
@@ -14892,7 +14556,7 @@
       <c r="K333" s="39"/>
       <c r="L333" s="39"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="117">
         <v>114</v>
       </c>
@@ -14926,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="117">
         <v>114</v>
       </c>
@@ -14960,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="117">
         <v>114</v>
       </c>
@@ -14990,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="117">
         <v>114</v>
       </c>
@@ -15020,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="117">
         <v>114</v>
       </c>
@@ -15052,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="117">
         <v>114</v>
       </c>
@@ -15082,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="117">
         <v>114</v>
       </c>
@@ -15112,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="117">
         <v>114</v>
       </c>
@@ -15144,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="117">
         <v>114</v>
       </c>
@@ -15176,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="117">
         <v>114</v>
       </c>
@@ -15206,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="117">
         <v>114</v>
       </c>
@@ -15242,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="117">
         <v>114</v>
       </c>
@@ -15278,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="117">
         <v>114</v>
       </c>
@@ -15314,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="117">
         <v>114</v>
       </c>
@@ -15350,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="117">
         <v>114</v>
       </c>
@@ -15384,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="117">
         <v>114</v>
       </c>
@@ -15416,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="117">
         <v>114</v>
       </c>
@@ -15448,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="117">
         <v>114</v>
       </c>
@@ -15482,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="117">
         <v>114</v>
       </c>
@@ -15516,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="117">
         <v>114</v>
       </c>
@@ -15550,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="117">
         <v>114</v>
       </c>
@@ -15584,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="117">
         <v>114</v>
       </c>
@@ -15618,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="39"/>
       <c r="B356" s="39"/>
       <c r="C356" s="39"/>
@@ -15632,14 +15296,14 @@
       <c r="K356" s="39"/>
       <c r="L356" s="39"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="115"/>
-      <c r="B357" s="131" t="s">
+      <c r="B357" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="C357" s="131"/>
-      <c r="D357" s="131"/>
-      <c r="E357" s="131"/>
+      <c r="C357" s="125"/>
+      <c r="D357" s="125"/>
+      <c r="E357" s="125"/>
       <c r="F357" s="115"/>
       <c r="G357" s="115"/>
       <c r="H357" s="116"/>
@@ -15648,7 +15312,7 @@
       <c r="K357" s="115"/>
       <c r="L357" s="115"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
         <v>447</v>
       </c>
@@ -15684,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
         <v>447</v>
       </c>
@@ -15720,7 +15384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="10" t="s">
         <v>447</v>
       </c>
@@ -15756,7 +15420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
         <v>447</v>
       </c>
@@ -15792,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
         <v>447</v>
       </c>
@@ -15828,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
         <v>447</v>
       </c>
@@ -15864,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
         <v>447</v>
       </c>
@@ -15900,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="38">
         <v>115</v>
       </c>
@@ -15936,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>447</v>
       </c>
@@ -15972,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
         <v>447</v>
       </c>
@@ -16008,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="10" t="s">
         <v>447</v>
       </c>
@@ -16044,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="10" t="s">
         <v>447</v>
       </c>
@@ -16080,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
         <v>447</v>
       </c>
@@ -16116,731 +15780,731 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H371" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B264:D264"/>
     <mergeCell ref="B307:E307"/>
     <mergeCell ref="B325:E325"/>
     <mergeCell ref="B357:E357"/>
     <mergeCell ref="B288:D288"/>
     <mergeCell ref="B298:D298"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="B167:D167"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="370" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="405" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="369" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="403" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="404" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="367" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="341" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="366" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="339" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="340" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="364" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="337" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="363" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="335" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="336" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="361" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="333" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="360" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="331" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="332" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="358" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="329" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="357" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="327" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="328" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H65">
-    <cfRule type="cellIs" dxfId="355" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="365" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 H65">
-    <cfRule type="cellIs" dxfId="354" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="363" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="364" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="352" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="324" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="351" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="322" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="323" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="349" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="305" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="348" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="303" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="304" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="cellIs" dxfId="346" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="301" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="cellIs" dxfId="345" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="299" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="300" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" dxfId="343" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="297" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" dxfId="342" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="296" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="340" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="339" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="291" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="292" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="337" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="264" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="336" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="262" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="263" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="334" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="260" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="333" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="258" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="259" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="331" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="256" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="330" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="254" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="255" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="328" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="327" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="250" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="251" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H181">
-    <cfRule type="cellIs" dxfId="325" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="237" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H181">
-    <cfRule type="cellIs" dxfId="324" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="235" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="236" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:H183">
-    <cfRule type="cellIs" dxfId="322" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:H183">
-    <cfRule type="cellIs" dxfId="321" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="319" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="229" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="318" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="227" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="228" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185">
-    <cfRule type="cellIs" dxfId="316" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185">
-    <cfRule type="cellIs" dxfId="315" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188">
-    <cfRule type="cellIs" dxfId="313" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188">
-    <cfRule type="cellIs" dxfId="312" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="219" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="310" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="309" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="307" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="306" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193">
-    <cfRule type="cellIs" dxfId="304" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193">
-    <cfRule type="cellIs" dxfId="303" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="301" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="300" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190">
-    <cfRule type="cellIs" dxfId="298" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190">
-    <cfRule type="cellIs" dxfId="297" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="295" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="294" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214">
-    <cfRule type="cellIs" dxfId="292" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214">
-    <cfRule type="cellIs" dxfId="291" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="179" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H215">
-    <cfRule type="cellIs" dxfId="289" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H215">
-    <cfRule type="cellIs" dxfId="288" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="286" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="285" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201">
-    <cfRule type="cellIs" dxfId="283" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201">
-    <cfRule type="cellIs" dxfId="282" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H250">
-    <cfRule type="cellIs" dxfId="280" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H250">
-    <cfRule type="cellIs" dxfId="279" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H249">
-    <cfRule type="cellIs" dxfId="277" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H249">
-    <cfRule type="cellIs" dxfId="276" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="274" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="273" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H235">
-    <cfRule type="cellIs" dxfId="271" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H235">
-    <cfRule type="cellIs" dxfId="270" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="268" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="267" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H252">
-    <cfRule type="cellIs" dxfId="265" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H252">
-    <cfRule type="cellIs" dxfId="264" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="137" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H257:H261">
-    <cfRule type="cellIs" dxfId="262" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H257:H261">
-    <cfRule type="cellIs" dxfId="261" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263">
-    <cfRule type="cellIs" dxfId="259" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263">
-    <cfRule type="cellIs" dxfId="258" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="cellIs" dxfId="256" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="cellIs" dxfId="255" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H266">
-    <cfRule type="cellIs" dxfId="253" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H266">
-    <cfRule type="cellIs" dxfId="252" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275:H279">
-    <cfRule type="cellIs" dxfId="250" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275:H279">
-    <cfRule type="cellIs" dxfId="249" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="247" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="246" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="244" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="243" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="241" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="240" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="238" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="237" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="235" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="234" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="232" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="231" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="229" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="228" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="226" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="225" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="223" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="222" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="220" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="219" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="217" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="216" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299">
-    <cfRule type="cellIs" dxfId="214" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299">
-    <cfRule type="cellIs" dxfId="213" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="211" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="210" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H185:H193 H60:H65 H57 H105:H108 H168:H183 H214:H215 H200:H201 H249:H250 H232 H235 H229 H257:H263 H275:H287 H265:H266 H289:H290 H299:H300 H252 H26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149:H152 H185:H193 H60:H65 H57 H105:H108 H168:H183 H214:H215 H200:H201 H249:H250 H232 H235 H229 H257:H263 H275:H287 H265:H266 H289:H290 H299:H300 H252 H26" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -16851,7 +16515,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="552" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16864,7 +16528,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="402" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16877,7 +16541,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="401" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16890,7 +16554,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="400" operator="equal" id="{7B3EDBCF-3180-499C-AB93-CE115CDE027D}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16903,7 +16567,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="399" operator="equal" id="{B6A2E261-AE66-4901-A91C-AF97DAE3C150}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16916,7 +16580,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="398" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16929,7 +16593,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="397" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16942,7 +16606,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="396" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16955,7 +16619,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="395" operator="equal" id="{9651D644-7698-44E9-88B8-A8BCE54229A6}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16968,7 +16632,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="394" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16981,7 +16645,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="393" operator="equal" id="{E7D21979-2F5E-4798-8ECA-EB79645DDC0E}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -16994,7 +16658,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="392" operator="equal" id="{3C8BA078-2EA9-452F-8A15-2781AED4C03B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17007,7 +16671,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="391" operator="equal" id="{F4D5B11F-D694-4B95-B2E3-5B7C0B6C5DBC}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17020,7 +16684,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="390" operator="equal" id="{88DD819C-DC4D-4F39-AAA0-671522C986BE}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17033,7 +16697,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="389" operator="equal" id="{F766F3BE-C3A2-4CC2-9D5D-54170773D097}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17046,7 +16710,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="388" operator="equal" id="{C74B1717-04DA-4D85-9120-F11959714901}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17059,7 +16723,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="387" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17072,7 +16736,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="386" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17085,7 +16749,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="369" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17098,7 +16762,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="368" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17111,7 +16775,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="367" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17124,7 +16788,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="366" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17137,7 +16801,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="338" operator="equal" id="{95B203CB-931D-4307-BBF2-D270FAA153A2}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17150,7 +16814,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="334" operator="equal" id="{7ADBFAB0-3574-44DF-861F-50CDE0AB938D}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17163,7 +16827,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="330" operator="equal" id="{543ACA0C-9877-4A80-998B-01FECDE46C3A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17176,7 +16840,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="326" operator="equal" id="{F811B527-E5E0-46B8-8EE7-5A07886E19B6}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17189,7 +16853,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="362" operator="equal" id="{759708D2-56A3-4E99-B979-F65EADC0982B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17202,7 +16866,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="361" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17215,7 +16879,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="360" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17228,7 +16892,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="356" operator="equal" id="{D3DC635C-516A-476F-BE7F-2E9120B2AF5C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17241,7 +16905,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="359" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17254,7 +16918,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="355" operator="equal" id="{F925D297-E147-454C-88CE-672CA62AAC74}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17267,7 +16931,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="358" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17280,7 +16944,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="351" operator="equal" id="{DB7C1304-1148-499E-A53E-F4CBFA55669E}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17293,7 +16957,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="357" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17306,7 +16970,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="353" operator="equal" id="{0F060ECE-3C3C-4E74-9F32-71CECC956411}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17319,7 +16983,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="352" operator="equal" id="{2E0B05EF-2E66-4CFE-BA5B-A399958ACE09}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17332,7 +16996,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="354" operator="equal" id="{F75462CF-AF70-4411-9A1A-CAF10D2BD619}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17345,7 +17009,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="349" operator="equal" id="{4D26B22A-86B6-4E3D-A45F-92354E2D4688}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17358,7 +17022,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="348" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17371,7 +17035,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="347" operator="equal" id="{30AABA22-471D-458D-ABF9-2B93FC520620}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17384,7 +17048,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="343" operator="equal" id="{AF9E87D2-6962-4690-8DD2-59FC2282AFCF}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17397,7 +17061,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="350" operator="equal" id="{81339615-94F2-429D-AA7D-78CDCB08A79C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17410,7 +17074,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="345" operator="equal" id="{A5A77643-22C8-4EB3-B136-46A854749992}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17423,7 +17087,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="344" operator="equal" id="{1B64392E-DC80-4DC6-951A-CF83FB311B37}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17436,7 +17100,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="346" operator="equal" id="{32996BEF-D55D-484A-8D44-C23B076E4BF1}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17449,7 +17113,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="342" operator="equal" id="{87BD8FAD-E776-4575-8CD5-A8D6362768B0}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17462,7 +17126,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="325" operator="equal" id="{66524CED-D010-4F43-A0C0-BEDDE2B7DB66}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17475,7 +17139,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="321" operator="equal" id="{27F624A9-D1BB-4ED3-BE3B-7619BF6061A3}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17488,7 +17152,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="317" operator="equal" id="{B990D286-7B6C-4BDE-A166-2939CC7FF873}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17501,7 +17165,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="319" operator="equal" id="{DB8ABF8A-E987-4C6E-B27A-4C2945CBB1B3}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17514,7 +17178,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="318" operator="equal" id="{502058AB-1F1B-4210-B0BC-59A8A99C2EDA}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17527,7 +17191,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="320" operator="equal" id="{7E1C713B-3E0F-4B15-802B-417850DDF44C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17540,7 +17204,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="315" operator="equal" id="{3247083F-D106-456A-8951-FCE9B0667E01}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17553,7 +17217,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="311" operator="equal" id="{08DF4AD1-C22B-4CEF-9EFE-AA94934F1E64}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17566,7 +17230,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="316" operator="equal" id="{5F1F888D-4E6F-4DFE-B5EE-938050551834}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17579,7 +17243,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="310" operator="equal" id="{68E30C5B-D736-4A67-B587-F71A7E1BF122}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17592,7 +17256,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="309" operator="equal" id="{EF153EFE-B2C5-41B6-8EF2-8E531B43C629}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17605,7 +17269,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="308" operator="equal" id="{29ED5D2B-4B8C-413D-B184-3A7C0EB2608C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17618,7 +17282,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="307" operator="equal" id="{9C2532D7-4CF2-43EF-9F9C-A019C4141D86}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17631,7 +17295,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="314" operator="equal" id="{3FDE94BB-1A4F-42AF-807B-2686DC39AA91}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17644,7 +17308,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="313" operator="equal" id="{131C4708-F366-44DF-9551-40154407E104}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17657,7 +17321,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="312" operator="equal" id="{8C8D20E7-86A3-444A-A234-6609DD4E737E}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17670,7 +17334,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="289" operator="equal" id="{F05E8388-C71C-445A-8D17-F63C511E9B88}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17683,7 +17347,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="288" operator="equal" id="{EC3723C3-389D-46B9-8C33-CCBBCE9675E6}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17696,7 +17360,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="287" operator="equal" id="{F2FFE4F8-A609-42AC-AE4B-36FE20184D63}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17709,7 +17373,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="286" operator="equal" id="{37A8CCA4-A96C-42F8-9E90-78167B64E498}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17722,7 +17386,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="285" operator="equal" id="{0113D7FC-E5F4-4667-B39D-22D6E3404251}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17735,7 +17399,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="283" operator="equal" id="{BA59CA1D-B130-40C9-B262-8A6E978C85D9}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17748,7 +17412,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="302" operator="equal" id="{4E71FAB7-3859-46F4-9540-C553DE6D6027}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17761,7 +17425,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="298" operator="equal" id="{9C5C8CC7-7DDC-4053-AE21-587D7F432970}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17774,7 +17438,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="306" operator="equal" id="{4FE1B072-07AD-4907-ABEC-3D3628A4199B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17787,7 +17451,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="294" operator="equal" id="{BE01577D-8F55-4F71-A8F7-3DAA0329833F}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17800,7 +17464,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="290" operator="equal" id="{04170D2A-61EC-4831-8AAD-9CA77AA39046}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17813,7 +17477,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="284" operator="equal" id="{A06A5CAD-5612-4DD9-8FF5-F284C3CFD917}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17826,7 +17490,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="282" operator="equal" id="{9BA9696E-FBBD-4271-9185-CB4170073696}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17839,7 +17503,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="281" operator="equal" id="{D5653E61-3D7A-4DF5-BA5F-26AF334E9B67}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17852,7 +17516,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="280" operator="equal" id="{6B829E21-478D-4990-80B4-42618E78614A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17865,7 +17529,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="276" operator="equal" id="{D377B39B-CEC1-4F04-95F2-D898C90DEF82}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17878,7 +17542,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="278" operator="equal" id="{A27253B0-B881-48C0-86F2-167C5A3FB6C4}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17891,7 +17555,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="277" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17904,7 +17568,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="279" operator="equal" id="{834F9917-A8A1-4F99-822E-3D31624B4338}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17917,7 +17581,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="274" operator="equal" id="{A064F738-93CA-4945-8851-79A92DB74D9B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17930,7 +17594,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="270" operator="equal" id="{8408F83D-D540-4853-8C4F-1BDD31491A57}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17943,7 +17607,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="275" operator="equal" id="{E0FA73A1-C505-413B-BCFF-7763F1E72A51}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17956,7 +17620,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="269" operator="equal" id="{D69ABFB5-6DA7-49AB-8DD4-2B1B76ED4736}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17969,7 +17633,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="268" operator="equal" id="{21A9E785-091D-4EBA-A8AD-13AC8E32F91B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17982,7 +17646,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="267" operator="equal" id="{1C4FBC2D-F9F2-45B7-9545-1A41CEF40162}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17995,7 +17659,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="266" operator="equal" id="{0AD15D4B-B823-4308-8C60-1C53AD029A46}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18008,7 +17672,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="273" operator="equal" id="{A4F0BE62-38BF-496E-BB8E-FD24C29EC175}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18021,7 +17685,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="272" operator="equal" id="{155AAD3D-60AC-4918-A736-DDFEA16C96D5}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18034,7 +17698,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="271" operator="equal" id="{CA50AB1C-057F-4D40-87AE-0D6BAB9A3B78}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18047,7 +17711,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="248" operator="equal" id="{C85DD401-0769-4E66-AC36-D27E2635CD7A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18060,7 +17724,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="247" operator="equal" id="{C8A565BD-04CD-4DF1-92EF-7AA72D736625}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18073,7 +17737,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="246" operator="equal" id="{16289366-C1D8-45FF-9ECC-FF5CD05BE9DE}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18086,7 +17750,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="245" operator="equal" id="{62AEDA56-010A-416A-8708-B60F56CD8708}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18099,7 +17763,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="244" operator="equal" id="{7AE9C757-794A-45C8-BBD5-D4F0BD198186}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18112,7 +17776,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="261" operator="equal" id="{E68D9A04-EDDD-4250-A6BD-A1556E056ECB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18125,7 +17789,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="257" operator="equal" id="{5BCEE587-73C2-4FE8-89FB-FE7568D3E012}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18138,7 +17802,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="265" operator="equal" id="{9A22DFF6-6F63-4B3B-8EE6-13C51591B8AB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18151,7 +17815,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="253" operator="equal" id="{79C824D7-0BED-4BF0-8031-DBF0D0B614E0}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18164,7 +17828,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="249" operator="equal" id="{53B13078-1CCB-4028-B7A1-001E22D9D2F7}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18177,7 +17841,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="243" operator="equal" id="{09CA1D2A-5F44-4815-BA21-C556C0BCA291}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18190,7 +17854,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="242" operator="equal" id="{D3EA0C06-7B50-4691-9177-571690327B1A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18203,7 +17867,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="241" operator="equal" id="{58494411-46EA-4D29-95E8-C0B46372EE1D}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18216,7 +17880,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="240" operator="equal" id="{A01DB15D-8BE5-4DF9-A8AF-2B84B7B421B5}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18229,7 +17893,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="234" operator="equal" id="{AC36DB1B-67BE-4F87-B14F-DFBA47D510A6}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18242,7 +17906,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="230" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18255,7 +17919,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="226" operator="equal" id="{F74FD476-2A12-4127-B3BB-765B41AA5E4C}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18268,7 +17932,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="222" operator="equal" id="{67A281F5-9870-4712-B783-41DA9AC37722}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18281,7 +17945,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="218" operator="equal" id="{8AB8E9F4-37A0-4560-8752-9C25E43F7DDC}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18294,7 +17958,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="206" operator="equal" id="{D89A27E5-3E08-45A8-BC3B-D1E42A94EE2B}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18307,7 +17971,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="202" operator="equal" id="{914406C8-372B-4516-A779-B5ED2B1236A2}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18320,7 +17984,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="198" operator="equal" id="{2DE790F5-8687-4BE1-8477-6CB91FAB69B4}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18333,7 +17997,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="194" operator="equal" id="{AB5F1695-7235-4312-9252-8E18E0877E9D}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18346,7 +18010,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="190" operator="equal" id="{27E2AB3A-0D99-4E1F-B260-77A83B4F8CC2}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18359,7 +18023,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="186" operator="equal" id="{0C820A40-336B-410F-B67B-1BCDF85F573C}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18372,7 +18036,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="178" operator="equal" id="{BB7D1CA3-2161-4DF0-A0F6-791A5F771643}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18385,7 +18049,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="174" operator="equal" id="{BB98DCF3-FA93-41D2-93E4-7DEA1ECFDFC8}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18398,7 +18062,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="170" operator="equal" id="{B3D8D607-3DBE-48B5-AE89-9A7BFB746C4A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18411,7 +18075,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="166" operator="equal" id="{7F65A749-405A-4E9B-964B-F7E1EE4BDB9F}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18424,7 +18088,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="162" operator="equal" id="{A61DE460-E853-4FC1-A496-E51BD39CCBD4}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18437,7 +18101,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="158" operator="equal" id="{8C3723F0-524E-41BB-8E1D-819AB13149C6}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18450,7 +18114,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="157" operator="equal" id="{F1DDA5A3-8F7B-4510-BD94-2B36F26B450D}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18463,7 +18127,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="156" operator="equal" id="{9074E930-4738-4256-B38D-FC2AB66B3F18}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18476,7 +18140,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="155" operator="equal" id="{ACA2A656-B802-4DE3-86D2-8DDACEF9561E}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18489,7 +18153,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="154" operator="equal" id="{BAF592F1-20ED-4E14-8656-95044B2BCC39}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18502,7 +18166,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="153" operator="equal" id="{9EB71451-2704-4BFA-B2A2-980B3147E5CA}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18515,7 +18179,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="152" operator="equal" id="{CEC1A580-E3CA-42C8-829A-311E54684C4C}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18528,7 +18192,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="148" operator="equal" id="{0A5F02ED-AEAB-4B39-A366-DC56528DA2F2}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18541,7 +18205,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="144" operator="equal" id="{0BC33068-CB2C-4A0C-B0E4-CAF691BA3951}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18554,7 +18218,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="140" operator="equal" id="{D56B6E72-1B7B-4FD8-B9FC-6B69F5ADE418}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18567,7 +18231,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="136" operator="equal" id="{A7E167A1-9127-451D-A23C-9A5E92503443}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18580,7 +18244,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="132" operator="equal" id="{F60888F0-1955-4FCE-92E3-E8B7E7EF361E}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18593,7 +18257,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="124" operator="equal" id="{55DCE9B8-A6D4-493D-A2CF-86FFCF3A187A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18606,7 +18270,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="120" operator="equal" id="{B9DA4304-C3AE-4017-8F58-7B53A63E700D}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18619,7 +18283,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="116" operator="equal" id="{84A1DD77-B5E9-46A4-B883-B7E2E69525C7}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18632,7 +18296,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="112" operator="equal" id="{43BA54FF-D371-4295-82E4-8D06C8AEE7EE}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18645,7 +18309,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="108" operator="equal" id="{7837B752-C48B-4742-97BD-3FF6BE81B554}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18658,7 +18322,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="104" operator="equal" id="{1E866765-209C-43BB-998E-993F61A0DE9C}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18671,7 +18335,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="100" operator="equal" id="{140B2292-4E79-4100-B3CD-CCE5656154F1}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18684,7 +18348,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="96" operator="equal" id="{C085B4AF-0697-4B75-9B3C-FA370C3036F3}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18697,7 +18361,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="92" operator="equal" id="{0AB89C36-381B-45F0-88D3-417B33794A24}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18710,7 +18374,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="88" operator="equal" id="{BF4F5B79-FCD7-4A72-A760-06A1FC06C6A9}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18723,7 +18387,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="84" operator="equal" id="{A1C2E199-5979-4BE2-85F6-21B6847FD5E5}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18736,7 +18400,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="80" operator="equal" id="{01EACC01-B6DE-4DCA-B8ED-1130EF679D5E}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18749,7 +18413,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="76" operator="equal" id="{CF8981F1-F662-4255-A9D1-FEA74EB6DC1A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18762,7 +18426,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="72" operator="equal" id="{26E22F3E-5421-42E8-8E37-3A0877BF830C}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18775,7 +18439,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="68" operator="equal" id="{F6710BBA-D921-4333-A84E-16A2FF915DD5}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18788,7 +18452,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="67" operator="equal" id="{2179D22A-CEC6-4D81-9413-8A71C8E8E5E2}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18801,7 +18465,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="66" operator="equal" id="{315B79B7-6BFE-4C68-B102-925319F5C63A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18814,7 +18478,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="65" operator="equal" id="{D7294231-DEA8-4CA2-AB65-50CCAD008A2A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18827,7 +18491,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="64" operator="equal" id="{FD31D8D3-676F-4D93-872D-E385F0818B6A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18840,7 +18504,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="53" operator="equal" id="{28E670FF-2384-4E6A-9D44-216E12314F0B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18853,7 +18517,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="60" operator="equal" id="{3B4246FC-7D15-43EE-BE87-3DE252E1ABD0}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18866,7 +18530,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="56" operator="equal" id="{A388F7EF-05AE-433A-96C7-69A0F55F832C}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18879,7 +18543,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="55" operator="equal" id="{054AE6E4-5D37-4B19-A4DB-80399E1E14D0}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18892,7 +18556,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="54" operator="equal" id="{C94F7996-83A7-40EE-9448-D8D7594AB068}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18905,7 +18569,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18918,7 +18582,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="51" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18931,7 +18595,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="50" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-630" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="467">
   <si>
     <t>Action</t>
   </si>
@@ -1424,6 +1424,9 @@
   </si>
   <si>
     <t>Verify Lease Liability and ROU - Base Asset is same as NPV of Payments</t>
+  </si>
+  <si>
+    <t>40000</t>
   </si>
 </sst>
 </file>
@@ -2001,6 +2004,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2011,9 +2017,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2031,7 +2034,14 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2979,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L388"/>
+  <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,16 +3049,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -4191,16 +4201,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -5434,16 +5444,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="123" t="s">
+      <c r="C79" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="123"/>
-      <c r="E79" s="123"/>
-      <c r="F79" s="123"/>
-      <c r="G79" s="123"/>
-      <c r="H79" s="123"/>
-      <c r="I79" s="123"/>
-      <c r="J79" s="123"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -6834,16 +6844,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="123" t="s">
+      <c r="C126" s="124" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="123"/>
-      <c r="E126" s="123"/>
-      <c r="F126" s="123"/>
-      <c r="G126" s="123"/>
-      <c r="H126" s="123"/>
-      <c r="I126" s="123"/>
-      <c r="J126" s="123"/>
+      <c r="D126" s="124"/>
+      <c r="E126" s="124"/>
+      <c r="F126" s="124"/>
+      <c r="G126" s="124"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="124"/>
+      <c r="J126" s="124"/>
       <c r="K126" s="32"/>
       <c r="L126" s="33"/>
     </row>
@@ -7018,33 +7028,37 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="68">
+      <c r="A132" s="49">
         <v>107</v>
       </c>
       <c r="B132" s="35"/>
       <c r="C132" s="51" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D132" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>47</v>
+        <v>161</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J132" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K132" s="39"/>
       <c r="L132" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7052,83 +7066,77 @@
         <v>107</v>
       </c>
       <c r="B133" s="35"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="38"/>
+      <c r="C133" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D133" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="E133" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F133" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="G133" s="41"/>
       <c r="H133" s="11"/>
       <c r="I133" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J133" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K133" s="39"/>
-      <c r="L133" s="40"/>
+      <c r="L133" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="68">
         <v>107</v>
       </c>
       <c r="B134" s="35"/>
-      <c r="C134" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D134" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>129</v>
-      </c>
+      <c r="C134" s="51"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" s="24"/>
       <c r="G134" s="41"/>
       <c r="H134" s="11"/>
       <c r="I134" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J134" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K134" s="39"/>
-      <c r="L134" s="40">
-        <v>1</v>
-      </c>
+      <c r="L134" s="40"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="68">
         <v>107</v>
       </c>
-      <c r="B135" s="35">
-        <v>19</v>
-      </c>
-      <c r="C135" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>87</v>
+      <c r="B135" s="35"/>
+      <c r="C135" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G135" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G135" s="41"/>
+      <c r="H135" s="11"/>
       <c r="I135" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J135" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K135" s="39"/>
       <c r="L135" s="40">
@@ -7139,92 +7147,100 @@
       <c r="A136" s="68">
         <v>107</v>
       </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="17" t="s">
-        <v>47</v>
+      <c r="B136" s="35">
+        <v>19</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G136" s="41"/>
+        <v>80</v>
+      </c>
+      <c r="G136" s="36" t="s">
+        <v>88</v>
+      </c>
       <c r="H136" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I136" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J136" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K136" s="39"/>
       <c r="L136" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="68">
         <v>107</v>
       </c>
-      <c r="B137" s="35">
-        <v>20</v>
-      </c>
-      <c r="C137" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>87</v>
+      <c r="B137" s="35"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G137" s="36" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G137" s="41"/>
       <c r="H137" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I137" s="27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J137" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K137" s="39"/>
       <c r="L137" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="68">
         <v>107</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="17" t="s">
-        <v>47</v>
+      <c r="B138" s="35">
+        <v>20</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G138" s="41"/>
+        <v>84</v>
+      </c>
+      <c r="G138" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="H138" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="J138" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K138" s="39"/>
       <c r="L138" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7232,33 +7248,27 @@
         <v>107</v>
       </c>
       <c r="B139" s="35"/>
-      <c r="C139" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>108</v>
+      <c r="C139" s="51"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G139" s="44" t="s">
-        <v>110</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G139" s="41"/>
       <c r="H139" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="J139" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K139" s="39"/>
       <c r="L139" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7267,19 +7277,19 @@
       </c>
       <c r="B140" s="35"/>
       <c r="C140" s="51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D140" s="38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G140" s="44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>12</v>
@@ -7301,19 +7311,19 @@
       </c>
       <c r="B141" s="35"/>
       <c r="C141" s="51" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D141" s="38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G141" s="44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>12</v>
@@ -7335,30 +7345,30 @@
       </c>
       <c r="B142" s="35"/>
       <c r="C142" s="51" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D142" s="38" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G142" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="H142" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="G142" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I142" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J142" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K142" s="39" t="s">
-        <v>175</v>
-      </c>
+      <c r="K142" s="39"/>
       <c r="L142" s="40">
         <v>1</v>
       </c>
@@ -7367,22 +7377,22 @@
       <c r="A143" s="68">
         <v>107</v>
       </c>
-      <c r="B143" s="35">
-        <v>24</v>
-      </c>
+      <c r="B143" s="35"/>
       <c r="C143" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D143" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E143" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F143" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G143" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="D143" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G143" s="42" t="s">
+        <v>174</v>
+      </c>
       <c r="H143" s="11"/>
       <c r="I143" s="27" t="s">
         <v>2</v>
@@ -7390,31 +7400,33 @@
       <c r="J143" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K143" s="39"/>
+      <c r="K143" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="L143" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="68">
         <v>107</v>
       </c>
-      <c r="B144" s="35"/>
+      <c r="B144" s="35">
+        <v>24</v>
+      </c>
       <c r="C144" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D144" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F144" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G144" s="44" t="s">
-        <v>191</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D144" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G144" s="40"/>
       <c r="H144" s="11"/>
       <c r="I144" s="27" t="s">
         <v>2</v>
@@ -7424,7 +7436,7 @@
       </c>
       <c r="K144" s="39"/>
       <c r="L144" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7433,28 +7445,30 @@
       </c>
       <c r="B145" s="35"/>
       <c r="C145" s="51" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D145" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G145" s="41"/>
+        <v>104</v>
+      </c>
+      <c r="G145" s="44" t="s">
+        <v>191</v>
+      </c>
       <c r="H145" s="11"/>
       <c r="I145" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J145" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K145" s="39"/>
       <c r="L145" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -7462,161 +7476,155 @@
         <v>107</v>
       </c>
       <c r="B146" s="35"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="38"/>
+      <c r="C146" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="E146" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F146" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="G146" s="41"/>
       <c r="H146" s="11"/>
       <c r="I146" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J146" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K146" s="39"/>
-      <c r="L146" s="40"/>
+      <c r="L146" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="68">
         <v>107</v>
       </c>
       <c r="B147" s="35"/>
-      <c r="C147" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D147" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>129</v>
-      </c>
+      <c r="C147" s="51"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F147" s="24"/>
       <c r="G147" s="41"/>
       <c r="H147" s="11"/>
       <c r="I147" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J147" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K147" s="39"/>
-      <c r="L147" s="40">
-        <v>1</v>
-      </c>
+      <c r="L147" s="40"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="68"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="D148" s="71"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="69"/>
-      <c r="G148" s="71"/>
+      <c r="A148" s="68">
+        <v>107</v>
+      </c>
+      <c r="B148" s="35"/>
+      <c r="C148" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G148" s="41"/>
       <c r="H148" s="11"/>
       <c r="I148" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J148" s="71"/>
-      <c r="K148" s="69"/>
-      <c r="L148" s="71"/>
+      <c r="J148" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K148" s="39"/>
+      <c r="L148" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="68">
-        <v>107</v>
-      </c>
-      <c r="B149" s="14">
-        <v>21</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D149" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="F149" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G149" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J149" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
+      <c r="A149" s="68"/>
+      <c r="B149" s="69"/>
+      <c r="C149" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D149" s="71"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="69"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J149" s="71"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="71"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="68">
         <v>107</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D150" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E150" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F150" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G150" s="36" t="s">
-        <v>88</v>
+      <c r="B150" s="14">
+        <v>21</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E150" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="F150" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G150" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="H150" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J150" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K150" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="L150" s="40">
-        <v>1</v>
+      <c r="I150" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J150" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="68">
         <v>107</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="17" t="s">
+      <c r="B151" s="39"/>
+      <c r="C151" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E151" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="F151" s="19" t="s">
-        <v>84</v>
+      <c r="F151" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="G151" s="36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H151" s="11" t="s">
         <v>12</v>
@@ -7624,11 +7632,11 @@
       <c r="I151" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J151" s="47" t="s">
+      <c r="J151" s="40" t="s">
         <v>12</v>
       </c>
       <c r="K151" s="39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L151" s="40">
         <v>1</v>
@@ -7639,20 +7647,20 @@
         <v>107</v>
       </c>
       <c r="B152" s="12"/>
-      <c r="C152" s="61" t="s">
-        <v>139</v>
+      <c r="C152" s="62" t="s">
+        <v>136</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F152" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G152" s="44" t="s">
-        <v>110</v>
+      <c r="F152" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G152" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>12</v>
@@ -7664,7 +7672,7 @@
         <v>12</v>
       </c>
       <c r="K152" s="39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L152" s="40">
         <v>1</v>
@@ -7676,19 +7684,19 @@
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E153" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G153" s="44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H153" s="11" t="s">
         <v>12</v>
@@ -7700,7 +7708,7 @@
         <v>12</v>
       </c>
       <c r="K153" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L153" s="40">
         <v>1</v>
@@ -7712,19 +7720,19 @@
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E154" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G154" s="44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H154" s="11" t="s">
         <v>12</v>
@@ -7736,156 +7744,164 @@
         <v>12</v>
       </c>
       <c r="K154" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L154" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
-      <c r="B155" s="69"/>
-      <c r="C155" s="70" t="s">
+      <c r="A155" s="68">
+        <v>107</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G155" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J155" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K155" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="L155" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="68"/>
+      <c r="B156" s="69"/>
+      <c r="C156" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="D155" s="71"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="69"/>
-      <c r="G155" s="71"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J155" s="71"/>
-      <c r="K155" s="69"/>
-      <c r="L155" s="71"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="68">
-        <v>107</v>
-      </c>
-      <c r="B156" s="35">
-        <v>19</v>
-      </c>
-      <c r="C156" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F156" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G156" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="69"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="11"/>
       <c r="I156" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J156" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K156" s="39"/>
-      <c r="L156" s="40">
-        <v>1</v>
-      </c>
+      <c r="J156" s="71"/>
+      <c r="K156" s="69"/>
+      <c r="L156" s="71"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="68">
         <v>107</v>
       </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="51"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="17" t="s">
-        <v>47</v>
+      <c r="B157" s="35">
+        <v>19</v>
+      </c>
+      <c r="C157" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G157" s="41"/>
+        <v>80</v>
+      </c>
+      <c r="G157" s="36" t="s">
+        <v>147</v>
+      </c>
       <c r="H157" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I157" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J157" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K157" s="39"/>
       <c r="L157" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="68">
         <v>107</v>
       </c>
-      <c r="B158" s="35">
-        <v>20</v>
-      </c>
-      <c r="C158" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>87</v>
+      <c r="B158" s="35"/>
+      <c r="C158" s="51"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G158" s="36" t="s">
-        <v>149</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G158" s="41"/>
       <c r="H158" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I158" s="27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J158" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K158" s="39"/>
       <c r="L158" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="68">
         <v>107</v>
       </c>
-      <c r="B159" s="35"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="17" t="s">
-        <v>47</v>
+      <c r="B159" s="35">
+        <v>20</v>
+      </c>
+      <c r="C159" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G159" s="41"/>
+        <v>84</v>
+      </c>
+      <c r="G159" s="36" t="s">
+        <v>149</v>
+      </c>
       <c r="H159" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I159" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J159" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K159" s="39"/>
       <c r="L159" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -7893,35 +7909,27 @@
         <v>107</v>
       </c>
       <c r="B160" s="35"/>
-      <c r="C160" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>95</v>
+      <c r="C160" s="51"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G160" s="42" t="s">
-        <v>192</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G160" s="41"/>
       <c r="H160" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I160" s="27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J160" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K160" s="39" t="s">
-        <v>193</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K160" s="39"/>
       <c r="L160" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -7930,19 +7938,19 @@
       </c>
       <c r="B161" s="35"/>
       <c r="C161" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G161" s="44" t="s">
-        <v>154</v>
+        <v>96</v>
+      </c>
+      <c r="G161" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="H161" s="11" t="s">
         <v>12</v>
@@ -7953,7 +7961,9 @@
       <c r="J161" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K161" s="39"/>
+      <c r="K161" s="39" t="s">
+        <v>193</v>
+      </c>
       <c r="L161" s="40">
         <v>1</v>
       </c>
@@ -7964,16 +7974,16 @@
       </c>
       <c r="B162" s="35"/>
       <c r="C162" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D162" s="38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G162" s="44" t="s">
         <v>154</v>
@@ -7998,16 +8008,16 @@
       </c>
       <c r="B163" s="35"/>
       <c r="C163" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G163" s="44" t="s">
         <v>154</v>
@@ -8030,22 +8040,22 @@
       <c r="A164" s="68">
         <v>107</v>
       </c>
-      <c r="B164" s="35">
-        <v>24</v>
-      </c>
+      <c r="B164" s="35"/>
       <c r="C164" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E164" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F164" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G164" s="40"/>
+        <v>156</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G164" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="H164" s="11" t="s">
         <v>12</v>
       </c>
@@ -8057,29 +8067,29 @@
       </c>
       <c r="K164" s="39"/>
       <c r="L164" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="68">
         <v>107</v>
       </c>
-      <c r="B165" s="35"/>
+      <c r="B165" s="35">
+        <v>24</v>
+      </c>
       <c r="C165" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G165" s="44" t="s">
-        <v>200</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D165" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G165" s="40"/>
       <c r="H165" s="11" t="s">
         <v>12</v>
       </c>
@@ -8091,7 +8101,7 @@
       </c>
       <c r="K165" s="39"/>
       <c r="L165" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8100,28 +8110,32 @@
       </c>
       <c r="B166" s="35"/>
       <c r="C166" s="51" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D166" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G166" s="41"/>
-      <c r="H166" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="G166" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I166" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J166" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K166" s="39"/>
       <c r="L166" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8129,90 +8143,85 @@
         <v>107</v>
       </c>
       <c r="B167" s="35"/>
-      <c r="C167" s="51"/>
-      <c r="D167" s="38"/>
+      <c r="C167" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D167" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="E167" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F167" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="G167" s="41"/>
       <c r="H167" s="11"/>
       <c r="I167" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J167" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K167" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K167" s="39"/>
+      <c r="L167" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="68">
+        <v>107</v>
+      </c>
+      <c r="B168" s="35"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F168" s="24"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J168" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K168" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="L167" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="124" t="s">
+      <c r="L168" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="C169" s="124"/>
-      <c r="D169" s="124"/>
-      <c r="H169" s="75"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B170" s="12">
-        <v>1</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F170" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" s="20"/>
-      <c r="H170" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J170" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C170" s="125"/>
+      <c r="D170" s="125"/>
+      <c r="H170" s="75"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B171" s="12">
-        <v>2</v>
-      </c>
-      <c r="C171" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E171" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F171" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G171" s="23" t="s">
-        <v>209</v>
-      </c>
+      <c r="G171" s="20"/>
       <c r="H171" s="11" t="s">
         <v>2</v>
       </c>
@@ -8223,7 +8232,7 @@
         <v>12</v>
       </c>
       <c r="L171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8231,22 +8240,22 @@
         <v>68</v>
       </c>
       <c r="B172" s="12">
-        <v>4</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F172" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C172" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="H172" s="11" t="s">
         <v>2</v>
@@ -8254,11 +8263,11 @@
       <c r="I172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="18" t="s">
         <v>12</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8266,9 +8275,11 @@
         <v>68</v>
       </c>
       <c r="B173" s="12">
-        <v>5</v>
-      </c>
-      <c r="C173" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="D173" s="17" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8290,7 @@
         <v>19</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>2</v>
@@ -8291,7 +8302,7 @@
         <v>12</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8299,30 +8310,32 @@
         <v>68</v>
       </c>
       <c r="B174" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" s="16"/>
       <c r="D174" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="17" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H174" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J174" s="18" t="s">
+      <c r="J174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8330,31 +8343,27 @@
         <v>68</v>
       </c>
       <c r="B175" s="12">
-        <v>7</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C175" s="16"/>
       <c r="D175" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="E175" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" s="20"/>
       <c r="H175" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>2</v>
+      <c r="J175" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="L175">
         <v>0</v>
@@ -8365,27 +8374,31 @@
         <v>68</v>
       </c>
       <c r="B176" s="12">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="D176" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E176" s="17" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H176" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J176" s="18" t="s">
-        <v>12</v>
+      <c r="J176" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -8396,19 +8409,17 @@
         <v>68</v>
       </c>
       <c r="B177" s="12">
-        <v>9</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C177" s="16"/>
       <c r="D177" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="11" t="s">
@@ -8417,11 +8428,11 @@
       <c r="I177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>2</v>
+      <c r="J177" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -8429,17 +8440,19 @@
         <v>68</v>
       </c>
       <c r="B178" s="12">
-        <v>10</v>
-      </c>
-      <c r="C178" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="D178" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G178" s="20"/>
       <c r="H178" s="11" t="s">
@@ -8448,11 +8461,11 @@
       <c r="I178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J178" s="18" t="s">
-        <v>12</v>
+      <c r="J178" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -8460,21 +8473,19 @@
         <v>68</v>
       </c>
       <c r="B179" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C179" s="16"/>
       <c r="D179" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" s="15" t="s">
-        <v>55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G179" s="20"/>
       <c r="H179" s="11" t="s">
         <v>2</v>
       </c>
@@ -8485,7 +8496,7 @@
         <v>12</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -8493,20 +8504,20 @@
         <v>68</v>
       </c>
       <c r="B180" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="G180" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H180" s="11" t="s">
         <v>2</v>
@@ -8514,11 +8525,11 @@
       <c r="I180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>2</v>
+      <c r="J180" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -8526,20 +8537,20 @@
         <v>68</v>
       </c>
       <c r="B181" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="H181" s="11" t="s">
         <v>2</v>
@@ -8547,11 +8558,11 @@
       <c r="I181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J181" s="18" t="s">
-        <v>12</v>
+      <c r="J181" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -8559,20 +8570,20 @@
         <v>68</v>
       </c>
       <c r="B182" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="H182" s="11" t="s">
         <v>2</v>
@@ -8580,8 +8591,8 @@
       <c r="I182" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>2</v>
+      <c r="J182" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -8592,25 +8603,29 @@
         <v>68</v>
       </c>
       <c r="B183" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C183" s="16"/>
-      <c r="D183" s="17"/>
+      <c r="D183" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="E183" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G183" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H183" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J183" s="18" t="s">
-        <v>12</v>
+      <c r="J183" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L183">
         <v>1</v>
@@ -8621,100 +8636,94 @@
         <v>68</v>
       </c>
       <c r="B184" s="12">
-        <v>16</v>
-      </c>
-      <c r="C184" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D184" s="20" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C184" s="16"/>
+      <c r="D184" s="17"/>
       <c r="E184" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F184" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G184" s="4"/>
+      <c r="H184" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J184" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B185" s="12">
+        <v>16</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F185" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H184" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J184" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="72"/>
-      <c r="B185" s="76"/>
-      <c r="C185" s="77"/>
-      <c r="D185" s="78"/>
-      <c r="E185" s="79"/>
-      <c r="F185" s="80"/>
-      <c r="G185" s="81"/>
-      <c r="H185" s="79"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="18"/>
-    </row>
-    <row r="186" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="125" t="s">
+      <c r="H185" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J185" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="72"/>
+      <c r="B186" s="76"/>
+      <c r="C186" s="77"/>
+      <c r="D186" s="78"/>
+      <c r="E186" s="79"/>
+      <c r="F186" s="80"/>
+      <c r="G186" s="81"/>
+      <c r="H186" s="79"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="18"/>
+    </row>
+    <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="C186" s="125"/>
-      <c r="D186" s="125"/>
-      <c r="H186" s="83"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B187" s="12">
-        <v>1</v>
-      </c>
-      <c r="C187" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D187" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F187" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H187" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I187" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="J187" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L187">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C187" s="121"/>
+      <c r="D187" s="121"/>
+      <c r="H187" s="83"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B188" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D188" s="20" t="s">
         <v>43</v>
@@ -8726,7 +8735,7 @@
         <v>39</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H188" s="11" t="s">
         <v>12</v>
@@ -8746,10 +8755,10 @@
         <v>67</v>
       </c>
       <c r="B189" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D189" s="20" t="s">
         <v>43</v>
@@ -8761,7 +8770,7 @@
         <v>39</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H189" s="11" t="s">
         <v>12</v>
@@ -8773,7 +8782,7 @@
         <v>12</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8781,10 +8790,10 @@
         <v>67</v>
       </c>
       <c r="B190" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D190" s="20" t="s">
         <v>43</v>
@@ -8796,7 +8805,7 @@
         <v>39</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H190" s="11" t="s">
         <v>12</v>
@@ -8816,10 +8825,10 @@
         <v>67</v>
       </c>
       <c r="B191" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D191" s="20" t="s">
         <v>43</v>
@@ -8831,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H191" s="11" t="s">
         <v>12</v>
@@ -8851,10 +8860,10 @@
         <v>67</v>
       </c>
       <c r="B192" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>43</v>
@@ -8866,7 +8875,7 @@
         <v>39</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H192" s="11" t="s">
         <v>12</v>
@@ -8886,22 +8895,22 @@
         <v>67</v>
       </c>
       <c r="B193" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D193" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F193" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>421</v>
+        <v>224</v>
       </c>
       <c r="H193" s="11" t="s">
         <v>12</v>
@@ -8916,27 +8925,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B194" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D194" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F194" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>228</v>
+        <v>421</v>
       </c>
       <c r="H194" s="11" t="s">
         <v>12</v>
@@ -8951,15 +8960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B195" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D195" s="20" t="s">
         <v>43</v>
@@ -8971,87 +8980,91 @@
         <v>39</v>
       </c>
       <c r="G195" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J195" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B196" s="12">
+        <v>10</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F196" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G196" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H195" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="J195" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="126" t="s">
+      <c r="H196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="126"/>
-      <c r="D200" s="126"/>
-      <c r="H200" s="88"/>
-    </row>
-    <row r="201" spans="1:12" s="110" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="106">
-        <v>103</v>
-      </c>
-      <c r="B201" s="107"/>
-      <c r="C201" s="107" t="s">
-        <v>417</v>
-      </c>
-      <c r="D201" s="107" t="s">
-        <v>417</v>
-      </c>
-      <c r="E201" s="106" t="s">
-        <v>418</v>
-      </c>
-      <c r="F201" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="G201" s="109" t="s">
-        <v>419</v>
-      </c>
-      <c r="H201" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I201" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L201" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C201" s="126"/>
+      <c r="D201" s="126"/>
+      <c r="H201" s="88"/>
+    </row>
+    <row r="202" spans="1:12" s="110" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="106">
         <v>103</v>
       </c>
-      <c r="B202" s="12">
-        <v>17</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E202" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F202" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="11"/>
+      <c r="B202" s="107"/>
+      <c r="C202" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="D202" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="E202" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="F202" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="G202" s="109" t="s">
+        <v>419</v>
+      </c>
+      <c r="H202" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I202" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J202" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L202">
+      <c r="L202" s="110">
         <v>0</v>
       </c>
     </row>
@@ -9060,19 +9073,19 @@
         <v>103</v>
       </c>
       <c r="B203" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E203" s="17" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="E203" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="11"/>
@@ -9080,42 +9093,40 @@
         <v>2</v>
       </c>
       <c r="J203" s="26" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="106">
         <v>103</v>
       </c>
-      <c r="B204" s="90"/>
-      <c r="C204" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D204" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F204" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="G204" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="H204" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B204" s="12">
+        <v>18</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="11"/>
       <c r="I204" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J204" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="L204" s="95">
+      <c r="J204" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L204">
         <v>0</v>
       </c>
     </row>
@@ -9125,19 +9136,19 @@
       </c>
       <c r="B205" s="90"/>
       <c r="C205" s="91" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D205" s="90" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F205" s="92" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G205" s="93" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H205" s="11" t="s">
         <v>12</v>
@@ -9152,25 +9163,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="106">
         <v>103</v>
       </c>
-      <c r="B206" s="96"/>
-      <c r="C206" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="D206" s="96" t="s">
-        <v>243</v>
+      <c r="B206" s="90"/>
+      <c r="C206" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D206" s="90" t="s">
+        <v>240</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F206" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="G206" s="99" t="s">
-        <v>245</v>
+      <c r="F206" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="G206" s="93" t="s">
+        <v>242</v>
       </c>
       <c r="H206" s="11" t="s">
         <v>12</v>
@@ -9178,10 +9189,10 @@
       <c r="I206" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J206" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="L206" s="101">
+      <c r="J206" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="L206" s="95">
         <v>0</v>
       </c>
     </row>
@@ -9191,19 +9202,19 @@
       </c>
       <c r="B207" s="96"/>
       <c r="C207" s="97" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="D207" s="96" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F207" s="98" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G207" s="99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H207" s="11" t="s">
         <v>12</v>
@@ -9224,19 +9235,19 @@
       </c>
       <c r="B208" s="96"/>
       <c r="C208" s="97" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D208" s="96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F208" s="98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G208" s="99" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H208" s="11" t="s">
         <v>12</v>
@@ -9251,25 +9262,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="106">
         <v>103</v>
       </c>
-      <c r="B209" s="90"/>
-      <c r="C209" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="D209" s="90" t="s">
-        <v>255</v>
+      <c r="B209" s="96"/>
+      <c r="C209" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="D209" s="96" t="s">
+        <v>251</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F209" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="G209" s="93">
-        <v>1</v>
+      <c r="F209" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="G209" s="99" t="s">
+        <v>253</v>
       </c>
       <c r="H209" s="11" t="s">
         <v>12</v>
@@ -9277,32 +9288,32 @@
       <c r="I209" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J209" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="L209" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J209" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="L209" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="106">
         <v>103</v>
       </c>
-      <c r="B210" s="96"/>
-      <c r="C210" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="D210" s="96" t="s">
-        <v>258</v>
+      <c r="B210" s="90"/>
+      <c r="C210" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="D210" s="90" t="s">
+        <v>255</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F210" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="G210" s="99" t="s">
-        <v>260</v>
+      <c r="F210" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="G210" s="93">
+        <v>1</v>
       </c>
       <c r="H210" s="11" t="s">
         <v>12</v>
@@ -9310,32 +9321,32 @@
       <c r="I210" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J210" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="L210" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J210" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="L210" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="106">
         <v>103</v>
       </c>
-      <c r="B211" s="90"/>
-      <c r="C211" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="D211" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="E211" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="F211" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="G211" s="93" t="s">
-        <v>249</v>
+      <c r="B211" s="96"/>
+      <c r="C211" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D211" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F211" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="G211" s="99" t="s">
+        <v>260</v>
       </c>
       <c r="H211" s="11" t="s">
         <v>12</v>
@@ -9343,10 +9354,10 @@
       <c r="I211" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J211" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="L211" s="95">
+      <c r="J211" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="L211" s="101">
         <v>0</v>
       </c>
     </row>
@@ -9356,18 +9367,20 @@
       </c>
       <c r="B212" s="90"/>
       <c r="C212" s="91" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D212" s="90" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E212" s="93" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="F212" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="G212" s="93"/>
+        <v>263</v>
+      </c>
+      <c r="G212" s="93" t="s">
+        <v>249</v>
+      </c>
       <c r="H212" s="11" t="s">
         <v>12</v>
       </c>
@@ -9381,36 +9394,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="106">
         <v>103</v>
       </c>
-      <c r="B213" s="96"/>
-      <c r="C213" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="D213" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="E213" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="F213" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="G213" s="99" t="s">
-        <v>249</v>
-      </c>
+      <c r="B213" s="90"/>
+      <c r="C213" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D213" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E213" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="F213" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G213" s="93"/>
       <c r="H213" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I213" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J213" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="L213" s="101">
+      <c r="J213" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="L213" s="95">
         <v>0</v>
       </c>
     </row>
@@ -9420,19 +9431,19 @@
       </c>
       <c r="B214" s="96"/>
       <c r="C214" s="97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D214" s="96" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E214" s="99" t="s">
         <v>134</v>
       </c>
       <c r="F214" s="98" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G214" s="99" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H214" s="11" t="s">
         <v>12</v>
@@ -9453,19 +9464,19 @@
       </c>
       <c r="B215" s="96"/>
       <c r="C215" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D215" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>236</v>
+        <v>91</v>
+      </c>
+      <c r="E215" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="F215" s="98" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G215" s="99" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
       <c r="H215" s="11" t="s">
         <v>12</v>
@@ -9480,25 +9491,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="106">
         <v>103</v>
       </c>
-      <c r="B216" s="12"/>
-      <c r="C216" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D216" s="23" t="s">
-        <v>274</v>
+      <c r="B216" s="96"/>
+      <c r="C216" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D216" s="96" t="s">
+        <v>272</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F216" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="G216" s="81" t="s">
-        <v>276</v>
+        <v>236</v>
+      </c>
+      <c r="F216" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="G216" s="99" t="s">
+        <v>420</v>
       </c>
       <c r="H216" s="11" t="s">
         <v>12</v>
@@ -9506,10 +9517,10 @@
       <c r="I216" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J216" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L216">
+      <c r="J216" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="L216" s="101">
         <v>0</v>
       </c>
     </row>
@@ -9519,10 +9530,10 @@
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>58</v>
@@ -9531,85 +9542,87 @@
         <v>275</v>
       </c>
       <c r="G217" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="H217" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I217" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="J217" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="106">
+        <v>103</v>
+      </c>
+      <c r="B218" s="12"/>
+      <c r="C218" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F218" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G218" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="H217" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I217" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J217" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="127" t="s">
+      <c r="H218" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I218" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="J218" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="C219" s="127"/>
-      <c r="D219" s="127"/>
-      <c r="H219" s="75"/>
-    </row>
-    <row r="220" spans="1:12" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="89">
-        <v>108</v>
-      </c>
-      <c r="B220" s="90"/>
-      <c r="C220" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="D220" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="E220" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="F220" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="G220" s="93"/>
-      <c r="H220" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I220" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="J220" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="127"/>
+      <c r="D220" s="127"/>
+      <c r="H220" s="75"/>
+    </row>
+    <row r="221" spans="1:12" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="89">
         <v>108</v>
       </c>
-      <c r="B221" s="96"/>
-      <c r="C221" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="D221" s="96" t="s">
-        <v>284</v>
-      </c>
-      <c r="E221" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="F221" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="G221" s="99"/>
+      <c r="B221" s="90"/>
+      <c r="C221" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D221" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="E221" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="F221" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="G221" s="93"/>
       <c r="H221" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I221" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="J221" s="100" t="s">
+      <c r="I221" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="J221" s="94" t="s">
         <v>12</v>
       </c>
       <c r="L221">
@@ -9622,20 +9635,18 @@
       </c>
       <c r="B222" s="96"/>
       <c r="C222" s="97" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D222" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>236</v>
+      <c r="E222" s="99" t="s">
+        <v>264</v>
       </c>
       <c r="F222" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="G222" s="99" t="s">
-        <v>260</v>
-      </c>
+      <c r="G222" s="99"/>
       <c r="H222" s="90" t="s">
         <v>12</v>
       </c>
@@ -9655,18 +9666,20 @@
       </c>
       <c r="B223" s="96"/>
       <c r="C223" s="97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D223" s="96" t="s">
-        <v>288</v>
-      </c>
-      <c r="E223" s="99" t="s">
-        <v>264</v>
+        <v>284</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F223" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="G223" s="99"/>
+        <v>285</v>
+      </c>
+      <c r="G223" s="99" t="s">
+        <v>260</v>
+      </c>
       <c r="H223" s="90" t="s">
         <v>12</v>
       </c>
@@ -9686,20 +9699,18 @@
       </c>
       <c r="B224" s="96"/>
       <c r="C224" s="97" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D224" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>236</v>
+      <c r="E224" s="99" t="s">
+        <v>264</v>
       </c>
       <c r="F224" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="G224" s="99" t="s">
-        <v>260</v>
-      </c>
+      <c r="G224" s="99"/>
       <c r="H224" s="90" t="s">
         <v>12</v>
       </c>
@@ -9719,18 +9730,20 @@
       </c>
       <c r="B225" s="96"/>
       <c r="C225" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D225" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="E225" s="99" t="s">
-        <v>264</v>
+        <v>288</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F225" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="G225" s="99"/>
+        <v>289</v>
+      </c>
+      <c r="G225" s="99" t="s">
+        <v>260</v>
+      </c>
       <c r="H225" s="90" t="s">
         <v>12</v>
       </c>
@@ -9750,20 +9763,18 @@
       </c>
       <c r="B226" s="96"/>
       <c r="C226" s="97" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D226" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>236</v>
+      <c r="E226" s="99" t="s">
+        <v>264</v>
       </c>
       <c r="F226" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="G226" s="99" t="s">
-        <v>260</v>
-      </c>
+      <c r="G226" s="99"/>
       <c r="H226" s="90" t="s">
         <v>12</v>
       </c>
@@ -9783,19 +9794,19 @@
       </c>
       <c r="B227" s="96"/>
       <c r="C227" s="97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D227" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="E227" s="99" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F227" s="98" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G227" s="99" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="H227" s="90" t="s">
         <v>12</v>
@@ -9816,17 +9827,19 @@
       </c>
       <c r="B228" s="96"/>
       <c r="C228" s="97" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D228" s="96" t="s">
         <v>296</v>
       </c>
       <c r="E228" s="99" t="s">
-        <v>301</v>
-      </c>
-      <c r="F228" s="98"/>
+        <v>297</v>
+      </c>
+      <c r="F228" s="98" t="s">
+        <v>298</v>
+      </c>
       <c r="G228" s="99" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H228" s="90" t="s">
         <v>12</v>
@@ -9841,25 +9854,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="89">
         <v>108</v>
       </c>
       <c r="B229" s="96"/>
       <c r="C229" s="97" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D229" s="96" t="s">
-        <v>304</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F229" s="98" t="s">
-        <v>305</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="E229" s="99" t="s">
+        <v>301</v>
+      </c>
+      <c r="F229" s="98"/>
       <c r="G229" s="99" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="H229" s="90" t="s">
         <v>12</v>
@@ -9874,33 +9885,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="89">
         <v>108</v>
       </c>
-      <c r="B230" s="14"/>
-      <c r="C230" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D230" s="45" t="s">
-        <v>307</v>
+      <c r="B230" s="96"/>
+      <c r="C230" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="D230" s="96" t="s">
+        <v>304</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F230" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>309</v>
+        <v>236</v>
+      </c>
+      <c r="F230" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="G230" s="99" t="s">
+        <v>260</v>
       </c>
       <c r="H230" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I230" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J230" s="26"/>
+      <c r="I230" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="J230" s="100" t="s">
+        <v>12</v>
+      </c>
       <c r="L230">
         <v>0</v>
       </c>
@@ -9909,16 +9922,21 @@
       <c r="A231" s="89">
         <v>108</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="D231" s="23" t="s">
-        <v>310</v>
+      <c r="B231" s="14"/>
+      <c r="C231" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D231" s="45" t="s">
+        <v>307</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F231" s="24"/>
-      <c r="G231" s="81" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="F231" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="H231" s="90" t="s">
         <v>12</v>
@@ -9926,9 +9944,7 @@
       <c r="I231" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J231" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="J231" s="26"/>
       <c r="L231">
         <v>0</v>
       </c>
@@ -9937,21 +9953,16 @@
       <c r="A232" s="89">
         <v>108</v>
       </c>
-      <c r="B232" s="14"/>
-      <c r="C232" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D232" s="45" t="s">
-        <v>314</v>
+      <c r="B232" s="12"/>
+      <c r="D232" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F232" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="F232" s="24"/>
+      <c r="G232" s="81" t="s">
+        <v>312</v>
       </c>
       <c r="H232" s="90" t="s">
         <v>12</v>
@@ -9959,7 +9970,9 @@
       <c r="I232" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J232" s="26"/>
+      <c r="J232" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="L232">
         <v>0</v>
       </c>
@@ -9969,18 +9982,20 @@
         <v>108</v>
       </c>
       <c r="B233" s="14"/>
-      <c r="C233" s="22"/>
+      <c r="C233" s="22" t="s">
+        <v>313</v>
+      </c>
       <c r="D233" s="45" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F233" s="46" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H233" s="90" t="s">
         <v>12</v>
@@ -9997,16 +10012,19 @@
       <c r="A234" s="89">
         <v>108</v>
       </c>
-      <c r="B234" s="12"/>
-      <c r="D234" s="23" t="s">
-        <v>310</v>
+      <c r="B234" s="14"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="45" t="s">
+        <v>317</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F234" s="24"/>
-      <c r="G234" s="81" t="s">
-        <v>320</v>
+        <v>297</v>
+      </c>
+      <c r="F234" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H234" s="90" t="s">
         <v>12</v>
@@ -10014,9 +10032,7 @@
       <c r="I234" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J234" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="J234" s="26"/>
       <c r="L234">
         <v>0</v>
       </c>
@@ -10025,18 +10041,16 @@
       <c r="A235" s="89">
         <v>108</v>
       </c>
-      <c r="B235" s="14"/>
-      <c r="D235" s="45" t="s">
-        <v>322</v>
+      <c r="B235" s="12"/>
+      <c r="D235" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F235" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
+      </c>
+      <c r="F235" s="24"/>
+      <c r="G235" s="81" t="s">
+        <v>320</v>
       </c>
       <c r="H235" s="90" t="s">
         <v>12</v>
@@ -10044,7 +10058,9 @@
       <c r="I235" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J235" s="26"/>
+      <c r="J235" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="L235">
         <v>0</v>
       </c>
@@ -10054,18 +10070,17 @@
         <v>108</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="102"/>
       <c r="D236" s="45" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F236" s="46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H236" s="90" t="s">
         <v>12</v>
@@ -10073,9 +10088,7 @@
       <c r="I236" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J236" s="26" t="s">
-        <v>328</v>
-      </c>
+      <c r="J236" s="26"/>
       <c r="L236">
         <v>0</v>
       </c>
@@ -10084,17 +10097,19 @@
       <c r="A237" s="89">
         <v>108</v>
       </c>
-      <c r="B237" s="12"/>
-      <c r="C237" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="D237" s="23"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="102"/>
+      <c r="D237" s="45" t="s">
+        <v>325</v>
+      </c>
       <c r="E237" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F237" s="24"/>
-      <c r="G237" s="81" t="s">
-        <v>330</v>
+        <v>297</v>
+      </c>
+      <c r="F237" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="H237" s="90" t="s">
         <v>12</v>
@@ -10103,7 +10118,7 @@
         <v>2</v>
       </c>
       <c r="J237" s="26" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -10113,23 +10128,17 @@
       <c r="A238" s="89">
         <v>108</v>
       </c>
-      <c r="B238" s="14">
-        <v>21</v>
-      </c>
+      <c r="B238" s="12"/>
       <c r="C238" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D238" s="45" t="s">
-        <v>107</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="D238" s="23"/>
       <c r="E238" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F238" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="G238" s="2">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="F238" s="24"/>
+      <c r="G238" s="81" t="s">
+        <v>330</v>
       </c>
       <c r="H238" s="90" t="s">
         <v>12</v>
@@ -10152,16 +10161,16 @@
         <v>21</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D239" s="45" t="s">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F239" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G239" s="2">
         <v>0</v>
@@ -10187,16 +10196,16 @@
         <v>21</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D240" s="45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F240" s="46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G240" s="2">
         <v>0</v>
@@ -10222,16 +10231,16 @@
         <v>21</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D241" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F241" s="46" t="s">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="G241" s="2">
         <v>0</v>
@@ -10257,18 +10266,20 @@
         <v>21</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D242" s="45" t="s">
         <v>337</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="F242" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="G242" s="2"/>
+      <c r="G242" s="2">
+        <v>0</v>
+      </c>
       <c r="H242" s="90" t="s">
         <v>12</v>
       </c>
@@ -10286,19 +10297,22 @@
       <c r="A243" s="89">
         <v>108</v>
       </c>
-      <c r="B243" s="14"/>
+      <c r="B243" s="14">
+        <v>21</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>339</v>
+      </c>
       <c r="D243" s="45" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F243" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>343</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="G243" s="2"/>
       <c r="H243" s="90" t="s">
         <v>12</v>
       </c>
@@ -10306,27 +10320,28 @@
         <v>2</v>
       </c>
       <c r="J243" s="26" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="L243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="89">
         <v>108</v>
       </c>
       <c r="B244" s="14"/>
-      <c r="C244" s="102" t="s">
-        <v>464</v>
-      </c>
-      <c r="D244" s="45"/>
+      <c r="D244" s="45" t="s">
+        <v>341</v>
+      </c>
       <c r="E244" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F244" s="46"/>
+        <v>297</v>
+      </c>
+      <c r="F244" s="46" t="s">
+        <v>342</v>
+      </c>
       <c r="G244" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H244" s="90" t="s">
         <v>12</v>
@@ -10341,35 +10356,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="89">
         <v>108</v>
       </c>
-      <c r="B245" s="35"/>
-      <c r="C245" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="D245" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="E245" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="F245" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G245" s="41"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="D245" s="45"/>
+      <c r="E245" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F245" s="46"/>
+      <c r="G245" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="H245" s="90" t="s">
         <v>12</v>
       </c>
       <c r="I245" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J245" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K245" s="39" t="s">
-        <v>349</v>
+      <c r="J245" s="26" t="s">
+        <v>328</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -10381,16 +10391,16 @@
       </c>
       <c r="B246" s="35"/>
       <c r="C246" s="39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D246" s="38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E246" s="27" t="s">
         <v>348</v>
       </c>
       <c r="F246" s="24" t="s">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="G246" s="41"/>
       <c r="H246" s="90" t="s">
@@ -10403,7 +10413,7 @@
         <v>12</v>
       </c>
       <c r="K246" s="39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -10415,16 +10425,16 @@
       </c>
       <c r="B247" s="35"/>
       <c r="C247" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D247" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E247" s="27" t="s">
         <v>348</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G247" s="41"/>
       <c r="H247" s="90" t="s">
@@ -10449,16 +10459,16 @@
       </c>
       <c r="B248" s="35"/>
       <c r="C248" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D248" s="38" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="E248" s="27" t="s">
         <v>348</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="G248" s="41"/>
       <c r="H248" s="90" t="s">
@@ -10471,7 +10481,7 @@
         <v>12</v>
       </c>
       <c r="K248" s="39" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -10483,16 +10493,16 @@
       </c>
       <c r="B249" s="35"/>
       <c r="C249" s="39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D249" s="38" t="s">
-        <v>360</v>
+        <v>124</v>
       </c>
       <c r="E249" s="27" t="s">
         <v>348</v>
       </c>
       <c r="F249" s="24" t="s">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="G249" s="41"/>
       <c r="H249" s="90" t="s">
@@ -10505,7 +10515,7 @@
         <v>12</v>
       </c>
       <c r="K249" s="39" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -10517,26 +10527,29 @@
       </c>
       <c r="B250" s="35"/>
       <c r="C250" s="39" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>360</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="F250" s="24" t="s">
         <v>361</v>
       </c>
       <c r="G250" s="41"/>
       <c r="H250" s="90" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I250" s="25" t="s">
         <v>2</v>
       </c>
       <c r="J250" s="38" t="s">
         <v>12</v>
+      </c>
+      <c r="K250" s="39" t="s">
+        <v>362</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -10546,22 +10559,22 @@
       <c r="A251" s="89">
         <v>108</v>
       </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="D251" s="17"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D251" s="38" t="s">
+        <v>360</v>
+      </c>
       <c r="E251" s="27" t="s">
-        <v>365</v>
+        <v>47</v>
       </c>
       <c r="F251" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G251" s="42" t="s">
-        <v>364</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G251" s="41"/>
       <c r="H251" s="90" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I251" s="25" t="s">
         <v>2</v>
@@ -10569,108 +10582,104 @@
       <c r="J251" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K251" s="39" t="s">
-        <v>366</v>
-      </c>
       <c r="L251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="89">
         <v>108</v>
       </c>
-      <c r="B252" s="12">
+      <c r="B252" s="12"/>
+      <c r="C252" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D252" s="17"/>
+      <c r="E252" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="F252" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G252" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="H252" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I252" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J252" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K252" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="89">
+        <v>108</v>
+      </c>
+      <c r="B253" s="12">
         <v>22</v>
       </c>
-      <c r="C252" s="85" t="s">
+      <c r="C253" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="D252" s="86" t="s">
+      <c r="D253" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="E252" s="104" t="s">
+      <c r="E253" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="F252" s="85"/>
-      <c r="G252" s="18"/>
-      <c r="H252" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I252" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J252" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="128" t="s">
+      <c r="F253" s="85"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I253" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J253" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="C253" s="128"/>
-      <c r="D253" s="128"/>
-      <c r="H253" s="83"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B254" s="12">
-        <v>20</v>
-      </c>
-      <c r="C254" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="D254" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F254" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G254" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="H254" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I254" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J254" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L254">
-        <v>0</v>
-      </c>
+      <c r="C254" s="128"/>
+      <c r="D254" s="128"/>
+      <c r="H254" s="83"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B255" s="14">
-        <v>21</v>
+      <c r="B255" s="12">
+        <v>20</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D255" s="45" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F255" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>375</v>
+      <c r="F255" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G255" s="105" t="s">
+        <v>154</v>
       </c>
       <c r="H255" s="11" t="s">
         <v>12</v>
@@ -10689,21 +10698,23 @@
       <c r="A256" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B256" s="14"/>
-      <c r="C256" s="102" t="s">
-        <v>376</v>
+      <c r="B256" s="14">
+        <v>21</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="D256" s="45" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F256" s="46" t="s">
-        <v>89</v>
+        <v>374</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H256" s="11" t="s">
         <v>12</v>
@@ -10711,7 +10722,9 @@
       <c r="I256" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J256" s="26"/>
+      <c r="J256" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="L256">
         <v>0</v>
       </c>
@@ -10721,18 +10734,20 @@
         <v>367</v>
       </c>
       <c r="B257" s="14"/>
-      <c r="C257" s="22"/>
+      <c r="C257" s="102" t="s">
+        <v>376</v>
+      </c>
       <c r="D257" s="45" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F257" s="46" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H257" s="11" t="s">
         <v>12</v>
@@ -10752,14 +10767,16 @@
       <c r="B258" s="14"/>
       <c r="C258" s="22"/>
       <c r="D258" s="45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F258" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="F258" s="46" t="s">
+        <v>380</v>
+      </c>
       <c r="G258" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H258" s="11" t="s">
         <v>12</v>
@@ -10776,21 +10793,17 @@
       <c r="A259" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B259" s="12"/>
-      <c r="C259" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>385</v>
+      <c r="B259" s="14"/>
+      <c r="C259" s="22"/>
+      <c r="D259" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F259" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>12</v>
+        <v>311</v>
+      </c>
+      <c r="F259" s="46"/>
+      <c r="G259" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="H259" s="11" t="s">
         <v>12</v>
@@ -10798,9 +10811,7 @@
       <c r="I259" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J259" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="J259" s="26"/>
       <c r="L259">
         <v>0</v>
       </c>
@@ -10810,15 +10821,17 @@
         <v>367</v>
       </c>
       <c r="B260" s="12"/>
-      <c r="C260" s="22"/>
+      <c r="C260" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="D260" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>12</v>
@@ -10843,13 +10856,13 @@
       <c r="B261" s="12"/>
       <c r="C261" s="22"/>
       <c r="D261" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>12</v>
@@ -10874,13 +10887,13 @@
       <c r="B262" s="12"/>
       <c r="C262" s="22"/>
       <c r="D262" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F262" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>12</v>
@@ -10905,13 +10918,13 @@
       <c r="B263" s="12"/>
       <c r="C263" s="22"/>
       <c r="D263" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F263" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>12</v>
@@ -10934,19 +10947,19 @@
         <v>367</v>
       </c>
       <c r="B264" s="12"/>
-      <c r="C264" s="22" t="s">
-        <v>395</v>
-      </c>
+      <c r="C264" s="22"/>
       <c r="D264" s="23" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="G264" s="3"/>
+        <v>394</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H264" s="11" t="s">
         <v>12</v>
       </c>
@@ -10965,15 +10978,17 @@
         <v>367</v>
       </c>
       <c r="B265" s="12"/>
-      <c r="C265" s="22"/>
+      <c r="C265" s="22" t="s">
+        <v>395</v>
+      </c>
       <c r="D265" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="11" t="s">
@@ -10989,67 +11004,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="128" t="s">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B266" s="12"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F266" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="G266" s="3"/>
+      <c r="H266" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I266" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J266" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="C266" s="128"/>
-      <c r="D266" s="128"/>
-      <c r="H266" s="83"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>110</v>
-      </c>
-      <c r="B267" s="12">
-        <v>19</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F267" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G267" s="2"/>
-      <c r="H267" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I267" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J267" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L267">
-        <v>0</v>
-      </c>
+      <c r="C267" s="128"/>
+      <c r="D267" s="128"/>
+      <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>110</v>
       </c>
       <c r="B268" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F268" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G268" s="105"/>
+        <v>162</v>
+      </c>
+      <c r="G268" s="2"/>
       <c r="H268" s="11" t="s">
         <v>12</v>
       </c>
@@ -11067,22 +11078,22 @@
       <c r="A269" s="2">
         <v>110</v>
       </c>
-      <c r="B269" s="14">
-        <v>21</v>
+      <c r="B269" s="12">
+        <v>20</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D269" s="45" t="s">
-        <v>397</v>
+        <v>370</v>
+      </c>
+      <c r="D269" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F269" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="G269" s="2"/>
+      <c r="F269" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G269" s="105"/>
       <c r="H269" s="11" t="s">
         <v>12</v>
       </c>
@@ -11104,16 +11115,16 @@
         <v>21</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D270" s="45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F270" s="46" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G270" s="2"/>
       <c r="H270" s="11" t="s">
@@ -11137,16 +11148,16 @@
         <v>21</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>183</v>
+        <v>399</v>
       </c>
       <c r="D271" s="45" t="s">
-        <v>169</v>
+        <v>400</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F271" s="46" t="s">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="11" t="s">
@@ -11170,16 +11181,16 @@
         <v>21</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="D272" s="45" t="s">
-        <v>403</v>
+        <v>169</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F272" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="11" t="s">
@@ -11203,16 +11214,16 @@
         <v>21</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="D273" s="45" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F273" s="46" t="s">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="G273" s="2"/>
       <c r="H273" s="11" t="s">
@@ -11232,47 +11243,54 @@
       <c r="A274" s="2">
         <v>110</v>
       </c>
-      <c r="B274" s="14"/>
-      <c r="C274" s="102" t="s">
-        <v>376</v>
+      <c r="B274" s="14">
+        <v>21</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="D274" s="45" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="F274" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>378</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="G274" s="2"/>
       <c r="H274" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I274" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J274" s="26"/>
+      <c r="J274" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>110</v>
       </c>
       <c r="B275" s="14"/>
-      <c r="C275" s="22"/>
+      <c r="C275" s="102" t="s">
+        <v>376</v>
+      </c>
       <c r="D275" s="45" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F275" s="46" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H275" s="11" t="s">
         <v>12</v>
@@ -11289,14 +11307,16 @@
       <c r="B276" s="14"/>
       <c r="C276" s="22"/>
       <c r="D276" s="45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F276" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="F276" s="46" t="s">
+        <v>380</v>
+      </c>
       <c r="G276" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H276" s="11" t="s">
         <v>12</v>
@@ -11310,21 +11330,17 @@
       <c r="A277" s="2">
         <v>110</v>
       </c>
-      <c r="B277" s="12"/>
-      <c r="C277" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="D277" s="23" t="s">
-        <v>385</v>
+      <c r="B277" s="14"/>
+      <c r="C277" s="22"/>
+      <c r="D277" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F277" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>12</v>
+        <v>311</v>
+      </c>
+      <c r="F277" s="46"/>
+      <c r="G277" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="H277" s="11" t="s">
         <v>12</v>
@@ -11332,27 +11348,24 @@
       <c r="I277" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J277" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L277">
-        <v>0</v>
-      </c>
+      <c r="J277" s="26"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>110</v>
       </c>
       <c r="B278" s="12"/>
-      <c r="C278" s="22"/>
+      <c r="C278" s="22" t="s">
+        <v>384</v>
+      </c>
       <c r="D278" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>12</v>
@@ -11377,13 +11390,13 @@
       <c r="B279" s="12"/>
       <c r="C279" s="22"/>
       <c r="D279" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>12</v>
@@ -11408,13 +11421,13 @@
       <c r="B280" s="12"/>
       <c r="C280" s="22"/>
       <c r="D280" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>12</v>
@@ -11439,13 +11452,13 @@
       <c r="B281" s="12"/>
       <c r="C281" s="22"/>
       <c r="D281" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>12</v>
@@ -11470,13 +11483,13 @@
       <c r="B282" s="12"/>
       <c r="C282" s="22"/>
       <c r="D282" s="23" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>12</v>
@@ -11501,13 +11514,13 @@
       <c r="B283" s="12"/>
       <c r="C283" s="22"/>
       <c r="D283" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>12</v>
@@ -11530,19 +11543,19 @@
         <v>110</v>
       </c>
       <c r="B284" s="12"/>
-      <c r="C284" s="22" t="s">
-        <v>395</v>
-      </c>
+      <c r="C284" s="22"/>
       <c r="D284" s="23" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="G284" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H284" s="11" t="s">
         <v>12</v>
       </c>
@@ -11561,15 +11574,17 @@
         <v>110</v>
       </c>
       <c r="B285" s="12"/>
-      <c r="C285" s="22"/>
+      <c r="C285" s="22" t="s">
+        <v>395</v>
+      </c>
       <c r="D285" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G285" s="3"/>
       <c r="H285" s="11" t="s">
@@ -11592,13 +11607,13 @@
       <c r="B286" s="12"/>
       <c r="C286" s="22"/>
       <c r="D286" s="23" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G286" s="3"/>
       <c r="H286" s="11" t="s">
@@ -11619,21 +11634,17 @@
         <v>110</v>
       </c>
       <c r="B287" s="12"/>
-      <c r="C287" s="22" t="s">
-        <v>408</v>
-      </c>
+      <c r="C287" s="22"/>
       <c r="D287" s="23" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>410</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G287" s="3"/>
       <c r="H287" s="11" t="s">
         <v>12</v>
       </c>
@@ -11652,18 +11663,20 @@
         <v>110</v>
       </c>
       <c r="B288" s="12"/>
-      <c r="C288" s="22"/>
+      <c r="C288" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D288" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="H288" s="11" t="s">
         <v>12</v>
@@ -11685,99 +11698,97 @@
       <c r="B289" s="12"/>
       <c r="C289" s="22"/>
       <c r="D289" s="23" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F289" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H289" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I289" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J289" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>110</v>
+      </c>
+      <c r="B290" s="12"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F290" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="G289" s="3" t="s">
+      <c r="G290" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="H289" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I289" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J289" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="125" t="s">
+      <c r="H290" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I290" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J290" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="C290" s="125"/>
-      <c r="D290" s="125"/>
-      <c r="H290" s="83"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
-        <v>111</v>
-      </c>
-      <c r="B291" s="12">
-        <v>6</v>
-      </c>
-      <c r="C291" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E291" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F291" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G291" s="3"/>
-      <c r="H291" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J291" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L291">
-        <v>0</v>
-      </c>
+      <c r="C291" s="121"/>
+      <c r="D291" s="121"/>
+      <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>111</v>
       </c>
       <c r="B292" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D292" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E292" s="17" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="E292" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G292" s="3"/>
       <c r="H292" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I292" s="25" t="s">
+      <c r="I292" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J292" s="26" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L292">
         <v>0</v>
@@ -11788,34 +11799,32 @@
         <v>111</v>
       </c>
       <c r="B293" s="12">
-        <v>8</v>
-      </c>
-      <c r="C293" t="s">
-        <v>93</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F293" t="s">
-        <v>96</v>
-      </c>
-      <c r="G293" t="s">
-        <v>174</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D293" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E293" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F293" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G293" s="3"/>
       <c r="H293" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I293" t="s">
-        <v>2</v>
-      </c>
-      <c r="J293" t="s">
-        <v>12</v>
-      </c>
-      <c r="K293" t="s">
-        <v>175</v>
+      <c r="I293" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J293" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -11823,19 +11832,22 @@
         <v>111</v>
       </c>
       <c r="B294" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F294" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="G294" t="s">
+        <v>174</v>
       </c>
       <c r="H294" s="11" t="s">
         <v>2</v>
@@ -11846,8 +11858,8 @@
       <c r="J294" t="s">
         <v>12</v>
       </c>
-      <c r="L294">
-        <v>1</v>
+      <c r="K294" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -11855,22 +11867,19 @@
         <v>111</v>
       </c>
       <c r="B295" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F295" t="s">
-        <v>104</v>
-      </c>
-      <c r="G295" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="H295" s="11" t="s">
         <v>2</v>
@@ -11889,34 +11898,35 @@
       <c r="A296" s="2">
         <v>111</v>
       </c>
-      <c r="B296" s="35"/>
-      <c r="C296" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D296" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F296" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G296" s="44" t="s">
-        <v>163</v>
+      <c r="B296" s="12">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>102</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F296" t="s">
+        <v>104</v>
+      </c>
+      <c r="G296" t="s">
+        <v>191</v>
       </c>
       <c r="H296" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I296" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J296" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K296" s="39"/>
-      <c r="L296" s="40">
-        <v>3</v>
+      <c r="I296" t="s">
+        <v>2</v>
+      </c>
+      <c r="J296" t="s">
+        <v>12</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -11925,16 +11935,16 @@
       </c>
       <c r="B297" s="35"/>
       <c r="C297" s="51" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G297" s="44" t="s">
         <v>163</v>
@@ -11959,30 +11969,32 @@
       </c>
       <c r="B298" s="35"/>
       <c r="C298" s="51" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E298" s="27" t="s">
-        <v>47</v>
+        <v>172</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G298" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="G298" s="44" t="s">
+        <v>163</v>
+      </c>
       <c r="H298" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I298" s="27" t="s">
+      <c r="I298" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J298" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K298" s="39"/>
       <c r="L298" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -11990,12 +12002,18 @@
         <v>111</v>
       </c>
       <c r="B299" s="35"/>
-      <c r="C299" s="51"/>
-      <c r="D299" s="38"/>
+      <c r="C299" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="E299" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F299" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="F299" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="G299" s="41"/>
       <c r="H299" s="11" t="s">
         <v>2</v>
@@ -12004,84 +12022,77 @@
         <v>2</v>
       </c>
       <c r="J299" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K299" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K299" s="39"/>
+      <c r="L299" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>111</v>
+      </c>
+      <c r="B300" s="35"/>
+      <c r="C300" s="51"/>
+      <c r="D300" s="38"/>
+      <c r="E300" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F300" s="24"/>
+      <c r="G300" s="41"/>
+      <c r="H300" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I300" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J300" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K300" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="L299" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="121" t="s">
+      <c r="L300" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="122" t="s">
         <v>414</v>
       </c>
-      <c r="C300" s="121"/>
-      <c r="D300" s="121"/>
-      <c r="H300" s="83"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
-        <v>112</v>
-      </c>
-      <c r="B301" s="12">
-        <v>6</v>
-      </c>
-      <c r="C301" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D301" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E301" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F301" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G301" s="3"/>
-      <c r="H301" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I301" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J301" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L301">
-        <v>0</v>
-      </c>
+      <c r="C301" s="122"/>
+      <c r="D301" s="122"/>
+      <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>112</v>
       </c>
       <c r="B302" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E302" s="17" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="E302" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G302" s="3"/>
       <c r="H302" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I302" s="25" t="s">
+      <c r="I302" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J302" s="26" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -12092,34 +12103,32 @@
         <v>112</v>
       </c>
       <c r="B303" s="12">
-        <v>8</v>
-      </c>
-      <c r="C303" t="s">
-        <v>93</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F303" t="s">
-        <v>96</v>
-      </c>
-      <c r="G303" t="s">
-        <v>192</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E303" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F303" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G303" s="3"/>
       <c r="H303" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I303" t="s">
-        <v>2</v>
-      </c>
-      <c r="J303" t="s">
-        <v>12</v>
-      </c>
-      <c r="K303" t="s">
-        <v>175</v>
+      <c r="I303" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J303" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -12127,19 +12136,22 @@
         <v>112</v>
       </c>
       <c r="B304" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F304" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="G304" t="s">
+        <v>192</v>
       </c>
       <c r="H304" s="11" t="s">
         <v>2</v>
@@ -12150,8 +12162,8 @@
       <c r="J304" t="s">
         <v>12</v>
       </c>
-      <c r="L304">
-        <v>1</v>
+      <c r="K304" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -12159,22 +12171,19 @@
         <v>112</v>
       </c>
       <c r="B305" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F305" t="s">
-        <v>104</v>
-      </c>
-      <c r="G305" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="H305" s="11" t="s">
         <v>2</v>
@@ -12193,34 +12202,35 @@
       <c r="A306" s="2">
         <v>112</v>
       </c>
-      <c r="B306" s="35"/>
-      <c r="C306" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D306" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F306" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G306" s="44" t="s">
-        <v>163</v>
+      <c r="B306" s="12">
+        <v>10</v>
+      </c>
+      <c r="C306" t="s">
+        <v>102</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F306" t="s">
+        <v>104</v>
+      </c>
+      <c r="G306" t="s">
+        <v>191</v>
       </c>
       <c r="H306" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I306" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J306" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K306" s="39"/>
-      <c r="L306" s="40">
-        <v>3</v>
+      <c r="I306" t="s">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>12</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -12229,30 +12239,32 @@
       </c>
       <c r="B307" s="35"/>
       <c r="C307" s="51" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D307" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E307" s="27" t="s">
-        <v>47</v>
+        <v>161</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F307" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G307" s="41"/>
+        <v>162</v>
+      </c>
+      <c r="G307" s="44" t="s">
+        <v>163</v>
+      </c>
       <c r="H307" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I307" s="27" t="s">
+      <c r="I307" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J307" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K307" s="39"/>
       <c r="L307" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -12260,12 +12272,18 @@
         <v>112</v>
       </c>
       <c r="B308" s="35"/>
-      <c r="C308" s="51"/>
-      <c r="D308" s="38"/>
+      <c r="C308" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="E308" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F308" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="F308" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="G308" s="41"/>
       <c r="H308" s="11" t="s">
         <v>2</v>
@@ -12274,66 +12292,56 @@
         <v>2</v>
       </c>
       <c r="J308" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K308" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K308" s="39"/>
+      <c r="L308" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>112</v>
+      </c>
+      <c r="B309" s="35"/>
+      <c r="C309" s="51"/>
+      <c r="D309" s="38"/>
+      <c r="E309" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F309" s="24"/>
+      <c r="G309" s="41"/>
+      <c r="H309" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I309" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J309" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K309" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="L308" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" s="111"/>
-      <c r="B309" s="122" t="s">
+      <c r="L309" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="111"/>
+      <c r="B310" s="123" t="s">
         <v>424</v>
       </c>
-      <c r="C309" s="122"/>
-      <c r="D309" s="122"/>
-      <c r="E309" s="122"/>
-      <c r="F309" s="111"/>
-      <c r="G309" s="111"/>
-      <c r="H309" s="112"/>
-      <c r="I309" s="111"/>
-      <c r="J309" s="111"/>
-      <c r="K309" s="111"/>
-      <c r="L309" s="111"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B310" s="12">
-        <v>17</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="D310" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F310" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G310" s="99" t="s">
-        <v>428</v>
-      </c>
-      <c r="H310" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I310" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J310" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K310" s="39"/>
-      <c r="L310" s="39">
-        <v>0</v>
-      </c>
+      <c r="C310" s="123"/>
+      <c r="D310" s="123"/>
+      <c r="E310" s="123"/>
+      <c r="F310" s="111"/>
+      <c r="G310" s="111"/>
+      <c r="H310" s="112"/>
+      <c r="I310" s="111"/>
+      <c r="J310" s="111"/>
+      <c r="K310" s="111"/>
+      <c r="L310" s="111"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
@@ -12343,20 +12351,22 @@
         <v>17</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="E311" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F311" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="G311" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F311" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G311" s="99" t="s">
+        <v>428</v>
+      </c>
       <c r="H311" s="112" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I311" s="27" t="s">
         <v>2</v>
@@ -12370,33 +12380,33 @@
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" s="113">
-        <v>113</v>
+      <c r="A312" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="B312" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="E312" s="17" t="s">
-        <v>50</v>
+        <v>430</v>
+      </c>
+      <c r="E312" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="F312" s="24" t="s">
-        <v>66</v>
+        <v>431</v>
       </c>
       <c r="G312" s="3"/>
       <c r="H312" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="I312" s="113" t="s">
+      <c r="I312" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J312" s="38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K312" s="39"/>
       <c r="L312" s="39">
@@ -12407,33 +12417,33 @@
       <c r="A313" s="113">
         <v>113</v>
       </c>
-      <c r="B313" s="90"/>
-      <c r="C313" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D313" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F313" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="G313" s="93" t="s">
-        <v>238</v>
-      </c>
+      <c r="B313" s="12">
+        <v>18</v>
+      </c>
+      <c r="C313" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D313" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E313" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F313" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G313" s="3"/>
       <c r="H313" s="112" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I313" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J313" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="K313" s="114"/>
-      <c r="L313" s="114">
+      <c r="J313" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K313" s="39"/>
+      <c r="L313" s="39">
         <v>0</v>
       </c>
     </row>
@@ -12443,19 +12453,19 @@
       </c>
       <c r="B314" s="90"/>
       <c r="C314" s="91" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D314" s="90" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F314" s="92" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G314" s="93" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H314" s="112" t="s">
         <v>12</v>
@@ -12475,21 +12485,21 @@
       <c r="A315" s="113">
         <v>113</v>
       </c>
-      <c r="B315" s="96"/>
-      <c r="C315" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="D315" s="96" t="s">
-        <v>243</v>
+      <c r="B315" s="90"/>
+      <c r="C315" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D315" s="90" t="s">
+        <v>240</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F315" s="98" t="s">
-        <v>434</v>
-      </c>
-      <c r="G315" s="99" t="s">
-        <v>245</v>
+        <v>236</v>
+      </c>
+      <c r="F315" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="G315" s="93" t="s">
+        <v>242</v>
       </c>
       <c r="H315" s="112" t="s">
         <v>12</v>
@@ -12497,11 +12507,11 @@
       <c r="I315" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J315" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K315" s="115"/>
-      <c r="L315" s="115">
+      <c r="J315" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K315" s="114"/>
+      <c r="L315" s="114">
         <v>0</v>
       </c>
     </row>
@@ -12511,19 +12521,19 @@
       </c>
       <c r="B316" s="96"/>
       <c r="C316" s="97" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="D316" s="96" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>236</v>
+        <v>416</v>
       </c>
       <c r="F316" s="98" t="s">
-        <v>248</v>
+        <v>434</v>
       </c>
       <c r="G316" s="99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H316" s="112" t="s">
         <v>12</v>
@@ -12545,19 +12555,19 @@
       </c>
       <c r="B317" s="96"/>
       <c r="C317" s="97" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D317" s="96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F317" s="98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G317" s="99" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H317" s="112" t="s">
         <v>12</v>
@@ -12574,72 +12584,72 @@
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" s="39"/>
-      <c r="B318" s="39"/>
-      <c r="C318" s="39"/>
-      <c r="D318" s="39"/>
-      <c r="E318" s="39"/>
-      <c r="F318" s="39"/>
-      <c r="G318" s="39"/>
-      <c r="H318" s="37"/>
-      <c r="I318" s="39"/>
-      <c r="J318" s="39"/>
-      <c r="K318" s="39"/>
-      <c r="L318" s="39"/>
+      <c r="A318" s="113">
+        <v>113</v>
+      </c>
+      <c r="B318" s="96"/>
+      <c r="C318" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="D318" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F318" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="G318" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="H318" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I318" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="J318" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K318" s="115"/>
+      <c r="L318" s="115">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A319" s="113">
-        <v>113</v>
-      </c>
-      <c r="B319" s="96"/>
-      <c r="C319" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="D319" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F319" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="G319" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="H319" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I319" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="J319" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K319" s="115"/>
-      <c r="L319" s="115">
-        <v>0</v>
-      </c>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
+      <c r="C319" s="39"/>
+      <c r="D319" s="39"/>
+      <c r="E319" s="39"/>
+      <c r="F319" s="39"/>
+      <c r="G319" s="39"/>
+      <c r="H319" s="37"/>
+      <c r="I319" s="39"/>
+      <c r="J319" s="39"/>
+      <c r="K319" s="39"/>
+      <c r="L319" s="39"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="113">
         <v>113</v>
       </c>
-      <c r="B320" s="90"/>
-      <c r="C320" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="D320" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="E320" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="F320" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="G320" s="93" t="s">
-        <v>249</v>
+      <c r="B320" s="96"/>
+      <c r="C320" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D320" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F320" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="G320" s="99" t="s">
+        <v>260</v>
       </c>
       <c r="H320" s="112" t="s">
         <v>12</v>
@@ -12647,11 +12657,11 @@
       <c r="I320" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J320" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="K320" s="114"/>
-      <c r="L320" s="114">
+      <c r="J320" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" s="115"/>
+      <c r="L320" s="115">
         <v>0</v>
       </c>
     </row>
@@ -12661,23 +12671,25 @@
       </c>
       <c r="B321" s="90"/>
       <c r="C321" s="91" t="s">
-        <v>435</v>
+        <v>261</v>
       </c>
       <c r="D321" s="90" t="s">
-        <v>436</v>
+        <v>262</v>
       </c>
       <c r="E321" s="93" t="s">
-        <v>437</v>
+        <v>134</v>
       </c>
       <c r="F321" s="92" t="s">
-        <v>438</v>
-      </c>
-      <c r="G321" s="93"/>
+        <v>263</v>
+      </c>
+      <c r="G321" s="93" t="s">
+        <v>249</v>
+      </c>
       <c r="H321" s="112" t="s">
         <v>12</v>
       </c>
       <c r="I321" s="113" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J321" s="94" t="s">
         <v>12</v>
@@ -12693,23 +12705,23 @@
       </c>
       <c r="B322" s="90"/>
       <c r="C322" s="91" t="s">
-        <v>265</v>
+        <v>435</v>
       </c>
       <c r="D322" s="90" t="s">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="E322" s="93" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F322" s="92" t="s">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="G322" s="93"/>
       <c r="H322" s="112" t="s">
         <v>12</v>
       </c>
       <c r="I322" s="113" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J322" s="94" t="s">
         <v>12</v>
@@ -12723,33 +12735,31 @@
       <c r="A323" s="113">
         <v>113</v>
       </c>
-      <c r="B323" s="96"/>
-      <c r="C323" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="D323" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="E323" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="F323" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="G323" s="99" t="s">
-        <v>249</v>
-      </c>
+      <c r="B323" s="90"/>
+      <c r="C323" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D323" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E323" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="F323" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G323" s="93"/>
       <c r="H323" s="112" t="s">
         <v>12</v>
       </c>
       <c r="I323" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J323" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K323" s="115"/>
-      <c r="L323" s="115">
+      <c r="J323" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K323" s="114"/>
+      <c r="L323" s="114">
         <v>0</v>
       </c>
     </row>
@@ -12759,19 +12769,19 @@
       </c>
       <c r="B324" s="96"/>
       <c r="C324" s="97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D324" s="96" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E324" s="99" t="s">
         <v>134</v>
       </c>
       <c r="F324" s="98" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G324" s="99" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H324" s="112" t="s">
         <v>12</v>
@@ -12787,96 +12797,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="113"/>
-      <c r="B326" s="12"/>
-      <c r="C326" s="22"/>
-      <c r="D326" s="23"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="24"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="112"/>
-      <c r="I326" s="113"/>
-      <c r="J326" s="38"/>
-      <c r="K326" s="39"/>
-      <c r="L326" s="39"/>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="113">
+        <v>113</v>
+      </c>
+      <c r="B325" s="96"/>
+      <c r="C325" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="D325" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E325" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="F325" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G325" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="H325" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I325" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="J325" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K325" s="115"/>
+      <c r="L325" s="115">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" s="111"/>
-      <c r="B327" s="122" t="s">
+      <c r="A327" s="113"/>
+      <c r="B327" s="12"/>
+      <c r="C327" s="22"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="24"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="112"/>
+      <c r="I327" s="113"/>
+      <c r="J327" s="38"/>
+      <c r="K327" s="39"/>
+      <c r="L327" s="39"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="111"/>
+      <c r="B328" s="123" t="s">
         <v>440</v>
       </c>
-      <c r="C327" s="122"/>
-      <c r="D327" s="122"/>
-      <c r="E327" s="122"/>
-      <c r="F327" s="111"/>
-      <c r="G327" s="111"/>
-      <c r="H327" s="112"/>
-      <c r="I327" s="111"/>
-      <c r="J327" s="111"/>
-      <c r="K327" s="111"/>
-      <c r="L327" s="111"/>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A328" s="113">
-        <v>114</v>
-      </c>
-      <c r="B328" s="90"/>
-      <c r="C328" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="D328" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="E328" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="F328" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="G328" s="93"/>
-      <c r="H328" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I328" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="J328" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="K328" s="114"/>
-      <c r="L328" s="39">
-        <v>0</v>
-      </c>
+      <c r="C328" s="123"/>
+      <c r="D328" s="123"/>
+      <c r="E328" s="123"/>
+      <c r="F328" s="111"/>
+      <c r="G328" s="111"/>
+      <c r="H328" s="112"/>
+      <c r="I328" s="111"/>
+      <c r="J328" s="111"/>
+      <c r="K328" s="111"/>
+      <c r="L328" s="111"/>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="113">
         <v>114</v>
       </c>
-      <c r="B329" s="96"/>
-      <c r="C329" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="D329" s="96" t="s">
-        <v>284</v>
-      </c>
-      <c r="E329" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="F329" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="G329" s="99"/>
+      <c r="B329" s="90"/>
+      <c r="C329" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D329" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="E329" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="F329" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="G329" s="93"/>
       <c r="H329" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="I329" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="J329" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K329" s="115"/>
+      <c r="I329" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="J329" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K329" s="114"/>
       <c r="L329" s="39">
         <v>0</v>
       </c>
@@ -12887,20 +12899,18 @@
       </c>
       <c r="B330" s="96"/>
       <c r="C330" s="97" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D330" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>236</v>
+      <c r="E330" s="99" t="s">
+        <v>264</v>
       </c>
       <c r="F330" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="G330" s="99" t="s">
-        <v>260</v>
-      </c>
+      <c r="G330" s="99"/>
       <c r="H330" s="112" t="s">
         <v>12</v>
       </c>
@@ -12921,18 +12931,20 @@
       </c>
       <c r="B331" s="96"/>
       <c r="C331" s="97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D331" s="96" t="s">
-        <v>288</v>
-      </c>
-      <c r="E331" s="99" t="s">
-        <v>264</v>
+        <v>284</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F331" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="G331" s="99"/>
+        <v>285</v>
+      </c>
+      <c r="G331" s="99" t="s">
+        <v>260</v>
+      </c>
       <c r="H331" s="112" t="s">
         <v>12</v>
       </c>
@@ -12953,20 +12965,18 @@
       </c>
       <c r="B332" s="96"/>
       <c r="C332" s="97" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D332" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="E332" s="1" t="s">
-        <v>236</v>
+      <c r="E332" s="99" t="s">
+        <v>264</v>
       </c>
       <c r="F332" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="G332" s="99" t="s">
-        <v>260</v>
-      </c>
+      <c r="G332" s="99"/>
       <c r="H332" s="112" t="s">
         <v>12</v>
       </c>
@@ -12987,18 +12997,20 @@
       </c>
       <c r="B333" s="96"/>
       <c r="C333" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D333" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="E333" s="99" t="s">
-        <v>264</v>
+        <v>288</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F333" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="G333" s="99"/>
+        <v>289</v>
+      </c>
+      <c r="G333" s="99" t="s">
+        <v>260</v>
+      </c>
       <c r="H333" s="112" t="s">
         <v>12</v>
       </c>
@@ -13019,20 +13031,18 @@
       </c>
       <c r="B334" s="96"/>
       <c r="C334" s="97" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D334" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>236</v>
+      <c r="E334" s="99" t="s">
+        <v>264</v>
       </c>
       <c r="F334" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="G334" s="99" t="s">
-        <v>260</v>
-      </c>
+      <c r="G334" s="99"/>
       <c r="H334" s="112" t="s">
         <v>12</v>
       </c>
@@ -13048,52 +13058,52 @@
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335" s="39"/>
-      <c r="B335" s="39"/>
-      <c r="C335" s="39"/>
-      <c r="D335" s="39"/>
-      <c r="E335" s="39"/>
-      <c r="F335" s="39"/>
-      <c r="G335" s="39"/>
-      <c r="H335" s="37"/>
-      <c r="I335" s="39"/>
-      <c r="J335" s="39"/>
-      <c r="K335" s="39"/>
-      <c r="L335" s="39"/>
+      <c r="A335" s="113">
+        <v>114</v>
+      </c>
+      <c r="B335" s="96"/>
+      <c r="C335" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="D335" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F335" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="G335" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="H335" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I335" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="J335" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K335" s="115"/>
+      <c r="L335" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A336" s="113">
-        <v>114</v>
-      </c>
-      <c r="B336" s="96"/>
-      <c r="C336" s="97" t="s">
-        <v>303</v>
-      </c>
-      <c r="D336" s="96" t="s">
-        <v>304</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F336" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="G336" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="H336" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I336" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="J336" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="K336" s="115"/>
-      <c r="L336" s="39">
-        <v>0</v>
-      </c>
+      <c r="A336" s="39"/>
+      <c r="B336" s="39"/>
+      <c r="C336" s="39"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="39"/>
+      <c r="F336" s="39"/>
+      <c r="G336" s="39"/>
+      <c r="H336" s="37"/>
+      <c r="I336" s="39"/>
+      <c r="J336" s="39"/>
+      <c r="K336" s="39"/>
+      <c r="L336" s="39"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="113">
@@ -13101,21 +13111,21 @@
       </c>
       <c r="B337" s="96"/>
       <c r="C337" s="97" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D337" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="E337" s="99" t="s">
-        <v>297</v>
+        <v>304</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F337" s="98" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G337" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="H337" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="H337" s="112" t="s">
         <v>12</v>
       </c>
       <c r="I337" s="96" t="s">
@@ -13124,8 +13134,8 @@
       <c r="J337" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K337" s="101"/>
-      <c r="L337">
+      <c r="K337" s="115"/>
+      <c r="L337" s="39">
         <v>0</v>
       </c>
     </row>
@@ -13133,31 +13143,33 @@
       <c r="A338" s="113">
         <v>114</v>
       </c>
-      <c r="B338" s="12"/>
-      <c r="C338" s="39"/>
-      <c r="D338" s="117" t="s">
-        <v>307</v>
-      </c>
-      <c r="E338" s="1" t="s">
+      <c r="B338" s="96"/>
+      <c r="C338" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="D338" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="E338" s="99" t="s">
         <v>297</v>
       </c>
-      <c r="F338" s="118" t="s">
-        <v>308</v>
-      </c>
-      <c r="G338" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="H338" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I338" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J338" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K338" s="39"/>
-      <c r="L338" s="39">
+      <c r="F338" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="G338" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="H338" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I338" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="J338" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K338" s="101"/>
+      <c r="L338">
         <v>0</v>
       </c>
     </row>
@@ -13166,16 +13178,18 @@
         <v>114</v>
       </c>
       <c r="B339" s="12"/>
-      <c r="C339" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D339" s="23"/>
+      <c r="C339" s="39"/>
+      <c r="D339" s="117" t="s">
+        <v>307</v>
+      </c>
       <c r="E339" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F339" s="24"/>
-      <c r="G339" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="F339" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="G339" s="40" t="s">
+        <v>309</v>
       </c>
       <c r="H339" s="112" t="s">
         <v>12</v>
@@ -13197,19 +13211,15 @@
       </c>
       <c r="B340" s="12"/>
       <c r="C340" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D340" s="117" t="s">
-        <v>314</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D340" s="23"/>
       <c r="E340" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F340" s="118" t="s">
-        <v>315</v>
-      </c>
-      <c r="G340" s="40" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="F340" s="24"/>
+      <c r="G340" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="H340" s="112" t="s">
         <v>12</v>
@@ -13230,18 +13240,20 @@
         <v>114</v>
       </c>
       <c r="B341" s="12"/>
-      <c r="C341" s="22"/>
+      <c r="C341" s="22" t="s">
+        <v>313</v>
+      </c>
       <c r="D341" s="117" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F341" s="118" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G341" s="40" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H341" s="112" t="s">
         <v>12</v>
@@ -13262,16 +13274,18 @@
         <v>114</v>
       </c>
       <c r="B342" s="12"/>
-      <c r="C342" s="39"/>
-      <c r="D342" s="23" t="s">
-        <v>310</v>
+      <c r="C342" s="22"/>
+      <c r="D342" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F342" s="24"/>
-      <c r="G342" s="3" t="s">
-        <v>320</v>
+        <v>297</v>
+      </c>
+      <c r="F342" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="G342" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="H342" s="112" t="s">
         <v>12</v>
@@ -13292,20 +13306,16 @@
         <v>114</v>
       </c>
       <c r="B343" s="12"/>
-      <c r="C343" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="D343" s="117" t="s">
-        <v>322</v>
+      <c r="C343" s="39"/>
+      <c r="D343" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F343" s="118" t="s">
-        <v>323</v>
-      </c>
-      <c r="G343" s="40" t="s">
-        <v>324</v>
+        <v>311</v>
+      </c>
+      <c r="F343" s="24"/>
+      <c r="G343" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H343" s="112" t="s">
         <v>12</v>
@@ -13326,18 +13336,20 @@
         <v>114</v>
       </c>
       <c r="B344" s="12"/>
-      <c r="C344" s="119"/>
+      <c r="C344" s="22" t="s">
+        <v>321</v>
+      </c>
       <c r="D344" s="117" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F344" s="118" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G344" s="40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H344" s="112" t="s">
         <v>12</v>
@@ -13346,28 +13358,30 @@
         <v>2</v>
       </c>
       <c r="J344" s="38" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="K344" s="39"/>
       <c r="L344" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="113">
         <v>114</v>
       </c>
       <c r="B345" s="12"/>
-      <c r="C345" s="39"/>
-      <c r="D345" s="23" t="s">
-        <v>329</v>
+      <c r="C345" s="119"/>
+      <c r="D345" s="117" t="s">
+        <v>325</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F345" s="24"/>
-      <c r="G345" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
+      </c>
+      <c r="F345" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="G345" s="40" t="s">
+        <v>327</v>
       </c>
       <c r="H345" s="112" t="s">
         <v>12</v>
@@ -13376,34 +13390,28 @@
         <v>2</v>
       </c>
       <c r="J345" s="38" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="K345" s="39"/>
       <c r="L345" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="113">
         <v>114</v>
       </c>
-      <c r="B346" s="12">
-        <v>21</v>
-      </c>
-      <c r="C346" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D346" s="117" t="s">
-        <v>107</v>
+      <c r="B346" s="12"/>
+      <c r="C346" s="39"/>
+      <c r="D346" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F346" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="G346" s="40">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="F346" s="24"/>
+      <c r="G346" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="H346" s="112" t="s">
         <v>12</v>
@@ -13427,16 +13435,16 @@
         <v>21</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D347" s="117" t="s">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F347" s="118" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G347" s="40">
         <v>0</v>
@@ -13463,16 +13471,16 @@
         <v>21</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D348" s="117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F348" s="118" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G348" s="40">
         <v>0</v>
@@ -13499,16 +13507,16 @@
         <v>21</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D349" s="117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F349" s="118" t="s">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="G349" s="40">
         <v>0</v>
@@ -13535,18 +13543,20 @@
         <v>21</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D350" s="117" t="s">
         <v>337</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="F350" s="118" t="s">
         <v>338</v>
       </c>
-      <c r="G350" s="40"/>
+      <c r="G350" s="40">
+        <v>0</v>
+      </c>
       <c r="H350" s="112" t="s">
         <v>12</v>
       </c>
@@ -13565,20 +13575,22 @@
       <c r="A351" s="113">
         <v>114</v>
       </c>
-      <c r="B351" s="12"/>
-      <c r="C351" s="119"/>
+      <c r="B351" s="12">
+        <v>21</v>
+      </c>
+      <c r="C351" s="22" t="s">
+        <v>339</v>
+      </c>
       <c r="D351" s="117" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F351" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="G351" s="40" t="s">
-        <v>343</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="G351" s="40"/>
       <c r="H351" s="112" t="s">
         <v>12</v>
       </c>
@@ -13586,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="38" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="K351" s="39"/>
       <c r="L351" s="39">
@@ -13598,18 +13610,18 @@
         <v>114</v>
       </c>
       <c r="B352" s="12"/>
-      <c r="C352" s="119" t="s">
-        <v>340</v>
-      </c>
+      <c r="C352" s="119"/>
       <c r="D352" s="117" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F352" s="118"/>
+        <v>297</v>
+      </c>
+      <c r="F352" s="118" t="s">
+        <v>342</v>
+      </c>
       <c r="G352" s="40" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H352" s="112" t="s">
         <v>12</v>
@@ -13625,24 +13637,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="113">
         <v>114</v>
       </c>
-      <c r="B353" s="35"/>
-      <c r="C353" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="D353" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="E353" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="F353" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G353" s="41"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="D353" s="117" t="s">
+        <v>344</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F353" s="118"/>
+      <c r="G353" s="40" t="s">
+        <v>345</v>
+      </c>
       <c r="H353" s="112" t="s">
         <v>12</v>
       </c>
@@ -13650,11 +13662,9 @@
         <v>2</v>
       </c>
       <c r="J353" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K353" s="39" t="s">
-        <v>349</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="K353" s="39"/>
       <c r="L353" s="39">
         <v>0</v>
       </c>
@@ -13665,16 +13675,16 @@
       </c>
       <c r="B354" s="35"/>
       <c r="C354" s="39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E354" s="27" t="s">
-        <v>441</v>
+        <v>348</v>
       </c>
       <c r="F354" s="24" t="s">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="G354" s="41"/>
       <c r="H354" s="112" t="s">
@@ -13687,7 +13697,7 @@
         <v>12</v>
       </c>
       <c r="K354" s="39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L354" s="39">
         <v>0</v>
@@ -13699,16 +13709,16 @@
       </c>
       <c r="B355" s="35"/>
       <c r="C355" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E355" s="27" t="s">
-        <v>264</v>
+        <v>441</v>
       </c>
       <c r="F355" s="24" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G355" s="41"/>
       <c r="H355" s="112" t="s">
@@ -13733,16 +13743,16 @@
       </c>
       <c r="B356" s="35"/>
       <c r="C356" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D356" s="38" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="E356" s="27" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="F356" s="24" t="s">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="G356" s="41"/>
       <c r="H356" s="112" t="s">
@@ -13755,7 +13765,7 @@
         <v>12</v>
       </c>
       <c r="K356" s="39" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L356" s="39">
         <v>0</v>
@@ -13767,16 +13777,16 @@
       </c>
       <c r="B357" s="35"/>
       <c r="C357" s="39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D357" s="38" t="s">
-        <v>360</v>
+        <v>124</v>
       </c>
       <c r="E357" s="27" t="s">
         <v>348</v>
       </c>
       <c r="F357" s="24" t="s">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="G357" s="41"/>
       <c r="H357" s="112" t="s">
@@ -13789,87 +13799,85 @@
         <v>12</v>
       </c>
       <c r="K357" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L357" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A358" s="113">
+        <v>114</v>
+      </c>
+      <c r="B358" s="35"/>
+      <c r="C358" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="D358" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="E358" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F358" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="G358" s="41"/>
+      <c r="H358" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I358" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J358" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K358" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="L357" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A358" s="39"/>
-      <c r="B358" s="39"/>
-      <c r="C358" s="39"/>
-      <c r="D358" s="39"/>
-      <c r="E358" s="39"/>
-      <c r="F358" s="39"/>
-      <c r="G358" s="39"/>
-      <c r="H358" s="37"/>
-      <c r="I358" s="39"/>
-      <c r="J358" s="39"/>
-      <c r="K358" s="39"/>
-      <c r="L358" s="39"/>
+      <c r="L358" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A359" s="111"/>
-      <c r="B359" s="122" t="s">
+      <c r="A359" s="39"/>
+      <c r="B359" s="39"/>
+      <c r="C359" s="39"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="39"/>
+      <c r="F359" s="39"/>
+      <c r="G359" s="39"/>
+      <c r="H359" s="37"/>
+      <c r="I359" s="39"/>
+      <c r="J359" s="39"/>
+      <c r="K359" s="39"/>
+      <c r="L359" s="39"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="111"/>
+      <c r="B360" s="123" t="s">
         <v>442</v>
       </c>
-      <c r="C359" s="122"/>
-      <c r="D359" s="122"/>
-      <c r="E359" s="122"/>
-      <c r="F359" s="111"/>
-      <c r="G359" s="111"/>
-      <c r="H359" s="112"/>
-      <c r="I359" s="111"/>
-      <c r="J359" s="111"/>
-      <c r="K359" s="111"/>
-      <c r="L359" s="111"/>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A360" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B360" s="12">
-        <v>16</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D360" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F360" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G360" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H360" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="I360" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="J360" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K360" s="39"/>
-      <c r="L360" s="39">
-        <v>0</v>
-      </c>
+      <c r="C360" s="123"/>
+      <c r="D360" s="123"/>
+      <c r="E360" s="123"/>
+      <c r="F360" s="111"/>
+      <c r="G360" s="111"/>
+      <c r="H360" s="112"/>
+      <c r="I360" s="111"/>
+      <c r="J360" s="111"/>
+      <c r="K360" s="111"/>
+      <c r="L360" s="111"/>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>443</v>
       </c>
       <c r="B361" s="12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>445</v>
+        <v>59</v>
       </c>
       <c r="D361" s="20" t="s">
         <v>43</v>
@@ -13881,20 +13889,20 @@
         <v>39</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H361" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I361" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="I361" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="J361" s="47" t="s">
         <v>12</v>
       </c>
       <c r="K361" s="39"/>
       <c r="L361" s="39">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -13902,10 +13910,10 @@
         <v>443</v>
       </c>
       <c r="B362" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="D362" s="20" t="s">
         <v>43</v>
@@ -13917,13 +13925,13 @@
         <v>39</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H362" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="I362" s="17" t="s">
-        <v>2</v>
+      <c r="I362" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="J362" s="47" t="s">
         <v>12</v>
@@ -13938,10 +13946,10 @@
         <v>443</v>
       </c>
       <c r="B363" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D363" s="20" t="s">
         <v>43</v>
@@ -13953,7 +13961,7 @@
         <v>39</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H363" s="112" t="s">
         <v>12</v>
@@ -13966,18 +13974,18 @@
       </c>
       <c r="K363" s="39"/>
       <c r="L363" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>443</v>
       </c>
       <c r="B364" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C364" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D364" s="20" t="s">
         <v>43</v>
@@ -13989,7 +13997,7 @@
         <v>39</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H364" s="112" t="s">
         <v>12</v>
@@ -14005,15 +14013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
         <v>443</v>
       </c>
       <c r="B365" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D365" s="20" t="s">
         <v>43</v>
@@ -14025,7 +14033,7 @@
         <v>39</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H365" s="112" t="s">
         <v>12</v>
@@ -14046,10 +14054,10 @@
         <v>443</v>
       </c>
       <c r="B366" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D366" s="20" t="s">
         <v>43</v>
@@ -14061,7 +14069,7 @@
         <v>39</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H366" s="112" t="s">
         <v>12</v>
@@ -14078,14 +14086,14 @@
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A367" s="38">
-        <v>115</v>
+      <c r="A367" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="B367" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="D367" s="20" t="s">
         <v>43</v>
@@ -14097,7 +14105,7 @@
         <v>39</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H367" s="112" t="s">
         <v>12</v>
@@ -14114,26 +14122,26 @@
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
-        <v>443</v>
+      <c r="A368" s="38">
+        <v>115</v>
       </c>
       <c r="B368" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C368" s="22" t="s">
-        <v>225</v>
+        <v>452</v>
       </c>
       <c r="D368" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F368" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H368" s="112" t="s">
         <v>12</v>
@@ -14154,27 +14162,27 @@
         <v>443</v>
       </c>
       <c r="B369" s="12">
-        <v>6</v>
-      </c>
-      <c r="C369" s="120" t="s">
-        <v>454</v>
+        <v>0</v>
+      </c>
+      <c r="C369" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D369" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F369" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H369" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="I369" s="27" t="s">
+      <c r="I369" s="17" t="s">
         <v>2</v>
       </c>
       <c r="J369" s="47" t="s">
@@ -14185,15 +14193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
         <v>443</v>
       </c>
       <c r="B370" s="12">
-        <v>9</v>
-      </c>
-      <c r="C370" s="22" t="s">
-        <v>227</v>
+        <v>6</v>
+      </c>
+      <c r="C370" s="120" t="s">
+        <v>454</v>
       </c>
       <c r="D370" s="20" t="s">
         <v>43</v>
@@ -14205,7 +14213,7 @@
         <v>39</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H370" s="112" t="s">
         <v>12</v>
@@ -14226,10 +14234,10 @@
         <v>443</v>
       </c>
       <c r="B371" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C371" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D371" s="20" t="s">
         <v>43</v>
@@ -14241,13 +14249,13 @@
         <v>39</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H371" s="112" t="s">
         <v>12</v>
       </c>
       <c r="I371" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J371" s="47" t="s">
         <v>12</v>
@@ -14265,7 +14273,7 @@
         <v>10</v>
       </c>
       <c r="C372" s="22" t="s">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="D372" s="20" t="s">
         <v>43</v>
@@ -14277,7 +14285,7 @@
         <v>39</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H372" s="112" t="s">
         <v>12</v>
@@ -14294,57 +14302,59 @@
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H373" s="112"/>
+      <c r="A373" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B373" s="12">
+        <v>10</v>
+      </c>
+      <c r="C373" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D373" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F373" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H373" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I373" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J373" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K373" s="39"/>
+      <c r="L373" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A374" s="111"/>
-      <c r="B374" s="122" t="s">
+      <c r="H374" s="112"/>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375" s="111"/>
+      <c r="B375" s="123" t="s">
         <v>462</v>
       </c>
-      <c r="C374" s="122"/>
-      <c r="D374" s="122"/>
-      <c r="E374" s="122"/>
-      <c r="F374" s="111"/>
-      <c r="G374" s="111"/>
-      <c r="H374" s="112"/>
-      <c r="I374" s="111"/>
-      <c r="J374" s="111"/>
-      <c r="K374" s="111"/>
-      <c r="L374" s="111"/>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A375" s="68">
-        <v>116</v>
-      </c>
-      <c r="B375" s="35"/>
-      <c r="C375" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D375" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F375" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G375" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="H375" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I375" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J375" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K375" s="39"/>
-      <c r="L375" s="40">
-        <v>1</v>
-      </c>
+      <c r="C375" s="123"/>
+      <c r="D375" s="123"/>
+      <c r="E375" s="123"/>
+      <c r="F375" s="111"/>
+      <c r="G375" s="111"/>
+      <c r="H375" s="112"/>
+      <c r="I375" s="111"/>
+      <c r="J375" s="111"/>
+      <c r="K375" s="111"/>
+      <c r="L375" s="111"/>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="68">
@@ -14352,16 +14362,16 @@
       </c>
       <c r="B376" s="35"/>
       <c r="C376" s="51" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D376" s="38" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F376" s="24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G376" s="44" t="s">
         <v>163</v>
@@ -14386,19 +14396,19 @@
       </c>
       <c r="B377" s="35"/>
       <c r="C377" s="51" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D377" s="38" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F377" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G377" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="G377" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="H377" s="11" t="s">
         <v>2</v>
@@ -14409,9 +14419,7 @@
       <c r="J377" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K377" s="39" t="s">
-        <v>175</v>
-      </c>
+      <c r="K377" s="39"/>
       <c r="L377" s="40">
         <v>1</v>
       </c>
@@ -14420,60 +14428,62 @@
       <c r="A378" s="68">
         <v>116</v>
       </c>
-      <c r="B378" s="35">
-        <v>24</v>
-      </c>
+      <c r="B378" s="35"/>
       <c r="C378" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D378" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E378" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F378" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G378" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="D378" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F378" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G378" s="42" t="s">
+        <v>174</v>
+      </c>
       <c r="H378" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I378" s="27" t="s">
+      <c r="I378" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J378" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K378" s="39"/>
+      <c r="K378" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="L378" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="68">
         <v>116</v>
       </c>
-      <c r="B379" s="35"/>
+      <c r="B379" s="35">
+        <v>24</v>
+      </c>
       <c r="C379" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D379" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F379" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G379" s="44" t="s">
-        <v>191</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D379" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F379" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G379" s="40"/>
       <c r="H379" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I379" s="1" t="s">
+      <c r="I379" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J379" s="38" t="s">
@@ -14481,7 +14491,7 @@
       </c>
       <c r="K379" s="39"/>
       <c r="L379" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
@@ -14490,18 +14500,20 @@
       </c>
       <c r="B380" s="35"/>
       <c r="C380" s="51" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E380" s="27" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F380" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G380" s="41"/>
+        <v>104</v>
+      </c>
+      <c r="G380" s="44" t="s">
+        <v>191</v>
+      </c>
       <c r="H380" s="11" t="s">
         <v>2</v>
       </c>
@@ -14509,62 +14521,60 @@
         <v>2</v>
       </c>
       <c r="J380" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K380" s="39"/>
       <c r="L380" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A382" s="111"/>
-      <c r="B382" s="122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A381" s="68">
+        <v>116</v>
+      </c>
+      <c r="B381" s="35"/>
+      <c r="C381" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D381" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E381" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F381" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G381" s="41"/>
+      <c r="H381" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J381" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K381" s="39"/>
+      <c r="L381" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A383" s="111"/>
+      <c r="B383" s="123" t="s">
         <v>463</v>
       </c>
-      <c r="C382" s="122"/>
-      <c r="D382" s="122"/>
-      <c r="E382" s="122"/>
-      <c r="F382" s="111"/>
-      <c r="G382" s="111"/>
-      <c r="H382" s="112"/>
-      <c r="I382" s="111"/>
-      <c r="J382" s="111"/>
-      <c r="K382" s="111"/>
-      <c r="L382" s="111"/>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A383" s="68">
-        <v>117</v>
-      </c>
-      <c r="B383" s="35"/>
-      <c r="C383" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D383" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F383" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G383" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="H383" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I383" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J383" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K383" s="39"/>
-      <c r="L383" s="40">
-        <v>1</v>
-      </c>
+      <c r="C383" s="123"/>
+      <c r="D383" s="123"/>
+      <c r="E383" s="123"/>
+      <c r="F383" s="111"/>
+      <c r="G383" s="111"/>
+      <c r="H383" s="112"/>
+      <c r="I383" s="111"/>
+      <c r="J383" s="111"/>
+      <c r="K383" s="111"/>
+      <c r="L383" s="111"/>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="68">
@@ -14572,16 +14582,16 @@
       </c>
       <c r="B384" s="35"/>
       <c r="C384" s="51" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F384" s="24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G384" s="44" t="s">
         <v>163</v>
@@ -14606,19 +14616,19 @@
       </c>
       <c r="B385" s="35"/>
       <c r="C385" s="51" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F385" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G385" s="42" t="s">
-        <v>192</v>
+        <v>173</v>
+      </c>
+      <c r="G385" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="H385" s="11" t="s">
         <v>2</v>
@@ -14629,9 +14639,7 @@
       <c r="J385" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K385" s="39" t="s">
-        <v>175</v>
-      </c>
+      <c r="K385" s="39"/>
       <c r="L385" s="40">
         <v>1</v>
       </c>
@@ -14640,60 +14648,62 @@
       <c r="A386" s="68">
         <v>117</v>
       </c>
-      <c r="B386" s="35">
-        <v>24</v>
-      </c>
+      <c r="B386" s="35"/>
       <c r="C386" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D386" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E386" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F386" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G386" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F386" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G386" s="42" t="s">
+        <v>192</v>
+      </c>
       <c r="H386" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I386" s="27" t="s">
+      <c r="I386" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J386" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K386" s="39"/>
+      <c r="K386" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="L386" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="68">
         <v>117</v>
       </c>
-      <c r="B387" s="35"/>
+      <c r="B387" s="35">
+        <v>24</v>
+      </c>
       <c r="C387" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D387" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F387" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G387" s="44" t="s">
-        <v>191</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D387" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E387" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F387" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G387" s="40"/>
       <c r="H387" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I387" s="1" t="s">
+      <c r="I387" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J387" s="38" t="s">
@@ -14701,7 +14711,7 @@
       </c>
       <c r="K387" s="39"/>
       <c r="L387" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
@@ -14710,18 +14720,20 @@
       </c>
       <c r="B388" s="35"/>
       <c r="C388" s="51" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D388" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E388" s="27" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F388" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G388" s="41"/>
+        <v>104</v>
+      </c>
+      <c r="G388" s="44" t="s">
+        <v>191</v>
+      </c>
       <c r="H388" s="11" t="s">
         <v>2</v>
       </c>
@@ -14729,61 +14741,93 @@
         <v>2</v>
       </c>
       <c r="J388" s="38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K388" s="39"/>
       <c r="L388" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A389" s="68">
+        <v>117</v>
+      </c>
+      <c r="B389" s="35"/>
+      <c r="C389" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D389" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E389" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F389" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G389" s="41"/>
+      <c r="H389" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J389" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K389" s="39"/>
+      <c r="L389" s="40">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B290:D290"/>
-    <mergeCell ref="B300:D300"/>
-    <mergeCell ref="B374:E374"/>
-    <mergeCell ref="B382:E382"/>
+    <mergeCell ref="B360:E360"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B383:E383"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C126:J126"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B266:D266"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B359:E359"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B328:E328"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="39" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="425" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="38" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="423" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="424" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H185">
-    <cfRule type="cellIs" dxfId="36" priority="252" operator="equal">
+  <conditionalFormatting sqref="H186">
+    <cfRule type="cellIs" dxfId="37" priority="253" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H185">
-    <cfRule type="cellIs" dxfId="35" priority="250" operator="equal">
+  <conditionalFormatting sqref="H186">
+    <cfRule type="cellIs" dxfId="36" priority="251" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26 H185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26 H186">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -14793,7 +14837,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="571" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
+          <x14:cfRule type="cellIs" priority="572" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14806,7 +14850,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="421" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
+          <x14:cfRule type="cellIs" priority="422" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
             <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14819,7 +14863,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="420" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
+          <x14:cfRule type="cellIs" priority="421" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14832,7 +14876,7 @@
           <xm:sqref>H12:H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="417" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
+          <x14:cfRule type="cellIs" priority="418" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14845,7 +14889,7 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="416" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
+          <x14:cfRule type="cellIs" priority="417" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14858,7 +14902,7 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="415" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
+          <x14:cfRule type="cellIs" priority="416" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14871,7 +14915,7 @@
           <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="413" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
+          <x14:cfRule type="cellIs" priority="414" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14884,7 +14928,7 @@
           <xm:sqref>H3:H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="406" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
+          <x14:cfRule type="cellIs" priority="407" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14897,7 +14941,7 @@
           <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="405" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
+          <x14:cfRule type="cellIs" priority="406" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14910,7 +14954,7 @@
           <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="388" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
+          <x14:cfRule type="cellIs" priority="389" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14923,7 +14967,7 @@
           <xm:sqref>H27:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="387" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
+          <x14:cfRule type="cellIs" priority="388" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14936,7 +14980,7 @@
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="386" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
+          <x14:cfRule type="cellIs" priority="387" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14949,7 +14993,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="385" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
+          <x14:cfRule type="cellIs" priority="386" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14962,7 +15006,7 @@
           <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="380" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
+          <x14:cfRule type="cellIs" priority="381" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14975,7 +15019,7 @@
           <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="379" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
+          <x14:cfRule type="cellIs" priority="380" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -14988,7 +15032,7 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="378" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
+          <x14:cfRule type="cellIs" priority="379" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15001,7 +15045,7 @@
           <xm:sqref>H56:H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="377" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
+          <x14:cfRule type="cellIs" priority="378" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15014,7 +15058,7 @@
           <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="376" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
+          <x14:cfRule type="cellIs" priority="377" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15027,7 +15071,7 @@
           <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="367" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
+          <x14:cfRule type="cellIs" priority="368" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15040,7 +15084,7 @@
           <xm:sqref>H40:H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="296" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
+          <x14:cfRule type="cellIs" priority="297" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15050,10 +15094,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H127:H167</xm:sqref>
+          <xm:sqref>H127:H131 H133:H168</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
+          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
             <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15063,10 +15107,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H185</xm:sqref>
+          <xm:sqref>H186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15079,7 +15123,7 @@
           <xm:sqref>H19:H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
+          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15092,7 +15136,7 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15105,7 +15149,7 @@
           <xm:sqref>H23:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{85AD45A8-A281-4837-B412-380389E1B080}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{85AD45A8-A281-4837-B412-380389E1B080}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15115,10 +15159,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H375:H380</xm:sqref>
+          <xm:sqref>H376:H381</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{00F1E729-1E9E-4D87-AEC5-7D0C57F5A3D4}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{00F1E729-1E9E-4D87-AEC5-7D0C57F5A3D4}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15128,10 +15172,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H383:H388</xm:sqref>
+          <xm:sqref>H384:H389</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{723C3386-6B8F-42FD-8A78-8B1CF9EBBBB1}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{723C3386-6B8F-42FD-8A78-8B1CF9EBBBB1}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15144,7 +15188,7 @@
           <xm:sqref>H80:H124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{DC0C30C2-F9F0-4EA7-9CAA-27615F719550}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{DC0C30C2-F9F0-4EA7-9CAA-27615F719550}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15154,10 +15198,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H170:H184</xm:sqref>
+          <xm:sqref>H171:H185</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{C780E717-8150-4726-BA6B-47682B6CAE12}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{C780E717-8150-4726-BA6B-47682B6CAE12}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15167,10 +15211,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H187:H195</xm:sqref>
+          <xm:sqref>H188:H196</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{53DF4454-3AEC-47D6-A2DC-CF6F1086B947}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{53DF4454-3AEC-47D6-A2DC-CF6F1086B947}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15180,10 +15224,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H201:H217</xm:sqref>
+          <xm:sqref>H202:H218</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{FD287822-3851-4AB3-B6BE-AD88C7389820}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{FD287822-3851-4AB3-B6BE-AD88C7389820}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15193,10 +15237,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H254:H265</xm:sqref>
+          <xm:sqref>H255:H266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{319766C6-26DC-4599-A020-A86927CE7C9B}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{319766C6-26DC-4599-A020-A86927CE7C9B}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15206,10 +15250,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H267:H289</xm:sqref>
+          <xm:sqref>H268:H290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{3331EB2F-7996-443D-9AD0-CD3298CAB18C}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{3331EB2F-7996-443D-9AD0-CD3298CAB18C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15219,10 +15263,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H291:H299</xm:sqref>
+          <xm:sqref>H292:H300</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{E9A81280-8093-4BE6-9337-BE5530F8C2A4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{E9A81280-8093-4BE6-9337-BE5530F8C2A4}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -15232,7 +15276,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H301:H308</xm:sqref>
+          <xm:sqref>H302:H309</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{5BD00112-2248-4841-BBF5-4466D8179D11}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H132</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-630" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="468">
   <si>
     <t>Action</t>
   </si>
@@ -1427,6 +1427,9 @@
   </si>
   <si>
     <t>40000</t>
+  </si>
+  <si>
+    <t>Verify FASB Term is same as # of Periods</t>
   </si>
 </sst>
 </file>
@@ -2004,13 +2007,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2991,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8708,11 +8711,11 @@
       <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="121" t="s">
+      <c r="B187" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="121"/>
-      <c r="D187" s="121"/>
+      <c r="C187" s="122"/>
+      <c r="D187" s="122"/>
       <c r="H187" s="83"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -10734,9 +10737,6 @@
         <v>367</v>
       </c>
       <c r="B257" s="14"/>
-      <c r="C257" s="102" t="s">
-        <v>376</v>
-      </c>
       <c r="D257" s="45" t="s">
         <v>377</v>
       </c>
@@ -10794,10 +10794,10 @@
         <v>367</v>
       </c>
       <c r="B259" s="14"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="45" t="s">
-        <v>382</v>
-      </c>
+      <c r="C259" s="102" t="s">
+        <v>467</v>
+      </c>
+      <c r="D259" s="45"/>
       <c r="E259" s="1" t="s">
         <v>311</v>
       </c>
@@ -11754,11 +11754,11 @@
       </c>
     </row>
     <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="121" t="s">
+      <c r="B291" s="122" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="121"/>
-      <c r="D291" s="121"/>
+      <c r="C291" s="122"/>
+      <c r="D291" s="122"/>
       <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12058,11 +12058,11 @@
       </c>
     </row>
     <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="122" t="s">
+      <c r="B301" s="123" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="122"/>
-      <c r="D301" s="122"/>
+      <c r="C301" s="123"/>
+      <c r="D301" s="123"/>
       <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -12329,12 +12329,12 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="111"/>
-      <c r="B310" s="123" t="s">
+      <c r="B310" s="121" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="123"/>
-      <c r="D310" s="123"/>
-      <c r="E310" s="123"/>
+      <c r="C310" s="121"/>
+      <c r="D310" s="121"/>
+      <c r="E310" s="121"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -12847,12 +12847,12 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="111"/>
-      <c r="B328" s="123" t="s">
+      <c r="B328" s="121" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="123"/>
-      <c r="D328" s="123"/>
-      <c r="E328" s="123"/>
+      <c r="C328" s="121"/>
+      <c r="D328" s="121"/>
+      <c r="E328" s="121"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -13855,12 +13855,12 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="111"/>
-      <c r="B360" s="123" t="s">
+      <c r="B360" s="121" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="123"/>
-      <c r="D360" s="123"/>
-      <c r="E360" s="123"/>
+      <c r="C360" s="121"/>
+      <c r="D360" s="121"/>
+      <c r="E360" s="121"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -14342,12 +14342,12 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="111"/>
-      <c r="B375" s="123" t="s">
+      <c r="B375" s="121" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="123"/>
-      <c r="D375" s="123"/>
-      <c r="E375" s="123"/>
+      <c r="C375" s="121"/>
+      <c r="D375" s="121"/>
+      <c r="E375" s="121"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -14562,12 +14562,12 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="111"/>
-      <c r="B383" s="123" t="s">
+      <c r="B383" s="121" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="123"/>
-      <c r="D383" s="123"/>
-      <c r="E383" s="123"/>
+      <c r="C383" s="121"/>
+      <c r="D383" s="121"/>
+      <c r="E383" s="121"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -14782,21 +14782,21 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="B170:D170"/>
     <mergeCell ref="B360:E360"/>
     <mergeCell ref="B291:D291"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B375:E375"/>
     <mergeCell ref="B383:E383"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B267:D267"/>
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="B328:E328"/>
   </mergeCells>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EC336-F0BE-C14A-856B-8CC0661A7A46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-630" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
     <sheet name="Revision" sheetId="29" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="31" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="493">
   <si>
     <t>Action</t>
   </si>
@@ -1427,13 +1429,91 @@
   </si>
   <si>
     <t>40000</t>
+  </si>
+  <si>
+    <t>Trigger Page (For Schedule)</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>First Common Verification Part of Schedule Check ( Step_06 : Validate top-section fields )</t>
+  </si>
+  <si>
+    <t>UITextNode.ClickTextNode</t>
+  </si>
+  <si>
+    <t>Click FASB/IASB Schedule</t>
+  </si>
+  <si>
+    <t>FASB/IASB Schedule,Click</t>
+  </si>
+  <si>
+    <t>FASB/IASB Schedule Page</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.pgFISchedule</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.panelLeaseSelection</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.txtSearch</t>
+  </si>
+  <si>
+    <t>Varify Property Name</t>
+  </si>
+  <si>
+    <t>Property/Location Level</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.PropertyValue</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.LeaseNameValue</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.FIBeginDateValue</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.FIEndDateValue</t>
+  </si>
+  <si>
+    <t>Verify # of Periods Count</t>
+  </si>
+  <si>
+    <t>Verify Presence of Imputed Interest field</t>
+  </si>
+  <si>
+    <t>Imputed Interest Rate</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.NumberOfPeriodsValue</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.ImputedInterestRate</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.CalenderMethodValue</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.SelectLease</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.SelectFASBoperatingLease</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.ScheduleTable</t>
+  </si>
+  <si>
+    <t>UIInput.pressEnterAfterSetValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,8 +1587,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1570,6 +1663,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1787,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2004,19 +2109,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2028,13 +2135,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2346,13 +2477,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Controller"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="TC001_TC050"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2693,23 +2820,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="29"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
@@ -2726,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2743,7 +2870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2760,7 +2887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2777,7 +2904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2794,7 +2921,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2811,7 +2938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2828,7 +2955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2845,7 +2972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2862,7 +2989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2879,7 +3006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2896,7 +3023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2913,7 +3040,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2930,7 +3057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2947,7 +3074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2964,7 +3091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2979,6 +3106,40 @@
       </c>
       <c r="E16" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="122">
+        <v>16</v>
+      </c>
+      <c r="B17" s="122">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="122" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="122">
+        <v>17</v>
+      </c>
+      <c r="B18" s="122">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="122" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -2988,27 +3149,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="C332" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
-    <col min="4" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" customWidth="1"/>
+    <col min="4" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" style="21" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -3046,23 +3207,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>76</v>
       </c>
@@ -3098,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>76</v>
       </c>
@@ -3134,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
@@ -3170,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>76</v>
       </c>
@@ -3198,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>76</v>
       </c>
@@ -3234,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>76</v>
       </c>
@@ -3262,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>76</v>
       </c>
@@ -3296,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>76</v>
       </c>
@@ -3328,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>76</v>
       </c>
@@ -3360,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>76</v>
       </c>
@@ -3394,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>76</v>
       </c>
@@ -3428,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>76</v>
       </c>
@@ -3462,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>76</v>
       </c>
@@ -3496,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>76</v>
       </c>
@@ -3526,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>76</v>
       </c>
@@ -3548,7 +3709,7 @@
       <c r="K17" s="39"/>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>76</v>
       </c>
@@ -3578,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>76</v>
       </c>
@@ -3613,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>76</v>
       </c>
@@ -3649,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>76</v>
       </c>
@@ -3685,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>76</v>
       </c>
@@ -3721,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>76</v>
       </c>
@@ -3757,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>76</v>
       </c>
@@ -3793,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>76</v>
       </c>
@@ -3829,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="12"/>
       <c r="C26" s="16"/>
@@ -3843,7 +4004,7 @@
       <c r="K26" s="39"/>
       <c r="L26" s="40"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>76</v>
       </c>
@@ -3879,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>76</v>
       </c>
@@ -3907,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
@@ -3943,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="C30" s="39"/>
@@ -3969,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>76</v>
       </c>
@@ -4003,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>76</v>
       </c>
@@ -4037,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
@@ -4071,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>76</v>
       </c>
@@ -4105,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>76</v>
       </c>
@@ -4139,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>76</v>
       </c>
@@ -4169,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>76</v>
       </c>
@@ -4195,26 +4356,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="49">
         <v>105</v>
       </c>
@@ -4250,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="49">
         <v>105</v>
       </c>
@@ -4286,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="49">
         <v>105</v>
       </c>
@@ -4322,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="49">
         <v>105</v>
       </c>
@@ -4350,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="49">
         <v>105</v>
       </c>
@@ -4386,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="49">
         <v>105</v>
       </c>
@@ -4414,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="49">
         <v>105</v>
       </c>
@@ -4448,7 +4609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="49">
         <v>105</v>
       </c>
@@ -4482,7 +4643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="49">
         <v>105</v>
       </c>
@@ -4516,7 +4677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="49">
         <v>105</v>
       </c>
@@ -4550,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="49">
         <v>105</v>
       </c>
@@ -4584,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="49">
         <v>105</v>
       </c>
@@ -4616,7 +4777,7 @@
       </c>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="49">
         <v>105</v>
       </c>
@@ -4648,7 +4809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="49">
         <v>105</v>
       </c>
@@ -4680,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="49">
         <v>105</v>
       </c>
@@ -4710,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="49">
         <v>105</v>
       </c>
@@ -4734,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="49">
         <v>105</v>
       </c>
@@ -4764,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="49">
         <v>105</v>
       </c>
@@ -4800,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="49">
         <v>105</v>
       </c>
@@ -4835,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="49">
         <v>105</v>
       </c>
@@ -4871,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="49">
         <v>105</v>
       </c>
@@ -4907,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="49">
         <v>105</v>
       </c>
@@ -4943,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="49">
         <v>105</v>
       </c>
@@ -4979,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="49">
         <v>105</v>
       </c>
@@ -5015,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="49">
         <v>105</v>
       </c>
@@ -5051,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="49">
         <v>105</v>
       </c>
@@ -5069,7 +5230,7 @@
       <c r="K65" s="39"/>
       <c r="L65" s="40"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="49">
         <v>105</v>
       </c>
@@ -5105,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="49">
         <v>105</v>
       </c>
@@ -5133,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="49">
         <v>105</v>
       </c>
@@ -5169,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="49">
         <v>105</v>
       </c>
@@ -5197,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="49">
         <v>105</v>
       </c>
@@ -5231,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="49">
         <v>105</v>
       </c>
@@ -5265,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="49">
         <v>105</v>
       </c>
@@ -5299,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="49">
         <v>105</v>
       </c>
@@ -5333,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="49">
         <v>105</v>
       </c>
@@ -5367,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="49">
         <v>105</v>
       </c>
@@ -5397,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="49">
         <v>105</v>
       </c>
@@ -5423,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="47"/>
       <c r="B77" s="39"/>
       <c r="C77" s="51"/>
@@ -5437,33 +5598,33 @@
       <c r="K77" s="39"/>
       <c r="L77" s="40"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="124" t="s">
+      <c r="C79" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="124"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="124"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
       <c r="H80" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="68">
         <v>106</v>
       </c>
@@ -5499,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="68">
         <v>106</v>
       </c>
@@ -5535,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="49">
         <v>106</v>
       </c>
@@ -5569,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="49">
         <v>106</v>
       </c>
@@ -5603,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="68">
         <v>106</v>
       </c>
@@ -5637,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="68">
         <v>106</v>
       </c>
@@ -5669,7 +5830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="68">
         <v>106</v>
       </c>
@@ -5701,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="68">
         <v>106</v>
       </c>
@@ -5731,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="68">
         <v>106</v>
       </c>
@@ -5753,7 +5914,7 @@
       <c r="K89" s="39"/>
       <c r="L89" s="40"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="68">
         <v>106</v>
       </c>
@@ -5783,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="68">
         <v>106</v>
       </c>
@@ -5819,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="68">
         <v>106</v>
       </c>
@@ -5847,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="68">
         <v>106</v>
       </c>
@@ -5883,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="68">
         <v>106</v>
       </c>
@@ -5911,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="68">
         <v>106</v>
       </c>
@@ -5945,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="68">
         <v>106</v>
       </c>
@@ -5979,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="68">
         <v>106</v>
       </c>
@@ -6013,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="68">
         <v>106</v>
       </c>
@@ -6047,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="68">
         <v>106</v>
       </c>
@@ -6079,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="68">
         <v>106</v>
       </c>
@@ -6111,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="68">
         <v>106</v>
       </c>
@@ -6141,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="68">
         <v>106</v>
       </c>
@@ -6163,7 +6324,7 @@
       <c r="K102" s="39"/>
       <c r="L102" s="40"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="68">
         <v>106</v>
       </c>
@@ -6193,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="68"/>
       <c r="B104" s="69"/>
       <c r="C104" s="70" t="s">
@@ -6209,7 +6370,7 @@
       <c r="K104" s="69"/>
       <c r="L104" s="71"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="68">
         <v>106</v>
       </c>
@@ -6244,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="68">
         <v>106</v>
       </c>
@@ -6280,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="68">
         <v>106</v>
       </c>
@@ -6316,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="68">
         <v>106</v>
       </c>
@@ -6352,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="68">
         <v>106</v>
       </c>
@@ -6388,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="68">
         <v>106</v>
       </c>
@@ -6424,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="68"/>
       <c r="B111" s="69"/>
       <c r="C111" s="70" t="s">
@@ -6440,7 +6601,7 @@
       <c r="K111" s="69"/>
       <c r="L111" s="71"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="68">
         <v>106</v>
       </c>
@@ -6476,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="68">
         <v>106</v>
       </c>
@@ -6504,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="68">
         <v>106</v>
       </c>
@@ -6540,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="68">
         <v>106</v>
       </c>
@@ -6568,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="68">
         <v>106</v>
       </c>
@@ -6602,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="68">
         <v>106</v>
       </c>
@@ -6634,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="68">
         <v>106</v>
       </c>
@@ -6666,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="68">
         <v>106</v>
       </c>
@@ -6700,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="68">
         <v>106</v>
       </c>
@@ -6734,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="68">
         <v>106</v>
       </c>
@@ -6768,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="68">
         <v>106</v>
       </c>
@@ -6798,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="68">
         <v>106</v>
       </c>
@@ -6824,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="47"/>
       <c r="B124" s="39"/>
       <c r="C124" s="51"/>
@@ -6838,26 +6999,26 @@
       <c r="K124" s="39"/>
       <c r="L124" s="40"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="124" t="s">
+      <c r="C126" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="124"/>
-      <c r="E126" s="124"/>
-      <c r="F126" s="124"/>
-      <c r="G126" s="124"/>
-      <c r="H126" s="124"/>
-      <c r="I126" s="124"/>
-      <c r="J126" s="124"/>
+      <c r="D126" s="131"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="131"/>
+      <c r="G126" s="131"/>
+      <c r="H126" s="131"/>
+      <c r="I126" s="131"/>
+      <c r="J126" s="131"/>
       <c r="K126" s="32"/>
       <c r="L126" s="33"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="68">
         <v>107</v>
       </c>
@@ -6893,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="68">
         <v>107</v>
       </c>
@@ -6929,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="68">
         <v>107</v>
       </c>
@@ -6963,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="68">
         <v>107</v>
       </c>
@@ -6995,7 +7156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="68">
         <v>107</v>
       </c>
@@ -7027,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="49">
         <v>107</v>
       </c>
@@ -7061,7 +7222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="68">
         <v>107</v>
       </c>
@@ -7091,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="68">
         <v>107</v>
       </c>
@@ -7113,7 +7274,7 @@
       <c r="K134" s="39"/>
       <c r="L134" s="40"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="68">
         <v>107</v>
       </c>
@@ -7143,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="68">
         <v>107</v>
       </c>
@@ -7179,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="68">
         <v>107</v>
       </c>
@@ -7207,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="68">
         <v>107</v>
       </c>
@@ -7243,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="68">
         <v>107</v>
       </c>
@@ -7271,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="68">
         <v>107</v>
       </c>
@@ -7305,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="68">
         <v>107</v>
       </c>
@@ -7339,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="68">
         <v>107</v>
       </c>
@@ -7373,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="68">
         <v>107</v>
       </c>
@@ -7407,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="68">
         <v>107</v>
       </c>
@@ -7439,7 +7600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="68">
         <v>107</v>
       </c>
@@ -7471,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="68">
         <v>107</v>
       </c>
@@ -7501,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="68">
         <v>107</v>
       </c>
@@ -7523,7 +7684,7 @@
       <c r="K147" s="39"/>
       <c r="L147" s="40"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="68">
         <v>107</v>
       </c>
@@ -7553,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="68"/>
       <c r="B149" s="69"/>
       <c r="C149" s="70" t="s">
@@ -7571,7 +7732,7 @@
       <c r="K149" s="69"/>
       <c r="L149" s="71"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="68">
         <v>107</v>
       </c>
@@ -7606,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="68">
         <v>107</v>
       </c>
@@ -7642,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="68">
         <v>107</v>
       </c>
@@ -7678,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="68">
         <v>107</v>
       </c>
@@ -7714,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="68">
         <v>107</v>
       </c>
@@ -7750,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="68">
         <v>107</v>
       </c>
@@ -7786,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="68"/>
       <c r="B156" s="69"/>
       <c r="C156" s="70" t="s">
@@ -7804,7 +7965,7 @@
       <c r="K156" s="69"/>
       <c r="L156" s="71"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="68">
         <v>107</v>
       </c>
@@ -7840,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="68">
         <v>107</v>
       </c>
@@ -7868,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="68">
         <v>107</v>
       </c>
@@ -7904,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="68">
         <v>107</v>
       </c>
@@ -7932,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="68">
         <v>107</v>
       </c>
@@ -7968,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="68">
         <v>107</v>
       </c>
@@ -8002,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="68">
         <v>107</v>
       </c>
@@ -8036,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="68">
         <v>107</v>
       </c>
@@ -8070,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="68">
         <v>107</v>
       </c>
@@ -8104,7 +8265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="68">
         <v>107</v>
       </c>
@@ -8138,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="68">
         <v>107</v>
       </c>
@@ -8168,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="68">
         <v>107</v>
       </c>
@@ -8194,15 +8355,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="125" t="s">
+    <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="125"/>
-      <c r="D170" s="125"/>
+      <c r="C170" s="132"/>
+      <c r="D170" s="132"/>
       <c r="H170" s="75"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>68</v>
       </c>
@@ -8235,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>68</v>
       </c>
@@ -8270,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>68</v>
       </c>
@@ -8305,7 +8466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>68</v>
       </c>
@@ -8338,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>68</v>
       </c>
@@ -8369,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>68</v>
       </c>
@@ -8404,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>68</v>
       </c>
@@ -8435,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>68</v>
       </c>
@@ -8468,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>68</v>
       </c>
@@ -8499,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>68</v>
       </c>
@@ -8532,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>68</v>
       </c>
@@ -8565,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>68</v>
       </c>
@@ -8598,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>68</v>
       </c>
@@ -8631,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>68</v>
       </c>
@@ -8660,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>68</v>
       </c>
@@ -8695,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="72"/>
       <c r="B186" s="76"/>
       <c r="C186" s="77"/>
@@ -8707,15 +8868,15 @@
       <c r="I186" s="2"/>
       <c r="J186" s="18"/>
     </row>
-    <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="121" t="s">
+    <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="121"/>
-      <c r="D187" s="121"/>
+      <c r="C187" s="127"/>
+      <c r="D187" s="127"/>
       <c r="H187" s="83"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>67</v>
       </c>
@@ -8750,7 +8911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>67</v>
       </c>
@@ -8785,7 +8946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>67</v>
       </c>
@@ -8820,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>67</v>
       </c>
@@ -8855,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>67</v>
       </c>
@@ -8890,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>67</v>
       </c>
@@ -8925,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>67</v>
       </c>
@@ -8960,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>67</v>
       </c>
@@ -8995,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>67</v>
       </c>
@@ -9030,15 +9191,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="126" t="s">
+    <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="126"/>
-      <c r="D201" s="126"/>
+      <c r="C201" s="128"/>
+      <c r="D201" s="128"/>
       <c r="H201" s="88"/>
     </row>
-    <row r="202" spans="1:12" s="110" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="106">
         <v>103</v>
       </c>
@@ -9068,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="106">
         <v>103</v>
       </c>
@@ -9099,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="106">
         <v>103</v>
       </c>
@@ -9130,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="106">
         <v>103</v>
       </c>
@@ -9163,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="106">
         <v>103</v>
       </c>
@@ -9196,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="106">
         <v>103</v>
       </c>
@@ -9229,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="106">
         <v>103</v>
       </c>
@@ -9262,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="106">
         <v>103</v>
       </c>
@@ -9295,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="106">
         <v>103</v>
       </c>
@@ -9328,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="106">
         <v>103</v>
       </c>
@@ -9361,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="106">
         <v>103</v>
       </c>
@@ -9394,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="106">
         <v>103</v>
       </c>
@@ -9425,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="106">
         <v>103</v>
       </c>
@@ -9458,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="106">
         <v>103</v>
       </c>
@@ -9491,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="106">
         <v>103</v>
       </c>
@@ -9524,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="106">
         <v>103</v>
       </c>
@@ -9557,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="106">
         <v>103</v>
       </c>
@@ -9590,15 +9751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="127" t="s">
+    <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="C220" s="127"/>
-      <c r="D220" s="127"/>
+      <c r="C220" s="129"/>
+      <c r="D220" s="129"/>
       <c r="H220" s="75"/>
     </row>
-    <row r="221" spans="1:12" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="89">
         <v>108</v>
       </c>
@@ -9629,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="89">
         <v>108</v>
       </c>
@@ -9660,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="89">
         <v>108</v>
       </c>
@@ -9693,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="89">
         <v>108</v>
       </c>
@@ -9724,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="89">
         <v>108</v>
       </c>
@@ -9757,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="89">
         <v>108</v>
       </c>
@@ -9788,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="89">
         <v>108</v>
       </c>
@@ -9821,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="89">
         <v>108</v>
       </c>
@@ -9854,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" s="101" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="89">
         <v>108</v>
       </c>
@@ -9885,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" s="101" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="89">
         <v>108</v>
       </c>
@@ -9918,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="89">
         <v>108</v>
       </c>
@@ -9949,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="89">
         <v>108</v>
       </c>
@@ -9977,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="89">
         <v>108</v>
       </c>
@@ -10008,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="89">
         <v>108</v>
       </c>
@@ -10037,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="89">
         <v>108</v>
       </c>
@@ -10065,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="89">
         <v>108</v>
       </c>
@@ -10093,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="89">
         <v>108</v>
       </c>
@@ -10124,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="89">
         <v>108</v>
       </c>
@@ -10153,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="89">
         <v>108</v>
       </c>
@@ -10188,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="89">
         <v>108</v>
       </c>
@@ -10223,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="89">
         <v>108</v>
       </c>
@@ -10258,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="89">
         <v>108</v>
       </c>
@@ -10293,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="89">
         <v>108</v>
       </c>
@@ -10326,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="89">
         <v>108</v>
       </c>
@@ -10356,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="89">
         <v>108</v>
       </c>
@@ -10385,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="89">
         <v>108</v>
       </c>
@@ -10419,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="89">
         <v>108</v>
       </c>
@@ -10453,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="89">
         <v>108</v>
       </c>
@@ -10487,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="89">
         <v>108</v>
       </c>
@@ -10521,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="89">
         <v>108</v>
       </c>
@@ -10555,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="89">
         <v>108</v>
       </c>
@@ -10586,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="89">
         <v>108</v>
       </c>
@@ -10620,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="89">
         <v>108</v>
       </c>
@@ -10651,15 +10812,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="128" t="s">
+    <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="C254" s="128"/>
-      <c r="D254" s="128"/>
+      <c r="C254" s="130"/>
+      <c r="D254" s="130"/>
       <c r="H254" s="83"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>367</v>
       </c>
@@ -10694,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
         <v>367</v>
       </c>
@@ -10729,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
         <v>367</v>
       </c>
@@ -10760,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>367</v>
       </c>
@@ -10789,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>367</v>
       </c>
@@ -10816,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>367</v>
       </c>
@@ -10849,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>367</v>
       </c>
@@ -10880,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>367</v>
       </c>
@@ -10911,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>367</v>
       </c>
@@ -10942,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>367</v>
       </c>
@@ -10973,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>367</v>
       </c>
@@ -11004,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
         <v>367</v>
       </c>
@@ -11033,15 +11194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="128" t="s">
+    <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C267" s="128"/>
-      <c r="D267" s="128"/>
+      <c r="C267" s="130"/>
+      <c r="D267" s="130"/>
       <c r="H267" s="83"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>110</v>
       </c>
@@ -11074,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>110</v>
       </c>
@@ -11107,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>110</v>
       </c>
@@ -11140,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>110</v>
       </c>
@@ -11173,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>110</v>
       </c>
@@ -11206,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>110</v>
       </c>
@@ -11239,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>110</v>
       </c>
@@ -11272,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>110</v>
       </c>
@@ -11300,7 +11461,7 @@
       </c>
       <c r="J275" s="26"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>110</v>
       </c>
@@ -11326,7 +11487,7 @@
       </c>
       <c r="J276" s="26"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>110</v>
       </c>
@@ -11350,7 +11511,7 @@
       </c>
       <c r="J277" s="26"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>110</v>
       </c>
@@ -11383,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>110</v>
       </c>
@@ -11414,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>110</v>
       </c>
@@ -11445,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>110</v>
       </c>
@@ -11476,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>110</v>
       </c>
@@ -11507,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>110</v>
       </c>
@@ -11538,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>110</v>
       </c>
@@ -11569,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>110</v>
       </c>
@@ -11600,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>110</v>
       </c>
@@ -11629,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>110</v>
       </c>
@@ -11658,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>110</v>
       </c>
@@ -11691,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>110</v>
       </c>
@@ -11722,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>110</v>
       </c>
@@ -11753,15 +11914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="121" t="s">
+    <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="127" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="121"/>
-      <c r="D291" s="121"/>
+      <c r="C291" s="127"/>
+      <c r="D291" s="127"/>
       <c r="H291" s="83"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>111</v>
       </c>
@@ -11794,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>111</v>
       </c>
@@ -11827,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>111</v>
       </c>
@@ -11862,7 +12023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>111</v>
       </c>
@@ -11894,7 +12055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>111</v>
       </c>
@@ -11929,7 +12090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>111</v>
       </c>
@@ -11963,7 +12124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>111</v>
       </c>
@@ -11997,7 +12158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>111</v>
       </c>
@@ -12029,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>111</v>
       </c>
@@ -12057,15 +12218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="122" t="s">
+    <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="122"/>
-      <c r="D301" s="122"/>
+      <c r="C301" s="134"/>
+      <c r="D301" s="134"/>
       <c r="H301" s="83"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>112</v>
       </c>
@@ -12098,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>112</v>
       </c>
@@ -12131,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>112</v>
       </c>
@@ -12166,7 +12327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>112</v>
       </c>
@@ -12198,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>112</v>
       </c>
@@ -12233,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>112</v>
       </c>
@@ -12267,7 +12428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>112</v>
       </c>
@@ -12299,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>112</v>
       </c>
@@ -12327,14 +12488,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="111"/>
-      <c r="B310" s="123" t="s">
+      <c r="B310" s="133" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="123"/>
-      <c r="D310" s="123"/>
-      <c r="E310" s="123"/>
+      <c r="C310" s="133"/>
+      <c r="D310" s="133"/>
+      <c r="E310" s="133"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -12343,7 +12504,7 @@
       <c r="K310" s="111"/>
       <c r="L310" s="111"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
         <v>425</v>
       </c>
@@ -12379,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="10" t="s">
         <v>425</v>
       </c>
@@ -12413,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="113">
         <v>113</v>
       </c>
@@ -12447,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="113">
         <v>113</v>
       </c>
@@ -12481,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="113">
         <v>113</v>
       </c>
@@ -12515,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="113">
         <v>113</v>
       </c>
@@ -12549,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="113">
         <v>113</v>
       </c>
@@ -12583,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="113">
         <v>113</v>
       </c>
@@ -12617,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="39"/>
       <c r="B319" s="39"/>
       <c r="C319" s="39"/>
@@ -12631,7 +12792,7 @@
       <c r="K319" s="39"/>
       <c r="L319" s="39"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="113">
         <v>113</v>
       </c>
@@ -12665,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="113">
         <v>113</v>
       </c>
@@ -12699,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="113">
         <v>113</v>
       </c>
@@ -12731,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="113">
         <v>113</v>
       </c>
@@ -12763,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="113">
         <v>113</v>
       </c>
@@ -12797,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="113">
         <v>113</v>
       </c>
@@ -12831,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="113"/>
       <c r="B327" s="12"/>
       <c r="C327" s="22"/>
@@ -12845,14 +13006,14 @@
       <c r="K327" s="39"/>
       <c r="L327" s="39"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="111"/>
-      <c r="B328" s="123" t="s">
+      <c r="B328" s="133" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="123"/>
-      <c r="D328" s="123"/>
-      <c r="E328" s="123"/>
+      <c r="C328" s="133"/>
+      <c r="D328" s="133"/>
+      <c r="E328" s="133"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -12861,7 +13022,7 @@
       <c r="K328" s="111"/>
       <c r="L328" s="111"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="113">
         <v>114</v>
       </c>
@@ -12893,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="113">
         <v>114</v>
       </c>
@@ -12925,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="113">
         <v>114</v>
       </c>
@@ -12959,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="113">
         <v>114</v>
       </c>
@@ -12991,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="113">
         <v>114</v>
       </c>
@@ -13025,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="113">
         <v>114</v>
       </c>
@@ -13057,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="113">
         <v>114</v>
       </c>
@@ -13091,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="39"/>
       <c r="B336" s="39"/>
       <c r="C336" s="39"/>
@@ -13105,7 +13266,7 @@
       <c r="K336" s="39"/>
       <c r="L336" s="39"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="113">
         <v>114</v>
       </c>
@@ -13139,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="113">
         <v>114</v>
       </c>
@@ -13173,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="113">
         <v>114</v>
       </c>
@@ -13205,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="113">
         <v>114</v>
       </c>
@@ -13235,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="113">
         <v>114</v>
       </c>
@@ -13269,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="113">
         <v>114</v>
       </c>
@@ -13301,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="113">
         <v>114</v>
       </c>
@@ -13331,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="113">
         <v>114</v>
       </c>
@@ -13365,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="113">
         <v>114</v>
       </c>
@@ -13397,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="113">
         <v>114</v>
       </c>
@@ -13427,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="113">
         <v>114</v>
       </c>
@@ -13463,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="113">
         <v>114</v>
       </c>
@@ -13499,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="113">
         <v>114</v>
       </c>
@@ -13535,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="113">
         <v>114</v>
       </c>
@@ -13571,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="113">
         <v>114</v>
       </c>
@@ -13605,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="113">
         <v>114</v>
       </c>
@@ -13637,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="113">
         <v>114</v>
       </c>
@@ -13669,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="113">
         <v>114</v>
       </c>
@@ -13703,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="113">
         <v>114</v>
       </c>
@@ -13737,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="113">
         <v>114</v>
       </c>
@@ -13771,7 +13932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="113">
         <v>114</v>
       </c>
@@ -13805,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="113">
         <v>114</v>
       </c>
@@ -13839,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="39"/>
       <c r="B359" s="39"/>
       <c r="C359" s="39"/>
@@ -13853,14 +14014,14 @@
       <c r="K359" s="39"/>
       <c r="L359" s="39"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="111"/>
-      <c r="B360" s="123" t="s">
+      <c r="B360" s="133" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="123"/>
-      <c r="D360" s="123"/>
-      <c r="E360" s="123"/>
+      <c r="C360" s="133"/>
+      <c r="D360" s="133"/>
+      <c r="E360" s="133"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -13869,7 +14030,7 @@
       <c r="K360" s="111"/>
       <c r="L360" s="111"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
         <v>443</v>
       </c>
@@ -13905,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
         <v>443</v>
       </c>
@@ -13941,7 +14102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
         <v>443</v>
       </c>
@@ -13977,7 +14138,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
         <v>443</v>
       </c>
@@ -14013,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
         <v>443</v>
       </c>
@@ -14049,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>443</v>
       </c>
@@ -14085,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
         <v>443</v>
       </c>
@@ -14121,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="38">
         <v>115</v>
       </c>
@@ -14157,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="10" t="s">
         <v>443</v>
       </c>
@@ -14193,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
         <v>443</v>
       </c>
@@ -14229,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
         <v>443</v>
       </c>
@@ -14265,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
         <v>443</v>
       </c>
@@ -14301,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
         <v>443</v>
       </c>
@@ -14337,17 +14498,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H374" s="112"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="111"/>
-      <c r="B375" s="123" t="s">
+      <c r="B375" s="133" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="123"/>
-      <c r="D375" s="123"/>
-      <c r="E375" s="123"/>
+      <c r="C375" s="133"/>
+      <c r="D375" s="133"/>
+      <c r="E375" s="133"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -14356,7 +14517,7 @@
       <c r="K375" s="111"/>
       <c r="L375" s="111"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="68">
         <v>116</v>
       </c>
@@ -14390,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="68">
         <v>116</v>
       </c>
@@ -14424,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="68">
         <v>116</v>
       </c>
@@ -14460,7 +14621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="68">
         <v>116</v>
       </c>
@@ -14494,7 +14655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="68">
         <v>116</v>
       </c>
@@ -14528,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="68">
         <v>116</v>
       </c>
@@ -14560,14 +14721,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="111"/>
-      <c r="B383" s="123" t="s">
+      <c r="B383" s="133" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="123"/>
-      <c r="D383" s="123"/>
-      <c r="E383" s="123"/>
+      <c r="C383" s="133"/>
+      <c r="D383" s="133"/>
+      <c r="E383" s="133"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -14576,7 +14737,7 @@
       <c r="K383" s="111"/>
       <c r="L383" s="111"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="68">
         <v>117</v>
       </c>
@@ -14610,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="68">
         <v>117</v>
       </c>
@@ -14644,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="68">
         <v>117</v>
       </c>
@@ -14680,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="68">
         <v>117</v>
       </c>
@@ -14714,7 +14875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="68">
         <v>117</v>
       </c>
@@ -14748,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="68">
         <v>117</v>
       </c>
@@ -14787,6 +14948,8 @@
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B375:E375"/>
     <mergeCell ref="B383:E383"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B328:E328"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C79:J79"/>
@@ -14797,37 +14960,35 @@
     <mergeCell ref="B220:D220"/>
     <mergeCell ref="B254:D254"/>
     <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="B328:E328"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="40" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="425" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="39" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="423" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="424" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="37" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="253" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="36" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="251" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26 H186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26 H186" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -14838,7 +14999,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="572" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14851,7 +15012,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="422" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
-            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14864,7 +15025,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="421" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14877,7 +15038,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="418" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14890,7 +15051,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="417" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14903,7 +15064,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="416" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14916,7 +15077,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="414" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14929,7 +15090,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="407" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14942,7 +15103,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="406" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14955,7 +15116,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="389" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14968,7 +15129,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="388" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14981,7 +15142,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="387" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14994,7 +15155,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="386" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15007,7 +15168,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="381" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15020,7 +15181,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="380" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15033,7 +15194,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="379" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15046,7 +15207,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="378" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15059,7 +15220,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="377" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15072,7 +15233,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="368" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15085,7 +15246,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="297" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15098,7 +15259,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="250" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15111,7 +15272,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="72" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15124,7 +15285,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="71" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15137,7 +15298,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="70" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15150,7 +15311,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{85AD45A8-A281-4837-B412-380389E1B080}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15163,7 +15324,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{00F1E729-1E9E-4D87-AEC5-7D0C57F5A3D4}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15176,7 +15337,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{723C3386-6B8F-42FD-8A78-8B1CF9EBBBB1}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15189,7 +15350,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{DC0C30C2-F9F0-4EA7-9CAA-27615F719550}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15202,7 +15363,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{C780E717-8150-4726-BA6B-47682B6CAE12}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15215,7 +15376,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{53DF4454-3AEC-47D6-A2DC-CF6F1086B947}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15228,7 +15389,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{FD287822-3851-4AB3-B6BE-AD88C7389820}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15241,7 +15402,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{319766C6-26DC-4599-A020-A86927CE7C9B}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15254,7 +15415,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{3331EB2F-7996-443D-9AD0-CD3298CAB18C}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15267,7 +15428,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{E9A81280-8093-4BE6-9337-BE5530F8C2A4}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15280,7 +15441,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{5BD00112-2248-4841-BBF5-4466D8179D11}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15295,4 +15456,985 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A52F28-3949-0E4C-AC35-967E0AD937B0}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="21" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="85.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126"/>
+      <c r="C2" s="124" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="122">
+        <v>118</v>
+      </c>
+      <c r="B3" s="125">
+        <v>1</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="122">
+        <v>118</v>
+      </c>
+      <c r="B4" s="125">
+        <v>2</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="122">
+        <v>118</v>
+      </c>
+      <c r="B5" s="125">
+        <v>4</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="122">
+        <v>118</v>
+      </c>
+      <c r="B6" s="125">
+        <v>5</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="122">
+        <v>118</v>
+      </c>
+      <c r="B7" s="125">
+        <v>6</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="122">
+        <v>118</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="122">
+        <v>118</v>
+      </c>
+      <c r="B9" s="125"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="121"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="122">
+        <v>118</v>
+      </c>
+      <c r="B10" s="125">
+        <v>9</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="122">
+        <v>118</v>
+      </c>
+      <c r="B11" s="125">
+        <v>10</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="122">
+        <v>118</v>
+      </c>
+      <c r="B12" s="125">
+        <v>11</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="122">
+        <v>118</v>
+      </c>
+      <c r="B13" s="125">
+        <v>12</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>492</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="122">
+        <v>118</v>
+      </c>
+      <c r="B14" s="125">
+        <v>13</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="122">
+        <v>118</v>
+      </c>
+      <c r="B15" s="125">
+        <v>14</v>
+      </c>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="122">
+        <v>118</v>
+      </c>
+      <c r="B16" s="125">
+        <v>15</v>
+      </c>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>491</v>
+      </c>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="121"/>
+    </row>
+    <row r="18" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="126"/>
+      <c r="C18" s="126" t="s">
+        <v>469</v>
+      </c>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+    </row>
+    <row r="19" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="122">
+        <v>119</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="122">
+        <v>119</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="121" t="s">
+        <v>480</v>
+      </c>
+      <c r="G20" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122">
+        <v>119</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="121" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122">
+        <v>119</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="122">
+        <v>119</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="G23" s="121">
+        <v>48</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122">
+        <v>119</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="H24" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="122">
+        <v>119</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="G25" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="122">
+        <v>119</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="121"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="122">
+        <v>119</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>480</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="121"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="122">
+        <v>119</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="H28" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="121"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="122">
+        <v>119</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="121"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="122">
+        <v>119</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="G30" s="121">
+        <v>48</v>
+      </c>
+      <c r="H30" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="122">
+        <v>119</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="H31" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="121"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="122">
+        <v>119</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="121"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="122"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="122"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="122"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="122"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="122"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="122"/>
+      <c r="D38" s="136"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{3E9D47BF-6B3A-164B-B23E-0A3A0C24A954}">
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EC336-F0BE-C14A-856B-8CC0661A7A46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F774D7-1C93-9942-8AC9-98C034A60089}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
     <sheet name="Revision" sheetId="29" r:id="rId2"/>
     <sheet name="Schedule" sheetId="31" r:id="rId3"/>
+    <sheet name="FirstRevision" sheetId="32" r:id="rId4"/>
+    <sheet name="ScheduleNote" sheetId="33" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="497">
   <si>
     <t>Action</t>
   </si>
@@ -1507,6 +1509,18 @@
   </si>
   <si>
     <t>UIInput.pressEnterAfterSetValue</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>First Revision Auto Trigger Phase 0ne</t>
+  </si>
+  <si>
+    <t>FirstRevision</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.TemporaryLeaseSelection</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1615,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1675,6 +1689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2123,6 +2143,46 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2147,9 +2207,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2158,7 +2216,28 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2821,16 +2900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="29"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="82.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
@@ -2864,7 +2943,7 @@
         <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>69</v>
@@ -3140,6 +3219,23 @@
       </c>
       <c r="E18" s="122" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="153">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>201</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3152,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView topLeftCell="C332" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E337" sqref="E337"/>
+    <sheetView topLeftCell="A159" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3210,16 +3306,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -4362,16 +4458,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -5605,16 +5701,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="149"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="149"/>
+      <c r="I79" s="149"/>
+      <c r="J79" s="149"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -7005,16 +7101,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="131" t="s">
+      <c r="C126" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="131"/>
-      <c r="E126" s="131"/>
-      <c r="F126" s="131"/>
-      <c r="G126" s="131"/>
-      <c r="H126" s="131"/>
-      <c r="I126" s="131"/>
-      <c r="J126" s="131"/>
+      <c r="D126" s="149"/>
+      <c r="E126" s="149"/>
+      <c r="F126" s="149"/>
+      <c r="G126" s="149"/>
+      <c r="H126" s="149"/>
+      <c r="I126" s="149"/>
+      <c r="J126" s="149"/>
       <c r="K126" s="32"/>
       <c r="L126" s="33"/>
     </row>
@@ -8356,11 +8452,11 @@
       </c>
     </row>
     <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="132" t="s">
+      <c r="B170" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="132"/>
-      <c r="D170" s="132"/>
+      <c r="C170" s="150"/>
+      <c r="D170" s="150"/>
       <c r="H170" s="75"/>
     </row>
     <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8869,11 +8965,11 @@
       <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="127" t="s">
+      <c r="B187" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="127"/>
-      <c r="D187" s="127"/>
+      <c r="C187" s="145"/>
+      <c r="D187" s="145"/>
       <c r="H187" s="83"/>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9192,11 +9288,11 @@
       </c>
     </row>
     <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="128" t="s">
+      <c r="B201" s="146" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="128"/>
-      <c r="D201" s="128"/>
+      <c r="C201" s="146"/>
+      <c r="D201" s="146"/>
       <c r="H201" s="88"/>
     </row>
     <row r="202" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9752,11 +9848,11 @@
       </c>
     </row>
     <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="129" t="s">
+      <c r="B220" s="147" t="s">
         <v>203</v>
       </c>
-      <c r="C220" s="129"/>
-      <c r="D220" s="129"/>
+      <c r="C220" s="147"/>
+      <c r="D220" s="147"/>
       <c r="H220" s="75"/>
     </row>
     <row r="221" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -10813,11 +10909,11 @@
       </c>
     </row>
     <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="130" t="s">
+      <c r="B254" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C254" s="130"/>
-      <c r="D254" s="130"/>
+      <c r="C254" s="148"/>
+      <c r="D254" s="148"/>
       <c r="H254" s="83"/>
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11195,11 +11291,11 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="130" t="s">
+      <c r="B267" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C267" s="130"/>
-      <c r="D267" s="130"/>
+      <c r="C267" s="148"/>
+      <c r="D267" s="148"/>
       <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11915,11 +12011,11 @@
       </c>
     </row>
     <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="127" t="s">
+      <c r="B291" s="145" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="127"/>
-      <c r="D291" s="127"/>
+      <c r="C291" s="145"/>
+      <c r="D291" s="145"/>
       <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12219,11 +12315,11 @@
       </c>
     </row>
     <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="134" t="s">
+      <c r="B301" s="152" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="134"/>
-      <c r="D301" s="134"/>
+      <c r="C301" s="152"/>
+      <c r="D301" s="152"/>
       <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12490,12 +12586,12 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="111"/>
-      <c r="B310" s="133" t="s">
+      <c r="B310" s="151" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="133"/>
-      <c r="D310" s="133"/>
-      <c r="E310" s="133"/>
+      <c r="C310" s="151"/>
+      <c r="D310" s="151"/>
+      <c r="E310" s="151"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -13008,12 +13104,12 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="111"/>
-      <c r="B328" s="133" t="s">
+      <c r="B328" s="151" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="133"/>
-      <c r="D328" s="133"/>
-      <c r="E328" s="133"/>
+      <c r="C328" s="151"/>
+      <c r="D328" s="151"/>
+      <c r="E328" s="151"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -14016,12 +14112,12 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="111"/>
-      <c r="B360" s="133" t="s">
+      <c r="B360" s="151" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="133"/>
-      <c r="D360" s="133"/>
-      <c r="E360" s="133"/>
+      <c r="C360" s="151"/>
+      <c r="D360" s="151"/>
+      <c r="E360" s="151"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -14503,12 +14599,12 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="111"/>
-      <c r="B375" s="133" t="s">
+      <c r="B375" s="151" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="133"/>
-      <c r="D375" s="133"/>
-      <c r="E375" s="133"/>
+      <c r="C375" s="151"/>
+      <c r="D375" s="151"/>
+      <c r="E375" s="151"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -14723,12 +14819,12 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="111"/>
-      <c r="B383" s="133" t="s">
+      <c r="B383" s="151" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="133"/>
-      <c r="D383" s="133"/>
-      <c r="E383" s="133"/>
+      <c r="C383" s="151"/>
+      <c r="D383" s="151"/>
+      <c r="E383" s="151"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -14962,28 +15058,28 @@
     <mergeCell ref="B267:D267"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="41" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="425" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="40" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="423" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="424" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="38" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="253" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="37" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="251" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15460,10 +15556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A52F28-3949-0E4C-AC35-967E0AD937B0}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15477,7 +15573,8 @@
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="21" customWidth="1"/>
     <col min="9" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="85.83203125" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -15523,6 +15620,7 @@
       <c r="C2" s="124" t="s">
         <v>467</v>
       </c>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="122">
@@ -15552,7 +15650,7 @@
       <c r="J3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="121">
+      <c r="L3" s="122">
         <v>0</v>
       </c>
     </row>
@@ -15587,7 +15685,7 @@
       <c r="J4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="121">
+      <c r="L4" s="122">
         <v>1</v>
       </c>
     </row>
@@ -15622,7 +15720,7 @@
       <c r="J5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="121">
+      <c r="L5" s="122">
         <v>3</v>
       </c>
     </row>
@@ -15655,7 +15753,7 @@
       <c r="J6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="122">
         <v>1</v>
       </c>
     </row>
@@ -15685,7 +15783,7 @@
       <c r="J7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="122">
         <v>0</v>
       </c>
     </row>
@@ -15718,22 +15816,26 @@
       <c r="J8" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="121"/>
+      <c r="L8" s="122"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="122">
         <v>118</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="125">
+        <v>9</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="121" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="H9" s="122" t="s">
         <v>12</v>
@@ -15742,28 +15844,28 @@
         <v>2</v>
       </c>
       <c r="J9" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="121"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="122">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="122">
         <v>118</v>
       </c>
       <c r="B10" s="125">
-        <v>9</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>40</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="121"/>
       <c r="D10" s="121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" s="121" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="H10" s="122" t="s">
         <v>12</v>
@@ -15772,10 +15874,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="121">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="L10" s="122">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -15783,17 +15885,20 @@
         <v>118</v>
       </c>
       <c r="B11" s="125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="121"/>
       <c r="D11" s="121" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F11" s="121" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>55</v>
       </c>
       <c r="H11" s="122" t="s">
         <v>12</v>
@@ -15804,8 +15909,8 @@
       <c r="J11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="121">
-        <v>0</v>
+      <c r="L11" s="122">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -15813,21 +15918,19 @@
         <v>118</v>
       </c>
       <c r="B12" s="125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>46</v>
+        <v>492</v>
       </c>
       <c r="F12" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="G12" s="121" t="s">
-        <v>55</v>
-      </c>
+      <c r="G12" s="121"/>
       <c r="H12" s="122" t="s">
         <v>12</v>
       </c>
@@ -15837,8 +15940,8 @@
       <c r="J12" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="121">
-        <v>1</v>
+      <c r="L12" s="122">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -15846,19 +15949,19 @@
         <v>118</v>
       </c>
       <c r="B13" s="125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="121"/>
-      <c r="D13" s="121" t="s">
-        <v>35</v>
+      <c r="D13" s="127" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="121" t="s">
-        <v>492</v>
+        <v>47</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>476</v>
-      </c>
-      <c r="G13" s="121"/>
+        <v>496</v>
+      </c>
+      <c r="G13" s="127"/>
       <c r="H13" s="122" t="s">
         <v>12</v>
       </c>
@@ -15866,10 +15969,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="121">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="L13" s="122">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -15877,19 +15980,21 @@
         <v>118</v>
       </c>
       <c r="B14" s="125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="121"/>
-      <c r="D14" s="135" t="s">
-        <v>42</v>
+      <c r="D14" s="121" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>490</v>
-      </c>
-      <c r="G14" s="121"/>
+        <v>475</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" s="122" t="s">
         <v>12</v>
       </c>
@@ -15897,107 +16002,119 @@
         <v>2</v>
       </c>
       <c r="J14" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="121">
+        <v>2</v>
+      </c>
+      <c r="L14" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="122">
-        <v>118</v>
-      </c>
-      <c r="B15" s="125">
-        <v>14</v>
-      </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="121" t="s">
-        <v>475</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="122">
-        <v>118</v>
-      </c>
-      <c r="B16" s="125">
-        <v>15</v>
-      </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>491</v>
-      </c>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="121"/>
-    </row>
-    <row r="18" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="126"/>
-      <c r="C18" s="126" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="122"/>
+    </row>
+    <row r="16" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="126"/>
+      <c r="C16" s="126" t="s">
         <v>469</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-    </row>
-    <row r="19" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="L16" s="126"/>
+    </row>
+    <row r="17" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="122">
+        <v>119</v>
+      </c>
+      <c r="B17" s="137"/>
+      <c r="C17" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="138"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+    </row>
+    <row r="18" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="122">
+        <v>119</v>
+      </c>
+      <c r="B18" s="137"/>
+      <c r="C18" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>480</v>
+      </c>
+      <c r="G18" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="138"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+    </row>
+    <row r="19" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="122">
         <v>119</v>
       </c>
+      <c r="B19" s="137"/>
       <c r="C19" s="121" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F19" s="121" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>12</v>
@@ -16008,25 +16125,32 @@
       <c r="J19" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="138"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+    </row>
+    <row r="20" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="122">
         <v>119</v>
       </c>
+      <c r="B20" s="137"/>
       <c r="C20" s="121" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H20" s="122" t="s">
         <v>12</v>
@@ -16037,25 +16161,32 @@
       <c r="J20" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="138"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+    </row>
+    <row r="21" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122">
         <v>119</v>
       </c>
+      <c r="B21" s="137"/>
       <c r="C21" s="121" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>481</v>
-      </c>
-      <c r="G21" s="121" t="s">
-        <v>249</v>
+        <v>486</v>
+      </c>
+      <c r="G21" s="121">
+        <v>48</v>
       </c>
       <c r="H21" s="122" t="s">
         <v>12</v>
@@ -16066,25 +16197,32 @@
       <c r="J21" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="138"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+    </row>
+    <row r="22" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <v>119</v>
       </c>
+      <c r="B22" s="137"/>
       <c r="C22" s="121" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="H22" s="122" t="s">
         <v>12</v>
@@ -16095,25 +16233,32 @@
       <c r="J22" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="138"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+    </row>
+    <row r="23" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="122">
         <v>119</v>
       </c>
+      <c r="B23" s="137"/>
       <c r="C23" s="121" t="s">
-        <v>483</v>
+        <v>277</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="G23" s="121">
-        <v>48</v>
+        <v>488</v>
+      </c>
+      <c r="G23" s="121" t="s">
+        <v>279</v>
       </c>
       <c r="H23" s="122" t="s">
         <v>12</v>
@@ -16124,25 +16269,31 @@
       <c r="J23" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="138"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="122">
         <v>119</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>236</v>
+        <v>478</v>
+      </c>
+      <c r="E24" s="129" t="s">
+        <v>134</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>485</v>
+        <v>238</v>
       </c>
       <c r="H24" s="122" t="s">
         <v>12</v>
@@ -16153,25 +16304,31 @@
       <c r="J24" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="138"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="122">
         <v>119</v>
       </c>
       <c r="C25" s="121" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="E25" s="129" t="s">
+        <v>134</v>
       </c>
       <c r="F25" s="121" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="H25" s="122" t="s">
         <v>12</v>
@@ -16182,25 +16339,31 @@
       <c r="J25" s="122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="139"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="139"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="122">
         <v>119</v>
       </c>
       <c r="C26" s="121" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F26" s="121" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H26" s="122" t="s">
         <v>12</v>
@@ -16211,26 +16374,26 @@
       <c r="J26" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="121"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="142"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="122">
         <v>119</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F27" s="121" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G27" s="121" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H27" s="122" t="s">
         <v>12</v>
@@ -16241,26 +16404,26 @@
       <c r="J27" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="121"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="122"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="122">
         <v>119</v>
       </c>
       <c r="C28" s="121" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="137" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="121" t="s">
-        <v>481</v>
-      </c>
-      <c r="G28" s="121" t="s">
-        <v>249</v>
+        <v>486</v>
+      </c>
+      <c r="G28" s="121">
+        <v>48</v>
       </c>
       <c r="H28" s="122" t="s">
         <v>12</v>
@@ -16271,26 +16434,28 @@
       <c r="J28" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="121"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="122">
         <v>119</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="137" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="H29" s="122" t="s">
         <v>12</v>
@@ -16301,26 +16466,26 @@
       <c r="J29" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="121"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="122"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <v>119</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>483</v>
+        <v>277</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="G30" s="121">
-        <v>48</v>
+        <v>488</v>
+      </c>
+      <c r="G30" s="121" t="s">
+        <v>279</v>
       </c>
       <c r="H30" s="122" t="s">
         <v>12</v>
@@ -16331,88 +16496,7 @@
       <c r="J30" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="122">
-        <v>119</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>484</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="121" t="s">
-        <v>487</v>
-      </c>
-      <c r="G31" s="121" t="s">
-        <v>485</v>
-      </c>
-      <c r="H31" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="121"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="122">
-        <v>119</v>
-      </c>
-      <c r="C32" s="121" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="121" t="s">
-        <v>488</v>
-      </c>
-      <c r="G32" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="121"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="122"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="122"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="122"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="122"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="122"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="122"/>
-      <c r="D38" s="136"/>
+      <c r="L30" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16421,7 +16505,1753 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{3E9D47BF-6B3A-164B-B23E-0A3A0C24A954}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{3E9D47BF-6B3A-164B-B23E-0A3A0C24A954}">
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EC9DF9-63B0-FC42-A3BC-4352218A7067}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="21" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="57.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="134"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126"/>
+      <c r="C2" s="124" t="s">
+        <v>494</v>
+      </c>
+      <c r="L2" s="135"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="12">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="122"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="122"/>
+      <c r="L18" s="136"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="122"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="122"/>
+      <c r="L19" s="136"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="122"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="122"/>
+      <c r="L20" s="136"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="122"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="122"/>
+      <c r="L21" s="136"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="122"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="122"/>
+      <c r="L22" s="136"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="122"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="122"/>
+      <c r="L23" s="136"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="122"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="122"/>
+      <c r="L24" s="136"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="122"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="122"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="122"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="122"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="122"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="122"/>
+      <c r="D30" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{8CE613C3-D911-DD40-9D30-4B162676037D}">
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000E688B-F947-9948-AFCF-0CEEE04D2B40}">
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3:H17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7233D64-3472-194D-B514-270440B48FC5}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="21" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126"/>
+      <c r="C2" s="124" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" s="126"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="122">
+        <v>118</v>
+      </c>
+      <c r="B3" s="125">
+        <v>1</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="122">
+        <v>118</v>
+      </c>
+      <c r="B4" s="125">
+        <v>2</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="122">
+        <v>118</v>
+      </c>
+      <c r="B5" s="125">
+        <v>4</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="122">
+        <v>118</v>
+      </c>
+      <c r="B6" s="125">
+        <v>5</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="122">
+        <v>118</v>
+      </c>
+      <c r="B7" s="125">
+        <v>6</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="122">
+        <v>118</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="122"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="122">
+        <v>118</v>
+      </c>
+      <c r="B9" s="125"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="122"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="122">
+        <v>118</v>
+      </c>
+      <c r="B10" s="125">
+        <v>9</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="122">
+        <v>118</v>
+      </c>
+      <c r="B11" s="125">
+        <v>10</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="122">
+        <v>118</v>
+      </c>
+      <c r="B12" s="125">
+        <v>11</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="122">
+        <v>118</v>
+      </c>
+      <c r="B13" s="125">
+        <v>12</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>492</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="122">
+        <v>118</v>
+      </c>
+      <c r="B14" s="125">
+        <v>13</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="127" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="122">
+        <v>118</v>
+      </c>
+      <c r="B15" s="125">
+        <v>14</v>
+      </c>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="122">
+        <v>118</v>
+      </c>
+      <c r="B16" s="125">
+        <v>15</v>
+      </c>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>491</v>
+      </c>
+      <c r="G16" s="143"/>
+      <c r="H16" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="122"/>
+    </row>
+    <row r="18" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="126"/>
+      <c r="C18" s="126" t="s">
+        <v>469</v>
+      </c>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="L18" s="126"/>
+    </row>
+    <row r="19" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="122">
+        <v>119</v>
+      </c>
+      <c r="B19" s="137"/>
+      <c r="C19" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="138"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+    </row>
+    <row r="20" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="122">
+        <v>119</v>
+      </c>
+      <c r="B20" s="137"/>
+      <c r="C20" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="121" t="s">
+        <v>480</v>
+      </c>
+      <c r="G20" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="138"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+    </row>
+    <row r="21" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122">
+        <v>119</v>
+      </c>
+      <c r="B21" s="137"/>
+      <c r="C21" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="121" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="138"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+    </row>
+    <row r="22" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122">
+        <v>119</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="138"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+    </row>
+    <row r="23" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="122">
+        <v>119</v>
+      </c>
+      <c r="B23" s="137"/>
+      <c r="C23" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="G23" s="121">
+        <v>48</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="138"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+    </row>
+    <row r="24" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122">
+        <v>119</v>
+      </c>
+      <c r="B24" s="137"/>
+      <c r="C24" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="H24" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="138"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+    </row>
+    <row r="25" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="122">
+        <v>119</v>
+      </c>
+      <c r="B25" s="137"/>
+      <c r="C25" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="G25" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="138"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="122">
+        <v>119</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="138"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="122">
+        <v>119</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>480</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="139"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="122">
+        <v>119</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="H28" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="142"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="122">
+        <v>119</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="122"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="122">
+        <v>119</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="G30" s="121">
+        <v>48</v>
+      </c>
+      <c r="H30" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="122">
+        <v>119</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="H31" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="122"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="122">
+        <v>119</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="122"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="122"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="122"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="122"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="122"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="122"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="122"/>
+      <c r="D38" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{1503260C-B4FC-8D41-80C8-CD3FD1B67733}">
             <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F774D7-1C93-9942-8AC9-98C034A60089}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F62FD-33A8-BE4B-9CAC-B013CB2D828A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,19 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="527">
   <si>
     <t>Action</t>
   </si>
@@ -1521,13 +1528,103 @@
   </si>
   <si>
     <t>FASB.FISchedule.TemporaryLeaseSelection</t>
+  </si>
+  <si>
+    <t>- Adjusted NPV Interest Rate should be present</t>
+  </si>
+  <si>
+    <t>- Amortization Expense Per Day should be present</t>
+  </si>
+  <si>
+    <t>- Rent Expense Per Day should be present</t>
+  </si>
+  <si>
+    <t>- Display dropdown should populate FASB - Operating (default), FASB - Financing/IASB and Both</t>
+  </si>
+  <si>
+    <t>- Display Long Term/Short Term Liabilities checkbox should be unchecked by default</t>
+  </si>
+  <si>
+    <t>Property should show correct property</t>
+  </si>
+  <si>
+    <t>Lease Name should show correct lease name</t>
+  </si>
+  <si>
+    <t>Verify FASB/IASB Start Date should show correct date</t>
+  </si>
+  <si>
+    <t>Verify FASB/IASB End Date should show correct date</t>
+  </si>
+  <si>
+    <t># of Periods should show correct count</t>
+  </si>
+  <si>
+    <t>NPV Interest Rate should show correct %</t>
+  </si>
+  <si>
+    <t>Imputed Interest field should be present</t>
+  </si>
+  <si>
+    <t>Calendar Method should show calender</t>
+  </si>
+  <si>
+    <t>Display dropdown should populate FASB - Operating (default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display dropdown should populate FASB - Financing/IASB </t>
+  </si>
+  <si>
+    <t>Display dropdown should populate Both</t>
+  </si>
+  <si>
+    <t>FASB - Operating (default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASB - Financing/IASB </t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Varify Property Name_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>Verify Lease Name_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>Verify FASB/IASB Start Date_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>Verify FASB/IASB End Date_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>Verify # of Periods Count_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>Verify Presence of Imputed Interest field_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>Validate Calender Method_UIInput.compareValue</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.NPVInterestRateValue</t>
+  </si>
+  <si>
+    <t>NPV Interest Rate</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.DisplayCheckList</t>
+  </si>
+  <si>
+    <t>UIDropDown.CheckDropDownItem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,8 +1711,20 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1695,6 +1804,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,7 +1922,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2183,7 +2298,22 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2195,19 +2325,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2902,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2942,8 +3067,8 @@
       <c r="C2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>69</v>
@@ -3222,7 +3347,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="153">
+      <c r="A19" s="145">
         <v>19</v>
       </c>
       <c r="B19" s="2">
@@ -3248,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:J186"/>
+    <sheetView topLeftCell="A167" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8965,11 +9090,11 @@
       <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="145" t="s">
+      <c r="B187" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="145"/>
-      <c r="D187" s="145"/>
+      <c r="C187" s="147"/>
+      <c r="D187" s="147"/>
       <c r="H187" s="83"/>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9288,11 +9413,11 @@
       </c>
     </row>
     <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="146" t="s">
+      <c r="B201" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="146"/>
-      <c r="D201" s="146"/>
+      <c r="C201" s="151"/>
+      <c r="D201" s="151"/>
       <c r="H201" s="88"/>
     </row>
     <row r="202" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9848,11 +9973,11 @@
       </c>
     </row>
     <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="147" t="s">
+      <c r="B220" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C220" s="147"/>
-      <c r="D220" s="147"/>
+      <c r="C220" s="152"/>
+      <c r="D220" s="152"/>
       <c r="H220" s="75"/>
     </row>
     <row r="221" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -10909,11 +11034,11 @@
       </c>
     </row>
     <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="148" t="s">
+      <c r="B254" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="C254" s="148"/>
-      <c r="D254" s="148"/>
+      <c r="C254" s="153"/>
+      <c r="D254" s="153"/>
       <c r="H254" s="83"/>
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11291,11 +11416,11 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="148" t="s">
+      <c r="B267" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="C267" s="148"/>
-      <c r="D267" s="148"/>
+      <c r="C267" s="153"/>
+      <c r="D267" s="153"/>
       <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12011,11 +12136,11 @@
       </c>
     </row>
     <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="145" t="s">
+      <c r="B291" s="147" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="145"/>
-      <c r="D291" s="145"/>
+      <c r="C291" s="147"/>
+      <c r="D291" s="147"/>
       <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12315,11 +12440,11 @@
       </c>
     </row>
     <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="152" t="s">
+      <c r="B301" s="148" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="152"/>
-      <c r="D301" s="152"/>
+      <c r="C301" s="148"/>
+      <c r="D301" s="148"/>
       <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12586,12 +12711,12 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="111"/>
-      <c r="B310" s="151" t="s">
+      <c r="B310" s="146" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="151"/>
-      <c r="D310" s="151"/>
-      <c r="E310" s="151"/>
+      <c r="C310" s="146"/>
+      <c r="D310" s="146"/>
+      <c r="E310" s="146"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -13104,12 +13229,12 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="111"/>
-      <c r="B328" s="151" t="s">
+      <c r="B328" s="146" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="151"/>
-      <c r="D328" s="151"/>
-      <c r="E328" s="151"/>
+      <c r="C328" s="146"/>
+      <c r="D328" s="146"/>
+      <c r="E328" s="146"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -14112,12 +14237,12 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="111"/>
-      <c r="B360" s="151" t="s">
+      <c r="B360" s="146" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="151"/>
-      <c r="D360" s="151"/>
-      <c r="E360" s="151"/>
+      <c r="C360" s="146"/>
+      <c r="D360" s="146"/>
+      <c r="E360" s="146"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -14599,12 +14724,12 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="111"/>
-      <c r="B375" s="151" t="s">
+      <c r="B375" s="146" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="151"/>
-      <c r="D375" s="151"/>
-      <c r="E375" s="151"/>
+      <c r="C375" s="146"/>
+      <c r="D375" s="146"/>
+      <c r="E375" s="146"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -14819,12 +14944,12 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="111"/>
-      <c r="B383" s="151" t="s">
+      <c r="B383" s="146" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="151"/>
-      <c r="D383" s="151"/>
-      <c r="E383" s="151"/>
+      <c r="C383" s="146"/>
+      <c r="D383" s="146"/>
+      <c r="E383" s="146"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -15039,6 +15164,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="B170:D170"/>
     <mergeCell ref="B360:E360"/>
     <mergeCell ref="B291:D291"/>
     <mergeCell ref="B301:D301"/>
@@ -15046,16 +15181,6 @@
     <mergeCell ref="B383:E383"/>
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="B328:E328"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B267:D267"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="44" priority="425" operator="equal">
@@ -15556,24 +15681,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A52F28-3949-0E4C-AC35-967E0AD937B0}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD47"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="34.83203125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="21" customWidth="1"/>
     <col min="9" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="38" customWidth="1"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -16028,9 +16153,9 @@
       <c r="A17" s="122">
         <v>119</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="121" t="s">
-        <v>477</v>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155" t="s">
+        <v>502</v>
       </c>
       <c r="D17" s="121" t="s">
         <v>478</v>
@@ -16064,9 +16189,9 @@
       <c r="A18" s="122">
         <v>119</v>
       </c>
-      <c r="B18" s="137"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="121" t="s">
-        <v>239</v>
+        <v>503</v>
       </c>
       <c r="D18" s="121" t="s">
         <v>240</v>
@@ -16100,9 +16225,9 @@
       <c r="A19" s="122">
         <v>119</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="121" t="s">
-        <v>269</v>
+        <v>504</v>
       </c>
       <c r="D19" s="121" t="s">
         <v>78</v>
@@ -16136,9 +16261,9 @@
       <c r="A20" s="122">
         <v>119</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="121" t="s">
-        <v>270</v>
+        <v>505</v>
       </c>
       <c r="D20" s="121" t="s">
         <v>91</v>
@@ -16172,21 +16297,21 @@
       <c r="A21" s="122">
         <v>119</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="121" t="s">
-        <v>483</v>
-      </c>
-      <c r="D21" s="121" t="s">
+      <c r="B21" s="154"/>
+      <c r="C21" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="D21" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="156" t="s">
         <v>486</v>
       </c>
-      <c r="G21" s="121">
-        <v>48</v>
+      <c r="G21" s="156">
+        <v>60</v>
       </c>
       <c r="H21" s="122" t="s">
         <v>12</v>
@@ -16208,21 +16333,21 @@
       <c r="A22" s="122">
         <v>119</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="121" t="s">
-        <v>484</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>235</v>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>524</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="121" t="s">
-        <v>487</v>
-      </c>
-      <c r="G22" s="121" t="s">
-        <v>485</v>
+      <c r="F22" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" s="121">
+        <v>1</v>
       </c>
       <c r="H22" s="122" t="s">
         <v>12</v>
@@ -16244,21 +16369,21 @@
       <c r="A23" s="122">
         <v>119</v>
       </c>
-      <c r="B23" s="137"/>
-      <c r="C23" s="121" t="s">
-        <v>277</v>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155" t="s">
+        <v>508</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>279</v>
+        <v>485</v>
       </c>
       <c r="H23" s="122" t="s">
         <v>12</v>
@@ -16276,24 +16401,25 @@
       <c r="O23" s="138"/>
       <c r="P23" s="138"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="122">
         <v>119</v>
       </c>
-      <c r="C24" s="121" t="s">
-        <v>477</v>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155" t="s">
+        <v>509</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>478</v>
-      </c>
-      <c r="E24" s="129" t="s">
-        <v>134</v>
+        <v>278</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="H24" s="122" t="s">
         <v>12</v>
@@ -16305,7 +16431,7 @@
         <v>12</v>
       </c>
       <c r="K24" s="138"/>
-      <c r="L24" s="141"/>
+      <c r="L24" s="140"/>
       <c r="M24" s="138"/>
       <c r="N24" s="138"/>
       <c r="O24" s="138"/>
@@ -16315,20 +16441,20 @@
       <c r="A25" s="122">
         <v>119</v>
       </c>
-      <c r="C25" s="121" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="121" t="s">
-        <v>480</v>
-      </c>
-      <c r="G25" s="121" t="s">
-        <v>242</v>
+      <c r="C25" s="155" t="s">
+        <v>510</v>
+      </c>
+      <c r="D25" s="155" t="s">
+        <v>513</v>
+      </c>
+      <c r="E25" s="159" t="s">
+        <v>526</v>
+      </c>
+      <c r="F25" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="155" t="s">
+        <v>151</v>
       </c>
       <c r="H25" s="122" t="s">
         <v>12</v>
@@ -16339,31 +16465,31 @@
       <c r="J25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="139"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="139"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="122">
         <v>119</v>
       </c>
-      <c r="C26" s="121" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="121" t="s">
-        <v>481</v>
-      </c>
-      <c r="G26" s="121" t="s">
-        <v>249</v>
+      <c r="C26" s="155" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>514</v>
+      </c>
+      <c r="E26" s="159" t="s">
+        <v>526</v>
+      </c>
+      <c r="F26" t="s">
+        <v>525</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>514</v>
       </c>
       <c r="H26" s="122" t="s">
         <v>12</v>
@@ -16374,26 +16500,31 @@
       <c r="J26" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="142"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="122">
         <v>119</v>
       </c>
-      <c r="C27" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="121" t="s">
-        <v>482</v>
-      </c>
-      <c r="G27" s="121" t="s">
-        <v>253</v>
+      <c r="C27" s="155" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="155" t="s">
+        <v>515</v>
+      </c>
+      <c r="E27" s="159" t="s">
+        <v>526</v>
+      </c>
+      <c r="F27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="155" t="s">
+        <v>515</v>
       </c>
       <c r="H27" s="122" t="s">
         <v>12</v>
@@ -16404,26 +16535,32 @@
       <c r="J27" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="122"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="122">
         <v>119</v>
       </c>
-      <c r="C28" s="121" t="s">
-        <v>483</v>
+      <c r="B28" s="40"/>
+      <c r="C28" s="156" t="s">
+        <v>516</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="E28" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="G28" s="121">
-        <v>48</v>
+        <v>479</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>238</v>
       </c>
       <c r="H28" s="122" t="s">
         <v>12</v>
@@ -16434,28 +16571,27 @@
       <c r="J28" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="122">
-        <v>0</v>
-      </c>
+      <c r="L28" s="142"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="122">
         <v>119</v>
       </c>
-      <c r="C29" s="121" t="s">
-        <v>484</v>
+      <c r="B29" s="40"/>
+      <c r="C29" s="156" t="s">
+        <v>517</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E29" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>485</v>
+        <v>242</v>
       </c>
       <c r="H29" s="122" t="s">
         <v>12</v>
@@ -16472,31 +16608,202 @@
       <c r="A30" s="122">
         <v>119</v>
       </c>
-      <c r="C30" s="121" t="s">
-        <v>277</v>
+      <c r="B30" s="40"/>
+      <c r="C30" s="156" t="s">
+        <v>518</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="E30" s="129" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="121" t="s">
+        <v>481</v>
+      </c>
+      <c r="G30" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="122">
+        <v>119</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="156" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="122"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="122">
+        <v>119</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="156" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="G32" s="121">
+        <v>60</v>
+      </c>
+      <c r="H32" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="122"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="122">
+        <v>119</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="156" t="s">
+        <v>521</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="H33" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="122">
+        <v>119</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="156" t="s">
+        <v>522</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="121" t="s">
         <v>488</v>
       </c>
-      <c r="G30" s="121" t="s">
+      <c r="G34" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="H30" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="122"/>
+      <c r="H34" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C40" s="155"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41" s="155"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="155"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43" s="155"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="155"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45" s="155"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C46" s="155" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C47" s="155" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="155" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="155" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="155" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="11265" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-28920" yWindow="2070" windowWidth="29040" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="574">
   <si>
     <t>Action</t>
   </si>
@@ -1391,9 +1391,6 @@
   </si>
   <si>
     <t>Verify straight line amount</t>
-  </si>
-  <si>
-    <t>Revision,$revision,Straight Line,$RecurringPayment_amount_0</t>
   </si>
   <si>
     <t>Revision,$revision,Last Posted Period, ,</t>
@@ -1739,6 +1736,36 @@
   </si>
   <si>
     <t>History table page load successfully ? History table page load fail</t>
+  </si>
+  <si>
+    <t>Store straight line amount</t>
+  </si>
+  <si>
+    <t>Straight Line,straightLineAmount</t>
+  </si>
+  <si>
+    <t>$RecurringPayment_amount_0,$straightLineAmount</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Revision Selection</t>
+  </si>
+  <si>
+    <t>Revision,$revision</t>
+  </si>
+  <si>
+    <t>Delete revision</t>
+  </si>
+  <si>
+    <t>UIBase.acceptPopup</t>
+  </si>
+  <si>
+    <t>Accept the popup</t>
+  </si>
+  <si>
+    <t>Revision delete  successfully?Revision delete  unsuccessful</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1872,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1920,6 +1947,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2046,7 +2079,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2358,9 +2391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,30 +2426,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2594,13 +2600,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3664,7 +3804,7 @@
         <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
@@ -3698,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD443"/>
+  <dimension ref="A1:XFD455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E406" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K426" sqref="K426"/>
+    <sheetView tabSelected="1" topLeftCell="B274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3852,7 @@
     <col min="4" max="4" width="50.7109375" style="2" customWidth="1"/>
     <col min="5" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14" style="156" customWidth="1"/>
+    <col min="8" max="8" width="14" style="147" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="85.85546875" customWidth="1"/>
@@ -3759,16 +3899,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
       <c r="K2" s="31"/>
       <c r="L2" s="32"/>
     </row>
@@ -4908,16 +5048,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
       <c r="K39" s="31"/>
       <c r="L39" s="32"/>
     </row>
@@ -5343,7 +5483,7 @@
         <v>101</v>
       </c>
       <c r="G52" s="38"/>
-      <c r="H52" s="150"/>
+      <c r="H52" s="141"/>
       <c r="I52" s="26" t="s">
         <v>2</v>
       </c>
@@ -6150,16 +6290,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="127" t="s">
+      <c r="C79" s="199" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="127"/>
-      <c r="J79" s="127"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="199"/>
+      <c r="F79" s="199"/>
+      <c r="G79" s="199"/>
+      <c r="H79" s="199"/>
+      <c r="I79" s="199"/>
+      <c r="J79" s="199"/>
       <c r="K79" s="31"/>
       <c r="L79" s="32"/>
     </row>
@@ -7546,16 +7686,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="30"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="127" t="s">
+      <c r="C126" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="127"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="127"/>
-      <c r="J126" s="127"/>
+      <c r="D126" s="199"/>
+      <c r="E126" s="199"/>
+      <c r="F126" s="199"/>
+      <c r="G126" s="199"/>
+      <c r="H126" s="199"/>
+      <c r="I126" s="199"/>
+      <c r="J126" s="199"/>
       <c r="K126" s="31"/>
       <c r="L126" s="32"/>
     </row>
@@ -7747,7 +7887,7 @@
         <v>162</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>12</v>
@@ -8897,15 +9037,15 @@
       </c>
     </row>
     <row r="170" spans="1:16384" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="118"/>
-      <c r="B170" s="128" t="s">
+      <c r="A170" s="117"/>
+      <c r="B170" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="128"/>
-      <c r="D170" s="128"/>
-      <c r="H170" s="151"/>
-      <c r="I170" s="123"/>
-      <c r="J170" s="123"/>
+      <c r="C170" s="192"/>
+      <c r="D170" s="192"/>
+      <c r="H170" s="142"/>
+      <c r="I170" s="122"/>
+      <c r="J170" s="122"/>
     </row>
     <row r="171" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
@@ -8920,7 +9060,7 @@
       <c r="D171" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E171" s="114" t="s">
+      <c r="E171" s="113" t="s">
         <v>45</v>
       </c>
       <c r="F171" s="23" t="s">
@@ -8947,32 +9087,32 @@
       <c r="B172" s="18">
         <v>7</v>
       </c>
-      <c r="C172" s="115" t="s">
+      <c r="C172" s="114" t="s">
+        <v>467</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E172" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D172" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="E172" s="18" t="s">
+      <c r="F172" s="115" t="s">
         <v>469</v>
       </c>
-      <c r="F172" s="116" t="s">
+      <c r="G172" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="G172" s="40" t="s">
+      <c r="H172" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K172" s="25" t="s">
         <v>471</v>
-      </c>
-      <c r="H172" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K172" s="25" t="s">
-        <v>472</v>
       </c>
       <c r="L172" s="18">
         <v>1</v>
@@ -25822,15 +25962,15 @@
       <c r="J187" s="18"/>
     </row>
     <row r="188" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="125"/>
-      <c r="B188" s="129" t="s">
+      <c r="A188" s="124"/>
+      <c r="B188" s="193" t="s">
         <v>211</v>
       </c>
-      <c r="C188" s="129"/>
-      <c r="D188" s="129"/>
-      <c r="H188" s="152"/>
-      <c r="I188" s="125"/>
-      <c r="J188" s="125"/>
+      <c r="C188" s="193"/>
+      <c r="D188" s="193"/>
+      <c r="H188" s="143"/>
+      <c r="I188" s="124"/>
+      <c r="J188" s="124"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
@@ -26148,15 +26288,15 @@
       </c>
     </row>
     <row r="202" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="126"/>
-      <c r="B202" s="130" t="s">
+      <c r="A202" s="125"/>
+      <c r="B202" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="C202" s="130"/>
-      <c r="D202" s="130"/>
-      <c r="H202" s="153"/>
-      <c r="I202" s="126"/>
-      <c r="J202" s="126"/>
+      <c r="C202" s="194"/>
+      <c r="D202" s="194"/>
+      <c r="H202" s="144"/>
+      <c r="I202" s="125"/>
+      <c r="J202" s="125"/>
     </row>
     <row r="203" spans="1:12" s="105" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="101">
@@ -26712,15 +26852,15 @@
       </c>
     </row>
     <row r="221" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="118"/>
-      <c r="B221" s="131" t="s">
+      <c r="A221" s="117"/>
+      <c r="B221" s="195" t="s">
         <v>203</v>
       </c>
-      <c r="C221" s="131"/>
-      <c r="D221" s="131"/>
-      <c r="H221" s="151"/>
-      <c r="I221" s="123"/>
-      <c r="J221" s="123"/>
+      <c r="C221" s="195"/>
+      <c r="D221" s="195"/>
+      <c r="H221" s="142"/>
+      <c r="I221" s="122"/>
+      <c r="J221" s="122"/>
     </row>
     <row r="222" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="84">
@@ -27254,7 +27394,7 @@
       </c>
       <c r="B239" s="12"/>
       <c r="C239" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D239" s="22"/>
       <c r="E239" s="1" t="s">
@@ -27486,7 +27626,7 @@
       </c>
       <c r="B246" s="14"/>
       <c r="C246" s="97" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D246" s="43"/>
       <c r="E246" s="1" t="s">
@@ -27776,15 +27916,15 @@
       </c>
     </row>
     <row r="255" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="125"/>
-      <c r="B255" s="132" t="s">
+      <c r="A255" s="124"/>
+      <c r="B255" s="196" t="s">
         <v>204</v>
       </c>
-      <c r="C255" s="132"/>
-      <c r="D255" s="132"/>
-      <c r="H255" s="152"/>
-      <c r="I255" s="125"/>
-      <c r="J255" s="125"/>
+      <c r="C255" s="196"/>
+      <c r="D255" s="196"/>
+      <c r="H255" s="143"/>
+      <c r="I255" s="124"/>
+      <c r="J255" s="124"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
@@ -27919,7 +28059,7 @@
       </c>
       <c r="B260" s="14"/>
       <c r="C260" s="97" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D260" s="43"/>
       <c r="E260" s="1" t="s">
@@ -28158,15 +28298,15 @@
       </c>
     </row>
     <row r="268" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="125"/>
-      <c r="B268" s="132" t="s">
+      <c r="A268" s="124"/>
+      <c r="B268" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="C268" s="132"/>
-      <c r="D268" s="132"/>
-      <c r="H268" s="152"/>
-      <c r="I268" s="125"/>
-      <c r="J268" s="125"/>
+      <c r="C268" s="196"/>
+      <c r="D268" s="196"/>
+      <c r="H268" s="143"/>
+      <c r="I268" s="124"/>
+      <c r="J268" s="124"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
@@ -28881,15 +29021,15 @@
       </c>
     </row>
     <row r="292" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="125"/>
-      <c r="B292" s="129" t="s">
+      <c r="A292" s="124"/>
+      <c r="B292" s="193" t="s">
         <v>415</v>
       </c>
-      <c r="C292" s="129"/>
-      <c r="D292" s="129"/>
-      <c r="H292" s="152"/>
-      <c r="I292" s="125"/>
-      <c r="J292" s="125"/>
+      <c r="C292" s="193"/>
+      <c r="D292" s="193"/>
+      <c r="H292" s="143"/>
+      <c r="I292" s="124"/>
+      <c r="J292" s="124"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
@@ -29188,28 +29328,28 @@
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B302" s="198"/>
-      <c r="C302" s="199"/>
-      <c r="D302" s="200"/>
-      <c r="E302" s="163"/>
-      <c r="F302" s="196"/>
-      <c r="G302" s="197"/>
-      <c r="H302" s="162"/>
-      <c r="I302" s="163"/>
-      <c r="J302" s="164"/>
-      <c r="K302" s="165"/>
-      <c r="L302" s="161"/>
+      <c r="B302" s="189"/>
+      <c r="C302" s="190"/>
+      <c r="D302" s="191"/>
+      <c r="E302" s="154"/>
+      <c r="F302" s="187"/>
+      <c r="G302" s="188"/>
+      <c r="H302" s="153"/>
+      <c r="I302" s="154"/>
+      <c r="J302" s="155"/>
+      <c r="K302" s="156"/>
+      <c r="L302" s="152"/>
     </row>
     <row r="303" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="125"/>
-      <c r="B303" s="134" t="s">
+      <c r="A303" s="124"/>
+      <c r="B303" s="198" t="s">
         <v>414</v>
       </c>
-      <c r="C303" s="134"/>
-      <c r="D303" s="134"/>
-      <c r="H303" s="152"/>
-      <c r="I303" s="125"/>
-      <c r="J303" s="125"/>
+      <c r="C303" s="198"/>
+      <c r="D303" s="198"/>
+      <c r="H303" s="143"/>
+      <c r="I303" s="124"/>
+      <c r="J303" s="124"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
@@ -29364,7 +29504,7 @@
         <v>104</v>
       </c>
       <c r="G308" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H308" s="11" t="s">
         <v>2</v>
@@ -29487,18 +29627,18 @@
       <c r="L312" s="38"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A313" s="117"/>
-      <c r="B313" s="133" t="s">
+      <c r="A313" s="116"/>
+      <c r="B313" s="197" t="s">
         <v>424</v>
       </c>
-      <c r="C313" s="133"/>
-      <c r="D313" s="133"/>
-      <c r="E313" s="133"/>
+      <c r="C313" s="197"/>
+      <c r="D313" s="197"/>
+      <c r="E313" s="197"/>
       <c r="F313" s="106"/>
       <c r="G313" s="106"/>
-      <c r="H313" s="154"/>
-      <c r="I313" s="124"/>
-      <c r="J313" s="124"/>
+      <c r="H313" s="145"/>
+      <c r="I313" s="123"/>
+      <c r="J313" s="123"/>
       <c r="K313" s="106"/>
       <c r="L313" s="106"/>
     </row>
@@ -29524,7 +29664,7 @@
       <c r="G314" s="94" t="s">
         <v>428</v>
       </c>
-      <c r="H314" s="154" t="s">
+      <c r="H314" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I314" s="26" t="s">
@@ -29558,7 +29698,7 @@
         <v>431</v>
       </c>
       <c r="G315" s="3"/>
-      <c r="H315" s="154" t="s">
+      <c r="H315" s="145" t="s">
         <v>2</v>
       </c>
       <c r="I315" s="26" t="s">
@@ -29592,7 +29732,7 @@
         <v>66</v>
       </c>
       <c r="G316" s="3"/>
-      <c r="H316" s="154" t="s">
+      <c r="H316" s="145" t="s">
         <v>2</v>
       </c>
       <c r="I316" s="107" t="s">
@@ -29626,7 +29766,7 @@
       <c r="G317" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="H317" s="154" t="s">
+      <c r="H317" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I317" s="107" t="s">
@@ -29660,7 +29800,7 @@
       <c r="G318" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="H318" s="154" t="s">
+      <c r="H318" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I318" s="107" t="s">
@@ -29694,7 +29834,7 @@
       <c r="G319" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="H319" s="154" t="s">
+      <c r="H319" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I319" s="107" t="s">
@@ -29728,7 +29868,7 @@
       <c r="G320" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="H320" s="154" t="s">
+      <c r="H320" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I320" s="107" t="s">
@@ -29742,37 +29882,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A321" s="107">
+    <row r="321" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="200">
         <v>113</v>
       </c>
-      <c r="B321" s="91"/>
-      <c r="C321" s="92" t="s">
+      <c r="B321" s="201"/>
+      <c r="C321" s="202" t="s">
         <v>250</v>
       </c>
-      <c r="D321" s="91" t="s">
+      <c r="D321" s="201" t="s">
         <v>251</v>
       </c>
-      <c r="E321" s="1" t="s">
+      <c r="E321" s="203" t="s">
         <v>236</v>
       </c>
-      <c r="F321" s="93" t="s">
+      <c r="F321" s="204" t="s">
         <v>252</v>
       </c>
-      <c r="G321" s="94" t="s">
+      <c r="G321" s="205" t="s">
         <v>253</v>
       </c>
-      <c r="H321" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="I321" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J321" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K321" s="109"/>
-      <c r="L321" s="109">
+      <c r="H321" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="I321" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="J321" s="207" t="s">
+        <v>12</v>
+      </c>
+      <c r="K321" s="208"/>
+      <c r="L321" s="208">
         <v>0</v>
       </c>
     </row>
@@ -29784,7 +29924,7 @@
       <c r="E322" s="37"/>
       <c r="F322" s="37"/>
       <c r="G322" s="37"/>
-      <c r="H322" s="150"/>
+      <c r="H322" s="141"/>
       <c r="I322" s="38"/>
       <c r="J322" s="38"/>
       <c r="K322" s="37"/>
@@ -29810,7 +29950,7 @@
       <c r="G323" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="H323" s="154" t="s">
+      <c r="H323" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I323" s="107" t="s">
@@ -29844,7 +29984,7 @@
       <c r="G324" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="H324" s="154" t="s">
+      <c r="H324" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I324" s="107" t="s">
@@ -29876,7 +30016,7 @@
         <v>438</v>
       </c>
       <c r="G325" s="88"/>
-      <c r="H325" s="154" t="s">
+      <c r="H325" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I325" s="107" t="s">
@@ -29908,7 +30048,7 @@
         <v>268</v>
       </c>
       <c r="G326" s="88"/>
-      <c r="H326" s="154" t="s">
+      <c r="H326" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I326" s="107" t="s">
@@ -29942,7 +30082,7 @@
       <c r="G327" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="H327" s="154" t="s">
+      <c r="H327" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I327" s="107" t="s">
@@ -29976,7 +30116,7 @@
       <c r="G328" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="H328" s="154" t="s">
+      <c r="H328" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I328" s="107" t="s">
@@ -29998,25 +30138,25 @@
       <c r="E330" s="1"/>
       <c r="F330" s="23"/>
       <c r="G330" s="3"/>
-      <c r="H330" s="154"/>
+      <c r="H330" s="145"/>
       <c r="I330" s="107"/>
       <c r="J330" s="36"/>
       <c r="K330" s="37"/>
       <c r="L330" s="37"/>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" s="117"/>
-      <c r="B331" s="133" t="s">
+      <c r="A331" s="116"/>
+      <c r="B331" s="197" t="s">
         <v>440</v>
       </c>
-      <c r="C331" s="133"/>
-      <c r="D331" s="133"/>
-      <c r="E331" s="133"/>
+      <c r="C331" s="197"/>
+      <c r="D331" s="197"/>
+      <c r="E331" s="197"/>
       <c r="F331" s="106"/>
       <c r="G331" s="106"/>
-      <c r="H331" s="154"/>
-      <c r="I331" s="124"/>
-      <c r="J331" s="124"/>
+      <c r="H331" s="145"/>
+      <c r="I331" s="123"/>
+      <c r="J331" s="123"/>
       <c r="K331" s="106"/>
       <c r="L331" s="106"/>
     </row>
@@ -30038,7 +30178,7 @@
         <v>282</v>
       </c>
       <c r="G332" s="88"/>
-      <c r="H332" s="154" t="s">
+      <c r="H332" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I332" s="85" t="s">
@@ -30070,7 +30210,7 @@
         <v>285</v>
       </c>
       <c r="G333" s="94"/>
-      <c r="H333" s="154" t="s">
+      <c r="H333" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I333" s="91" t="s">
@@ -30104,7 +30244,7 @@
       <c r="G334" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="H334" s="154" t="s">
+      <c r="H334" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I334" s="91" t="s">
@@ -30136,7 +30276,7 @@
         <v>289</v>
       </c>
       <c r="G335" s="94"/>
-      <c r="H335" s="154" t="s">
+      <c r="H335" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I335" s="91" t="s">
@@ -30170,7 +30310,7 @@
       <c r="G336" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="H336" s="154" t="s">
+      <c r="H336" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I336" s="91" t="s">
@@ -30202,7 +30342,7 @@
         <v>293</v>
       </c>
       <c r="G337" s="94"/>
-      <c r="H337" s="154" t="s">
+      <c r="H337" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I337" s="91" t="s">
@@ -30236,7 +30376,7 @@
       <c r="G338" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="H338" s="154" t="s">
+      <c r="H338" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I338" s="91" t="s">
@@ -30258,7 +30398,7 @@
       <c r="E339" s="37"/>
       <c r="F339" s="37"/>
       <c r="G339" s="37"/>
-      <c r="H339" s="150"/>
+      <c r="H339" s="141"/>
       <c r="I339" s="38"/>
       <c r="J339" s="38"/>
       <c r="K339" s="37"/>
@@ -30284,7 +30424,7 @@
       <c r="G340" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="H340" s="154" t="s">
+      <c r="H340" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I340" s="91" t="s">
@@ -30318,7 +30458,7 @@
       <c r="G341" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="H341" s="155" t="s">
+      <c r="H341" s="146" t="s">
         <v>12</v>
       </c>
       <c r="I341" s="91" t="s">
@@ -30350,7 +30490,7 @@
       <c r="G342" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="H342" s="154" t="s">
+      <c r="H342" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I342" s="26" t="s">
@@ -30380,7 +30520,7 @@
       <c r="G343" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H343" s="154" t="s">
+      <c r="H343" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I343" s="26" t="s">
@@ -30414,7 +30554,7 @@
       <c r="G344" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="H344" s="154" t="s">
+      <c r="H344" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I344" s="26" t="s">
@@ -30446,7 +30586,7 @@
       <c r="G345" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="H345" s="154" t="s">
+      <c r="H345" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I345" s="26" t="s">
@@ -30476,7 +30616,7 @@
       <c r="G346" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H346" s="154" t="s">
+      <c r="H346" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I346" s="26" t="s">
@@ -30510,7 +30650,7 @@
       <c r="G347" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="H347" s="154" t="s">
+      <c r="H347" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I347" s="26" t="s">
@@ -30542,7 +30682,7 @@
       <c r="G348" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="H348" s="154" t="s">
+      <c r="H348" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I348" s="26" t="s">
@@ -30572,7 +30712,7 @@
       <c r="G349" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H349" s="154" t="s">
+      <c r="H349" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I349" s="26" t="s">
@@ -30608,7 +30748,7 @@
       <c r="G350" s="38">
         <v>0</v>
       </c>
-      <c r="H350" s="154" t="s">
+      <c r="H350" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I350" s="26" t="s">
@@ -30644,7 +30784,7 @@
       <c r="G351" s="38">
         <v>0</v>
       </c>
-      <c r="H351" s="154" t="s">
+      <c r="H351" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I351" s="26" t="s">
@@ -30680,7 +30820,7 @@
       <c r="G352" s="38">
         <v>0</v>
       </c>
-      <c r="H352" s="154" t="s">
+      <c r="H352" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I352" s="26" t="s">
@@ -30716,7 +30856,7 @@
       <c r="G353" s="38">
         <v>0</v>
       </c>
-      <c r="H353" s="154" t="s">
+      <c r="H353" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I353" s="26" t="s">
@@ -30750,7 +30890,7 @@
         <v>338</v>
       </c>
       <c r="G354" s="38"/>
-      <c r="H354" s="154" t="s">
+      <c r="H354" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I354" s="26" t="s">
@@ -30782,7 +30922,7 @@
       <c r="G355" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="H355" s="154" t="s">
+      <c r="H355" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I355" s="26" t="s">
@@ -30814,7 +30954,7 @@
       <c r="G356" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="H356" s="154" t="s">
+      <c r="H356" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I356" s="26" t="s">
@@ -30846,7 +30986,7 @@
         <v>101</v>
       </c>
       <c r="G357" s="39"/>
-      <c r="H357" s="154" t="s">
+      <c r="H357" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I357" s="26" t="s">
@@ -30880,7 +31020,7 @@
         <v>352</v>
       </c>
       <c r="G358" s="39"/>
-      <c r="H358" s="154" t="s">
+      <c r="H358" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I358" s="26" t="s">
@@ -30914,7 +31054,7 @@
         <v>356</v>
       </c>
       <c r="G359" s="39"/>
-      <c r="H359" s="154" t="s">
+      <c r="H359" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I359" s="26" t="s">
@@ -30948,7 +31088,7 @@
         <v>125</v>
       </c>
       <c r="G360" s="39"/>
-      <c r="H360" s="154" t="s">
+      <c r="H360" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I360" s="26" t="s">
@@ -30982,7 +31122,7 @@
         <v>361</v>
       </c>
       <c r="G361" s="39"/>
-      <c r="H361" s="154" t="s">
+      <c r="H361" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I361" s="26" t="s">
@@ -31006,25 +31146,25 @@
       <c r="E362" s="37"/>
       <c r="F362" s="37"/>
       <c r="G362" s="37"/>
-      <c r="H362" s="150"/>
+      <c r="H362" s="141"/>
       <c r="I362" s="38"/>
       <c r="J362" s="38"/>
       <c r="K362" s="37"/>
       <c r="L362" s="37"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A363" s="117"/>
-      <c r="B363" s="133" t="s">
+      <c r="A363" s="116"/>
+      <c r="B363" s="197" t="s">
         <v>442</v>
       </c>
-      <c r="C363" s="133"/>
-      <c r="D363" s="133"/>
-      <c r="E363" s="133"/>
+      <c r="C363" s="197"/>
+      <c r="D363" s="197"/>
+      <c r="E363" s="197"/>
       <c r="F363" s="106"/>
       <c r="G363" s="106"/>
-      <c r="H363" s="154"/>
-      <c r="I363" s="124"/>
-      <c r="J363" s="124"/>
+      <c r="H363" s="145"/>
+      <c r="I363" s="123"/>
+      <c r="J363" s="123"/>
       <c r="K363" s="106"/>
       <c r="L363" s="106"/>
     </row>
@@ -31050,7 +31190,7 @@
       <c r="G364" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H364" s="154" t="s">
+      <c r="H364" s="145" t="s">
         <v>2</v>
       </c>
       <c r="I364" s="38" t="s">
@@ -31086,7 +31226,7 @@
       <c r="G365" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H365" s="154" t="s">
+      <c r="H365" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I365" s="26" t="s">
@@ -31122,7 +31262,7 @@
       <c r="G366" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="H366" s="154" t="s">
+      <c r="H366" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I366" s="17" t="s">
@@ -31158,7 +31298,7 @@
       <c r="G367" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="H367" s="154" t="s">
+      <c r="H367" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I367" s="17" t="s">
@@ -31194,7 +31334,7 @@
       <c r="G368" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="H368" s="154" t="s">
+      <c r="H368" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I368" s="17" t="s">
@@ -31208,7 +31348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
         <v>443</v>
       </c>
@@ -31230,7 +31370,7 @@
       <c r="G369" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H369" s="154" t="s">
+      <c r="H369" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I369" s="17" t="s">
@@ -31244,7 +31384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
         <v>443</v>
       </c>
@@ -31266,7 +31406,7 @@
       <c r="G370" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="H370" s="154" t="s">
+      <c r="H370" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I370" s="17" t="s">
@@ -31280,7 +31420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="36">
         <v>115</v>
       </c>
@@ -31300,9 +31440,9 @@
         <v>39</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H371" s="154" t="s">
+        <v>460</v>
+      </c>
+      <c r="H371" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I371" s="17" t="s">
@@ -31316,7 +31456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
         <v>443</v>
       </c>
@@ -31338,7 +31478,7 @@
       <c r="G372" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H372" s="154" t="s">
+      <c r="H372" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I372" s="17" t="s">
@@ -31352,87 +31492,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B373" s="12">
+      <c r="B373" s="177"/>
+      <c r="C373" s="178" t="s">
+        <v>564</v>
+      </c>
+      <c r="D373" s="179"/>
+      <c r="E373" s="134" t="s">
+        <v>427</v>
+      </c>
+      <c r="F373" s="209" t="s">
+        <v>39</v>
+      </c>
+      <c r="G373" s="210" t="s">
+        <v>565</v>
+      </c>
+      <c r="H373" s="180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I373" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="J373" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="K373" s="183"/>
+      <c r="L373" s="179">
+        <v>1</v>
+      </c>
+      <c r="M373" s="183"/>
+      <c r="N373" s="183"/>
+      <c r="O373" s="183"/>
+      <c r="P373" s="183"/>
+      <c r="Q373" s="183"/>
+      <c r="R373" s="183"/>
+      <c r="S373" s="183"/>
+      <c r="T373" s="183"/>
+      <c r="U373" s="183"/>
+      <c r="V373" s="183"/>
+      <c r="W373" s="183"/>
+      <c r="X373" s="183"/>
+      <c r="Y373" s="183"/>
+      <c r="Z373" s="183"/>
+    </row>
+    <row r="374" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="211" t="s">
+        <v>443</v>
+      </c>
+      <c r="B374" s="212">
         <v>6</v>
       </c>
-      <c r="C373" s="113" t="s">
+      <c r="C374" s="213" t="s">
         <v>454</v>
       </c>
-      <c r="D373" s="20" t="s">
+      <c r="D374" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F373" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G373" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H373" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="I373" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J373" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K373" s="37"/>
-      <c r="L373" s="37">
+      <c r="E374" s="203" t="s">
+        <v>311</v>
+      </c>
+      <c r="F374" s="215"/>
+      <c r="G374" s="201" t="s">
+        <v>566</v>
+      </c>
+      <c r="H374" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="I374" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J374" s="217" t="s">
+        <v>12</v>
+      </c>
+      <c r="K374" s="218"/>
+      <c r="L374" s="218">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A374" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B374" s="12">
-        <v>9</v>
-      </c>
-      <c r="C374" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D374" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F374" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G374" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H374" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="I374" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J374" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K374" s="37"/>
-      <c r="L374" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
         <v>443</v>
       </c>
       <c r="B375" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D375" s="20" t="s">
         <v>43</v>
@@ -31444,13 +31592,13 @@
         <v>39</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H375" s="154" t="s">
+        <v>455</v>
+      </c>
+      <c r="H375" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I375" s="26" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J375" s="45" t="s">
         <v>12</v>
@@ -31460,7 +31608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
         <v>443</v>
       </c>
@@ -31468,7 +31616,7 @@
         <v>10</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="D376" s="20" t="s">
         <v>43</v>
@@ -31480,9 +31628,9 @@
         <v>39</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="H376" s="154" t="s">
+        <v>456</v>
+      </c>
+      <c r="H376" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I376" s="26" t="s">
@@ -31496,75 +31644,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H377" s="154"/>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A378" s="117"/>
-      <c r="B378" s="133" t="s">
-        <v>462</v>
-      </c>
-      <c r="C378" s="133"/>
-      <c r="D378" s="133"/>
-      <c r="E378" s="133"/>
-      <c r="F378" s="106"/>
-      <c r="G378" s="106"/>
-      <c r="H378" s="154"/>
-      <c r="I378" s="124"/>
-      <c r="J378" s="124"/>
-      <c r="K378" s="106"/>
-      <c r="L378" s="106"/>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A379" s="66">
-        <v>116</v>
-      </c>
-      <c r="B379" s="34"/>
-      <c r="C379" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D379" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F379" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G379" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H379" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I379" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J379" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K379" s="37"/>
-      <c r="L379" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A377" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B377" s="12">
+        <v>10</v>
+      </c>
+      <c r="C377" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D377" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F377" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H377" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I377" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J377" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K377" s="37"/>
+      <c r="L377" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H378" s="145"/>
+    </row>
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A379" s="116"/>
+      <c r="B379" s="197" t="s">
+        <v>461</v>
+      </c>
+      <c r="C379" s="197"/>
+      <c r="D379" s="197"/>
+      <c r="E379" s="197"/>
+      <c r="F379" s="106"/>
+      <c r="G379" s="106"/>
+      <c r="H379" s="145"/>
+      <c r="I379" s="123"/>
+      <c r="J379" s="123"/>
+      <c r="K379" s="106"/>
+      <c r="L379" s="106"/>
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="66">
         <v>116</v>
       </c>
       <c r="B380" s="34"/>
       <c r="C380" s="49" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D380" s="36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F380" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G380" s="42" t="s">
         <v>163</v>
@@ -31583,25 +31733,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="66">
         <v>116</v>
       </c>
       <c r="B381" s="34"/>
       <c r="C381" s="49" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D381" s="36" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F381" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G381" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="G381" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="H381" s="11" t="s">
         <v>2</v>
@@ -31612,71 +31762,71 @@
       <c r="J381" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K381" s="37" t="s">
-        <v>175</v>
-      </c>
+      <c r="K381" s="37"/>
       <c r="L381" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="66">
         <v>116</v>
       </c>
-      <c r="B382" s="34">
-        <v>24</v>
-      </c>
+      <c r="B382" s="34"/>
       <c r="C382" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D382" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E382" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F382" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G382" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="D382" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F382" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G382" s="40" t="s">
+        <v>174</v>
+      </c>
       <c r="H382" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I382" s="26" t="s">
+      <c r="I382" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J382" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K382" s="37"/>
+      <c r="K382" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="L382" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="66">
         <v>116</v>
       </c>
-      <c r="B383" s="34"/>
+      <c r="B383" s="34">
+        <v>24</v>
+      </c>
       <c r="C383" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D383" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F383" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G383" s="42" t="s">
-        <v>191</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D383" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E383" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F383" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G383" s="38"/>
       <c r="H383" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I383" s="1" t="s">
+      <c r="I383" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J383" s="36" t="s">
@@ -31684,27 +31834,29 @@
       </c>
       <c r="K383" s="37"/>
       <c r="L383" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="66">
         <v>116</v>
       </c>
       <c r="B384" s="34"/>
       <c r="C384" s="49" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D384" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E384" s="26" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F384" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G384" s="39"/>
+        <v>104</v>
+      </c>
+      <c r="G384" s="42" t="s">
+        <v>191</v>
+      </c>
       <c r="H384" s="11" t="s">
         <v>2</v>
       </c>
@@ -31712,93 +31864,91 @@
         <v>2</v>
       </c>
       <c r="J384" s="36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K384" s="37"/>
       <c r="L384" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A385" s="66">
+        <v>116</v>
+      </c>
+      <c r="B385" s="34"/>
+      <c r="C385" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D385" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E385" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F385" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G385" s="39"/>
+      <c r="H385" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J385" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K385" s="37"/>
+      <c r="L385" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A385" s="66"/>
-      <c r="B385" s="159"/>
-      <c r="C385" s="160"/>
-      <c r="D385" s="164"/>
-      <c r="E385" s="163"/>
-      <c r="F385" s="196"/>
-      <c r="G385" s="197"/>
-      <c r="H385" s="162"/>
-      <c r="I385" s="76"/>
-      <c r="J385" s="164"/>
-      <c r="K385" s="165"/>
-      <c r="L385" s="161"/>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A387" s="117"/>
-      <c r="B387" s="133" t="s">
-        <v>463</v>
-      </c>
-      <c r="C387" s="133"/>
-      <c r="D387" s="133"/>
-      <c r="E387" s="133"/>
-      <c r="F387" s="106"/>
-      <c r="G387" s="106"/>
-      <c r="H387" s="154"/>
-      <c r="I387" s="124"/>
-      <c r="J387" s="124"/>
-      <c r="K387" s="106"/>
-      <c r="L387" s="106"/>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A388" s="66">
-        <v>117</v>
-      </c>
-      <c r="B388" s="34"/>
-      <c r="C388" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D388" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F388" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G388" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H388" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I388" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J388" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K388" s="37"/>
-      <c r="L388" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A386" s="66"/>
+      <c r="B386" s="150"/>
+      <c r="C386" s="151"/>
+      <c r="D386" s="155"/>
+      <c r="E386" s="154"/>
+      <c r="F386" s="187"/>
+      <c r="G386" s="188"/>
+      <c r="H386" s="153"/>
+      <c r="I386" s="76"/>
+      <c r="J386" s="155"/>
+      <c r="K386" s="156"/>
+      <c r="L386" s="152"/>
+    </row>
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A388" s="116"/>
+      <c r="B388" s="197" t="s">
+        <v>462</v>
+      </c>
+      <c r="C388" s="197"/>
+      <c r="D388" s="197"/>
+      <c r="E388" s="197"/>
+      <c r="F388" s="106"/>
+      <c r="G388" s="106"/>
+      <c r="H388" s="145"/>
+      <c r="I388" s="123"/>
+      <c r="J388" s="123"/>
+      <c r="K388" s="106"/>
+      <c r="L388" s="106"/>
+    </row>
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="66">
         <v>117</v>
       </c>
       <c r="B389" s="34"/>
       <c r="C389" s="49" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D389" s="36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F389" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G389" s="42" t="s">
         <v>163</v>
@@ -31817,25 +31967,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="66">
         <v>117</v>
       </c>
       <c r="B390" s="34"/>
       <c r="C390" s="49" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D390" s="36" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F390" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G390" s="40" t="s">
-        <v>192</v>
+        <v>173</v>
+      </c>
+      <c r="G390" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="H390" s="11" t="s">
         <v>2</v>
@@ -31846,71 +31996,71 @@
       <c r="J390" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K390" s="37" t="s">
-        <v>175</v>
-      </c>
+      <c r="K390" s="37"/>
       <c r="L390" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="66">
         <v>117</v>
       </c>
-      <c r="B391" s="34">
-        <v>24</v>
-      </c>
+      <c r="B391" s="34"/>
       <c r="C391" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D391" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E391" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F391" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G391" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="D391" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F391" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G391" s="40" t="s">
+        <v>192</v>
+      </c>
       <c r="H391" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I391" s="26" t="s">
+      <c r="I391" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J391" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K391" s="37"/>
+      <c r="K391" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="L391" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="66">
         <v>117</v>
       </c>
-      <c r="B392" s="34"/>
+      <c r="B392" s="34">
+        <v>24</v>
+      </c>
       <c r="C392" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D392" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F392" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G392" s="42" t="s">
-        <v>191</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D392" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E392" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F392" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G392" s="38"/>
       <c r="H392" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I392" s="1" t="s">
+      <c r="I392" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J392" s="36" t="s">
@@ -31918,27 +32068,29 @@
       </c>
       <c r="K392" s="37"/>
       <c r="L392" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="66">
         <v>117</v>
       </c>
       <c r="B393" s="34"/>
       <c r="C393" s="49" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D393" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E393" s="26" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F393" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G393" s="39"/>
+        <v>104</v>
+      </c>
+      <c r="G393" s="42" t="s">
+        <v>191</v>
+      </c>
       <c r="H393" s="11" t="s">
         <v>2</v>
       </c>
@@ -31946,481 +32098,423 @@
         <v>2</v>
       </c>
       <c r="J393" s="36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K393" s="37"/>
       <c r="L393" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A394" s="66">
+        <v>117</v>
+      </c>
+      <c r="B394" s="34"/>
+      <c r="C394" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D394" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E394" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F394" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G394" s="39"/>
+      <c r="H394" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J394" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K394" s="37"/>
+      <c r="L394" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="118"/>
-      <c r="B395" s="128" t="s">
-        <v>473</v>
-      </c>
-      <c r="C395" s="128"/>
-      <c r="D395" s="128"/>
-      <c r="H395" s="151"/>
-      <c r="I395" s="123"/>
-      <c r="J395" s="123"/>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
-        <v>120</v>
-      </c>
-      <c r="B396" s="12"/>
-      <c r="C396" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D396" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E396" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="F396" s="23" t="s">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A395" s="66"/>
+      <c r="B395" s="150"/>
+      <c r="C395" s="151"/>
+      <c r="D395" s="155"/>
+      <c r="E395" s="154"/>
+      <c r="F395" s="187"/>
+      <c r="G395" s="188"/>
+      <c r="H395" s="153"/>
+      <c r="I395" s="76"/>
+      <c r="J395" s="155"/>
+      <c r="K395" s="156"/>
+      <c r="L395" s="152"/>
+    </row>
+    <row r="396" spans="1:26" s="230" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="219"/>
+      <c r="B396" s="220"/>
+      <c r="C396" s="221"/>
+      <c r="D396" s="222" t="s">
+        <v>570</v>
+      </c>
+      <c r="E396" s="223"/>
+      <c r="F396" s="224"/>
+      <c r="G396" s="225"/>
+      <c r="H396" s="226"/>
+      <c r="I396" s="227"/>
+      <c r="J396" s="222"/>
+      <c r="K396" s="228"/>
+      <c r="L396" s="229"/>
+    </row>
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A397" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B397" s="12">
         <v>13</v>
       </c>
-      <c r="G396" s="20"/>
-      <c r="H396" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J396" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L396">
+      <c r="C397" s="16"/>
+      <c r="D397" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F397" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G397" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H397" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J397" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B398" s="177"/>
+      <c r="C398" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="D398" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="E398" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="F398" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="G398" s="233"/>
+      <c r="H398" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I398" s="232" t="s">
+        <v>2</v>
+      </c>
+      <c r="J398" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="K398" s="183"/>
+      <c r="L398" s="179">
+        <v>1</v>
+      </c>
+      <c r="M398" s="183"/>
+      <c r="N398" s="183"/>
+      <c r="O398" s="183"/>
+      <c r="P398" s="183"/>
+      <c r="Q398" s="183"/>
+      <c r="R398" s="183"/>
+      <c r="S398" s="183"/>
+      <c r="T398" s="183"/>
+      <c r="U398" s="183"/>
+      <c r="V398" s="183"/>
+      <c r="W398" s="183"/>
+      <c r="X398" s="183"/>
+      <c r="Y398" s="183"/>
+      <c r="Z398" s="183"/>
+    </row>
+    <row r="399" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B399" s="177"/>
+      <c r="C399" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="D399" s="179" t="s">
+        <v>355</v>
+      </c>
+      <c r="E399" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="F399" s="209" t="s">
+        <v>356</v>
+      </c>
+      <c r="G399" s="233"/>
+      <c r="H399" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I399" s="232" t="s">
+        <v>2</v>
+      </c>
+      <c r="J399" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="K399" s="183"/>
+      <c r="L399" s="179">
+        <v>1</v>
+      </c>
+      <c r="M399" s="183"/>
+      <c r="N399" s="183"/>
+      <c r="O399" s="183"/>
+      <c r="P399" s="183"/>
+      <c r="Q399" s="183"/>
+      <c r="R399" s="183"/>
+      <c r="S399" s="183"/>
+      <c r="T399" s="183"/>
+      <c r="U399" s="183"/>
+      <c r="V399" s="183"/>
+      <c r="W399" s="183"/>
+      <c r="X399" s="183"/>
+      <c r="Y399" s="183"/>
+      <c r="Z399" s="183"/>
+    </row>
+    <row r="400" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B400" s="177"/>
+      <c r="C400" s="231" t="s">
+        <v>572</v>
+      </c>
+      <c r="D400" s="179"/>
+      <c r="E400" s="232" t="s">
+        <v>571</v>
+      </c>
+      <c r="F400" s="209"/>
+      <c r="G400" s="233"/>
+      <c r="H400" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I400" s="232" t="s">
+        <v>2</v>
+      </c>
+      <c r="J400" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="K400" s="183"/>
+      <c r="L400" s="179">
+        <v>1</v>
+      </c>
+      <c r="M400" s="183"/>
+      <c r="N400" s="183"/>
+      <c r="O400" s="183"/>
+      <c r="P400" s="183"/>
+      <c r="Q400" s="183"/>
+      <c r="R400" s="183"/>
+      <c r="S400" s="183"/>
+      <c r="T400" s="183"/>
+      <c r="U400" s="183"/>
+      <c r="V400" s="183"/>
+      <c r="W400" s="183"/>
+      <c r="X400" s="183"/>
+      <c r="Y400" s="183"/>
+      <c r="Z400" s="183"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A401" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B401" s="34"/>
+      <c r="C401" s="49"/>
+      <c r="D401" s="36"/>
+      <c r="E401" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F401" s="23"/>
+      <c r="G401" s="39"/>
+      <c r="H401" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I401" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J401" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K401" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="L401" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
-        <v>120</v>
-      </c>
-      <c r="B397" s="18"/>
-      <c r="C397" s="115" t="s">
-        <v>468</v>
-      </c>
-      <c r="D397" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="E397" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="F397" s="116" t="s">
-        <v>470</v>
-      </c>
-      <c r="G397" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="H397" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J397" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K397" s="25" t="s">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A402" s="66"/>
+      <c r="B402" s="150"/>
+      <c r="C402" s="151"/>
+      <c r="D402" s="155"/>
+      <c r="E402" s="154"/>
+      <c r="F402" s="187"/>
+      <c r="G402" s="188"/>
+      <c r="H402" s="153"/>
+      <c r="I402" s="76"/>
+      <c r="J402" s="155"/>
+      <c r="K402" s="156"/>
+      <c r="L402" s="152"/>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A403" s="66"/>
+      <c r="B403" s="150"/>
+      <c r="C403" s="151"/>
+      <c r="D403" s="155"/>
+      <c r="E403" s="154"/>
+      <c r="F403" s="187"/>
+      <c r="G403" s="188"/>
+      <c r="H403" s="153"/>
+      <c r="I403" s="76"/>
+      <c r="J403" s="155"/>
+      <c r="K403" s="156"/>
+      <c r="L403" s="152"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A404" s="66"/>
+      <c r="B404" s="150"/>
+      <c r="C404" s="151"/>
+      <c r="D404" s="155"/>
+      <c r="E404" s="154"/>
+      <c r="F404" s="187"/>
+      <c r="G404" s="188"/>
+      <c r="H404" s="153"/>
+      <c r="I404" s="76"/>
+      <c r="J404" s="155"/>
+      <c r="K404" s="156"/>
+      <c r="L404" s="152"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A405" s="66"/>
+      <c r="B405" s="150"/>
+      <c r="C405" s="151"/>
+      <c r="D405" s="155"/>
+      <c r="E405" s="154"/>
+      <c r="F405" s="187"/>
+      <c r="G405" s="188"/>
+      <c r="H405" s="153"/>
+      <c r="I405" s="76"/>
+      <c r="J405" s="155"/>
+      <c r="K405" s="156"/>
+      <c r="L405" s="152"/>
+    </row>
+    <row r="407" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="117"/>
+      <c r="B407" s="192" t="s">
         <v>472</v>
       </c>
-      <c r="L397" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
-        <v>120</v>
-      </c>
-      <c r="B398" s="12"/>
-      <c r="C398" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D398" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E398" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F398" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G398" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="H398" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J398" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
-        <v>120</v>
-      </c>
-      <c r="B399" s="12"/>
-      <c r="C399" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D399" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E399" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F399" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G399" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H399" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I399" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J399" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L399">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
-        <v>120</v>
-      </c>
-      <c r="B400" s="12"/>
-      <c r="C400" s="16"/>
-      <c r="D400" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E400" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F400" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G400" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H400" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J400" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
-        <v>120</v>
-      </c>
-      <c r="B401" s="12"/>
-      <c r="C401" s="16"/>
-      <c r="D401" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E401" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F401" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G401" s="20"/>
-      <c r="H401" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J401" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
-        <v>120</v>
-      </c>
-      <c r="B402" s="12"/>
-      <c r="C402" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="D402" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F402" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G402" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="H402" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J402" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
-        <v>120</v>
-      </c>
-      <c r="B403" s="12"/>
-      <c r="C403" s="16"/>
-      <c r="D403" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="E403" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F403" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="G403" s="20"/>
-      <c r="H403" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J403" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
-        <v>120</v>
-      </c>
-      <c r="B404" s="34"/>
-      <c r="C404" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="D404" s="36"/>
-      <c r="E404" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F404" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="G404" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="H404" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I404" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J404" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K404" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="L404" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
-        <v>120</v>
-      </c>
-      <c r="B405" s="34"/>
-      <c r="C405" s="49"/>
-      <c r="D405" s="38"/>
-      <c r="E405" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F405" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="G405" s="38"/>
-      <c r="H405" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I405" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J405" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K405" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="L405" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
-        <v>120</v>
-      </c>
-      <c r="C406" t="s">
-        <v>486</v>
-      </c>
-      <c r="E406" s="119" t="s">
-        <v>480</v>
-      </c>
-      <c r="F406" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="G406" s="98" t="s">
-        <v>485</v>
-      </c>
-      <c r="H406" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="I406" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J406" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="L406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
-        <v>120</v>
-      </c>
-      <c r="B407" s="12"/>
-      <c r="C407" s="16"/>
-      <c r="D407" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F407" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="G407" s="98" t="s">
-        <v>485</v>
-      </c>
-      <c r="H407" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J407" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C407" s="192"/>
+      <c r="D407" s="192"/>
+      <c r="H407" s="142"/>
+      <c r="I407" s="122"/>
+      <c r="J407" s="122"/>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>120</v>
       </c>
-      <c r="B408" s="34"/>
-      <c r="C408" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="D408" s="38"/>
-      <c r="E408" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F408" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="G408" s="38"/>
+      <c r="B408" s="12"/>
+      <c r="C408" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D408" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E408" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F408" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G408" s="20"/>
       <c r="H408" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I408" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J408" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K408" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="L408" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I408" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J408" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>120</v>
       </c>
-      <c r="C409" t="s">
-        <v>490</v>
-      </c>
-      <c r="E409" s="119" t="s">
-        <v>480</v>
-      </c>
-      <c r="F409" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="G409" s="98" t="s">
-        <v>499</v>
-      </c>
-      <c r="H409" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="I409" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J409" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="L409">
+      <c r="B409" s="18"/>
+      <c r="C409" s="114" t="s">
+        <v>467</v>
+      </c>
+      <c r="D409" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E409" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="F409" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="G409" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="H409" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J409" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K409" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="L409" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>120</v>
       </c>
       <c r="B410" s="12"/>
-      <c r="C410" s="16"/>
+      <c r="C410" s="46" t="s">
+        <v>207</v>
+      </c>
       <c r="D410" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F410" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="G410" s="98" t="s">
-        <v>499</v>
+        <v>208</v>
+      </c>
+      <c r="E410" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F410" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G410" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="H410" s="11" t="s">
         <v>2</v>
@@ -32428,253 +32522,310 @@
       <c r="I410" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J410" s="25" t="s">
+      <c r="J410" s="18" t="s">
         <v>12</v>
       </c>
       <c r="L410">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>120</v>
       </c>
-      <c r="C411" t="s">
-        <v>496</v>
-      </c>
-      <c r="E411" s="121" t="s">
-        <v>495</v>
-      </c>
-      <c r="F411" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="G411" s="122" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B411" s="12"/>
+      <c r="C411" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E411" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F411" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G411" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H411" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J411" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>120</v>
       </c>
-      <c r="B412" s="34"/>
-      <c r="C412" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="D412" s="38"/>
-      <c r="E412" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F412" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="G412" s="38"/>
+      <c r="B412" s="12"/>
+      <c r="C412" s="16"/>
+      <c r="D412" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F412" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G412" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H412" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I412" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J412" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K412" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="L412" s="38">
+      <c r="I412" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J412" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L412">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:26" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>120</v>
       </c>
-      <c r="B413" s="145"/>
-      <c r="C413" s="144" t="s">
-        <v>504</v>
-      </c>
-      <c r="D413" s="139"/>
-      <c r="E413" s="143" t="s">
-        <v>503</v>
-      </c>
-      <c r="F413" s="142"/>
-      <c r="G413" s="141"/>
-      <c r="H413" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="I413" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="J413" s="138" t="s">
-        <v>12</v>
-      </c>
-      <c r="K413" s="136"/>
-      <c r="L413" s="137">
-        <v>1</v>
-      </c>
-      <c r="M413" s="136"/>
-      <c r="N413" s="136"/>
-      <c r="O413" s="136"/>
-      <c r="P413" s="136"/>
-      <c r="Q413" s="136"/>
-      <c r="R413" s="136"/>
-      <c r="S413" s="136"/>
-      <c r="T413" s="136"/>
-      <c r="U413" s="136"/>
-      <c r="V413" s="136"/>
-      <c r="W413" s="136"/>
-      <c r="X413" s="136"/>
-      <c r="Y413" s="136"/>
-      <c r="Z413" s="136"/>
-    </row>
-    <row r="414" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="146"/>
-      <c r="C414" s="147" t="s">
-        <v>505</v>
-      </c>
-      <c r="D414" s="146"/>
-      <c r="H414" s="157"/>
-      <c r="I414" s="146"/>
-      <c r="J414" s="146"/>
-    </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B413" s="12"/>
+      <c r="C413" s="16"/>
+      <c r="D413" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E413" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F413" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G413" s="20"/>
+      <c r="H413" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J413" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>120</v>
+      </c>
+      <c r="B414" s="12"/>
+      <c r="C414" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="D414" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F414" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G414" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H414" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>120</v>
       </c>
-      <c r="B415" s="34"/>
-      <c r="C415" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D415" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="E415" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F415" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="G415" s="38"/>
+      <c r="B415" s="12"/>
+      <c r="C415" s="16"/>
+      <c r="D415" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="E415" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F415" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G415" s="20"/>
       <c r="H415" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I415" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J415" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K415" s="37"/>
-      <c r="L415" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J415" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>120</v>
       </c>
       <c r="B416" s="34"/>
       <c r="C416" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D416" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="E416" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F416" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="G416" s="38"/>
+        <v>476</v>
+      </c>
+      <c r="D416" s="36"/>
+      <c r="E416" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F416" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="G416" s="40" t="s">
+        <v>477</v>
+      </c>
       <c r="H416" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I416" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I416" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J416" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K416" s="37"/>
+      <c r="K416" s="37" t="s">
+        <v>478</v>
+      </c>
       <c r="L416" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>120</v>
       </c>
       <c r="B417" s="34"/>
-      <c r="C417" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D417" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="E417" s="26" t="s">
-        <v>264</v>
+      <c r="C417" s="49"/>
+      <c r="D417" s="38"/>
+      <c r="E417" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F417" s="41" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="G417" s="38"/>
       <c r="H417" s="11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I417" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J417" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K417" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="K417" s="37" t="s">
+        <v>493</v>
+      </c>
       <c r="L417" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>120</v>
       </c>
-      <c r="B418" s="34"/>
-      <c r="E418" s="143" t="s">
-        <v>513</v>
-      </c>
-      <c r="H418" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="I418" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J418" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K418" s="37"/>
-      <c r="L418" s="38">
+      <c r="C418" t="s">
+        <v>485</v>
+      </c>
+      <c r="E418" s="118" t="s">
+        <v>479</v>
+      </c>
+      <c r="F418" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G418" s="98" t="s">
+        <v>484</v>
+      </c>
+      <c r="H418" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I418" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J418" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L418">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="146"/>
-      <c r="B419" s="148"/>
-      <c r="C419" s="147" t="s">
-        <v>514</v>
-      </c>
-      <c r="D419" s="149"/>
-      <c r="H419" s="157"/>
-      <c r="I419" s="146"/>
-      <c r="J419" s="146"/>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>120</v>
+      </c>
+      <c r="B419" s="12"/>
+      <c r="C419" s="16"/>
+      <c r="D419" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F419" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G419" s="98" t="s">
+        <v>484</v>
+      </c>
+      <c r="H419" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J419" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>120</v>
       </c>
       <c r="B420" s="34"/>
-      <c r="E420" s="143" t="s">
-        <v>515</v>
-      </c>
-      <c r="H420" s="156" t="s">
-        <v>12</v>
+      <c r="C420" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="D420" s="38"/>
+      <c r="E420" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F420" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="G420" s="38"/>
+      <c r="H420" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="I420" s="26" t="s">
         <v>2</v>
@@ -32682,221 +32833,196 @@
       <c r="J420" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K420" s="37"/>
+      <c r="K420" s="37" t="s">
+        <v>492</v>
+      </c>
       <c r="L420" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>120</v>
       </c>
-      <c r="B421" s="34"/>
-      <c r="C421" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D421" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="E421" s="26" t="s">
-        <v>441</v>
+      <c r="C421" t="s">
+        <v>489</v>
+      </c>
+      <c r="E421" s="118" t="s">
+        <v>479</v>
       </c>
       <c r="F421" s="41" t="s">
-        <v>516</v>
-      </c>
-      <c r="G421" s="38"/>
-      <c r="H421" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I421" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J421" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K421" s="37"/>
-      <c r="L421" s="38">
+        <v>490</v>
+      </c>
+      <c r="G421" s="98" t="s">
+        <v>498</v>
+      </c>
+      <c r="H421" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I421" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J421" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L421">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>120</v>
       </c>
-      <c r="B422" s="34"/>
-      <c r="C422" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D422" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="E422" s="26" t="s">
-        <v>441</v>
+      <c r="B422" s="12"/>
+      <c r="C422" s="16"/>
+      <c r="D422" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="F422" s="41" t="s">
-        <v>519</v>
-      </c>
-      <c r="G422" s="38"/>
+        <v>490</v>
+      </c>
+      <c r="G422" s="98" t="s">
+        <v>498</v>
+      </c>
       <c r="H422" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I422" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J422" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K422" s="37"/>
-      <c r="L422" s="38">
+        <v>2</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J422" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>120</v>
       </c>
-      <c r="B423" s="34"/>
-      <c r="C423" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D423" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="E423" s="26" t="s">
-        <v>441</v>
+      <c r="C423" t="s">
+        <v>495</v>
+      </c>
+      <c r="E423" s="120" t="s">
+        <v>494</v>
       </c>
       <c r="F423" s="41" t="s">
-        <v>519</v>
-      </c>
-      <c r="G423" s="38"/>
-      <c r="H423" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I423" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J423" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K423" s="37"/>
-      <c r="L423" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="G423" s="121" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>120</v>
       </c>
       <c r="B424" s="34"/>
       <c r="C424" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D424" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="E424" s="26" t="s">
-        <v>441</v>
+        <v>499</v>
+      </c>
+      <c r="D424" s="38"/>
+      <c r="E424" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F424" s="41" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="G424" s="38"/>
       <c r="H424" s="11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I424" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J424" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K424" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="K424" s="37" t="s">
+        <v>501</v>
+      </c>
       <c r="L424" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>120</v>
       </c>
-      <c r="B425" s="34"/>
-      <c r="C425" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="D425" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="E425" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F425" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="G425" s="38"/>
-      <c r="H425" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I425" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J425" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K425" s="37"/>
-      <c r="L425" s="38">
+      <c r="B425" s="136"/>
+      <c r="C425" s="135" t="s">
+        <v>503</v>
+      </c>
+      <c r="D425" s="130"/>
+      <c r="E425" s="134" t="s">
+        <v>502</v>
+      </c>
+      <c r="F425" s="133"/>
+      <c r="G425" s="132"/>
+      <c r="H425" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I425" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="J425" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="K425" s="127"/>
+      <c r="L425" s="128">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
-        <v>120</v>
-      </c>
-      <c r="B426" s="34"/>
-      <c r="C426" s="49"/>
-      <c r="D426" s="38"/>
-      <c r="E426" s="119" t="s">
-        <v>522</v>
-      </c>
-      <c r="F426" s="41"/>
-      <c r="G426" s="38"/>
-      <c r="H426" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I426" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J426" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K426" s="37"/>
-      <c r="L426" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M425" s="127"/>
+      <c r="N425" s="127"/>
+      <c r="O425" s="127"/>
+      <c r="P425" s="127"/>
+      <c r="Q425" s="127"/>
+      <c r="R425" s="127"/>
+      <c r="S425" s="127"/>
+      <c r="T425" s="127"/>
+      <c r="U425" s="127"/>
+      <c r="V425" s="127"/>
+      <c r="W425" s="127"/>
+      <c r="X425" s="127"/>
+      <c r="Y425" s="127"/>
+      <c r="Z425" s="127"/>
+    </row>
+    <row r="426" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="137"/>
+      <c r="C426" s="138" t="s">
+        <v>504</v>
+      </c>
+      <c r="D426" s="137"/>
+      <c r="H426" s="148"/>
+      <c r="I426" s="137"/>
+      <c r="J426" s="137"/>
+    </row>
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>120</v>
       </c>
       <c r="B427" s="34"/>
       <c r="C427" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="D427" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>46</v>
+        <v>505</v>
+      </c>
+      <c r="D427" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="E427" s="26" t="s">
+        <v>441</v>
       </c>
       <c r="F427" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="G427" s="42" t="s">
-        <v>526</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G427" s="38"/>
       <c r="H427" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I427" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I427" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J427" s="36" t="s">
@@ -32907,476 +33033,820 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="174">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
         <v>120</v>
       </c>
-      <c r="B428" s="175"/>
-      <c r="C428" s="176" t="s">
-        <v>535</v>
-      </c>
-      <c r="D428" s="177"/>
-      <c r="E428" s="178" t="s">
-        <v>47</v>
-      </c>
-      <c r="F428" s="179" t="s">
-        <v>527</v>
-      </c>
-      <c r="G428" s="177"/>
-      <c r="H428" s="180" t="s">
-        <v>2</v>
-      </c>
-      <c r="I428" s="181" t="s">
-        <v>2</v>
-      </c>
-      <c r="J428" s="182" t="s">
-        <v>2</v>
-      </c>
-      <c r="K428" s="183" t="s">
-        <v>536</v>
-      </c>
-      <c r="L428" s="177">
+      <c r="B428" s="34"/>
+      <c r="C428" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D428" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="E428" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="F428" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="G428" s="38"/>
+      <c r="H428" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I428" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J428" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K428" s="37"/>
+      <c r="L428" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="146"/>
-      <c r="B429" s="167"/>
-      <c r="C429" s="168" t="s">
-        <v>529</v>
-      </c>
-      <c r="D429" s="169"/>
-      <c r="E429" s="114"/>
-      <c r="F429" s="166"/>
-      <c r="G429" s="169"/>
-      <c r="H429" s="170"/>
-      <c r="I429" s="171"/>
-      <c r="J429" s="172"/>
-      <c r="K429" s="173"/>
-      <c r="L429" s="169"/>
-    </row>
-    <row r="430" spans="1:12" s="184" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="174">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
         <v>120</v>
       </c>
-      <c r="C430" s="193" t="s">
-        <v>528</v>
-      </c>
-      <c r="D430" s="174"/>
-      <c r="E430" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="H430" s="185" t="s">
-        <v>12</v>
-      </c>
-      <c r="I430" s="194" t="s">
-        <v>12</v>
-      </c>
-      <c r="J430" s="195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A431" s="2">
+      <c r="B429" s="34"/>
+      <c r="C429" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D429" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E429" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F429" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="G429" s="38"/>
+      <c r="H429" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I429" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J429" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K429" s="37"/>
+      <c r="L429" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
         <v>120</v>
       </c>
-      <c r="B431" s="18"/>
-      <c r="C431" s="115"/>
-      <c r="D431" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="E431" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="F431" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G431" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="H431" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I431" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J431" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K431" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="L431" s="18">
+      <c r="B430" s="34"/>
+      <c r="E430" s="134" t="s">
+        <v>512</v>
+      </c>
+      <c r="H430" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I430" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J430" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K430" s="37"/>
+      <c r="L430" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="137"/>
+      <c r="B431" s="139"/>
+      <c r="C431" s="138" t="s">
+        <v>513</v>
+      </c>
+      <c r="D431" s="140"/>
+      <c r="H431" s="148"/>
+      <c r="I431" s="137"/>
+      <c r="J431" s="137"/>
+    </row>
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>120</v>
       </c>
-      <c r="B432" s="18"/>
-      <c r="C432" s="115"/>
-      <c r="D432" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="E432" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F432" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G432" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="H432" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I432" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J432" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K432" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="L432" s="18">
+      <c r="B432" s="34"/>
+      <c r="E432" s="134" t="s">
+        <v>514</v>
+      </c>
+      <c r="H432" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I432" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J432" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K432" s="37"/>
+      <c r="L432" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>120</v>
       </c>
-      <c r="C433" t="s">
-        <v>533</v>
-      </c>
-      <c r="D433" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="E433" s="119" t="s">
-        <v>480</v>
+      <c r="B433" s="34"/>
+      <c r="C433" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D433" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="E433" s="26" t="s">
+        <v>441</v>
       </c>
       <c r="F433" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G433" s="98" t="s">
-        <v>534</v>
-      </c>
-      <c r="H433" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="I433" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J433" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="L433">
+        <v>515</v>
+      </c>
+      <c r="G433" s="38"/>
+      <c r="H433" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I433" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J433" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K433" s="37"/>
+      <c r="L433" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="146"/>
-      <c r="C434" s="147" t="s">
-        <v>537</v>
-      </c>
-      <c r="D434" s="146"/>
-      <c r="H434" s="157"/>
-      <c r="I434" s="146"/>
-      <c r="J434" s="146"/>
-    </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A435" s="146">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
         <v>120</v>
       </c>
-      <c r="E435" s="143" t="s">
-        <v>539</v>
-      </c>
-      <c r="F435" s="41"/>
-      <c r="G435" t="s">
-        <v>538</v>
-      </c>
-      <c r="H435" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I435" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J435" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K435" t="s">
-        <v>553</v>
-      </c>
-      <c r="L435">
+      <c r="B434" s="34"/>
+      <c r="C434" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D434" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E434" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="F434" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="G434" s="38"/>
+      <c r="H434" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I434" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J434" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K434" s="37"/>
+      <c r="L434" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>120</v>
+      </c>
+      <c r="B435" s="34"/>
+      <c r="C435" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D435" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="E435" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="F435" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="G435" s="38"/>
+      <c r="H435" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I435" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J435" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K435" s="37"/>
+      <c r="L435" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>120</v>
       </c>
-      <c r="C436" t="s">
-        <v>542</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E436" s="143" t="s">
-        <v>540</v>
+      <c r="B436" s="34"/>
+      <c r="C436" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D436" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E436" s="26" t="s">
+        <v>441</v>
       </c>
       <c r="F436" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G436" t="s">
-        <v>541</v>
-      </c>
-      <c r="H436" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="I436" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J436" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L436">
+        <v>518</v>
+      </c>
+      <c r="G436" s="38"/>
+      <c r="H436" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I436" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J436" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K436" s="37"/>
+      <c r="L436" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>120</v>
       </c>
-      <c r="C437" t="s">
-        <v>544</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E437" s="143" t="s">
-        <v>213</v>
+      <c r="B437" s="34"/>
+      <c r="C437" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D437" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="E437" s="26" t="s">
+        <v>441</v>
       </c>
       <c r="F437" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G437" t="s">
-        <v>545</v>
-      </c>
-      <c r="H437" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J437" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L437">
+        <v>509</v>
+      </c>
+      <c r="G437" s="38"/>
+      <c r="H437" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I437" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J437" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K437" s="37"/>
+      <c r="L437" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>120</v>
       </c>
-      <c r="C438" t="s">
-        <v>554</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E438" s="143" t="s">
-        <v>213</v>
-      </c>
-      <c r="F438" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G438" t="s">
-        <v>546</v>
-      </c>
-      <c r="H438" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I438" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J438" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L438">
+      <c r="B438" s="34"/>
+      <c r="C438" s="49"/>
+      <c r="D438" s="38"/>
+      <c r="E438" s="118" t="s">
+        <v>521</v>
+      </c>
+      <c r="F438" s="41"/>
+      <c r="G438" s="38"/>
+      <c r="H438" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I438" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J438" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K438" s="37"/>
+      <c r="L438" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>120</v>
       </c>
-      <c r="C439" t="s">
-        <v>547</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E439" s="143" t="s">
-        <v>213</v>
+      <c r="B439" s="34"/>
+      <c r="C439" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="D439" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F439" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G439" t="s">
-        <v>548</v>
-      </c>
-      <c r="H439" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I439" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L439">
+        <v>524</v>
+      </c>
+      <c r="G439" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="H439" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J439" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K439" s="37"/>
+      <c r="L439" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A440" s="2">
+    <row r="440" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="165">
         <v>120</v>
       </c>
-      <c r="C440" t="s">
-        <v>549</v>
-      </c>
-      <c r="E440" s="143" t="s">
-        <v>550</v>
-      </c>
-      <c r="F440" s="41"/>
-      <c r="G440" t="s">
-        <v>551</v>
-      </c>
-      <c r="H440" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I440" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J440" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A441" s="2">
+      <c r="B440" s="166"/>
+      <c r="C440" s="167" t="s">
+        <v>534</v>
+      </c>
+      <c r="D440" s="168"/>
+      <c r="E440" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F440" s="170" t="s">
+        <v>526</v>
+      </c>
+      <c r="G440" s="168"/>
+      <c r="H440" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I440" s="172" t="s">
+        <v>2</v>
+      </c>
+      <c r="J440" s="173" t="s">
+        <v>2</v>
+      </c>
+      <c r="K440" s="174" t="s">
+        <v>535</v>
+      </c>
+      <c r="L440" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="137"/>
+      <c r="B441" s="158"/>
+      <c r="C441" s="159" t="s">
+        <v>528</v>
+      </c>
+      <c r="D441" s="160"/>
+      <c r="E441" s="113"/>
+      <c r="F441" s="157"/>
+      <c r="G441" s="160"/>
+      <c r="H441" s="161"/>
+      <c r="I441" s="162"/>
+      <c r="J441" s="163"/>
+      <c r="K441" s="164"/>
+      <c r="L441" s="160"/>
+    </row>
+    <row r="442" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="165">
         <v>120</v>
       </c>
-      <c r="C441" t="s">
-        <v>555</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E441" s="143" t="s">
-        <v>213</v>
-      </c>
-      <c r="F441" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G441" t="s">
-        <v>552</v>
-      </c>
-      <c r="H441" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I441" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J441" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:26" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="2">
-        <v>120</v>
-      </c>
-      <c r="B442" s="186"/>
-      <c r="C442" s="187" t="s">
-        <v>556</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E442" s="143" t="s">
-        <v>557</v>
-      </c>
-      <c r="F442" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G442" s="98" t="s">
-        <v>561</v>
-      </c>
-      <c r="H442" s="189" t="s">
-        <v>12</v>
-      </c>
-      <c r="I442" s="190" t="s">
-        <v>2</v>
-      </c>
-      <c r="J442" s="191" t="s">
-        <v>12</v>
-      </c>
-      <c r="K442" s="192"/>
-      <c r="L442" s="188">
-        <v>1</v>
-      </c>
-      <c r="M442" s="192"/>
-      <c r="N442" s="192"/>
-      <c r="O442" s="192"/>
-      <c r="P442" s="192"/>
-      <c r="Q442" s="192"/>
-      <c r="R442" s="192"/>
-      <c r="S442" s="192"/>
-      <c r="T442" s="192"/>
-      <c r="U442" s="192"/>
-      <c r="V442" s="192"/>
-      <c r="W442" s="192"/>
-      <c r="X442" s="192"/>
-      <c r="Y442" s="192"/>
-      <c r="Z442" s="192"/>
-    </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C442" s="184" t="s">
+        <v>527</v>
+      </c>
+      <c r="D442" s="165"/>
+      <c r="E442" s="172" t="s">
+        <v>126</v>
+      </c>
+      <c r="H442" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="I442" s="185" t="s">
+        <v>12</v>
+      </c>
+      <c r="J442" s="186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>120</v>
       </c>
-      <c r="C443" t="s">
+      <c r="B443" s="18"/>
+      <c r="C443" s="114"/>
+      <c r="D443" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="E443" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="F443" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G443" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="H443" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J443" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K443" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="L443" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>120</v>
+      </c>
+      <c r="B444" s="18"/>
+      <c r="C444" s="114"/>
+      <c r="D444" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="E444" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F444" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G444" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="H444" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J444" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K444" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="L444" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>120</v>
+      </c>
+      <c r="C445" t="s">
+        <v>532</v>
+      </c>
+      <c r="D445" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="E445" s="118" t="s">
+        <v>479</v>
+      </c>
+      <c r="F445" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G445" s="98" t="s">
+        <v>533</v>
+      </c>
+      <c r="H445" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I445" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J445" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="137"/>
+      <c r="C446" s="138" t="s">
+        <v>536</v>
+      </c>
+      <c r="D446" s="137"/>
+      <c r="H446" s="148"/>
+      <c r="I446" s="137"/>
+      <c r="J446" s="137"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="137">
+        <v>120</v>
+      </c>
+      <c r="E447" s="134" t="s">
+        <v>538</v>
+      </c>
+      <c r="F447" s="41"/>
+      <c r="G447" t="s">
+        <v>537</v>
+      </c>
+      <c r="H447" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J447" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K447" t="s">
+        <v>552</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>120</v>
+      </c>
+      <c r="C448" t="s">
+        <v>541</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E448" s="134" t="s">
+        <v>539</v>
+      </c>
+      <c r="F448" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G448" t="s">
+        <v>540</v>
+      </c>
+      <c r="H448" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>120</v>
+      </c>
+      <c r="C449" t="s">
+        <v>543</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E449" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F449" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G449" t="s">
+        <v>544</v>
+      </c>
+      <c r="H449" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J449" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>120</v>
+      </c>
+      <c r="C450" t="s">
+        <v>553</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E450" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F450" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G450" t="s">
+        <v>545</v>
+      </c>
+      <c r="H450" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>120</v>
+      </c>
+      <c r="C451" t="s">
+        <v>546</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E451" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F451" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G451" t="s">
+        <v>547</v>
+      </c>
+      <c r="H451" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J451" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>120</v>
+      </c>
+      <c r="C452" t="s">
+        <v>548</v>
+      </c>
+      <c r="E452" s="134" t="s">
+        <v>549</v>
+      </c>
+      <c r="F452" s="41"/>
+      <c r="G452" t="s">
+        <v>550</v>
+      </c>
+      <c r="H452" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J452" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>120</v>
+      </c>
+      <c r="C453" t="s">
+        <v>554</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E453" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F453" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G453" t="s">
+        <v>551</v>
+      </c>
+      <c r="H453" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>120</v>
+      </c>
+      <c r="B454" s="177"/>
+      <c r="C454" s="178" t="s">
+        <v>555</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E454" s="134" t="s">
+        <v>556</v>
+      </c>
+      <c r="F454" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="G454" s="98" t="s">
+        <v>560</v>
+      </c>
+      <c r="H454" s="180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I454" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="J454" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="K454" s="183"/>
+      <c r="L454" s="179">
+        <v>1</v>
+      </c>
+      <c r="M454" s="183"/>
+      <c r="N454" s="183"/>
+      <c r="O454" s="183"/>
+      <c r="P454" s="183"/>
+      <c r="Q454" s="183"/>
+      <c r="R454" s="183"/>
+      <c r="S454" s="183"/>
+      <c r="T454" s="183"/>
+      <c r="U454" s="183"/>
+      <c r="V454" s="183"/>
+      <c r="W454" s="183"/>
+      <c r="X454" s="183"/>
+      <c r="Y454" s="183"/>
+      <c r="Z454" s="183"/>
+    </row>
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>120</v>
+      </c>
+      <c r="C455" t="s">
+        <v>558</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E455" s="134" t="s">
+        <v>557</v>
+      </c>
+      <c r="G455" t="s">
         <v>559</v>
       </c>
-      <c r="D443" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E443" s="143" t="s">
-        <v>558</v>
-      </c>
-      <c r="G443" t="s">
-        <v>560</v>
-      </c>
-      <c r="H443" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I443" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J443" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L443">
+      <c r="H455" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J455" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L455">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B395:D395"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B407:D407"/>
     <mergeCell ref="B188:D188"/>
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="B221:D221"/>
@@ -33385,39 +33855,34 @@
     <mergeCell ref="B363:E363"/>
     <mergeCell ref="B292:D292"/>
     <mergeCell ref="B303:D303"/>
-    <mergeCell ref="B378:E378"/>
-    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B379:E379"/>
+    <mergeCell ref="B388:E388"/>
     <mergeCell ref="B313:E313"/>
     <mergeCell ref="B331:E331"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="B170:D170"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="58" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="445" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="57" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="443" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="444" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="55" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="273" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="54" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="271" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="272" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33432,7 +33897,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="590" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
+          <x14:cfRule type="cellIs" priority="592" operator="equal" id="{DDCA22E2-9CA9-4294-8B28-B826CE0FF9C3}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33445,7 +33910,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="440" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
+          <x14:cfRule type="cellIs" priority="442" operator="equal" id="{9AB5C537-A332-4608-AF2B-F2EC8CFCF733}">
             <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33458,7 +33923,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="439" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
+          <x14:cfRule type="cellIs" priority="441" operator="equal" id="{53B561CF-FF0C-426D-BA63-B8FB3D81AE14}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33471,7 +33936,7 @@
           <xm:sqref>H12:H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="436" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
+          <x14:cfRule type="cellIs" priority="438" operator="equal" id="{F87898C7-4C2A-4A20-91F3-9380E931BA4E}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33484,7 +33949,7 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="435" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
+          <x14:cfRule type="cellIs" priority="437" operator="equal" id="{8E5089D8-2388-4498-B1F7-9511210F96BB}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33497,7 +33962,7 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="434" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
+          <x14:cfRule type="cellIs" priority="436" operator="equal" id="{CEC4772E-2FDE-43CB-BD90-F2395BD682CA}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33510,7 +33975,7 @@
           <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="432" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
+          <x14:cfRule type="cellIs" priority="434" operator="equal" id="{DC1C3FA0-0B80-4E5A-8F84-BCAEA345258F}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33523,7 +33988,7 @@
           <xm:sqref>H3:H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="425" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
+          <x14:cfRule type="cellIs" priority="427" operator="equal" id="{06873DDF-E3C7-4AD4-9893-ACB06FC93092}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33536,7 +34001,7 @@
           <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="424" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
+          <x14:cfRule type="cellIs" priority="426" operator="equal" id="{F481EF79-D482-407D-BDE1-E699379A5CAC}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33549,7 +34014,7 @@
           <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="407" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
+          <x14:cfRule type="cellIs" priority="409" operator="equal" id="{6551018F-2F0A-4397-8791-9252D453C73C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33562,7 +34027,7 @@
           <xm:sqref>H27:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="406" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
+          <x14:cfRule type="cellIs" priority="408" operator="equal" id="{9DDB6352-53C3-4BDF-A234-C26A86CF243B}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33575,7 +34040,7 @@
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="405" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
+          <x14:cfRule type="cellIs" priority="407" operator="equal" id="{2387BCC8-41B6-4E60-AD64-6E8811D214A5}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33588,7 +34053,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="404" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
+          <x14:cfRule type="cellIs" priority="406" operator="equal" id="{C0523538-AF75-4613-B4F7-B04E44EA6A83}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33601,7 +34066,7 @@
           <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
+          <x14:cfRule type="cellIs" priority="401" operator="equal" id="{CC72143E-1A69-4EB2-908B-FC130BD2C3F9}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33614,7 +34079,7 @@
           <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="398" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
+          <x14:cfRule type="cellIs" priority="400" operator="equal" id="{00CB0060-249E-44B2-9B33-D4C6C6E0C662}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33627,7 +34092,7 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="397" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
+          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{81E794F6-782D-4269-8107-C7A3EF5909FB}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33640,7 +34105,7 @@
           <xm:sqref>H56:H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="396" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
+          <x14:cfRule type="cellIs" priority="398" operator="equal" id="{ECB3CB34-7F7A-4E7E-A41D-9D0D70FC200C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33653,7 +34118,7 @@
           <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="395" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
+          <x14:cfRule type="cellIs" priority="397" operator="equal" id="{C2A5F42E-F30D-4291-87A0-928A76F7EE58}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33666,7 +34131,7 @@
           <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="386" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
+          <x14:cfRule type="cellIs" priority="388" operator="equal" id="{790CEF28-BC04-4615-A31B-0CD57DBC730C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33679,7 +34144,7 @@
           <xm:sqref>H40:H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="315" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
+          <x14:cfRule type="cellIs" priority="317" operator="equal" id="{DA514715-C2F4-4FAF-96BE-04654AEE1339}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33692,7 +34157,7 @@
           <xm:sqref>H127:H131 H133:H168</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="268" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
+          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{44E9CA98-E02D-4809-8A98-44A346BE5D55}">
             <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33705,7 +34170,7 @@
           <xm:sqref>H187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{C9455C5C-2372-4379-BE1B-46BFF5724492}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33718,7 +34183,7 @@
           <xm:sqref>H19:H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="89" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
+          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{A29233A7-4FF0-4F4B-ADAD-8578B24DF191}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33731,7 +34196,7 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
+          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{9E9BD4A9-8841-470E-A4A9-1D828F0FFAEE}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33744,7 +34209,7 @@
           <xm:sqref>H23:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{85AD45A8-A281-4837-B412-380389E1B080}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{85AD45A8-A281-4837-B412-380389E1B080}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33754,10 +34219,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H379:H385</xm:sqref>
+          <xm:sqref>H380:H386</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{00F1E729-1E9E-4D87-AEC5-7D0C57F5A3D4}">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{00F1E729-1E9E-4D87-AEC5-7D0C57F5A3D4}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33767,10 +34232,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H388:H393</xm:sqref>
+          <xm:sqref>H389:H396 H402:H405</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{723C3386-6B8F-42FD-8A78-8B1CF9EBBBB1}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{723C3386-6B8F-42FD-8A78-8B1CF9EBBBB1}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33783,7 +34248,7 @@
           <xm:sqref>H80:H124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{DC0C30C2-F9F0-4EA7-9CAA-27615F719550}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{DC0C30C2-F9F0-4EA7-9CAA-27615F719550}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33796,7 +34261,7 @@
           <xm:sqref>H171 H173:H186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{C780E717-8150-4726-BA6B-47682B6CAE12}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{C780E717-8150-4726-BA6B-47682B6CAE12}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33809,7 +34274,7 @@
           <xm:sqref>H189:H197</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{53DF4454-3AEC-47D6-A2DC-CF6F1086B947}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{53DF4454-3AEC-47D6-A2DC-CF6F1086B947}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33822,7 +34287,7 @@
           <xm:sqref>H203:H219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{FD287822-3851-4AB3-B6BE-AD88C7389820}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{FD287822-3851-4AB3-B6BE-AD88C7389820}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33835,7 +34300,7 @@
           <xm:sqref>H256:H267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{319766C6-26DC-4599-A020-A86927CE7C9B}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{319766C6-26DC-4599-A020-A86927CE7C9B}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33848,7 +34313,7 @@
           <xm:sqref>H269:H291</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{3331EB2F-7996-443D-9AD0-CD3298CAB18C}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{3331EB2F-7996-443D-9AD0-CD3298CAB18C}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33861,7 +34326,7 @@
           <xm:sqref>H293:H302</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{E9A81280-8093-4BE6-9337-BE5530F8C2A4}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{E9A81280-8093-4BE6-9337-BE5530F8C2A4}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33874,7 +34339,7 @@
           <xm:sqref>H304:H312</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{5BD00112-2248-4841-BBF5-4466D8179D11}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5BD00112-2248-4841-BBF5-4466D8179D11}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33887,7 +34352,7 @@
           <xm:sqref>H132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6175E036-250E-43E4-AE75-106332B064D1}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{6175E036-250E-43E4-AE75-106332B064D1}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -33897,101 +34362,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H398:H403 H396</xm:sqref>
+          <xm:sqref>H410:H415 H408</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{2436D26A-7579-4ACF-8044-DE09D97201E5}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H404</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{D9068D67-B2C5-40B9-8F6D-BF36F7CF91EB}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H405</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{DFE0FAA3-7F5C-4816-B042-4052A585EDC6}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H407</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{0DC9B85D-A6B3-403E-94B2-174BA5885465}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H408</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{D9BF59C8-F2BC-4182-A555-36F54F4740A2}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H410</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{FA766725-0AA7-4D37-AEB1-7ECD77353FA6}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H412</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{ADE78452-3A6A-4490-8B83-C6754D191D3A}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H415</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{D4F22E06-8F5D-4164-BA3F-3BBEE135F34B}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{2436D26A-7579-4ACF-8044-DE09D97201E5}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34004,7 +34378,7 @@
           <xm:sqref>H416</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1C4726E2-4256-4075-B2C1-0933FD1D629A}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{D9068D67-B2C5-40B9-8F6D-BF36F7CF91EB}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34017,7 +34391,7 @@
           <xm:sqref>H417</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{AE6BA4C2-FA6D-4DA1-B0F9-FE7582F574DA}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{DFE0FAA3-7F5C-4816-B042-4052A585EDC6}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34027,10 +34401,23 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H421</xm:sqref>
+          <xm:sqref>H419</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{9897461A-0A8E-4C37-9190-BD572959012F}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{0DC9B85D-A6B3-403E-94B2-174BA5885465}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H420</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{D9BF59C8-F2BC-4182-A555-36F54F4740A2}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34043,20 +34430,7 @@
           <xm:sqref>H422</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CEE7AF40-40A9-41A0-87FA-167F6800B2E3}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H423</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{14A2CB11-CC67-4748-9DF4-D0F5DBEF3B41}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{FA766725-0AA7-4D37-AEB1-7ECD77353FA6}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34069,33 +34443,7 @@
           <xm:sqref>H424</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{904037A2-225D-49BA-8B84-A20B897E6EED}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H425</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{BAADA19C-5517-4BF9-9B23-D142ACBE0F70}">
-            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H426</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{73331944-8DA9-439E-9903-76EE67F7F49B}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{ADE78452-3A6A-4490-8B83-C6754D191D3A}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34108,7 +34456,7 @@
           <xm:sqref>H427</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{B9B2F9BC-5E08-4736-A906-6D1522450533}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D4F22E06-8F5D-4164-BA3F-3BBEE135F34B}">
             <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -34118,7 +34466,150 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H428:H429</xm:sqref>
+          <xm:sqref>H428</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{1C4726E2-4256-4075-B2C1-0933FD1D629A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H429</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{AE6BA4C2-FA6D-4DA1-B0F9-FE7582F574DA}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H433</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{9897461A-0A8E-4C37-9190-BD572959012F}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H434</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{CEE7AF40-40A9-41A0-87FA-167F6800B2E3}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H435</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{14A2CB11-CC67-4748-9DF4-D0F5DBEF3B41}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H436</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{904037A2-225D-49BA-8B84-A20B897E6EED}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H437</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{BAADA19C-5517-4BF9-9B23-D142ACBE0F70}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H438</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{73331944-8DA9-439E-9903-76EE67F7F49B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H439</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{B9B2F9BC-5E08-4736-A906-6D1522450533}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H440:H441</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{268ADB99-E551-495C-B210-FAFFF92204EE}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H397</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{A70493F4-9AE0-45FB-8C04-CDC318A14409}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H401</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9B6E09-8855-6A48-AD29-2AB737D22CA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671E852-88B7-C646-BD57-C855A09BF518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -2301,19 +2301,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2325,14 +2323,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3373,7 +3373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
@@ -3431,16 +3431,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -4583,16 +4583,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="156" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -5826,16 +5826,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="149" t="s">
+      <c r="C79" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="149"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="149"/>
-      <c r="G79" s="149"/>
-      <c r="H79" s="149"/>
-      <c r="I79" s="149"/>
-      <c r="J79" s="149"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -7226,16 +7226,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="149" t="s">
+      <c r="C126" s="156" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="149"/>
-      <c r="E126" s="149"/>
-      <c r="F126" s="149"/>
-      <c r="G126" s="149"/>
-      <c r="H126" s="149"/>
-      <c r="I126" s="149"/>
-      <c r="J126" s="149"/>
+      <c r="D126" s="156"/>
+      <c r="E126" s="156"/>
+      <c r="F126" s="156"/>
+      <c r="G126" s="156"/>
+      <c r="H126" s="156"/>
+      <c r="I126" s="156"/>
+      <c r="J126" s="156"/>
       <c r="K126" s="32"/>
       <c r="L126" s="33"/>
     </row>
@@ -8577,11 +8577,11 @@
       </c>
     </row>
     <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="150" t="s">
+      <c r="B170" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="150"/>
-      <c r="D170" s="150"/>
+      <c r="C170" s="157"/>
+      <c r="D170" s="157"/>
       <c r="H170" s="75"/>
     </row>
     <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9090,11 +9090,11 @@
       <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="147" t="s">
+      <c r="B187" s="152" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="147"/>
-      <c r="D187" s="147"/>
+      <c r="C187" s="152"/>
+      <c r="D187" s="152"/>
       <c r="H187" s="83"/>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9413,11 +9413,11 @@
       </c>
     </row>
     <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="151" t="s">
+      <c r="B201" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="151"/>
-      <c r="D201" s="151"/>
+      <c r="C201" s="153"/>
+      <c r="D201" s="153"/>
       <c r="H201" s="88"/>
     </row>
     <row r="202" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9973,11 +9973,11 @@
       </c>
     </row>
     <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="152" t="s">
+      <c r="B220" s="154" t="s">
         <v>203</v>
       </c>
-      <c r="C220" s="152"/>
-      <c r="D220" s="152"/>
+      <c r="C220" s="154"/>
+      <c r="D220" s="154"/>
       <c r="H220" s="75"/>
     </row>
     <row r="221" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -11034,11 +11034,11 @@
       </c>
     </row>
     <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="153" t="s">
+      <c r="B254" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="C254" s="153"/>
-      <c r="D254" s="153"/>
+      <c r="C254" s="155"/>
+      <c r="D254" s="155"/>
       <c r="H254" s="83"/>
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11416,11 +11416,11 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="153" t="s">
+      <c r="B267" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="C267" s="153"/>
-      <c r="D267" s="153"/>
+      <c r="C267" s="155"/>
+      <c r="D267" s="155"/>
       <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12136,11 +12136,11 @@
       </c>
     </row>
     <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="147" t="s">
+      <c r="B291" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="147"/>
-      <c r="D291" s="147"/>
+      <c r="C291" s="152"/>
+      <c r="D291" s="152"/>
       <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12440,11 +12440,11 @@
       </c>
     </row>
     <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="148" t="s">
+      <c r="B301" s="159" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="148"/>
-      <c r="D301" s="148"/>
+      <c r="C301" s="159"/>
+      <c r="D301" s="159"/>
       <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12711,12 +12711,12 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="111"/>
-      <c r="B310" s="146" t="s">
+      <c r="B310" s="158" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="146"/>
-      <c r="D310" s="146"/>
-      <c r="E310" s="146"/>
+      <c r="C310" s="158"/>
+      <c r="D310" s="158"/>
+      <c r="E310" s="158"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -13229,12 +13229,12 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="111"/>
-      <c r="B328" s="146" t="s">
+      <c r="B328" s="158" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="146"/>
-      <c r="D328" s="146"/>
-      <c r="E328" s="146"/>
+      <c r="C328" s="158"/>
+      <c r="D328" s="158"/>
+      <c r="E328" s="158"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -14237,12 +14237,12 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="111"/>
-      <c r="B360" s="146" t="s">
+      <c r="B360" s="158" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="146"/>
-      <c r="D360" s="146"/>
-      <c r="E360" s="146"/>
+      <c r="C360" s="158"/>
+      <c r="D360" s="158"/>
+      <c r="E360" s="158"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -14724,12 +14724,12 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="111"/>
-      <c r="B375" s="146" t="s">
+      <c r="B375" s="158" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="146"/>
-      <c r="D375" s="146"/>
-      <c r="E375" s="146"/>
+      <c r="C375" s="158"/>
+      <c r="D375" s="158"/>
+      <c r="E375" s="158"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -14944,12 +14944,12 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="111"/>
-      <c r="B383" s="146" t="s">
+      <c r="B383" s="158" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="146"/>
-      <c r="D383" s="146"/>
-      <c r="E383" s="146"/>
+      <c r="C383" s="158"/>
+      <c r="D383" s="158"/>
+      <c r="E383" s="158"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -15164,16 +15164,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="B170:D170"/>
     <mergeCell ref="B360:E360"/>
     <mergeCell ref="B291:D291"/>
     <mergeCell ref="B301:D301"/>
@@ -15181,6 +15171,16 @@
     <mergeCell ref="B383:E383"/>
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="B328:E328"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B267:D267"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="44" priority="425" operator="equal">
@@ -15684,7 +15684,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C36" sqref="C36:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16153,8 +16153,8 @@
       <c r="A17" s="122">
         <v>119</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="155" t="s">
+      <c r="B17" s="146"/>
+      <c r="C17" s="147" t="s">
         <v>502</v>
       </c>
       <c r="D17" s="121" t="s">
@@ -16189,7 +16189,7 @@
       <c r="A18" s="122">
         <v>119</v>
       </c>
-      <c r="B18" s="154"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="121" t="s">
         <v>503</v>
       </c>
@@ -16225,7 +16225,7 @@
       <c r="A19" s="122">
         <v>119</v>
       </c>
-      <c r="B19" s="154"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="121" t="s">
         <v>504</v>
       </c>
@@ -16261,7 +16261,7 @@
       <c r="A20" s="122">
         <v>119</v>
       </c>
-      <c r="B20" s="154"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="121" t="s">
         <v>505</v>
       </c>
@@ -16297,20 +16297,20 @@
       <c r="A21" s="122">
         <v>119</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="157" t="s">
+      <c r="B21" s="146"/>
+      <c r="C21" s="149" t="s">
         <v>506</v>
       </c>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="148" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="150" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="148" t="s">
         <v>486</v>
       </c>
-      <c r="G21" s="156">
+      <c r="G21" s="148">
         <v>60</v>
       </c>
       <c r="H21" s="122" t="s">
@@ -16333,11 +16333,11 @@
       <c r="A22" s="122">
         <v>119</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155" t="s">
+      <c r="B22" s="146"/>
+      <c r="C22" s="147" t="s">
         <v>507</v>
       </c>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="147" t="s">
         <v>524</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -16369,8 +16369,8 @@
       <c r="A23" s="122">
         <v>119</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155" t="s">
+      <c r="B23" s="146"/>
+      <c r="C23" s="147" t="s">
         <v>508</v>
       </c>
       <c r="D23" s="121" t="s">
@@ -16405,8 +16405,8 @@
       <c r="A24" s="122">
         <v>119</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155" t="s">
+      <c r="B24" s="146"/>
+      <c r="C24" s="147" t="s">
         <v>509</v>
       </c>
       <c r="D24" s="121" t="s">
@@ -16441,19 +16441,19 @@
       <c r="A25" s="122">
         <v>119</v>
       </c>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="147" t="s">
         <v>510</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="147" t="s">
         <v>513</v>
       </c>
-      <c r="E25" s="159" t="s">
+      <c r="E25" s="151" t="s">
         <v>526</v>
       </c>
       <c r="F25" t="s">
         <v>525</v>
       </c>
-      <c r="G25" s="155" t="s">
+      <c r="G25" s="147" t="s">
         <v>151</v>
       </c>
       <c r="H25" s="122" t="s">
@@ -16476,19 +16476,19 @@
       <c r="A26" s="122">
         <v>119</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="147" t="s">
         <v>511</v>
       </c>
-      <c r="D26" s="155" t="s">
+      <c r="D26" s="147" t="s">
         <v>514</v>
       </c>
-      <c r="E26" s="159" t="s">
+      <c r="E26" s="151" t="s">
         <v>526</v>
       </c>
       <c r="F26" t="s">
         <v>525</v>
       </c>
-      <c r="G26" s="155" t="s">
+      <c r="G26" s="147" t="s">
         <v>514</v>
       </c>
       <c r="H26" s="122" t="s">
@@ -16511,19 +16511,19 @@
       <c r="A27" s="122">
         <v>119</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="147" t="s">
         <v>512</v>
       </c>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="E27" s="159" t="s">
+      <c r="E27" s="151" t="s">
         <v>526</v>
       </c>
       <c r="F27" t="s">
         <v>525</v>
       </c>
-      <c r="G27" s="155" t="s">
+      <c r="G27" s="147" t="s">
         <v>515</v>
       </c>
       <c r="H27" s="122" t="s">
@@ -16547,7 +16547,7 @@
         <v>119</v>
       </c>
       <c r="B28" s="40"/>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="148" t="s">
         <v>516</v>
       </c>
       <c r="D28" s="121" t="s">
@@ -16578,7 +16578,7 @@
         <v>119</v>
       </c>
       <c r="B29" s="40"/>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="148" t="s">
         <v>517</v>
       </c>
       <c r="D29" s="121" t="s">
@@ -16609,7 +16609,7 @@
         <v>119</v>
       </c>
       <c r="B30" s="40"/>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="148" t="s">
         <v>518</v>
       </c>
       <c r="D30" s="121" t="s">
@@ -16642,7 +16642,7 @@
         <v>119</v>
       </c>
       <c r="B31" s="40"/>
-      <c r="C31" s="156" t="s">
+      <c r="C31" s="148" t="s">
         <v>519</v>
       </c>
       <c r="D31" s="121" t="s">
@@ -16673,7 +16673,7 @@
         <v>119</v>
       </c>
       <c r="B32" s="40"/>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="148" t="s">
         <v>520</v>
       </c>
       <c r="D32" s="121" t="s">
@@ -16704,7 +16704,7 @@
         <v>119</v>
       </c>
       <c r="B33" s="40"/>
-      <c r="C33" s="156" t="s">
+      <c r="C33" s="148" t="s">
         <v>521</v>
       </c>
       <c r="D33" s="121" t="s">
@@ -16734,7 +16734,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="40"/>
-      <c r="C34" s="156" t="s">
+      <c r="C34" s="148" t="s">
         <v>522</v>
       </c>
       <c r="D34" s="121" t="s">
@@ -16760,50 +16760,50 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="155"/>
+      <c r="C40" s="147"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C41" s="155"/>
+      <c r="C41" s="147"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C42" s="155"/>
+      <c r="C42" s="147"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="155"/>
+      <c r="C43" s="147"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C44" s="155"/>
+      <c r="C44" s="147"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C45" s="155"/>
+      <c r="C45" s="147"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C46" s="155" t="s">
+      <c r="C46" s="147" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="147" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="155" t="s">
+      <c r="C48" s="147" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="155" t="s">
+      <c r="C49" s="147" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="155" t="s">
+      <c r="C50" s="147" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="155"/>
+      <c r="C51" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17536,8 +17536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7233D64-3472-194D-B514-270440B48FC5}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-28920" yWindow="2070" windowWidth="29040" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="4770" windowWidth="29040" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="565">
   <si>
     <t>Action</t>
   </si>
@@ -991,9 +991,6 @@
     <t>$interestRate,$clientInterestRate</t>
   </si>
   <si>
-    <t>Lease Liability and ROU - Base Asset is same as NPV of Payments</t>
-  </si>
-  <si>
     <t>Store NPV Payment</t>
   </si>
   <si>
@@ -1301,33 +1298,6 @@
   </si>
   <si>
     <t>First Common Add Revision</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Store no of periods</t>
-  </si>
-  <si>
-    <t>UITable.StoreLastRowColumnValue</t>
-  </si>
-  <si>
-    <t># of Periods,noofPeriodsTrigger</t>
-  </si>
-  <si>
-    <t>Select Add Revision</t>
-  </si>
-  <si>
-    <t>Add Revision Button</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.btnAddRevision</t>
-  </si>
-  <si>
-    <t>Verify Add Revision page</t>
-  </si>
-  <si>
-    <t>Add Revision Page</t>
   </si>
   <si>
     <t>FASB.FIRevisions.dpSpace</t>
@@ -1766,6 +1736,9 @@
   </si>
   <si>
     <t>Revision delete  successfully?Revision delete  unsuccessful</t>
+  </si>
+  <si>
+    <t>UITable.storeLastRowNumaricValue</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2052,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2600,30 +2573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2718,6 +2667,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3526,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,7 +3751,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -3753,7 +3768,7 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
@@ -3770,7 +3785,7 @@
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -3787,7 +3802,7 @@
         <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
@@ -3804,7 +3819,7 @@
         <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
@@ -3827,6 +3842,23 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="71">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3838,20 +3870,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD455"/>
+  <dimension ref="A1:XFD451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+    <sheetView tabSelected="1" topLeftCell="B338" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359:E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="2" customWidth="1"/>
     <col min="5" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="7" max="7" width="76.140625" customWidth="1"/>
     <col min="8" max="8" width="14" style="147" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
@@ -3899,16 +3931,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="247" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
       <c r="K2" s="31"/>
       <c r="L2" s="32"/>
     </row>
@@ -4048,39 +4080,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="139">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38">
+      <c r="H7" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="210"/>
+      <c r="L7" s="236">
         <v>1</v>
       </c>
     </row>
@@ -4442,7 +4474,7 @@
         <v>131</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>96</v>
@@ -4649,7 +4681,7 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>120</v>
@@ -4673,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L25" s="38">
         <v>1</v>
@@ -4757,39 +4789,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="139">
         <v>20</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="205" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38">
+      <c r="H29" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="210"/>
+      <c r="L29" s="236">
         <v>1</v>
       </c>
     </row>
@@ -5048,16 +5080,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="199" t="s">
+      <c r="C39" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="199"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="247"/>
+      <c r="H39" s="247"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
       <c r="K39" s="31"/>
       <c r="L39" s="32"/>
     </row>
@@ -5197,39 +5229,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="47">
+    <row r="44" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="237">
         <v>105</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="139">
         <v>20</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38">
+      <c r="H44" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="210"/>
+      <c r="L44" s="236">
         <v>1</v>
       </c>
     </row>
@@ -5661,7 +5693,7 @@
         <v>131</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>96</v>
@@ -5980,39 +6012,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="47">
+    <row r="68" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="237">
         <v>105</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="139">
         <v>20</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="G68" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" s="37"/>
-      <c r="L68" s="38">
+      <c r="H68" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="210"/>
+      <c r="L68" s="236">
         <v>1</v>
       </c>
     </row>
@@ -6290,16 +6322,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="199" t="s">
+      <c r="C79" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="199"/>
-      <c r="E79" s="199"/>
-      <c r="F79" s="199"/>
-      <c r="G79" s="199"/>
-      <c r="H79" s="199"/>
-      <c r="I79" s="199"/>
-      <c r="J79" s="199"/>
+      <c r="D79" s="247"/>
+      <c r="E79" s="247"/>
+      <c r="F79" s="247"/>
+      <c r="G79" s="247"/>
+      <c r="H79" s="247"/>
+      <c r="I79" s="247"/>
+      <c r="J79" s="247"/>
       <c r="K79" s="31"/>
       <c r="L79" s="32"/>
     </row>
@@ -6692,39 +6724,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="66">
+    <row r="93" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="239">
         <v>106</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="139">
         <v>20</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G93" s="35" t="s">
+      <c r="G93" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J93" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93" s="37"/>
-      <c r="L93" s="38">
+      <c r="H93" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="210"/>
+      <c r="L93" s="236">
         <v>1</v>
       </c>
     </row>
@@ -7068,7 +7100,7 @@
         <v>131</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F105" s="44" t="s">
         <v>96</v>
@@ -7349,39 +7381,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="66">
+    <row r="114" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="239">
         <v>106</v>
       </c>
-      <c r="B114" s="34">
+      <c r="B114" s="139">
         <v>20</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F114" s="23" t="s">
+      <c r="F114" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G114" s="35" t="s">
+      <c r="G114" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J114" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K114" s="37"/>
-      <c r="L114" s="38">
+      <c r="H114" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" s="210"/>
+      <c r="L114" s="236">
         <v>1</v>
       </c>
     </row>
@@ -7686,16 +7718,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="30"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="199" t="s">
+      <c r="C126" s="247" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="199"/>
-      <c r="E126" s="199"/>
-      <c r="F126" s="199"/>
-      <c r="G126" s="199"/>
-      <c r="H126" s="199"/>
-      <c r="I126" s="199"/>
-      <c r="J126" s="199"/>
+      <c r="D126" s="247"/>
+      <c r="E126" s="247"/>
+      <c r="F126" s="247"/>
+      <c r="G126" s="247"/>
+      <c r="H126" s="247"/>
+      <c r="I126" s="247"/>
+      <c r="J126" s="247"/>
       <c r="K126" s="31"/>
       <c r="L126" s="32"/>
     </row>
@@ -7887,7 +7919,7 @@
         <v>162</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>12</v>
@@ -8049,39 +8081,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="66">
+    <row r="138" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="239">
         <v>107</v>
       </c>
-      <c r="B138" s="34">
+      <c r="B138" s="139">
         <v>20</v>
       </c>
-      <c r="C138" s="48" t="s">
+      <c r="C138" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G138" s="35" t="s">
+      <c r="G138" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J138" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K138" s="37"/>
-      <c r="L138" s="38">
+      <c r="H138" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K138" s="210"/>
+      <c r="L138" s="236">
         <v>1</v>
       </c>
     </row>
@@ -8427,7 +8459,7 @@
         <v>131</v>
       </c>
       <c r="E150" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F150" s="44" t="s">
         <v>96</v>
@@ -8710,39 +8742,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="66">
+    <row r="159" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="239">
         <v>107</v>
       </c>
-      <c r="B159" s="34">
+      <c r="B159" s="139">
         <v>20</v>
       </c>
-      <c r="C159" s="48" t="s">
+      <c r="C159" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="F159" s="23" t="s">
+      <c r="F159" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G159" s="35" t="s">
+      <c r="G159" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="H159" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I159" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J159" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K159" s="37"/>
-      <c r="L159" s="38">
+      <c r="H159" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="K159" s="210"/>
+      <c r="L159" s="236">
         <v>1</v>
       </c>
     </row>
@@ -9038,11 +9070,11 @@
     </row>
     <row r="170" spans="1:16384" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="117"/>
-      <c r="B170" s="192" t="s">
+      <c r="B170" s="240" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="192"/>
-      <c r="D170" s="192"/>
+      <c r="C170" s="240"/>
+      <c r="D170" s="240"/>
       <c r="H170" s="142"/>
       <c r="I170" s="122"/>
       <c r="J170" s="122"/>
@@ -9088,19 +9120,19 @@
         <v>7</v>
       </c>
       <c r="C172" s="114" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F172" s="115" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G172" s="40" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H172" s="25" t="s">
         <v>2</v>
@@ -9112,7 +9144,7 @@
         <v>12</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="L172" s="18">
         <v>1</v>
@@ -25963,11 +25995,11 @@
     </row>
     <row r="188" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="124"/>
-      <c r="B188" s="193" t="s">
+      <c r="B188" s="241" t="s">
         <v>211</v>
       </c>
-      <c r="C188" s="193"/>
-      <c r="D188" s="193"/>
+      <c r="C188" s="241"/>
+      <c r="D188" s="241"/>
       <c r="H188" s="143"/>
       <c r="I188" s="124"/>
       <c r="J188" s="124"/>
@@ -26202,7 +26234,7 @@
         <v>39</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H195" s="11" t="s">
         <v>12</v>
@@ -26289,34 +26321,34 @@
     </row>
     <row r="202" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="125"/>
-      <c r="B202" s="194" t="s">
+      <c r="B202" s="242" t="s">
         <v>202</v>
       </c>
-      <c r="C202" s="194"/>
-      <c r="D202" s="194"/>
+      <c r="C202" s="242"/>
+      <c r="D202" s="242"/>
       <c r="H202" s="144"/>
       <c r="I202" s="125"/>
       <c r="J202" s="125"/>
     </row>
-    <row r="203" spans="1:12" s="105" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="101">
         <v>103</v>
       </c>
       <c r="B203" s="102"/>
       <c r="C203" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="D203" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="E203" s="101" t="s">
         <v>417</v>
-      </c>
-      <c r="D203" s="102" t="s">
-        <v>417</v>
-      </c>
-      <c r="E203" s="101" t="s">
-        <v>418</v>
       </c>
       <c r="F203" s="103" t="s">
         <v>39</v>
       </c>
       <c r="G203" s="104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H203" s="11" t="s">
         <v>12</v>
@@ -26770,7 +26802,7 @@
         <v>89</v>
       </c>
       <c r="G217" s="94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H217" s="11" t="s">
         <v>12</v>
@@ -26853,11 +26885,11 @@
     </row>
     <row r="221" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="117"/>
-      <c r="B221" s="195" t="s">
+      <c r="B221" s="243" t="s">
         <v>203</v>
       </c>
-      <c r="C221" s="195"/>
-      <c r="D221" s="195"/>
+      <c r="C221" s="243"/>
+      <c r="D221" s="243"/>
       <c r="H221" s="142"/>
       <c r="I221" s="122"/>
       <c r="J221" s="122"/>
@@ -27335,16 +27367,16 @@
       </c>
       <c r="B237" s="14"/>
       <c r="D237" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F237" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="H237" s="85" t="s">
         <v>12</v>
@@ -27364,56 +27396,56 @@
       <c r="B238" s="14"/>
       <c r="C238" s="97"/>
       <c r="D238" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F238" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G238" s="2" t="s">
+      <c r="H238" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I238" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J238" s="25" t="s">
         <v>327</v>
-      </c>
-      <c r="H238" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="I238" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J238" s="25" t="s">
-        <v>328</v>
       </c>
       <c r="L238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="84">
+    <row r="239" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="226">
         <v>108</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D239" s="22"/>
-      <c r="E239" s="1" t="s">
+      <c r="B239" s="204"/>
+      <c r="C239" s="205" t="s">
+        <v>454</v>
+      </c>
+      <c r="D239" s="227"/>
+      <c r="E239" s="195" t="s">
         <v>311</v>
       </c>
-      <c r="F239" s="23"/>
-      <c r="G239" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="H239" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="I239" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J239" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L239">
+      <c r="F239" s="228"/>
+      <c r="G239" s="229" t="s">
+        <v>329</v>
+      </c>
+      <c r="H239" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="I239" s="230" t="s">
+        <v>12</v>
+      </c>
+      <c r="J239" s="231" t="s">
+        <v>12</v>
+      </c>
+      <c r="L239" s="138">
         <v>0</v>
       </c>
     </row>
@@ -27425,7 +27457,7 @@
         <v>21</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D240" s="43" t="s">
         <v>107</v>
@@ -27460,10 +27492,10 @@
         <v>21</v>
       </c>
       <c r="C241" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D241" s="43" t="s">
         <v>332</v>
-      </c>
-      <c r="D241" s="43" t="s">
-        <v>333</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>134</v>
@@ -27495,10 +27527,10 @@
         <v>21</v>
       </c>
       <c r="C242" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D242" s="43" t="s">
         <v>334</v>
-      </c>
-      <c r="D242" s="43" t="s">
-        <v>335</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>134</v>
@@ -27530,16 +27562,16 @@
         <v>21</v>
       </c>
       <c r="C243" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D243" s="43" t="s">
         <v>336</v>
-      </c>
-      <c r="D243" s="43" t="s">
-        <v>337</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F243" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G243" s="2">
         <v>0</v>
@@ -27565,16 +27597,16 @@
         <v>21</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D244" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F244" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G244" s="2"/>
       <c r="H244" s="85" t="s">
@@ -27596,17 +27628,17 @@
       </c>
       <c r="B245" s="14"/>
       <c r="D245" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F245" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G245" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="H245" s="85" t="s">
         <v>12</v>
       </c>
@@ -27614,7 +27646,7 @@
         <v>2</v>
       </c>
       <c r="J245" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -27626,7 +27658,7 @@
       </c>
       <c r="B246" s="14"/>
       <c r="C246" s="97" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D246" s="43"/>
       <c r="E246" s="1" t="s">
@@ -27634,7 +27666,7 @@
       </c>
       <c r="F246" s="44"/>
       <c r="G246" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H246" s="85" t="s">
         <v>12</v>
@@ -27643,7 +27675,7 @@
         <v>2</v>
       </c>
       <c r="J246" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -27655,13 +27687,13 @@
       </c>
       <c r="B247" s="34"/>
       <c r="C247" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D247" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="D247" s="36" t="s">
+      <c r="E247" s="26" t="s">
         <v>347</v>
-      </c>
-      <c r="E247" s="26" t="s">
-        <v>348</v>
       </c>
       <c r="F247" s="23" t="s">
         <v>101</v>
@@ -27677,7 +27709,7 @@
         <v>12</v>
       </c>
       <c r="K247" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -27689,16 +27721,16 @@
       </c>
       <c r="B248" s="34"/>
       <c r="C248" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D248" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D248" s="36" t="s">
+      <c r="E248" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F248" s="23" t="s">
         <v>351</v>
-      </c>
-      <c r="E248" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F248" s="23" t="s">
-        <v>352</v>
       </c>
       <c r="G248" s="39"/>
       <c r="H248" s="85" t="s">
@@ -27711,7 +27743,7 @@
         <v>12</v>
       </c>
       <c r="K248" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -27723,16 +27755,16 @@
       </c>
       <c r="B249" s="34"/>
       <c r="C249" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="D249" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D249" s="36" t="s">
+      <c r="E249" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F249" s="23" t="s">
         <v>355</v>
-      </c>
-      <c r="E249" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F249" s="23" t="s">
-        <v>356</v>
       </c>
       <c r="G249" s="39"/>
       <c r="H249" s="85" t="s">
@@ -27745,7 +27777,7 @@
         <v>12</v>
       </c>
       <c r="K249" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -27757,13 +27789,13 @@
       </c>
       <c r="B250" s="34"/>
       <c r="C250" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D250" s="36" t="s">
         <v>124</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F250" s="23" t="s">
         <v>125</v>
@@ -27779,7 +27811,7 @@
         <v>12</v>
       </c>
       <c r="K250" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -27791,16 +27823,16 @@
       </c>
       <c r="B251" s="34"/>
       <c r="C251" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="D251" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="D251" s="36" t="s">
+      <c r="E251" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F251" s="23" t="s">
         <v>360</v>
-      </c>
-      <c r="E251" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F251" s="23" t="s">
-        <v>361</v>
       </c>
       <c r="G251" s="39"/>
       <c r="H251" s="85" t="s">
@@ -27813,7 +27845,7 @@
         <v>12</v>
       </c>
       <c r="K251" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -27825,16 +27857,16 @@
       </c>
       <c r="B252" s="34"/>
       <c r="C252" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D252" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E252" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G252" s="39"/>
       <c r="H252" s="85" t="s">
@@ -27856,17 +27888,17 @@
       </c>
       <c r="B253" s="12"/>
       <c r="C253" s="98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D253" s="17"/>
       <c r="E253" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F253" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G253" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H253" s="85" t="s">
         <v>12</v>
@@ -27878,7 +27910,7 @@
         <v>12</v>
       </c>
       <c r="K253" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -27917,27 +27949,27 @@
     </row>
     <row r="255" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="124"/>
-      <c r="B255" s="196" t="s">
+      <c r="B255" s="244" t="s">
         <v>204</v>
       </c>
-      <c r="C255" s="196"/>
-      <c r="D255" s="196"/>
+      <c r="C255" s="244"/>
+      <c r="D255" s="244"/>
       <c r="H255" s="143"/>
       <c r="I255" s="124"/>
       <c r="J255" s="124"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B256" s="12">
         <v>20</v>
       </c>
       <c r="C256" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D256" s="22" t="s">
         <v>370</v>
-      </c>
-      <c r="D256" s="22" t="s">
-        <v>371</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>134</v>
@@ -27963,25 +27995,25 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B257" s="14">
         <v>21</v>
       </c>
       <c r="C257" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D257" s="43" t="s">
         <v>372</v>
-      </c>
-      <c r="D257" s="43" t="s">
-        <v>373</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F257" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="H257" s="11" t="s">
         <v>12</v>
@@ -27998,11 +28030,11 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B258" s="14"/>
       <c r="D258" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>79</v>
@@ -28011,7 +28043,7 @@
         <v>89</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H258" s="11" t="s">
         <v>12</v>
@@ -28019,47 +28051,51 @@
       <c r="I258" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J258" s="25"/>
+      <c r="J258" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="L258">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B259" s="14"/>
       <c r="C259" s="21"/>
       <c r="D259" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F259" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G259" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="H259" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I259" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J259" s="25"/>
+      <c r="J259" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="L259">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B260" s="14"/>
       <c r="C260" s="97" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D260" s="43"/>
       <c r="E260" s="1" t="s">
@@ -28067,7 +28103,7 @@
       </c>
       <c r="F260" s="44"/>
       <c r="G260" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H260" s="11" t="s">
         <v>12</v>
@@ -28075,27 +28111,29 @@
       <c r="I260" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J260" s="25"/>
+      <c r="J260" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="L260">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B261" s="12"/>
       <c r="C261" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D261" s="22" t="s">
         <v>384</v>
-      </c>
-      <c r="D261" s="22" t="s">
-        <v>385</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F261" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>12</v>
@@ -28115,18 +28153,18 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B262" s="12"/>
       <c r="C262" s="21"/>
       <c r="D262" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F262" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>12</v>
@@ -28146,18 +28184,18 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B263" s="12"/>
       <c r="C263" s="21"/>
       <c r="D263" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F263" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>12</v>
@@ -28177,18 +28215,18 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B264" s="12"/>
       <c r="C264" s="21"/>
       <c r="D264" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F264" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>12</v>
@@ -28208,18 +28246,18 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B265" s="12"/>
       <c r="C265" s="21"/>
       <c r="D265" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F265" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>12</v>
@@ -28239,20 +28277,20 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B266" s="12"/>
       <c r="C266" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F266" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="11" t="s">
@@ -28270,18 +28308,18 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B267" s="12"/>
       <c r="C267" s="21"/>
       <c r="D267" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F267" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G267" s="3"/>
       <c r="H267" s="11" t="s">
@@ -28299,11 +28337,11 @@
     </row>
     <row r="268" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="124"/>
-      <c r="B268" s="196" t="s">
+      <c r="B268" s="244" t="s">
         <v>205</v>
       </c>
-      <c r="C268" s="196"/>
-      <c r="D268" s="196"/>
+      <c r="C268" s="244"/>
+      <c r="D268" s="244"/>
       <c r="H268" s="143"/>
       <c r="I268" s="124"/>
       <c r="J268" s="124"/>
@@ -28316,13 +28354,13 @@
         <v>19</v>
       </c>
       <c r="C269" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D269" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D269" s="22" t="s">
-        <v>369</v>
-      </c>
       <c r="E269" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F269" s="23" t="s">
         <v>162</v>
@@ -28349,13 +28387,13 @@
         <v>20</v>
       </c>
       <c r="C270" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D270" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D270" s="22" t="s">
-        <v>371</v>
-      </c>
       <c r="E270" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F270" s="23" t="s">
         <v>166</v>
@@ -28382,16 +28420,16 @@
         <v>21</v>
       </c>
       <c r="C271" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D271" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="D271" s="43" t="s">
+      <c r="E271" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F271" s="44" t="s">
         <v>397</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F271" s="44" t="s">
-        <v>398</v>
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="11" t="s">
@@ -28415,16 +28453,16 @@
         <v>21</v>
       </c>
       <c r="C272" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D272" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="D272" s="43" t="s">
+      <c r="E272" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F272" s="44" t="s">
         <v>400</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F272" s="44" t="s">
-        <v>401</v>
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="11" t="s">
@@ -28454,7 +28492,7 @@
         <v>169</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F273" s="44" t="s">
         <v>170</v>
@@ -28481,13 +28519,13 @@
         <v>21</v>
       </c>
       <c r="C274" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D274" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="D274" s="43" t="s">
-        <v>403</v>
-      </c>
       <c r="E274" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F274" s="44" t="s">
         <v>173</v>
@@ -28514,16 +28552,16 @@
         <v>21</v>
       </c>
       <c r="C275" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D275" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="D275" s="43" t="s">
+      <c r="E275" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F275" s="44" t="s">
         <v>373</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F275" s="44" t="s">
-        <v>374</v>
       </c>
       <c r="G275" s="2"/>
       <c r="H275" s="11" t="s">
@@ -28545,10 +28583,10 @@
       </c>
       <c r="B276" s="14"/>
       <c r="C276" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="D276" s="43" t="s">
         <v>376</v>
-      </c>
-      <c r="D276" s="43" t="s">
-        <v>377</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>79</v>
@@ -28557,7 +28595,7 @@
         <v>89</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H276" s="11" t="s">
         <v>12</v>
@@ -28574,16 +28612,16 @@
       <c r="B277" s="14"/>
       <c r="C277" s="21"/>
       <c r="D277" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F277" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="H277" s="11" t="s">
         <v>12</v>
@@ -28600,14 +28638,14 @@
       <c r="B278" s="14"/>
       <c r="C278" s="21"/>
       <c r="D278" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>311</v>
       </c>
       <c r="F278" s="44"/>
       <c r="G278" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H278" s="11" t="s">
         <v>12</v>
@@ -28623,16 +28661,16 @@
       </c>
       <c r="B279" s="12"/>
       <c r="C279" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D279" s="22" t="s">
         <v>384</v>
-      </c>
-      <c r="D279" s="22" t="s">
-        <v>385</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F279" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>12</v>
@@ -28657,13 +28695,13 @@
       <c r="B280" s="12"/>
       <c r="C280" s="21"/>
       <c r="D280" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F280" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>12</v>
@@ -28688,13 +28726,13 @@
       <c r="B281" s="12"/>
       <c r="C281" s="21"/>
       <c r="D281" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F281" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>12</v>
@@ -28719,13 +28757,13 @@
       <c r="B282" s="12"/>
       <c r="C282" s="21"/>
       <c r="D282" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F282" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>12</v>
@@ -28750,13 +28788,13 @@
       <c r="B283" s="12"/>
       <c r="C283" s="21"/>
       <c r="D283" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F283" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>12</v>
@@ -28781,13 +28819,13 @@
       <c r="B284" s="12"/>
       <c r="C284" s="21"/>
       <c r="D284" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F284" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>12</v>
@@ -28812,13 +28850,13 @@
       <c r="B285" s="12"/>
       <c r="C285" s="21"/>
       <c r="D285" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F285" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>12</v>
@@ -28842,16 +28880,16 @@
       </c>
       <c r="B286" s="12"/>
       <c r="C286" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D286" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F286" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G286" s="3"/>
       <c r="H286" s="11" t="s">
@@ -28874,13 +28912,13 @@
       <c r="B287" s="12"/>
       <c r="C287" s="21"/>
       <c r="D287" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F287" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G287" s="3"/>
       <c r="H287" s="11" t="s">
@@ -28903,13 +28941,13 @@
       <c r="B288" s="12"/>
       <c r="C288" s="21"/>
       <c r="D288" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F288" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G288" s="3"/>
       <c r="H288" s="11" t="s">
@@ -28931,19 +28969,19 @@
       </c>
       <c r="B289" s="12"/>
       <c r="C289" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D289" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F289" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G289" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="H289" s="11" t="s">
         <v>12</v>
@@ -28965,16 +29003,16 @@
       <c r="B290" s="12"/>
       <c r="C290" s="21"/>
       <c r="D290" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F290" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="H290" s="11" t="s">
         <v>12</v>
@@ -28996,16 +29034,16 @@
       <c r="B291" s="12"/>
       <c r="C291" s="21"/>
       <c r="D291" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F291" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H291" s="11" t="s">
         <v>12</v>
@@ -29022,11 +29060,11 @@
     </row>
     <row r="292" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="124"/>
-      <c r="B292" s="193" t="s">
-        <v>415</v>
-      </c>
-      <c r="C292" s="193"/>
-      <c r="D292" s="193"/>
+      <c r="B292" s="241" t="s">
+        <v>414</v>
+      </c>
+      <c r="C292" s="241"/>
+      <c r="D292" s="241"/>
       <c r="H292" s="143"/>
       <c r="I292" s="124"/>
       <c r="J292" s="124"/>
@@ -29342,11 +29380,11 @@
     </row>
     <row r="303" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="124"/>
-      <c r="B303" s="198" t="s">
-        <v>414</v>
-      </c>
-      <c r="C303" s="198"/>
-      <c r="D303" s="198"/>
+      <c r="B303" s="246" t="s">
+        <v>413</v>
+      </c>
+      <c r="C303" s="246"/>
+      <c r="D303" s="246"/>
       <c r="H303" s="143"/>
       <c r="I303" s="124"/>
       <c r="J303" s="124"/>
@@ -29628,12 +29666,12 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="116"/>
-      <c r="B313" s="197" t="s">
-        <v>424</v>
-      </c>
-      <c r="C313" s="197"/>
-      <c r="D313" s="197"/>
-      <c r="E313" s="197"/>
+      <c r="B313" s="245" t="s">
+        <v>423</v>
+      </c>
+      <c r="C313" s="245"/>
+      <c r="D313" s="245"/>
+      <c r="E313" s="245"/>
       <c r="F313" s="106"/>
       <c r="G313" s="106"/>
       <c r="H313" s="145"/>
@@ -29643,72 +29681,70 @@
       <c r="L313" s="106"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B314" s="12">
-        <v>17</v>
-      </c>
-      <c r="C314" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="D314" s="22" t="s">
-        <v>426</v>
+      <c r="A314" s="107">
+        <v>113</v>
+      </c>
+      <c r="B314" s="85"/>
+      <c r="C314" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D314" s="85" t="s">
+        <v>235</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F314" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G314" s="94" t="s">
-        <v>428</v>
+        <v>236</v>
+      </c>
+      <c r="F314" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="G314" s="88" t="s">
+        <v>238</v>
       </c>
       <c r="H314" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I314" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J314" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K314" s="37"/>
-      <c r="L314" s="37">
+      <c r="I314" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J314" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K314" s="108"/>
+      <c r="L314" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A315" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B315" s="12">
-        <v>17</v>
-      </c>
-      <c r="C315" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="D315" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="E315" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F315" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="G315" s="3"/>
+      <c r="A315" s="107">
+        <v>113</v>
+      </c>
+      <c r="B315" s="85"/>
+      <c r="C315" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D315" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F315" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="G315" s="88" t="s">
+        <v>242</v>
+      </c>
       <c r="H315" s="145" t="s">
-        <v>2</v>
-      </c>
-      <c r="I315" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J315" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K315" s="37"/>
-      <c r="L315" s="37">
+        <v>12</v>
+      </c>
+      <c r="I315" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J315" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K315" s="108"/>
+      <c r="L315" s="108">
         <v>0</v>
       </c>
     </row>
@@ -29716,33 +29752,33 @@
       <c r="A316" s="107">
         <v>113</v>
       </c>
-      <c r="B316" s="12">
-        <v>18</v>
-      </c>
-      <c r="C316" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D316" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="E316" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F316" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G316" s="3"/>
+      <c r="B316" s="91"/>
+      <c r="C316" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D316" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F316" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="G316" s="94" t="s">
+        <v>245</v>
+      </c>
       <c r="H316" s="145" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I316" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J316" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K316" s="37"/>
-      <c r="L316" s="37">
+      <c r="J316" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K316" s="109"/>
+      <c r="L316" s="109">
         <v>0</v>
       </c>
     </row>
@@ -29750,21 +29786,21 @@
       <c r="A317" s="107">
         <v>113</v>
       </c>
-      <c r="B317" s="85"/>
-      <c r="C317" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="D317" s="85" t="s">
-        <v>235</v>
+      <c r="B317" s="91"/>
+      <c r="C317" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D317" s="91" t="s">
+        <v>247</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F317" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="G317" s="88" t="s">
-        <v>238</v>
+      <c r="F317" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="G317" s="94" t="s">
+        <v>249</v>
       </c>
       <c r="H317" s="145" t="s">
         <v>12</v>
@@ -29772,45 +29808,45 @@
       <c r="I317" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J317" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="K317" s="108"/>
-      <c r="L317" s="108">
+      <c r="J317" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K317" s="109"/>
+      <c r="L317" s="109">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" s="107">
+    <row r="318" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="192">
         <v>113</v>
       </c>
-      <c r="B318" s="85"/>
-      <c r="C318" s="86" t="s">
-        <v>239</v>
-      </c>
-      <c r="D318" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="E318" s="1" t="s">
+      <c r="B318" s="193"/>
+      <c r="C318" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="D318" s="193" t="s">
+        <v>251</v>
+      </c>
+      <c r="E318" s="195" t="s">
         <v>236</v>
       </c>
-      <c r="F318" s="87" t="s">
-        <v>241</v>
-      </c>
-      <c r="G318" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="H318" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I318" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J318" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="K318" s="108"/>
-      <c r="L318" s="108">
+      <c r="F318" s="196" t="s">
+        <v>252</v>
+      </c>
+      <c r="G318" s="197" t="s">
+        <v>253</v>
+      </c>
+      <c r="H318" s="198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I318" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="J318" s="199" t="s">
+        <v>12</v>
+      </c>
+      <c r="K318" s="200"/>
+      <c r="L318" s="200">
         <v>0</v>
       </c>
     </row>
@@ -29820,19 +29856,19 @@
       </c>
       <c r="B319" s="91"/>
       <c r="C319" s="92" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="D319" s="91" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="F319" s="93" t="s">
-        <v>434</v>
+        <v>259</v>
       </c>
       <c r="G319" s="94" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H319" s="145" t="s">
         <v>12</v>
@@ -29852,20 +29888,20 @@
       <c r="A320" s="107">
         <v>113</v>
       </c>
-      <c r="B320" s="91"/>
-      <c r="C320" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="D320" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F320" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="G320" s="94" t="s">
+      <c r="B320" s="85"/>
+      <c r="C320" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="D320" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="E320" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F320" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="G320" s="88" t="s">
         <v>249</v>
       </c>
       <c r="H320" s="145" t="s">
@@ -29874,61 +29910,77 @@
       <c r="I320" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J320" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K320" s="109"/>
-      <c r="L320" s="109">
+      <c r="J320" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" s="108"/>
+      <c r="L320" s="108">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="200">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="107">
         <v>113</v>
       </c>
-      <c r="B321" s="201"/>
-      <c r="C321" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="D321" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="E321" s="203" t="s">
-        <v>236</v>
-      </c>
-      <c r="F321" s="204" t="s">
-        <v>252</v>
-      </c>
-      <c r="G321" s="205" t="s">
-        <v>253</v>
-      </c>
-      <c r="H321" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="I321" s="200" t="s">
-        <v>12</v>
-      </c>
-      <c r="J321" s="207" t="s">
-        <v>12</v>
-      </c>
-      <c r="K321" s="208"/>
-      <c r="L321" s="208">
+      <c r="B321" s="85"/>
+      <c r="C321" s="86" t="s">
+        <v>425</v>
+      </c>
+      <c r="D321" s="85" t="s">
+        <v>426</v>
+      </c>
+      <c r="E321" s="88" t="s">
+        <v>427</v>
+      </c>
+      <c r="F321" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="G321" s="88"/>
+      <c r="H321" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I321" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="J321" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K321" s="108"/>
+      <c r="L321" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" s="38"/>
-      <c r="B322" s="37"/>
-      <c r="C322" s="37"/>
-      <c r="D322" s="38"/>
-      <c r="E322" s="37"/>
-      <c r="F322" s="37"/>
-      <c r="G322" s="37"/>
-      <c r="H322" s="141"/>
-      <c r="I322" s="38"/>
-      <c r="J322" s="38"/>
-      <c r="K322" s="37"/>
-      <c r="L322" s="37"/>
+      <c r="A322" s="107">
+        <v>113</v>
+      </c>
+      <c r="B322" s="85"/>
+      <c r="C322" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D322" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="E322" s="88" t="s">
+        <v>429</v>
+      </c>
+      <c r="F322" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="G322" s="88"/>
+      <c r="H322" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I322" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J322" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K322" s="108"/>
+      <c r="L322" s="108">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="107">
@@ -29936,19 +29988,19 @@
       </c>
       <c r="B323" s="91"/>
       <c r="C323" s="92" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D323" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>236</v>
+        <v>78</v>
+      </c>
+      <c r="E323" s="94" t="s">
+        <v>134</v>
       </c>
       <c r="F323" s="93" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="G323" s="94" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H323" s="145" t="s">
         <v>12</v>
@@ -29968,226 +30020,226 @@
       <c r="A324" s="107">
         <v>113</v>
       </c>
-      <c r="B324" s="85"/>
-      <c r="C324" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D324" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="E324" s="88" t="s">
+      <c r="B324" s="91"/>
+      <c r="C324" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D324" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E324" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="F324" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="G324" s="88" t="s">
-        <v>249</v>
+      <c r="F324" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="G324" s="94" t="s">
+        <v>253</v>
       </c>
       <c r="H324" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I324" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J324" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="K324" s="108"/>
-      <c r="L324" s="108">
+        <v>12</v>
+      </c>
+      <c r="J324" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K324" s="109"/>
+      <c r="L324" s="109">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A325" s="107">
-        <v>113</v>
-      </c>
-      <c r="B325" s="85"/>
-      <c r="C325" s="86" t="s">
-        <v>435</v>
-      </c>
-      <c r="D325" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="E325" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="F325" s="87" t="s">
-        <v>438</v>
-      </c>
-      <c r="G325" s="88"/>
-      <c r="H325" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I325" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="J325" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="K325" s="108"/>
-      <c r="L325" s="108">
-        <v>0</v>
-      </c>
-    </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="107">
-        <v>113</v>
-      </c>
-      <c r="B326" s="85"/>
-      <c r="C326" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D326" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="E326" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="F326" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="G326" s="88"/>
-      <c r="H326" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I326" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J326" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="K326" s="108"/>
-      <c r="L326" s="108">
-        <v>0</v>
-      </c>
+      <c r="A326" s="107"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="21"/>
+      <c r="D326" s="22"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="23"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="145"/>
+      <c r="I326" s="107"/>
+      <c r="J326" s="36"/>
+      <c r="K326" s="37"/>
+      <c r="L326" s="37"/>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" s="107">
-        <v>113</v>
-      </c>
-      <c r="B327" s="91"/>
-      <c r="C327" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="D327" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="E327" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="F327" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="G327" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="H327" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I327" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J327" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K327" s="109"/>
-      <c r="L327" s="109">
-        <v>0</v>
-      </c>
+      <c r="A327" s="116"/>
+      <c r="B327" s="245" t="s">
+        <v>430</v>
+      </c>
+      <c r="C327" s="245"/>
+      <c r="D327" s="245"/>
+      <c r="E327" s="245"/>
+      <c r="F327" s="106"/>
+      <c r="G327" s="106"/>
+      <c r="H327" s="145"/>
+      <c r="I327" s="123"/>
+      <c r="J327" s="123"/>
+      <c r="K327" s="106"/>
+      <c r="L327" s="106"/>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="107">
-        <v>113</v>
-      </c>
-      <c r="B328" s="91"/>
-      <c r="C328" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="D328" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="E328" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="F328" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G328" s="94" t="s">
-        <v>253</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B328" s="85"/>
+      <c r="C328" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="D328" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="E328" s="88" t="s">
+        <v>429</v>
+      </c>
+      <c r="F328" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="G328" s="88"/>
       <c r="H328" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I328" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J328" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K328" s="109"/>
-      <c r="L328" s="109">
+      <c r="I328" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="J328" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K328" s="108"/>
+      <c r="L328" s="37">
         <v>0</v>
       </c>
     </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="107">
+        <v>114</v>
+      </c>
+      <c r="B329" s="91"/>
+      <c r="C329" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D329" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="E329" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="F329" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="G329" s="94"/>
+      <c r="H329" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I329" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="J329" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K329" s="109"/>
+      <c r="L329" s="37">
+        <v>0</v>
+      </c>
+    </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A330" s="107"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="22"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="23"/>
-      <c r="G330" s="3"/>
-      <c r="H330" s="145"/>
-      <c r="I330" s="107"/>
-      <c r="J330" s="36"/>
-      <c r="K330" s="37"/>
-      <c r="L330" s="37"/>
+      <c r="A330" s="107">
+        <v>114</v>
+      </c>
+      <c r="B330" s="91"/>
+      <c r="C330" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="D330" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F330" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="G330" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="H330" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I330" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="J330" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K330" s="109"/>
+      <c r="L330" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" s="116"/>
-      <c r="B331" s="197" t="s">
-        <v>440</v>
-      </c>
-      <c r="C331" s="197"/>
-      <c r="D331" s="197"/>
-      <c r="E331" s="197"/>
-      <c r="F331" s="106"/>
-      <c r="G331" s="106"/>
-      <c r="H331" s="145"/>
-      <c r="I331" s="123"/>
-      <c r="J331" s="123"/>
-      <c r="K331" s="106"/>
-      <c r="L331" s="106"/>
+      <c r="A331" s="107">
+        <v>114</v>
+      </c>
+      <c r="B331" s="91"/>
+      <c r="C331" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D331" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E331" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="F331" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="G331" s="94"/>
+      <c r="H331" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I331" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="J331" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K331" s="109"/>
+      <c r="L331" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="107">
         <v>114</v>
       </c>
-      <c r="B332" s="85"/>
-      <c r="C332" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D332" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="E332" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="F332" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="G332" s="88"/>
+      <c r="B332" s="91"/>
+      <c r="C332" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="D332" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F332" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="G332" s="94" t="s">
+        <v>260</v>
+      </c>
       <c r="H332" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I332" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="J332" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="K332" s="108"/>
+      <c r="I332" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="J332" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K332" s="109"/>
       <c r="L332" s="37">
         <v>0</v>
       </c>
@@ -30198,16 +30250,16 @@
       </c>
       <c r="B333" s="91"/>
       <c r="C333" s="92" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D333" s="91" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E333" s="94" t="s">
         <v>264</v>
       </c>
       <c r="F333" s="93" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G333" s="94"/>
       <c r="H333" s="145" t="s">
@@ -30230,16 +30282,16 @@
       </c>
       <c r="B334" s="91"/>
       <c r="C334" s="92" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D334" s="91" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F334" s="93" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G334" s="94" t="s">
         <v>260</v>
@@ -30259,36 +30311,18 @@
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335" s="107">
-        <v>114</v>
-      </c>
-      <c r="B335" s="91"/>
-      <c r="C335" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="D335" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="E335" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="F335" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="G335" s="94"/>
-      <c r="H335" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I335" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="J335" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K335" s="109"/>
-      <c r="L335" s="37">
-        <v>0</v>
-      </c>
+      <c r="A335" s="38"/>
+      <c r="B335" s="37"/>
+      <c r="C335" s="37"/>
+      <c r="D335" s="38"/>
+      <c r="E335" s="37"/>
+      <c r="F335" s="37"/>
+      <c r="G335" s="37"/>
+      <c r="H335" s="141"/>
+      <c r="I335" s="38"/>
+      <c r="J335" s="38"/>
+      <c r="K335" s="37"/>
+      <c r="L335" s="37"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="107">
@@ -30296,16 +30330,16 @@
       </c>
       <c r="B336" s="91"/>
       <c r="C336" s="92" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D336" s="91" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F336" s="93" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G336" s="94" t="s">
         <v>260</v>
@@ -30330,19 +30364,21 @@
       </c>
       <c r="B337" s="91"/>
       <c r="C337" s="92" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D337" s="91" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E337" s="94" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="F337" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="G337" s="94"/>
-      <c r="H337" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="G337" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="H337" s="146" t="s">
         <v>12</v>
       </c>
       <c r="I337" s="91" t="s">
@@ -30351,8 +30387,8 @@
       <c r="J337" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="K337" s="109"/>
-      <c r="L337" s="37">
+      <c r="K337" s="96"/>
+      <c r="L337">
         <v>0</v>
       </c>
     </row>
@@ -30360,80 +30396,94 @@
       <c r="A338" s="107">
         <v>114</v>
       </c>
-      <c r="B338" s="91"/>
-      <c r="C338" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="D338" s="91" t="s">
-        <v>292</v>
+      <c r="B338" s="12"/>
+      <c r="C338" s="37"/>
+      <c r="D338" s="110" t="s">
+        <v>307</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F338" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="G338" s="94" t="s">
-        <v>260</v>
+        <v>297</v>
+      </c>
+      <c r="F338" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="G338" s="38" t="s">
+        <v>309</v>
       </c>
       <c r="H338" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I338" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="J338" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K338" s="109"/>
+      <c r="I338" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J338" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K338" s="37"/>
       <c r="L338" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A339" s="38"/>
-      <c r="B339" s="37"/>
-      <c r="C339" s="37"/>
-      <c r="D339" s="38"/>
-      <c r="E339" s="37"/>
-      <c r="F339" s="37"/>
-      <c r="G339" s="37"/>
-      <c r="H339" s="141"/>
-      <c r="I339" s="38"/>
-      <c r="J339" s="38"/>
+      <c r="A339" s="107">
+        <v>114</v>
+      </c>
+      <c r="B339" s="12"/>
+      <c r="C339" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D339" s="22"/>
+      <c r="E339" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F339" s="23"/>
+      <c r="G339" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H339" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I339" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J339" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="K339" s="37"/>
-      <c r="L339" s="37"/>
+      <c r="L339" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="107">
         <v>114</v>
       </c>
-      <c r="B340" s="91"/>
-      <c r="C340" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="D340" s="91" t="s">
-        <v>304</v>
+      <c r="B340" s="12"/>
+      <c r="C340" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D340" s="110" t="s">
+        <v>314</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F340" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="G340" s="94" t="s">
-        <v>260</v>
+        <v>297</v>
+      </c>
+      <c r="F340" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="G340" s="38" t="s">
+        <v>316</v>
       </c>
       <c r="H340" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I340" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="J340" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K340" s="109"/>
+      <c r="I340" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J340" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K340" s="37"/>
       <c r="L340" s="37">
         <v>0</v>
       </c>
@@ -30442,33 +30492,31 @@
       <c r="A341" s="107">
         <v>114</v>
       </c>
-      <c r="B341" s="91"/>
-      <c r="C341" s="92" t="s">
-        <v>295</v>
-      </c>
-      <c r="D341" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="E341" s="94" t="s">
+      <c r="B341" s="12"/>
+      <c r="C341" s="21"/>
+      <c r="D341" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="E341" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F341" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="G341" s="94" t="s">
-        <v>299</v>
-      </c>
-      <c r="H341" s="146" t="s">
-        <v>12</v>
-      </c>
-      <c r="I341" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="J341" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K341" s="96"/>
-      <c r="L341">
+      <c r="F341" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="G341" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="H341" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I341" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J341" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K341" s="37"/>
+      <c r="L341" s="37">
         <v>0</v>
       </c>
     </row>
@@ -30478,17 +30526,15 @@
       </c>
       <c r="B342" s="12"/>
       <c r="C342" s="37"/>
-      <c r="D342" s="110" t="s">
-        <v>307</v>
+      <c r="D342" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F342" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="G342" s="38" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="F342" s="23"/>
+      <c r="G342" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H342" s="145" t="s">
         <v>12</v>
@@ -30509,16 +30555,18 @@
         <v>114</v>
       </c>
       <c r="B343" s="12"/>
-      <c r="C343" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D343" s="22"/>
+      <c r="C343" s="21"/>
+      <c r="D343" s="110" t="s">
+        <v>321</v>
+      </c>
       <c r="E343" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F343" s="23"/>
-      <c r="G343" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="F343" s="111" t="s">
+        <v>322</v>
+      </c>
+      <c r="G343" s="38" t="s">
+        <v>323</v>
       </c>
       <c r="H343" s="145" t="s">
         <v>12</v>
@@ -30539,20 +30587,18 @@
         <v>114</v>
       </c>
       <c r="B344" s="12"/>
-      <c r="C344" s="21" t="s">
-        <v>313</v>
-      </c>
+      <c r="C344" s="112"/>
       <c r="D344" s="110" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F344" s="111" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G344" s="38" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H344" s="145" t="s">
         <v>12</v>
@@ -30561,36 +30607,34 @@
         <v>2</v>
       </c>
       <c r="J344" s="36" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="K344" s="37"/>
       <c r="L344" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="107">
         <v>114</v>
       </c>
       <c r="B345" s="12"/>
-      <c r="C345" s="21"/>
-      <c r="D345" s="110" t="s">
-        <v>317</v>
+      <c r="C345" s="37"/>
+      <c r="D345" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F345" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="G345" s="38" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="F345" s="23"/>
+      <c r="G345" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="H345" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I345" s="26" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J345" s="36" t="s">
         <v>12</v>
@@ -30604,17 +30648,23 @@
       <c r="A346" s="107">
         <v>114</v>
       </c>
-      <c r="B346" s="12"/>
-      <c r="C346" s="37"/>
-      <c r="D346" s="22" t="s">
-        <v>310</v>
+      <c r="B346" s="12">
+        <v>21</v>
+      </c>
+      <c r="C346" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D346" s="110" t="s">
+        <v>107</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F346" s="23"/>
-      <c r="G346" s="3" t="s">
-        <v>320</v>
+        <v>134</v>
+      </c>
+      <c r="F346" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="G346" s="38">
+        <v>0</v>
       </c>
       <c r="H346" s="145" t="s">
         <v>12</v>
@@ -30634,21 +30684,23 @@
       <c r="A347" s="107">
         <v>114</v>
       </c>
-      <c r="B347" s="12"/>
+      <c r="B347" s="12">
+        <v>21</v>
+      </c>
       <c r="C347" s="21" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D347" s="110" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="F347" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="G347" s="38" t="s">
-        <v>324</v>
+        <v>113</v>
+      </c>
+      <c r="G347" s="38">
+        <v>0</v>
       </c>
       <c r="H347" s="145" t="s">
         <v>12</v>
@@ -30668,19 +30720,23 @@
       <c r="A348" s="107">
         <v>114</v>
       </c>
-      <c r="B348" s="12"/>
-      <c r="C348" s="112"/>
+      <c r="B348" s="12">
+        <v>21</v>
+      </c>
+      <c r="C348" s="21" t="s">
+        <v>333</v>
+      </c>
       <c r="D348" s="110" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="F348" s="111" t="s">
-        <v>326</v>
-      </c>
-      <c r="G348" s="38" t="s">
-        <v>327</v>
+        <v>117</v>
+      </c>
+      <c r="G348" s="38">
+        <v>0</v>
       </c>
       <c r="H348" s="145" t="s">
         <v>12</v>
@@ -30689,28 +30745,34 @@
         <v>2</v>
       </c>
       <c r="J348" s="36" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="K348" s="37"/>
       <c r="L348" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="107">
         <v>114</v>
       </c>
-      <c r="B349" s="12"/>
-      <c r="C349" s="37"/>
-      <c r="D349" s="22" t="s">
-        <v>329</v>
+      <c r="B349" s="12">
+        <v>21</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D349" s="110" t="s">
+        <v>336</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F349" s="23"/>
-      <c r="G349" s="3" t="s">
-        <v>330</v>
+        <v>134</v>
+      </c>
+      <c r="F349" s="111" t="s">
+        <v>337</v>
+      </c>
+      <c r="G349" s="38">
+        <v>0</v>
       </c>
       <c r="H349" s="145" t="s">
         <v>12</v>
@@ -30734,20 +30796,18 @@
         <v>21</v>
       </c>
       <c r="C350" s="21" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D350" s="110" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="F350" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="G350" s="38">
-        <v>0</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G350" s="38"/>
       <c r="H350" s="145" t="s">
         <v>12</v>
       </c>
@@ -30766,23 +30826,19 @@
       <c r="A351" s="107">
         <v>114</v>
       </c>
-      <c r="B351" s="12">
-        <v>21</v>
-      </c>
-      <c r="C351" s="21" t="s">
-        <v>332</v>
-      </c>
+      <c r="B351" s="12"/>
+      <c r="C351" s="112"/>
       <c r="D351" s="110" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="F351" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="G351" s="38">
-        <v>0</v>
+        <v>341</v>
+      </c>
+      <c r="G351" s="38" t="s">
+        <v>342</v>
       </c>
       <c r="H351" s="145" t="s">
         <v>12</v>
@@ -30791,34 +30847,30 @@
         <v>2</v>
       </c>
       <c r="J351" s="36" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="K351" s="37"/>
       <c r="L351" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="107">
         <v>114</v>
       </c>
-      <c r="B352" s="12">
-        <v>21</v>
-      </c>
-      <c r="C352" s="21" t="s">
-        <v>334</v>
+      <c r="B352" s="12"/>
+      <c r="C352" s="112" t="s">
+        <v>339</v>
       </c>
       <c r="D352" s="110" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F352" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="G352" s="38">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="F352" s="111"/>
+      <c r="G352" s="38" t="s">
+        <v>344</v>
       </c>
       <c r="H352" s="145" t="s">
         <v>12</v>
@@ -30827,7 +30879,7 @@
         <v>2</v>
       </c>
       <c r="J352" s="36" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="K352" s="37"/>
       <c r="L352" s="37">
@@ -30838,24 +30890,20 @@
       <c r="A353" s="107">
         <v>114</v>
       </c>
-      <c r="B353" s="12">
-        <v>21</v>
-      </c>
-      <c r="C353" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D353" s="110" t="s">
-        <v>337</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F353" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="G353" s="38">
-        <v>0</v>
-      </c>
+      <c r="B353" s="34"/>
+      <c r="C353" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D353" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="E353" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F353" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G353" s="39"/>
       <c r="H353" s="145" t="s">
         <v>12</v>
       </c>
@@ -30865,7 +30913,9 @@
       <c r="J353" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K353" s="37"/>
+      <c r="K353" s="37" t="s">
+        <v>348</v>
+      </c>
       <c r="L353" s="37">
         <v>0</v>
       </c>
@@ -30874,22 +30924,20 @@
       <c r="A354" s="107">
         <v>114</v>
       </c>
-      <c r="B354" s="12">
-        <v>21</v>
-      </c>
-      <c r="C354" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D354" s="110" t="s">
-        <v>337</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F354" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="G354" s="38"/>
+      <c r="B354" s="34"/>
+      <c r="C354" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D354" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E354" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F354" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G354" s="39"/>
       <c r="H354" s="145" t="s">
         <v>12</v>
       </c>
@@ -30899,7 +30947,9 @@
       <c r="J354" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K354" s="37"/>
+      <c r="K354" s="37" t="s">
+        <v>352</v>
+      </c>
       <c r="L354" s="37">
         <v>0</v>
       </c>
@@ -30908,20 +30958,20 @@
       <c r="A355" s="107">
         <v>114</v>
       </c>
-      <c r="B355" s="12"/>
-      <c r="C355" s="112"/>
-      <c r="D355" s="110" t="s">
-        <v>341</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F355" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="G355" s="38" t="s">
-        <v>343</v>
-      </c>
+      <c r="B355" s="34"/>
+      <c r="C355" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="D355" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E355" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F355" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="G355" s="39"/>
       <c r="H355" s="145" t="s">
         <v>12</v>
       </c>
@@ -30929,31 +30979,33 @@
         <v>2</v>
       </c>
       <c r="J355" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="K355" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="K355" s="37" t="s">
+        <v>352</v>
+      </c>
       <c r="L355" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="107">
         <v>114</v>
       </c>
-      <c r="B356" s="12"/>
-      <c r="C356" s="112" t="s">
-        <v>340</v>
-      </c>
-      <c r="D356" s="110" t="s">
-        <v>344</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F356" s="111"/>
-      <c r="G356" s="38" t="s">
-        <v>345</v>
-      </c>
+      <c r="B356" s="34"/>
+      <c r="C356" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="D356" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E356" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F356" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G356" s="39"/>
       <c r="H356" s="145" t="s">
         <v>12</v>
       </c>
@@ -30961,9 +31013,11 @@
         <v>2</v>
       </c>
       <c r="J356" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="K356" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="K356" s="37" t="s">
+        <v>357</v>
+      </c>
       <c r="L356" s="37">
         <v>0</v>
       </c>
@@ -30974,16 +31028,16 @@
       </c>
       <c r="B357" s="34"/>
       <c r="C357" s="37" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D357" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="E357" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="E357" s="26" t="s">
-        <v>348</v>
-      </c>
       <c r="F357" s="23" t="s">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="G357" s="39"/>
       <c r="H357" s="145" t="s">
@@ -30996,187 +31050,195 @@
         <v>12</v>
       </c>
       <c r="K357" s="37" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="L357" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A358" s="107">
-        <v>114</v>
-      </c>
-      <c r="B358" s="34"/>
-      <c r="C358" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D358" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="E358" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F358" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="G358" s="39"/>
-      <c r="H358" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I358" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J358" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K358" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="L358" s="37">
-        <v>0</v>
-      </c>
+      <c r="A358" s="38"/>
+      <c r="B358" s="37"/>
+      <c r="C358" s="37"/>
+      <c r="D358" s="38"/>
+      <c r="E358" s="37"/>
+      <c r="F358" s="37"/>
+      <c r="G358" s="37"/>
+      <c r="H358" s="141"/>
+      <c r="I358" s="38"/>
+      <c r="J358" s="38"/>
+      <c r="K358" s="37"/>
+      <c r="L358" s="37"/>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A359" s="107">
-        <v>114</v>
-      </c>
-      <c r="B359" s="34"/>
-      <c r="C359" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D359" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="E359" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F359" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="G359" s="39"/>
-      <c r="H359" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I359" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J359" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K359" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="L359" s="37">
-        <v>0</v>
-      </c>
+      <c r="A359" s="116"/>
+      <c r="B359" s="245" t="s">
+        <v>432</v>
+      </c>
+      <c r="C359" s="245"/>
+      <c r="D359" s="245"/>
+      <c r="E359" s="245"/>
+      <c r="F359" s="106"/>
+      <c r="G359" s="106"/>
+      <c r="H359" s="145"/>
+      <c r="I359" s="123"/>
+      <c r="J359" s="123"/>
+      <c r="K359" s="106"/>
+      <c r="L359" s="106"/>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A360" s="107">
-        <v>114</v>
-      </c>
-      <c r="B360" s="34"/>
-      <c r="C360" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="D360" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E360" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F360" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G360" s="39"/>
+      <c r="A360" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B360" s="12">
+        <v>16</v>
+      </c>
+      <c r="C360" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D360" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F360" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="H360" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I360" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J360" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K360" s="37" t="s">
-        <v>358</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I360" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J360" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K360" s="37"/>
       <c r="L360" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A361" s="107">
-        <v>114</v>
-      </c>
-      <c r="B361" s="34"/>
-      <c r="C361" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D361" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="E361" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F361" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G361" s="39"/>
+      <c r="A361" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B361" s="12">
+        <v>1</v>
+      </c>
+      <c r="C361" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D361" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="H361" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I361" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J361" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K361" s="37" t="s">
-        <v>362</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J361" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K361" s="37"/>
       <c r="L361" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B362" s="12">
+        <v>2</v>
+      </c>
+      <c r="C362" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D362" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F362" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H362" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I362" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J362" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K362" s="37"/>
+      <c r="L362" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="203" t="s">
+        <v>433</v>
+      </c>
+      <c r="B363" s="204">
+        <v>3</v>
+      </c>
+      <c r="C363" s="205" t="s">
+        <v>217</v>
+      </c>
+      <c r="D363" s="206" t="s">
+        <v>43</v>
+      </c>
+      <c r="E363" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="F363" s="207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G363" s="193" t="s">
+        <v>438</v>
+      </c>
+      <c r="H363" s="198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I363" s="208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J363" s="209" t="s">
+        <v>12</v>
+      </c>
+      <c r="K363" s="210"/>
+      <c r="L363" s="210">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A362" s="38"/>
-      <c r="B362" s="37"/>
-      <c r="C362" s="37"/>
-      <c r="D362" s="38"/>
-      <c r="E362" s="37"/>
-      <c r="F362" s="37"/>
-      <c r="G362" s="37"/>
-      <c r="H362" s="141"/>
-      <c r="I362" s="38"/>
-      <c r="J362" s="38"/>
-      <c r="K362" s="37"/>
-      <c r="L362" s="37"/>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A363" s="116"/>
-      <c r="B363" s="197" t="s">
-        <v>442</v>
-      </c>
-      <c r="C363" s="197"/>
-      <c r="D363" s="197"/>
-      <c r="E363" s="197"/>
-      <c r="F363" s="106"/>
-      <c r="G363" s="106"/>
-      <c r="H363" s="145"/>
-      <c r="I363" s="123"/>
-      <c r="J363" s="123"/>
-      <c r="K363" s="106"/>
-      <c r="L363" s="106"/>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B364" s="12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="D364" s="20" t="s">
         <v>43</v>
@@ -31188,12 +31250,12 @@
         <v>39</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H364" s="145" t="s">
-        <v>2</v>
-      </c>
-      <c r="I364" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I364" s="17" t="s">
         <v>2</v>
       </c>
       <c r="J364" s="45" t="s">
@@ -31206,13 +31268,13 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B365" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="D365" s="20" t="s">
         <v>43</v>
@@ -31224,31 +31286,31 @@
         <v>39</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H365" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I365" s="26" t="s">
-        <v>12</v>
+      <c r="I365" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="J365" s="45" t="s">
         <v>12</v>
       </c>
       <c r="K365" s="37"/>
       <c r="L365" s="37">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B366" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D366" s="20" t="s">
         <v>43</v>
@@ -31260,7 +31322,7 @@
         <v>39</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H366" s="145" t="s">
         <v>12</v>
@@ -31273,18 +31335,18 @@
       </c>
       <c r="K366" s="37"/>
       <c r="L366" s="37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A367" s="10" t="s">
-        <v>443</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367" s="36">
+        <v>115</v>
       </c>
       <c r="B367" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>217</v>
+        <v>442</v>
       </c>
       <c r="D367" s="20" t="s">
         <v>43</v>
@@ -31296,7 +31358,7 @@
         <v>39</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H367" s="145" t="s">
         <v>12</v>
@@ -31312,27 +31374,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B368" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D368" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F368" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H368" s="145" t="s">
         <v>12</v>
@@ -31348,87 +31410,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A369" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B369" s="12">
-        <v>5</v>
-      </c>
-      <c r="C369" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D369" s="20" t="s">
+    <row r="369" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="10"/>
+      <c r="B369" s="177"/>
+      <c r="C369" s="178" t="s">
+        <v>554</v>
+      </c>
+      <c r="D369" s="179"/>
+      <c r="E369" s="134" t="s">
+        <v>564</v>
+      </c>
+      <c r="F369" s="201" t="s">
+        <v>39</v>
+      </c>
+      <c r="G369" s="202" t="s">
+        <v>555</v>
+      </c>
+      <c r="H369" s="180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I369" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="J369" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="K369" s="183"/>
+      <c r="L369" s="179">
+        <v>1</v>
+      </c>
+      <c r="M369" s="183"/>
+      <c r="N369" s="183"/>
+      <c r="O369" s="183"/>
+      <c r="P369" s="183"/>
+      <c r="Q369" s="183"/>
+      <c r="R369" s="183"/>
+      <c r="S369" s="183"/>
+      <c r="T369" s="183"/>
+      <c r="U369" s="183"/>
+      <c r="V369" s="183"/>
+      <c r="W369" s="183"/>
+      <c r="X369" s="183"/>
+      <c r="Y369" s="183"/>
+      <c r="Z369" s="183"/>
+    </row>
+    <row r="370" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="203"/>
+      <c r="B370" s="204">
+        <v>6</v>
+      </c>
+      <c r="C370" s="205" t="s">
+        <v>444</v>
+      </c>
+      <c r="D370" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="E369" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F369" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G369" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H369" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I369" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J369" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K369" s="37"/>
-      <c r="L369" s="37">
+      <c r="E370" s="195" t="s">
+        <v>311</v>
+      </c>
+      <c r="F370" s="207"/>
+      <c r="G370" s="193" t="s">
+        <v>556</v>
+      </c>
+      <c r="H370" s="198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I370" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="J370" s="209" t="s">
+        <v>12</v>
+      </c>
+      <c r="K370" s="210"/>
+      <c r="L370" s="210">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A370" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B370" s="12">
-        <v>6</v>
-      </c>
-      <c r="C370" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D370" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F370" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G370" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H370" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I370" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J370" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K370" s="37"/>
-      <c r="L370" s="37">
-        <v>0</v>
-      </c>
-    </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A371" s="36">
-        <v>115</v>
+      <c r="A371" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="B371" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>452</v>
+        <v>227</v>
       </c>
       <c r="D371" s="20" t="s">
         <v>43</v>
@@ -31440,12 +31506,12 @@
         <v>39</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="H371" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I371" s="17" t="s">
+      <c r="I371" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J371" s="45" t="s">
@@ -31458,31 +31524,31 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B372" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D372" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F372" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H372" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I372" s="17" t="s">
-        <v>2</v>
+      <c r="I372" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="J372" s="45" t="s">
         <v>12</v>
@@ -31492,212 +31558,198 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B373" s="177"/>
-      <c r="C373" s="178" t="s">
-        <v>564</v>
-      </c>
-      <c r="D373" s="179"/>
-      <c r="E373" s="134" t="s">
-        <v>427</v>
-      </c>
-      <c r="F373" s="209" t="s">
+        <v>433</v>
+      </c>
+      <c r="B373" s="12">
+        <v>10</v>
+      </c>
+      <c r="C373" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="D373" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F373" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G373" s="210" t="s">
-        <v>565</v>
-      </c>
-      <c r="H373" s="180" t="s">
-        <v>12</v>
-      </c>
-      <c r="I373" s="181" t="s">
-        <v>2</v>
-      </c>
-      <c r="J373" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="K373" s="183"/>
-      <c r="L373" s="179">
+      <c r="G373" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H373" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I373" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J373" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K373" s="37"/>
+      <c r="L373" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H374" s="145"/>
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A375" s="116"/>
+      <c r="B375" s="245" t="s">
+        <v>451</v>
+      </c>
+      <c r="C375" s="245"/>
+      <c r="D375" s="245"/>
+      <c r="E375" s="245"/>
+      <c r="F375" s="106"/>
+      <c r="G375" s="106"/>
+      <c r="H375" s="145"/>
+      <c r="I375" s="123"/>
+      <c r="J375" s="123"/>
+      <c r="K375" s="106"/>
+      <c r="L375" s="106"/>
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A376" s="66">
+        <v>116</v>
+      </c>
+      <c r="B376" s="34"/>
+      <c r="C376" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D376" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F376" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G376" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H376" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J376" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K376" s="37"/>
+      <c r="L376" s="38">
         <v>1</v>
       </c>
-      <c r="M373" s="183"/>
-      <c r="N373" s="183"/>
-      <c r="O373" s="183"/>
-      <c r="P373" s="183"/>
-      <c r="Q373" s="183"/>
-      <c r="R373" s="183"/>
-      <c r="S373" s="183"/>
-      <c r="T373" s="183"/>
-      <c r="U373" s="183"/>
-      <c r="V373" s="183"/>
-      <c r="W373" s="183"/>
-      <c r="X373" s="183"/>
-      <c r="Y373" s="183"/>
-      <c r="Z373" s="183"/>
-    </row>
-    <row r="374" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="211" t="s">
-        <v>443</v>
-      </c>
-      <c r="B374" s="212">
-        <v>6</v>
-      </c>
-      <c r="C374" s="213" t="s">
-        <v>454</v>
-      </c>
-      <c r="D374" s="214" t="s">
-        <v>43</v>
-      </c>
-      <c r="E374" s="203" t="s">
-        <v>311</v>
-      </c>
-      <c r="F374" s="215"/>
-      <c r="G374" s="201" t="s">
-        <v>566</v>
-      </c>
-      <c r="H374" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="I374" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J374" s="217" t="s">
-        <v>12</v>
-      </c>
-      <c r="K374" s="218"/>
-      <c r="L374" s="218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A375" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B375" s="12">
-        <v>9</v>
-      </c>
-      <c r="C375" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D375" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F375" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G375" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H375" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I375" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J375" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K375" s="37"/>
-      <c r="L375" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A376" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B376" s="12">
-        <v>10</v>
-      </c>
-      <c r="C376" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D376" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F376" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H376" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I376" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J376" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K376" s="37"/>
-      <c r="L376" s="37">
-        <v>0</v>
-      </c>
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A377" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B377" s="12">
-        <v>10</v>
-      </c>
-      <c r="C377" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="D377" s="20" t="s">
-        <v>43</v>
+      <c r="A377" s="66">
+        <v>116</v>
+      </c>
+      <c r="B377" s="34"/>
+      <c r="C377" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D377" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F377" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G377" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H377" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I377" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J377" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F377" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G377" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H377" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J377" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K377" s="37"/>
-      <c r="L377" s="37">
-        <v>0</v>
+      <c r="L377" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H378" s="145"/>
+      <c r="A378" s="66">
+        <v>116</v>
+      </c>
+      <c r="B378" s="34"/>
+      <c r="C378" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D378" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F378" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G378" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H378" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J378" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K378" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="L378" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A379" s="116"/>
-      <c r="B379" s="197" t="s">
-        <v>461</v>
-      </c>
-      <c r="C379" s="197"/>
-      <c r="D379" s="197"/>
-      <c r="E379" s="197"/>
-      <c r="F379" s="106"/>
-      <c r="G379" s="106"/>
-      <c r="H379" s="145"/>
-      <c r="I379" s="123"/>
-      <c r="J379" s="123"/>
-      <c r="K379" s="106"/>
-      <c r="L379" s="106"/>
+      <c r="A379" s="66">
+        <v>116</v>
+      </c>
+      <c r="B379" s="34">
+        <v>24</v>
+      </c>
+      <c r="C379" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D379" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F379" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G379" s="38"/>
+      <c r="H379" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I379" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J379" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K379" s="37"/>
+      <c r="L379" s="38">
+        <v>2</v>
+      </c>
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="66">
@@ -31705,19 +31757,19 @@
       </c>
       <c r="B380" s="34"/>
       <c r="C380" s="49" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="D380" s="36" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F380" s="23" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="G380" s="42" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="H380" s="11" t="s">
         <v>2</v>
@@ -31739,20 +31791,18 @@
       </c>
       <c r="B381" s="34"/>
       <c r="C381" s="49" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D381" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
+      </c>
+      <c r="E381" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="F381" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G381" s="42" t="s">
-        <v>163</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G381" s="39"/>
       <c r="H381" s="11" t="s">
         <v>2</v>
       </c>
@@ -31760,135 +31810,63 @@
         <v>2</v>
       </c>
       <c r="J381" s="36" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K381" s="37"/>
       <c r="L381" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A382" s="66">
-        <v>116</v>
-      </c>
-      <c r="B382" s="34"/>
-      <c r="C382" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D382" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F382" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G382" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H382" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I382" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J382" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K382" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="L382" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A383" s="66">
-        <v>116</v>
-      </c>
-      <c r="B383" s="34">
-        <v>24</v>
-      </c>
-      <c r="C383" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D383" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E383" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F383" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G383" s="38"/>
-      <c r="H383" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I383" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J383" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K383" s="37"/>
-      <c r="L383" s="38">
-        <v>2</v>
-      </c>
+      <c r="A382" s="66"/>
+      <c r="B382" s="150"/>
+      <c r="C382" s="151"/>
+      <c r="D382" s="155"/>
+      <c r="E382" s="154"/>
+      <c r="F382" s="187"/>
+      <c r="G382" s="188"/>
+      <c r="H382" s="153"/>
+      <c r="I382" s="76"/>
+      <c r="J382" s="155"/>
+      <c r="K382" s="156"/>
+      <c r="L382" s="152"/>
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A384" s="66">
-        <v>116</v>
-      </c>
-      <c r="B384" s="34"/>
-      <c r="C384" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D384" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F384" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G384" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="H384" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I384" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J384" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K384" s="37"/>
-      <c r="L384" s="38">
-        <v>1</v>
-      </c>
+      <c r="A384" s="116"/>
+      <c r="B384" s="245" t="s">
+        <v>452</v>
+      </c>
+      <c r="C384" s="245"/>
+      <c r="D384" s="245"/>
+      <c r="E384" s="245"/>
+      <c r="F384" s="106"/>
+      <c r="G384" s="106"/>
+      <c r="H384" s="145"/>
+      <c r="I384" s="123"/>
+      <c r="J384" s="123"/>
+      <c r="K384" s="106"/>
+      <c r="L384" s="106"/>
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="66">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B385" s="34"/>
       <c r="C385" s="49" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D385" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E385" s="26" t="s">
-        <v>47</v>
+        <v>161</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F385" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G385" s="39"/>
+        <v>162</v>
+      </c>
+      <c r="G385" s="42" t="s">
+        <v>163</v>
+      </c>
       <c r="H385" s="11" t="s">
         <v>2</v>
       </c>
@@ -31896,42 +31874,116 @@
         <v>2</v>
       </c>
       <c r="J385" s="36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K385" s="37"/>
       <c r="L385" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A386" s="66"/>
-      <c r="B386" s="150"/>
-      <c r="C386" s="151"/>
-      <c r="D386" s="155"/>
-      <c r="E386" s="154"/>
-      <c r="F386" s="187"/>
-      <c r="G386" s="188"/>
-      <c r="H386" s="153"/>
-      <c r="I386" s="76"/>
-      <c r="J386" s="155"/>
-      <c r="K386" s="156"/>
-      <c r="L386" s="152"/>
+      <c r="A386" s="66">
+        <v>117</v>
+      </c>
+      <c r="B386" s="34"/>
+      <c r="C386" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D386" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F386" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G386" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H386" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J386" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K386" s="37"/>
+      <c r="L386" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A387" s="66">
+        <v>117</v>
+      </c>
+      <c r="B387" s="34"/>
+      <c r="C387" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D387" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F387" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G387" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="H387" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J387" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K387" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="L387" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A388" s="116"/>
-      <c r="B388" s="197" t="s">
-        <v>462</v>
-      </c>
-      <c r="C388" s="197"/>
-      <c r="D388" s="197"/>
-      <c r="E388" s="197"/>
-      <c r="F388" s="106"/>
-      <c r="G388" s="106"/>
-      <c r="H388" s="145"/>
-      <c r="I388" s="123"/>
-      <c r="J388" s="123"/>
-      <c r="K388" s="106"/>
-      <c r="L388" s="106"/>
+      <c r="A388" s="66">
+        <v>117</v>
+      </c>
+      <c r="B388" s="34">
+        <v>24</v>
+      </c>
+      <c r="C388" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D388" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E388" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F388" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G388" s="38"/>
+      <c r="H388" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I388" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J388" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K388" s="37"/>
+      <c r="L388" s="38">
+        <v>2</v>
+      </c>
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="66">
@@ -31939,19 +31991,19 @@
       </c>
       <c r="B389" s="34"/>
       <c r="C389" s="49" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="D389" s="36" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F389" s="23" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="G389" s="42" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="H389" s="11" t="s">
         <v>2</v>
@@ -31973,20 +32025,18 @@
       </c>
       <c r="B390" s="34"/>
       <c r="C390" s="49" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D390" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
+      </c>
+      <c r="E390" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="F390" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G390" s="42" t="s">
-        <v>163</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G390" s="39"/>
       <c r="H390" s="11" t="s">
         <v>2</v>
       </c>
@@ -31994,506 +32044,496 @@
         <v>2</v>
       </c>
       <c r="J390" s="36" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K390" s="37"/>
       <c r="L390" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A391" s="66"/>
+      <c r="B391" s="150"/>
+      <c r="C391" s="151"/>
+      <c r="D391" s="155"/>
+      <c r="E391" s="154"/>
+      <c r="F391" s="187"/>
+      <c r="G391" s="188"/>
+      <c r="H391" s="153"/>
+      <c r="I391" s="76"/>
+      <c r="J391" s="155"/>
+      <c r="K391" s="156"/>
+      <c r="L391" s="152"/>
+    </row>
+    <row r="392" spans="1:26" s="222" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="211"/>
+      <c r="B392" s="212"/>
+      <c r="C392" s="213"/>
+      <c r="D392" s="214" t="s">
+        <v>560</v>
+      </c>
+      <c r="E392" s="215"/>
+      <c r="F392" s="216"/>
+      <c r="G392" s="217"/>
+      <c r="H392" s="218"/>
+      <c r="I392" s="219"/>
+      <c r="J392" s="214"/>
+      <c r="K392" s="220"/>
+      <c r="L392" s="221"/>
+    </row>
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A393" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B393" s="12">
+        <v>13</v>
+      </c>
+      <c r="C393" s="16"/>
+      <c r="D393" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F393" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G393" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H393" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J393" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L393">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A391" s="66">
-        <v>117</v>
-      </c>
-      <c r="B391" s="34"/>
-      <c r="C391" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D391" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E391" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F391" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G391" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="H391" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I391" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J391" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K391" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="L391" s="38">
+    <row r="394" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B394" s="177"/>
+      <c r="C394" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="D394" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="E394" s="224" t="s">
+        <v>47</v>
+      </c>
+      <c r="F394" s="201" t="s">
+        <v>63</v>
+      </c>
+      <c r="G394" s="225"/>
+      <c r="H394" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I394" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="J394" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="K394" s="183"/>
+      <c r="L394" s="179">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A392" s="66">
-        <v>117</v>
-      </c>
-      <c r="B392" s="34">
-        <v>24</v>
-      </c>
-      <c r="C392" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D392" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E392" s="17" t="s">
+      <c r="M394" s="183"/>
+      <c r="N394" s="183"/>
+      <c r="O394" s="183"/>
+      <c r="P394" s="183"/>
+      <c r="Q394" s="183"/>
+      <c r="R394" s="183"/>
+      <c r="S394" s="183"/>
+      <c r="T394" s="183"/>
+      <c r="U394" s="183"/>
+      <c r="V394" s="183"/>
+      <c r="W394" s="183"/>
+      <c r="X394" s="183"/>
+      <c r="Y394" s="183"/>
+      <c r="Z394" s="183"/>
+    </row>
+    <row r="395" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B395" s="177"/>
+      <c r="C395" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="D395" s="179" t="s">
+        <v>354</v>
+      </c>
+      <c r="E395" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="F392" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G392" s="38"/>
-      <c r="H392" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I392" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J392" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K392" s="37"/>
-      <c r="L392" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A393" s="66">
-        <v>117</v>
-      </c>
-      <c r="B393" s="34"/>
-      <c r="C393" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D393" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F393" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G393" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="H393" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I393" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J393" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K393" s="37"/>
-      <c r="L393" s="38">
+      <c r="F395" s="201" t="s">
+        <v>355</v>
+      </c>
+      <c r="G395" s="225"/>
+      <c r="H395" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I395" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="J395" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="K395" s="183"/>
+      <c r="L395" s="179">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A394" s="66">
-        <v>117</v>
-      </c>
-      <c r="B394" s="34"/>
-      <c r="C394" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D394" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E394" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F394" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G394" s="39"/>
-      <c r="H394" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I394" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J394" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K394" s="37"/>
-      <c r="L394" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A395" s="66"/>
-      <c r="B395" s="150"/>
-      <c r="C395" s="151"/>
-      <c r="D395" s="155"/>
-      <c r="E395" s="154"/>
-      <c r="F395" s="187"/>
-      <c r="G395" s="188"/>
-      <c r="H395" s="153"/>
-      <c r="I395" s="76"/>
-      <c r="J395" s="155"/>
-      <c r="K395" s="156"/>
-      <c r="L395" s="152"/>
-    </row>
-    <row r="396" spans="1:26" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="219"/>
-      <c r="B396" s="220"/>
-      <c r="C396" s="221"/>
-      <c r="D396" s="222" t="s">
-        <v>570</v>
-      </c>
-      <c r="E396" s="223"/>
-      <c r="F396" s="224"/>
+      <c r="M395" s="183"/>
+      <c r="N395" s="183"/>
+      <c r="O395" s="183"/>
+      <c r="P395" s="183"/>
+      <c r="Q395" s="183"/>
+      <c r="R395" s="183"/>
+      <c r="S395" s="183"/>
+      <c r="T395" s="183"/>
+      <c r="U395" s="183"/>
+      <c r="V395" s="183"/>
+      <c r="W395" s="183"/>
+      <c r="X395" s="183"/>
+      <c r="Y395" s="183"/>
+      <c r="Z395" s="183"/>
+    </row>
+    <row r="396" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B396" s="177"/>
+      <c r="C396" s="223" t="s">
+        <v>562</v>
+      </c>
+      <c r="D396" s="179"/>
+      <c r="E396" s="224" t="s">
+        <v>561</v>
+      </c>
+      <c r="F396" s="201"/>
       <c r="G396" s="225"/>
-      <c r="H396" s="226"/>
-      <c r="I396" s="227"/>
-      <c r="J396" s="222"/>
-      <c r="K396" s="228"/>
-      <c r="L396" s="229"/>
+      <c r="H396" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I396" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="J396" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="K396" s="183"/>
+      <c r="L396" s="179">
+        <v>1</v>
+      </c>
+      <c r="M396" s="183"/>
+      <c r="N396" s="183"/>
+      <c r="O396" s="183"/>
+      <c r="P396" s="183"/>
+      <c r="Q396" s="183"/>
+      <c r="R396" s="183"/>
+      <c r="S396" s="183"/>
+      <c r="T396" s="183"/>
+      <c r="U396" s="183"/>
+      <c r="V396" s="183"/>
+      <c r="W396" s="183"/>
+      <c r="X396" s="183"/>
+      <c r="Y396" s="183"/>
+      <c r="Z396" s="183"/>
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B397" s="12">
+        <v>557</v>
+      </c>
+      <c r="B397" s="34"/>
+      <c r="C397" s="49"/>
+      <c r="D397" s="36"/>
+      <c r="E397" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F397" s="23"/>
+      <c r="G397" s="39"/>
+      <c r="H397" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I397" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J397" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K397" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="L397" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A398" s="66"/>
+      <c r="B398" s="150"/>
+      <c r="C398" s="151"/>
+      <c r="D398" s="155"/>
+      <c r="E398" s="154"/>
+      <c r="F398" s="187"/>
+      <c r="G398" s="188"/>
+      <c r="H398" s="153"/>
+      <c r="I398" s="76"/>
+      <c r="J398" s="155"/>
+      <c r="K398" s="156"/>
+      <c r="L398" s="152"/>
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A399" s="66"/>
+      <c r="B399" s="150"/>
+      <c r="C399" s="151"/>
+      <c r="D399" s="155"/>
+      <c r="E399" s="154"/>
+      <c r="F399" s="187"/>
+      <c r="G399" s="188"/>
+      <c r="H399" s="153"/>
+      <c r="I399" s="76"/>
+      <c r="J399" s="155"/>
+      <c r="K399" s="156"/>
+      <c r="L399" s="152"/>
+    </row>
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A400" s="66"/>
+      <c r="B400" s="150"/>
+      <c r="C400" s="151"/>
+      <c r="D400" s="155"/>
+      <c r="E400" s="154"/>
+      <c r="F400" s="187"/>
+      <c r="G400" s="188"/>
+      <c r="H400" s="153"/>
+      <c r="I400" s="76"/>
+      <c r="J400" s="155"/>
+      <c r="K400" s="156"/>
+      <c r="L400" s="152"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A401" s="66"/>
+      <c r="B401" s="150"/>
+      <c r="C401" s="151"/>
+      <c r="D401" s="155"/>
+      <c r="E401" s="154"/>
+      <c r="F401" s="187"/>
+      <c r="G401" s="188"/>
+      <c r="H401" s="153"/>
+      <c r="I401" s="76"/>
+      <c r="J401" s="155"/>
+      <c r="K401" s="156"/>
+      <c r="L401" s="152"/>
+    </row>
+    <row r="403" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="117"/>
+      <c r="B403" s="240" t="s">
+        <v>462</v>
+      </c>
+      <c r="C403" s="240"/>
+      <c r="D403" s="240"/>
+      <c r="H403" s="142"/>
+      <c r="I403" s="122"/>
+      <c r="J403" s="122"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>120</v>
+      </c>
+      <c r="B404" s="12"/>
+      <c r="C404" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D404" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E404" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F404" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C397" s="16"/>
-      <c r="D397" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F397" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G397" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="H397" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J397" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L397">
+      <c r="G404" s="20"/>
+      <c r="H404" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J404" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>120</v>
+      </c>
+      <c r="B405" s="18"/>
+      <c r="C405" s="114" t="s">
+        <v>457</v>
+      </c>
+      <c r="D405" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="E405" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="F405" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="G405" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="H405" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J405" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K405" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="L405" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B398" s="177"/>
-      <c r="C398" s="231" t="s">
-        <v>127</v>
-      </c>
-      <c r="D398" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="E398" s="232" t="s">
-        <v>47</v>
-      </c>
-      <c r="F398" s="209" t="s">
-        <v>63</v>
-      </c>
-      <c r="G398" s="233"/>
-      <c r="H398" s="180" t="s">
-        <v>2</v>
-      </c>
-      <c r="I398" s="232" t="s">
-        <v>2</v>
-      </c>
-      <c r="J398" s="179" t="s">
-        <v>2</v>
-      </c>
-      <c r="K398" s="183"/>
-      <c r="L398" s="179">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>120</v>
+      </c>
+      <c r="B406" s="12"/>
+      <c r="C406" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D406" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E406" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F406" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G406" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H406" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J406" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L406">
         <v>1</v>
       </c>
-      <c r="M398" s="183"/>
-      <c r="N398" s="183"/>
-      <c r="O398" s="183"/>
-      <c r="P398" s="183"/>
-      <c r="Q398" s="183"/>
-      <c r="R398" s="183"/>
-      <c r="S398" s="183"/>
-      <c r="T398" s="183"/>
-      <c r="U398" s="183"/>
-      <c r="V398" s="183"/>
-      <c r="W398" s="183"/>
-      <c r="X398" s="183"/>
-      <c r="Y398" s="183"/>
-      <c r="Z398" s="183"/>
-    </row>
-    <row r="399" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B399" s="177"/>
-      <c r="C399" s="231" t="s">
-        <v>127</v>
-      </c>
-      <c r="D399" s="179" t="s">
-        <v>355</v>
-      </c>
-      <c r="E399" s="232" t="s">
-        <v>47</v>
-      </c>
-      <c r="F399" s="209" t="s">
-        <v>356</v>
-      </c>
-      <c r="G399" s="233"/>
-      <c r="H399" s="180" t="s">
-        <v>2</v>
-      </c>
-      <c r="I399" s="232" t="s">
-        <v>2</v>
-      </c>
-      <c r="J399" s="179" t="s">
-        <v>12</v>
-      </c>
-      <c r="K399" s="183"/>
-      <c r="L399" s="179">
-        <v>1</v>
-      </c>
-      <c r="M399" s="183"/>
-      <c r="N399" s="183"/>
-      <c r="O399" s="183"/>
-      <c r="P399" s="183"/>
-      <c r="Q399" s="183"/>
-      <c r="R399" s="183"/>
-      <c r="S399" s="183"/>
-      <c r="T399" s="183"/>
-      <c r="U399" s="183"/>
-      <c r="V399" s="183"/>
-      <c r="W399" s="183"/>
-      <c r="X399" s="183"/>
-      <c r="Y399" s="183"/>
-      <c r="Z399" s="183"/>
-    </row>
-    <row r="400" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B400" s="177"/>
-      <c r="C400" s="231" t="s">
-        <v>572</v>
-      </c>
-      <c r="D400" s="179"/>
-      <c r="E400" s="232" t="s">
-        <v>571</v>
-      </c>
-      <c r="F400" s="209"/>
-      <c r="G400" s="233"/>
-      <c r="H400" s="180" t="s">
-        <v>2</v>
-      </c>
-      <c r="I400" s="232" t="s">
-        <v>2</v>
-      </c>
-      <c r="J400" s="179" t="s">
-        <v>2</v>
-      </c>
-      <c r="K400" s="183"/>
-      <c r="L400" s="179">
-        <v>1</v>
-      </c>
-      <c r="M400" s="183"/>
-      <c r="N400" s="183"/>
-      <c r="O400" s="183"/>
-      <c r="P400" s="183"/>
-      <c r="Q400" s="183"/>
-      <c r="R400" s="183"/>
-      <c r="S400" s="183"/>
-      <c r="T400" s="183"/>
-      <c r="U400" s="183"/>
-      <c r="V400" s="183"/>
-      <c r="W400" s="183"/>
-      <c r="X400" s="183"/>
-      <c r="Y400" s="183"/>
-      <c r="Z400" s="183"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A401" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B401" s="34"/>
-      <c r="C401" s="49"/>
-      <c r="D401" s="36"/>
-      <c r="E401" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F401" s="23"/>
-      <c r="G401" s="39"/>
-      <c r="H401" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I401" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J401" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K401" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="L401" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A402" s="66"/>
-      <c r="B402" s="150"/>
-      <c r="C402" s="151"/>
-      <c r="D402" s="155"/>
-      <c r="E402" s="154"/>
-      <c r="F402" s="187"/>
-      <c r="G402" s="188"/>
-      <c r="H402" s="153"/>
-      <c r="I402" s="76"/>
-      <c r="J402" s="155"/>
-      <c r="K402" s="156"/>
-      <c r="L402" s="152"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A403" s="66"/>
-      <c r="B403" s="150"/>
-      <c r="C403" s="151"/>
-      <c r="D403" s="155"/>
-      <c r="E403" s="154"/>
-      <c r="F403" s="187"/>
-      <c r="G403" s="188"/>
-      <c r="H403" s="153"/>
-      <c r="I403" s="76"/>
-      <c r="J403" s="155"/>
-      <c r="K403" s="156"/>
-      <c r="L403" s="152"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A404" s="66"/>
-      <c r="B404" s="150"/>
-      <c r="C404" s="151"/>
-      <c r="D404" s="155"/>
-      <c r="E404" s="154"/>
-      <c r="F404" s="187"/>
-      <c r="G404" s="188"/>
-      <c r="H404" s="153"/>
-      <c r="I404" s="76"/>
-      <c r="J404" s="155"/>
-      <c r="K404" s="156"/>
-      <c r="L404" s="152"/>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A405" s="66"/>
-      <c r="B405" s="150"/>
-      <c r="C405" s="151"/>
-      <c r="D405" s="155"/>
-      <c r="E405" s="154"/>
-      <c r="F405" s="187"/>
-      <c r="G405" s="188"/>
-      <c r="H405" s="153"/>
-      <c r="I405" s="76"/>
-      <c r="J405" s="155"/>
-      <c r="K405" s="156"/>
-      <c r="L405" s="152"/>
-    </row>
-    <row r="407" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="117"/>
-      <c r="B407" s="192" t="s">
-        <v>472</v>
-      </c>
-      <c r="C407" s="192"/>
-      <c r="D407" s="192"/>
-      <c r="H407" s="142"/>
-      <c r="I407" s="122"/>
-      <c r="J407" s="122"/>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>120</v>
+      </c>
+      <c r="B407" s="12"/>
+      <c r="C407" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D407" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F407" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G407" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H407" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J407" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L407">
+        <v>3</v>
+      </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>120</v>
       </c>
       <c r="B408" s="12"/>
-      <c r="C408" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="C408" s="16"/>
       <c r="D408" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E408" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="F408" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G408" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F408" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G408" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H408" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J408" s="18" t="s">
+      <c r="J408" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>120</v>
       </c>
-      <c r="B409" s="18"/>
-      <c r="C409" s="114" t="s">
-        <v>467</v>
-      </c>
-      <c r="D409" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E409" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="F409" s="115" t="s">
-        <v>469</v>
-      </c>
-      <c r="G409" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="H409" s="25" t="s">
+      <c r="B409" s="12"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E409" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F409" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G409" s="20"/>
+      <c r="H409" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J409" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K409" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="L409" s="18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J409" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
@@ -32502,19 +32542,19 @@
       </c>
       <c r="B410" s="12"/>
       <c r="C410" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D410" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E410" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F410" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G410" s="22" t="s">
-        <v>209</v>
+        <v>465</v>
+      </c>
+      <c r="D410" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F410" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G410" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="H410" s="11" t="s">
         <v>2</v>
@@ -32522,11 +32562,11 @@
       <c r="I410" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J410" s="18" t="s">
-        <v>12</v>
+      <c r="J410" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="L410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
@@ -32534,62 +32574,61 @@
         <v>120</v>
       </c>
       <c r="B411" s="12"/>
-      <c r="C411" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D411" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E411" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F411" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G411" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C411" s="16"/>
+      <c r="D411" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="E411" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F411" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="G411" s="20"/>
       <c r="H411" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J411" s="2" t="s">
+      <c r="J411" s="18" t="s">
         <v>12</v>
       </c>
       <c r="L411">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>120</v>
       </c>
-      <c r="B412" s="12"/>
-      <c r="C412" s="16"/>
-      <c r="D412" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E412" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F412" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G412" s="4" t="s">
-        <v>38</v>
+      <c r="B412" s="34"/>
+      <c r="C412" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="D412" s="36"/>
+      <c r="E412" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F412" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="G412" s="40" t="s">
+        <v>467</v>
       </c>
       <c r="H412" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I412" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J412" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L412">
+      <c r="I412" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J412" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K412" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="L412" s="38">
         <v>1</v>
       </c>
     </row>
@@ -32597,62 +32636,59 @@
       <c r="A413" s="2">
         <v>120</v>
       </c>
-      <c r="B413" s="12"/>
-      <c r="C413" s="16"/>
-      <c r="D413" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B413" s="34"/>
+      <c r="C413" s="49"/>
+      <c r="D413" s="38"/>
       <c r="E413" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F413" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G413" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="F413" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="G413" s="38"/>
       <c r="H413" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I413" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J413" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L413">
-        <v>0</v>
+      <c r="I413" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J413" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K413" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="L413" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>120</v>
       </c>
-      <c r="B414" s="12"/>
-      <c r="C414" s="46" t="s">
+      <c r="C414" t="s">
         <v>475</v>
       </c>
-      <c r="D414" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E414" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F414" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G414" s="4" t="s">
+      <c r="E414" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="F414" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="H414" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>2</v>
+      <c r="G414" s="98" t="s">
+        <v>474</v>
+      </c>
+      <c r="H414" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I414" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J414" s="119" t="s">
+        <v>12</v>
       </c>
       <c r="L414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
@@ -32661,27 +32697,29 @@
       </c>
       <c r="B415" s="12"/>
       <c r="C415" s="16"/>
-      <c r="D415" s="26" t="s">
+      <c r="D415" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F415" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="G415" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="E415" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F415" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="G415" s="20"/>
       <c r="H415" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I415" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J415" s="18" t="s">
-        <v>12</v>
+      <c r="J415" s="25" t="s">
+        <v>2</v>
       </c>
       <c r="L415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
@@ -32690,29 +32728,27 @@
       </c>
       <c r="B416" s="34"/>
       <c r="C416" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="D416" s="36"/>
-      <c r="E416" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F416" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="G416" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="D416" s="38"/>
+      <c r="E416" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F416" s="41" t="s">
         <v>477</v>
       </c>
+      <c r="G416" s="38"/>
       <c r="H416" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I416" s="1" t="s">
+      <c r="I416" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J416" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K416" s="37" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L416" s="38">
         <v>1</v>
@@ -32722,29 +32758,28 @@
       <c r="A417" s="2">
         <v>120</v>
       </c>
-      <c r="B417" s="34"/>
-      <c r="C417" s="49"/>
-      <c r="D417" s="38"/>
-      <c r="E417" s="17" t="s">
-        <v>47</v>
+      <c r="C417" t="s">
+        <v>479</v>
+      </c>
+      <c r="E417" s="118" t="s">
+        <v>469</v>
       </c>
       <c r="F417" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G417" s="38"/>
-      <c r="H417" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I417" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J417" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K417" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="L417" s="38">
+        <v>480</v>
+      </c>
+      <c r="G417" s="98" t="s">
+        <v>488</v>
+      </c>
+      <c r="H417" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I417" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J417" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L417">
         <v>1</v>
       </c>
     </row>
@@ -32752,25 +32787,27 @@
       <c r="A418" s="2">
         <v>120</v>
       </c>
-      <c r="C418" t="s">
-        <v>485</v>
-      </c>
-      <c r="E418" s="118" t="s">
-        <v>479</v>
+      <c r="B418" s="12"/>
+      <c r="C418" s="16"/>
+      <c r="D418" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F418" s="41" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G418" s="98" t="s">
-        <v>484</v>
-      </c>
-      <c r="H418" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="I418" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J418" s="119" t="s">
+        <v>488</v>
+      </c>
+      <c r="H418" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J418" s="25" t="s">
         <v>12</v>
       </c>
       <c r="L418">
@@ -32781,31 +32818,17 @@
       <c r="A419" s="2">
         <v>120</v>
       </c>
-      <c r="B419" s="12"/>
-      <c r="C419" s="16"/>
-      <c r="D419" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E419" s="1" t="s">
+      <c r="C419" t="s">
+        <v>485</v>
+      </c>
+      <c r="E419" s="120" t="s">
+        <v>484</v>
+      </c>
+      <c r="F419" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="F419" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="G419" s="98" t="s">
-        <v>484</v>
-      </c>
-      <c r="H419" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I419" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J419" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L419">
-        <v>1</v>
+      <c r="G419" s="121" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
@@ -32814,14 +32837,14 @@
       </c>
       <c r="B420" s="34"/>
       <c r="C420" s="49" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D420" s="38"/>
       <c r="E420" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F420" s="41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G420" s="38"/>
       <c r="H420" s="11" t="s">
@@ -32831,90 +32854,97 @@
         <v>2</v>
       </c>
       <c r="J420" s="36" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K420" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L420" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>120</v>
       </c>
-      <c r="C421" t="s">
-        <v>489</v>
-      </c>
-      <c r="E421" s="118" t="s">
-        <v>479</v>
-      </c>
-      <c r="F421" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="G421" s="98" t="s">
-        <v>498</v>
-      </c>
-      <c r="H421" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="I421" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J421" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="L421">
+      <c r="B421" s="136"/>
+      <c r="C421" s="135" t="s">
+        <v>493</v>
+      </c>
+      <c r="D421" s="130"/>
+      <c r="E421" s="134" t="s">
+        <v>492</v>
+      </c>
+      <c r="F421" s="133"/>
+      <c r="G421" s="132"/>
+      <c r="H421" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I421" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="J421" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="K421" s="127"/>
+      <c r="L421" s="128">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A422" s="2">
-        <v>120</v>
-      </c>
-      <c r="B422" s="12"/>
-      <c r="C422" s="16"/>
-      <c r="D422" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="E422" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F422" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="G422" s="98" t="s">
-        <v>498</v>
-      </c>
-      <c r="H422" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J422" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L422">
-        <v>1</v>
-      </c>
+      <c r="M421" s="127"/>
+      <c r="N421" s="127"/>
+      <c r="O421" s="127"/>
+      <c r="P421" s="127"/>
+      <c r="Q421" s="127"/>
+      <c r="R421" s="127"/>
+      <c r="S421" s="127"/>
+      <c r="T421" s="127"/>
+      <c r="U421" s="127"/>
+      <c r="V421" s="127"/>
+      <c r="W421" s="127"/>
+      <c r="X421" s="127"/>
+      <c r="Y421" s="127"/>
+      <c r="Z421" s="127"/>
+    </row>
+    <row r="422" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="137"/>
+      <c r="C422" s="138" t="s">
+        <v>494</v>
+      </c>
+      <c r="D422" s="137"/>
+      <c r="H422" s="148"/>
+      <c r="I422" s="137"/>
+      <c r="J422" s="137"/>
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>120</v>
       </c>
-      <c r="C423" t="s">
+      <c r="B423" s="34"/>
+      <c r="C423" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="E423" s="120" t="s">
-        <v>494</v>
+      <c r="D423" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="E423" s="26" t="s">
+        <v>431</v>
       </c>
       <c r="F423" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="G423" s="121" t="s">
         <v>497</v>
+      </c>
+      <c r="G423" s="38"/>
+      <c r="H423" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I423" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J423" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K423" s="37"/>
+      <c r="L423" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
@@ -32923,135 +32953,106 @@
       </c>
       <c r="B424" s="34"/>
       <c r="C424" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D424" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="E424" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F424" s="41" t="s">
         <v>499</v>
-      </c>
-      <c r="D424" s="38"/>
-      <c r="E424" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F424" s="41" t="s">
-        <v>500</v>
       </c>
       <c r="G424" s="38"/>
       <c r="H424" s="11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I424" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J424" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K424" s="37" t="s">
-        <v>501</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K424" s="37"/>
       <c r="L424" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:26" s="126" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>120</v>
       </c>
-      <c r="B425" s="136"/>
-      <c r="C425" s="135" t="s">
+      <c r="B425" s="34"/>
+      <c r="C425" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D425" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="E425" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F425" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="G425" s="38"/>
+      <c r="H425" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I425" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J425" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K425" s="37"/>
+      <c r="L425" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>120</v>
+      </c>
+      <c r="B426" s="34"/>
+      <c r="E426" s="134" t="s">
+        <v>502</v>
+      </c>
+      <c r="H426" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I426" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J426" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K426" s="37"/>
+      <c r="L426" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="137"/>
+      <c r="B427" s="139"/>
+      <c r="C427" s="138" t="s">
         <v>503</v>
       </c>
-      <c r="D425" s="130"/>
-      <c r="E425" s="134" t="s">
-        <v>502</v>
-      </c>
-      <c r="F425" s="133"/>
-      <c r="G425" s="132"/>
-      <c r="H425" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="I425" s="130" t="s">
-        <v>2</v>
-      </c>
-      <c r="J425" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="K425" s="127"/>
-      <c r="L425" s="128">
-        <v>1</v>
-      </c>
-      <c r="M425" s="127"/>
-      <c r="N425" s="127"/>
-      <c r="O425" s="127"/>
-      <c r="P425" s="127"/>
-      <c r="Q425" s="127"/>
-      <c r="R425" s="127"/>
-      <c r="S425" s="127"/>
-      <c r="T425" s="127"/>
-      <c r="U425" s="127"/>
-      <c r="V425" s="127"/>
-      <c r="W425" s="127"/>
-      <c r="X425" s="127"/>
-      <c r="Y425" s="127"/>
-      <c r="Z425" s="127"/>
-    </row>
-    <row r="426" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="137"/>
-      <c r="C426" s="138" t="s">
-        <v>504</v>
-      </c>
-      <c r="D426" s="137"/>
-      <c r="H426" s="148"/>
-      <c r="I426" s="137"/>
-      <c r="J426" s="137"/>
-    </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
-        <v>120</v>
-      </c>
-      <c r="B427" s="34"/>
-      <c r="C427" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="D427" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E427" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F427" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="G427" s="38"/>
-      <c r="H427" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I427" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J427" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K427" s="37"/>
-      <c r="L427" s="38">
-        <v>1</v>
-      </c>
+      <c r="D427" s="140"/>
+      <c r="H427" s="148"/>
+      <c r="I427" s="137"/>
+      <c r="J427" s="137"/>
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>120</v>
       </c>
       <c r="B428" s="34"/>
-      <c r="C428" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="D428" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="E428" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F428" s="41" t="s">
-        <v>509</v>
-      </c>
-      <c r="G428" s="38"/>
-      <c r="H428" s="11" t="s">
+      <c r="E428" s="134" t="s">
+        <v>504</v>
+      </c>
+      <c r="H428" s="147" t="s">
         <v>12</v>
       </c>
       <c r="I428" s="26" t="s">
@@ -33071,16 +33072,16 @@
       </c>
       <c r="B429" s="34"/>
       <c r="C429" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D429" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="E429" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F429" s="41" t="s">
         <v>505</v>
-      </c>
-      <c r="D429" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E429" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F429" s="41" t="s">
-        <v>511</v>
       </c>
       <c r="G429" s="38"/>
       <c r="H429" s="11" t="s">
@@ -33102,43 +33103,84 @@
         <v>120</v>
       </c>
       <c r="B430" s="34"/>
-      <c r="E430" s="134" t="s">
-        <v>512</v>
-      </c>
-      <c r="H430" s="147" t="s">
-        <v>2</v>
+      <c r="C430" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D430" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="E430" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F430" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G430" s="38"/>
+      <c r="H430" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I430" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J430" s="36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K430" s="37"/>
       <c r="L430" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:26" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="137"/>
-      <c r="B431" s="139"/>
-      <c r="C431" s="138" t="s">
-        <v>513</v>
-      </c>
-      <c r="D431" s="140"/>
-      <c r="H431" s="148"/>
-      <c r="I431" s="137"/>
-      <c r="J431" s="137"/>
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>120</v>
+      </c>
+      <c r="B431" s="34"/>
+      <c r="C431" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D431" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="E431" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F431" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G431" s="38"/>
+      <c r="H431" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I431" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J431" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K431" s="37"/>
+      <c r="L431" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>120</v>
       </c>
       <c r="B432" s="34"/>
-      <c r="E432" s="134" t="s">
-        <v>514</v>
-      </c>
-      <c r="H432" s="147" t="s">
+      <c r="C432" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D432" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E432" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F432" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G432" s="38"/>
+      <c r="H432" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I432" s="26" t="s">
@@ -33158,16 +33200,16 @@
       </c>
       <c r="B433" s="34"/>
       <c r="C433" s="49" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D433" s="38" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="E433" s="26" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F433" s="41" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="G433" s="38"/>
       <c r="H433" s="11" t="s">
@@ -33189,27 +33231,21 @@
         <v>120</v>
       </c>
       <c r="B434" s="34"/>
-      <c r="C434" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="D434" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="E434" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F434" s="41" t="s">
-        <v>518</v>
-      </c>
+      <c r="C434" s="49"/>
+      <c r="D434" s="38"/>
+      <c r="E434" s="118" t="s">
+        <v>511</v>
+      </c>
+      <c r="F434" s="41"/>
       <c r="G434" s="38"/>
       <c r="H434" s="11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I434" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J434" s="36" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K434" s="37"/>
       <c r="L434" s="38">
@@ -33222,22 +33258,24 @@
       </c>
       <c r="B435" s="34"/>
       <c r="C435" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="D435" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E435" s="26" t="s">
-        <v>441</v>
+        <v>512</v>
+      </c>
+      <c r="D435" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F435" s="41" t="s">
-        <v>518</v>
-      </c>
-      <c r="G435" s="38"/>
+        <v>514</v>
+      </c>
+      <c r="G435" s="42" t="s">
+        <v>515</v>
+      </c>
       <c r="H435" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I435" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I435" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J435" s="36" t="s">
@@ -33248,230 +33286,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A436" s="2">
+    <row r="436" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="165">
         <v>120</v>
       </c>
-      <c r="B436" s="34"/>
-      <c r="C436" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="D436" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="E436" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F436" s="41" t="s">
+      <c r="B436" s="166"/>
+      <c r="C436" s="167" t="s">
+        <v>524</v>
+      </c>
+      <c r="D436" s="168"/>
+      <c r="E436" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F436" s="170" t="s">
+        <v>516</v>
+      </c>
+      <c r="G436" s="168"/>
+      <c r="H436" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I436" s="172" t="s">
+        <v>2</v>
+      </c>
+      <c r="J436" s="173" t="s">
+        <v>2</v>
+      </c>
+      <c r="K436" s="174" t="s">
+        <v>525</v>
+      </c>
+      <c r="L436" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="137"/>
+      <c r="B437" s="158"/>
+      <c r="C437" s="159" t="s">
         <v>518</v>
       </c>
-      <c r="G436" s="38"/>
-      <c r="H436" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I436" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J436" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K436" s="37"/>
-      <c r="L436" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A437" s="2">
+      <c r="D437" s="160"/>
+      <c r="E437" s="113"/>
+      <c r="F437" s="157"/>
+      <c r="G437" s="160"/>
+      <c r="H437" s="161"/>
+      <c r="I437" s="162"/>
+      <c r="J437" s="163"/>
+      <c r="K437" s="164"/>
+      <c r="L437" s="160"/>
+    </row>
+    <row r="438" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="165">
         <v>120</v>
       </c>
-      <c r="B437" s="34"/>
-      <c r="C437" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="D437" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="E437" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F437" s="41" t="s">
-        <v>509</v>
-      </c>
-      <c r="G437" s="38"/>
-      <c r="H437" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I437" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J437" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K437" s="37"/>
-      <c r="L437" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A438" s="2">
-        <v>120</v>
-      </c>
-      <c r="B438" s="34"/>
-      <c r="C438" s="49"/>
-      <c r="D438" s="38"/>
-      <c r="E438" s="118" t="s">
-        <v>521</v>
-      </c>
-      <c r="F438" s="41"/>
-      <c r="G438" s="38"/>
-      <c r="H438" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I438" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J438" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K438" s="37"/>
-      <c r="L438" s="38">
-        <v>1</v>
+      <c r="C438" s="184" t="s">
+        <v>517</v>
+      </c>
+      <c r="D438" s="165"/>
+      <c r="E438" s="172" t="s">
+        <v>126</v>
+      </c>
+      <c r="H438" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="I438" s="185" t="s">
+        <v>12</v>
+      </c>
+      <c r="J438" s="186" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>120</v>
       </c>
-      <c r="B439" s="34"/>
-      <c r="C439" s="49" t="s">
+      <c r="B439" s="18"/>
+      <c r="C439" s="114"/>
+      <c r="D439" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E439" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="F439" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G439" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="H439" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J439" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K439" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="L439" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>120</v>
+      </c>
+      <c r="B440" s="18"/>
+      <c r="C440" s="114"/>
+      <c r="D440" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E440" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F440" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G440" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="H440" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J440" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K440" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="L440" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>120</v>
+      </c>
+      <c r="C441" t="s">
         <v>522</v>
       </c>
-      <c r="D439" s="36" t="s">
+      <c r="D441" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E441" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="F441" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G441" s="98" t="s">
         <v>523</v>
       </c>
-      <c r="E439" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F439" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="G439" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="H439" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I439" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J439" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K439" s="37"/>
-      <c r="L439" s="38">
+      <c r="H441" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I441" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J441" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L441">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="165">
+    <row r="442" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="137"/>
+      <c r="C442" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="D442" s="137"/>
+      <c r="H442" s="148"/>
+      <c r="I442" s="137"/>
+      <c r="J442" s="137"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443" s="137">
         <v>120</v>
       </c>
-      <c r="B440" s="166"/>
-      <c r="C440" s="167" t="s">
-        <v>534</v>
-      </c>
-      <c r="D440" s="168"/>
-      <c r="E440" s="169" t="s">
-        <v>47</v>
-      </c>
-      <c r="F440" s="170" t="s">
-        <v>526</v>
-      </c>
-      <c r="G440" s="168"/>
-      <c r="H440" s="171" t="s">
-        <v>2</v>
-      </c>
-      <c r="I440" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="J440" s="173" t="s">
-        <v>2</v>
-      </c>
-      <c r="K440" s="174" t="s">
-        <v>535</v>
-      </c>
-      <c r="L440" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="137"/>
-      <c r="B441" s="158"/>
-      <c r="C441" s="159" t="s">
+      <c r="E443" s="134" t="s">
         <v>528</v>
       </c>
-      <c r="D441" s="160"/>
-      <c r="E441" s="113"/>
-      <c r="F441" s="157"/>
-      <c r="G441" s="160"/>
-      <c r="H441" s="161"/>
-      <c r="I441" s="162"/>
-      <c r="J441" s="163"/>
-      <c r="K441" s="164"/>
-      <c r="L441" s="160"/>
-    </row>
-    <row r="442" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="165">
-        <v>120</v>
-      </c>
-      <c r="C442" s="184" t="s">
+      <c r="F443" s="41"/>
+      <c r="G443" t="s">
         <v>527</v>
       </c>
-      <c r="D442" s="165"/>
-      <c r="E442" s="172" t="s">
-        <v>126</v>
-      </c>
-      <c r="H442" s="176" t="s">
-        <v>12</v>
-      </c>
-      <c r="I442" s="185" t="s">
-        <v>12</v>
-      </c>
-      <c r="J442" s="186" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A443" s="2">
-        <v>120</v>
-      </c>
-      <c r="B443" s="18"/>
-      <c r="C443" s="114"/>
-      <c r="D443" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="E443" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="F443" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="G443" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="H443" s="25" t="s">
-        <v>2</v>
+      <c r="H443" s="147" t="s">
+        <v>12</v>
       </c>
       <c r="I443" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J443" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K443" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="L443" s="18">
+      <c r="J443" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K443" t="s">
+        <v>542</v>
+      </c>
+      <c r="L443">
         <v>1</v>
       </c>
     </row>
@@ -33479,33 +33496,31 @@
       <c r="A444" s="2">
         <v>120</v>
       </c>
-      <c r="B444" s="18"/>
-      <c r="C444" s="114"/>
-      <c r="D444" s="25" t="s">
+      <c r="C444" t="s">
+        <v>531</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E444" s="134" t="s">
+        <v>529</v>
+      </c>
+      <c r="F444" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G444" t="s">
         <v>530</v>
       </c>
-      <c r="E444" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F444" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="G444" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="H444" s="25" t="s">
+      <c r="H444" s="147" t="s">
         <v>2</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J444" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K444" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="L444" s="18">
+      <c r="J444" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L444">
         <v>1</v>
       </c>
     </row>
@@ -33514,51 +33529,81 @@
         <v>120</v>
       </c>
       <c r="C445" t="s">
+        <v>533</v>
+      </c>
+      <c r="D445" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D445" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="E445" s="118" t="s">
-        <v>479</v>
+      <c r="E445" s="134" t="s">
+        <v>213</v>
       </c>
       <c r="F445" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="G445" s="98" t="s">
-        <v>533</v>
+        <v>519</v>
+      </c>
+      <c r="G445" t="s">
+        <v>534</v>
       </c>
       <c r="H445" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="I445" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J445" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J445" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L445">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="137"/>
-      <c r="C446" s="138" t="s">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>120</v>
+      </c>
+      <c r="C446" t="s">
+        <v>543</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E446" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F446" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G446" t="s">
+        <v>535</v>
+      </c>
+      <c r="H446" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J446" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>120</v>
+      </c>
+      <c r="C447" t="s">
         <v>536</v>
       </c>
-      <c r="D446" s="137"/>
-      <c r="H446" s="148"/>
-      <c r="I446" s="137"/>
-      <c r="J446" s="137"/>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A447" s="137">
-        <v>120</v>
+      <c r="D447" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="E447" s="134" t="s">
-        <v>538</v>
-      </c>
-      <c r="F447" s="41"/>
+        <v>213</v>
+      </c>
+      <c r="F447" s="41" t="s">
+        <v>519</v>
+      </c>
       <c r="G447" t="s">
         <v>537</v>
       </c>
@@ -33570,9 +33615,6 @@
       </c>
       <c r="J447" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="K447" t="s">
-        <v>552</v>
       </c>
       <c r="L447">
         <v>1</v>
@@ -33583,31 +33625,23 @@
         <v>120</v>
       </c>
       <c r="C448" t="s">
-        <v>541</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E448" s="134" t="s">
         <v>539</v>
       </c>
-      <c r="F448" s="41" t="s">
-        <v>529</v>
-      </c>
+      <c r="F448" s="41"/>
       <c r="G448" t="s">
         <v>540</v>
       </c>
       <c r="H448" s="147" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I448" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="L448">
-        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
@@ -33615,19 +33649,19 @@
         <v>120</v>
       </c>
       <c r="C449" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E449" s="134" t="s">
         <v>213</v>
       </c>
       <c r="F449" s="41" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G449" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H449" s="147" t="s">
         <v>12</v>
@@ -33642,56 +33676,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>120</v>
       </c>
-      <c r="C450" t="s">
-        <v>553</v>
+      <c r="B450" s="177"/>
+      <c r="C450" s="178" t="s">
+        <v>545</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E450" s="134" t="s">
-        <v>213</v>
+        <v>546</v>
       </c>
       <c r="F450" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="G450" t="s">
-        <v>545</v>
-      </c>
-      <c r="H450" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I450" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L450">
+        <v>519</v>
+      </c>
+      <c r="G450" s="98" t="s">
+        <v>550</v>
+      </c>
+      <c r="H450" s="180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I450" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="J450" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="K450" s="183"/>
+      <c r="L450" s="179">
         <v>1</v>
       </c>
+      <c r="M450" s="183"/>
+      <c r="N450" s="183"/>
+      <c r="O450" s="183"/>
+      <c r="P450" s="183"/>
+      <c r="Q450" s="183"/>
+      <c r="R450" s="183"/>
+      <c r="S450" s="183"/>
+      <c r="T450" s="183"/>
+      <c r="U450" s="183"/>
+      <c r="V450" s="183"/>
+      <c r="W450" s="183"/>
+      <c r="X450" s="183"/>
+      <c r="Y450" s="183"/>
+      <c r="Z450" s="183"/>
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>120</v>
       </c>
       <c r="C451" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E451" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="F451" s="41" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="G451" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H451" s="147" t="s">
         <v>12</v>
@@ -33703,139 +33750,6 @@
         <v>12</v>
       </c>
       <c r="L451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A452" s="2">
-        <v>120</v>
-      </c>
-      <c r="C452" t="s">
-        <v>548</v>
-      </c>
-      <c r="E452" s="134" t="s">
-        <v>549</v>
-      </c>
-      <c r="F452" s="41"/>
-      <c r="G452" t="s">
-        <v>550</v>
-      </c>
-      <c r="H452" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I452" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J452" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A453" s="2">
-        <v>120</v>
-      </c>
-      <c r="C453" t="s">
-        <v>554</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E453" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="F453" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="G453" t="s">
-        <v>551</v>
-      </c>
-      <c r="H453" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I453" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J453" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="2">
-        <v>120</v>
-      </c>
-      <c r="B454" s="177"/>
-      <c r="C454" s="178" t="s">
-        <v>555</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E454" s="134" t="s">
-        <v>556</v>
-      </c>
-      <c r="F454" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="G454" s="98" t="s">
-        <v>560</v>
-      </c>
-      <c r="H454" s="180" t="s">
-        <v>12</v>
-      </c>
-      <c r="I454" s="181" t="s">
-        <v>2</v>
-      </c>
-      <c r="J454" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="K454" s="183"/>
-      <c r="L454" s="179">
-        <v>1</v>
-      </c>
-      <c r="M454" s="183"/>
-      <c r="N454" s="183"/>
-      <c r="O454" s="183"/>
-      <c r="P454" s="183"/>
-      <c r="Q454" s="183"/>
-      <c r="R454" s="183"/>
-      <c r="S454" s="183"/>
-      <c r="T454" s="183"/>
-      <c r="U454" s="183"/>
-      <c r="V454" s="183"/>
-      <c r="W454" s="183"/>
-      <c r="X454" s="183"/>
-      <c r="Y454" s="183"/>
-      <c r="Z454" s="183"/>
-    </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A455" s="2">
-        <v>120</v>
-      </c>
-      <c r="C455" t="s">
-        <v>558</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E455" s="134" t="s">
-        <v>557</v>
-      </c>
-      <c r="G455" t="s">
-        <v>559</v>
-      </c>
-      <c r="H455" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I455" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J455" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L455">
         <v>1</v>
       </c>
     </row>
@@ -33846,19 +33760,19 @@
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C126:J126"/>
     <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B407:D407"/>
+    <mergeCell ref="B403:D403"/>
     <mergeCell ref="B188:D188"/>
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="B221:D221"/>
     <mergeCell ref="B255:D255"/>
     <mergeCell ref="B268:D268"/>
-    <mergeCell ref="B363:E363"/>
+    <mergeCell ref="B359:E359"/>
     <mergeCell ref="B292:D292"/>
     <mergeCell ref="B303:D303"/>
-    <mergeCell ref="B379:E379"/>
-    <mergeCell ref="B388:E388"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B384:E384"/>
     <mergeCell ref="B313:E313"/>
-    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B327:E327"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="60" priority="445" operator="equal">
@@ -34219,7 +34133,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H380:H386</xm:sqref>
+          <xm:sqref>H376:H382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="32" operator="equal" id="{00F1E729-1E9E-4D87-AEC5-7D0C57F5A3D4}">
@@ -34232,7 +34146,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H389:H396 H402:H405</xm:sqref>
+          <xm:sqref>H385:H392 H398:H401</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="30" operator="equal" id="{723C3386-6B8F-42FD-8A78-8B1CF9EBBBB1}">
@@ -34362,7 +34276,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H410:H415 H408</xm:sqref>
+          <xm:sqref>H406:H411 H404</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{2436D26A-7579-4ACF-8044-DE09D97201E5}">
@@ -34375,7 +34289,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H416</xm:sqref>
+          <xm:sqref>H412</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{D9068D67-B2C5-40B9-8F6D-BF36F7CF91EB}">
@@ -34388,7 +34302,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H417</xm:sqref>
+          <xm:sqref>H413</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{DFE0FAA3-7F5C-4816-B042-4052A585EDC6}">
@@ -34401,7 +34315,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H419</xm:sqref>
+          <xm:sqref>H415</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="16" operator="equal" id="{0DC9B85D-A6B3-403E-94B2-174BA5885465}">
@@ -34414,7 +34328,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H420</xm:sqref>
+          <xm:sqref>H416</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="15" operator="equal" id="{D9BF59C8-F2BC-4182-A555-36F54F4740A2}">
@@ -34427,7 +34341,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H422</xm:sqref>
+          <xm:sqref>H418</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="14" operator="equal" id="{FA766725-0AA7-4D37-AEB1-7ECD77353FA6}">
@@ -34440,7 +34354,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H424</xm:sqref>
+          <xm:sqref>H420</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="13" operator="equal" id="{ADE78452-3A6A-4490-8B83-C6754D191D3A}">
@@ -34453,7 +34367,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H427</xm:sqref>
+          <xm:sqref>H423</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D4F22E06-8F5D-4164-BA3F-3BBEE135F34B}">
@@ -34466,7 +34380,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H428</xm:sqref>
+          <xm:sqref>H424</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{1C4726E2-4256-4075-B2C1-0933FD1D629A}">
@@ -34479,7 +34393,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H429</xm:sqref>
+          <xm:sqref>H425</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{AE6BA4C2-FA6D-4DA1-B0F9-FE7582F574DA}">
@@ -34492,7 +34406,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H433</xm:sqref>
+          <xm:sqref>H429</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{9897461A-0A8E-4C37-9190-BD572959012F}">
@@ -34505,7 +34419,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H434</xm:sqref>
+          <xm:sqref>H430</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{CEE7AF40-40A9-41A0-87FA-167F6800B2E3}">
@@ -34518,7 +34432,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H435</xm:sqref>
+          <xm:sqref>H431</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{14A2CB11-CC67-4748-9DF4-D0F5DBEF3B41}">
@@ -34531,7 +34445,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H436</xm:sqref>
+          <xm:sqref>H432</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{904037A2-225D-49BA-8B84-A20B897E6EED}">
@@ -34544,7 +34458,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H437</xm:sqref>
+          <xm:sqref>H433</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{BAADA19C-5517-4BF9-9B23-D142ACBE0F70}">
@@ -34557,7 +34471,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H438</xm:sqref>
+          <xm:sqref>H434</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{73331944-8DA9-439E-9903-76EE67F7F49B}">
@@ -34570,7 +34484,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H439</xm:sqref>
+          <xm:sqref>H435</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{B9B2F9BC-5E08-4736-A906-6D1522450533}">
@@ -34583,7 +34497,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H440:H441</xm:sqref>
+          <xm:sqref>H436:H437</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{268ADB99-E551-495C-B210-FAFFF92204EE}">
@@ -34596,7 +34510,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H397</xm:sqref>
+          <xm:sqref>H393</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{A70493F4-9AE0-45FB-8C04-CDC318A14409}">
@@ -34609,7 +34523,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H401</xm:sqref>
+          <xm:sqref>H397</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671E852-88B7-C646-BD57-C855A09BF518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3352CBC-19B5-B048-92B7-D59F83531D04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="556">
   <si>
     <t>Action</t>
   </si>
@@ -1518,9 +1518,6 @@
     <t>UIInput.pressEnterAfterSetValue</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>First Revision Auto Trigger Phase 0ne</t>
   </si>
   <si>
@@ -1618,13 +1615,103 @@
   </si>
   <si>
     <t>UIDropDown.CheckDropDownItem</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value:  # of Periods</t>
+  </si>
+  <si>
+    <t>isDuplicatePresent</t>
+  </si>
+  <si>
+    <t>UIScheduleTable.isDuplicatePresent</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.ScheduleTableLocator</t>
+  </si>
+  <si>
+    <t># of Periods</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value: # of Remaining Periods</t>
+  </si>
+  <si>
+    <t># of Remaining Periods</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value: Period</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value: JE Posting Period</t>
+  </si>
+  <si>
+    <t>JE Posting Period</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value:</t>
+  </si>
+  <si>
+    <t>Validate Monthly Equal Payment</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_04</t>
+  </si>
+  <si>
+    <t>UIScheduleTable.checkNotEqual</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.LessorScheduleTable</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_05</t>
+  </si>
+  <si>
+    <t>UIScheduleTable.checkClValue</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_17</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_25</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_32</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_38</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_43</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_46</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_47</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_52</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_53</t>
+  </si>
+  <si>
+    <t>Payment_in _Period_54</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value: LessorScheduleTable</t>
+  </si>
+  <si>
+    <t>Period Receivable,6,$RecurringPayment_amount_0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,6 +1810,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1814,7 +1907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1916,13 +2009,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2276,9 +2382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,20 +2438,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
@@ -3025,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3347,20 +3455,65 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="145">
-        <v>19</v>
+      <c r="A19" s="144">
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>201</v>
       </c>
       <c r="C19" s="130" t="s">
+        <v>493</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="131" t="s">
         <v>494</v>
       </c>
-      <c r="D19" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="131" t="s">
-        <v>495</v>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="144">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>203</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>537</v>
+      </c>
+      <c r="D20" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="122" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="144">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>204</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>538</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="122" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="144">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>205</v>
+      </c>
+      <c r="C22" s="162" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
@@ -3431,16 +3584,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -4583,16 +4736,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -5826,16 +5979,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="156" t="s">
+      <c r="C79" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="155"/>
+      <c r="F79" s="155"/>
+      <c r="G79" s="155"/>
+      <c r="H79" s="155"/>
+      <c r="I79" s="155"/>
+      <c r="J79" s="155"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -7226,16 +7379,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="156" t="s">
+      <c r="C126" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="156"/>
-      <c r="E126" s="156"/>
-      <c r="F126" s="156"/>
-      <c r="G126" s="156"/>
-      <c r="H126" s="156"/>
-      <c r="I126" s="156"/>
-      <c r="J126" s="156"/>
+      <c r="D126" s="155"/>
+      <c r="E126" s="155"/>
+      <c r="F126" s="155"/>
+      <c r="G126" s="155"/>
+      <c r="H126" s="155"/>
+      <c r="I126" s="155"/>
+      <c r="J126" s="155"/>
       <c r="K126" s="32"/>
       <c r="L126" s="33"/>
     </row>
@@ -8577,11 +8730,11 @@
       </c>
     </row>
     <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="157" t="s">
+      <c r="B170" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="157"/>
-      <c r="D170" s="157"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="156"/>
       <c r="H170" s="75"/>
     </row>
     <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9090,11 +9243,11 @@
       <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="152" t="s">
+      <c r="B187" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="152"/>
-      <c r="D187" s="152"/>
+      <c r="C187" s="151"/>
+      <c r="D187" s="151"/>
       <c r="H187" s="83"/>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9413,11 +9566,11 @@
       </c>
     </row>
     <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="153" t="s">
+      <c r="B201" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="153"/>
-      <c r="D201" s="153"/>
+      <c r="C201" s="152"/>
+      <c r="D201" s="152"/>
       <c r="H201" s="88"/>
     </row>
     <row r="202" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9973,11 +10126,11 @@
       </c>
     </row>
     <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="154" t="s">
+      <c r="B220" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="C220" s="154"/>
-      <c r="D220" s="154"/>
+      <c r="C220" s="153"/>
+      <c r="D220" s="153"/>
       <c r="H220" s="75"/>
     </row>
     <row r="221" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -11034,11 +11187,11 @@
       </c>
     </row>
     <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="155" t="s">
+      <c r="B254" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="C254" s="155"/>
-      <c r="D254" s="155"/>
+      <c r="C254" s="154"/>
+      <c r="D254" s="154"/>
       <c r="H254" s="83"/>
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11416,11 +11569,11 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="155" t="s">
+      <c r="B267" s="154" t="s">
         <v>205</v>
       </c>
-      <c r="C267" s="155"/>
-      <c r="D267" s="155"/>
+      <c r="C267" s="154"/>
+      <c r="D267" s="154"/>
       <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12136,11 +12289,11 @@
       </c>
     </row>
     <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="152" t="s">
+      <c r="B291" s="151" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="152"/>
-      <c r="D291" s="152"/>
+      <c r="C291" s="151"/>
+      <c r="D291" s="151"/>
       <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12440,11 +12593,11 @@
       </c>
     </row>
     <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="159" t="s">
+      <c r="B301" s="158" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="159"/>
-      <c r="D301" s="159"/>
+      <c r="C301" s="158"/>
+      <c r="D301" s="158"/>
       <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12711,12 +12864,12 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="111"/>
-      <c r="B310" s="158" t="s">
+      <c r="B310" s="157" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="158"/>
-      <c r="D310" s="158"/>
-      <c r="E310" s="158"/>
+      <c r="C310" s="157"/>
+      <c r="D310" s="157"/>
+      <c r="E310" s="157"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -13229,12 +13382,12 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="111"/>
-      <c r="B328" s="158" t="s">
+      <c r="B328" s="157" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="158"/>
-      <c r="D328" s="158"/>
-      <c r="E328" s="158"/>
+      <c r="C328" s="157"/>
+      <c r="D328" s="157"/>
+      <c r="E328" s="157"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -14237,12 +14390,12 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="111"/>
-      <c r="B360" s="158" t="s">
+      <c r="B360" s="157" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="158"/>
-      <c r="D360" s="158"/>
-      <c r="E360" s="158"/>
+      <c r="C360" s="157"/>
+      <c r="D360" s="157"/>
+      <c r="E360" s="157"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -14724,12 +14877,12 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="111"/>
-      <c r="B375" s="158" t="s">
+      <c r="B375" s="157" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="158"/>
-      <c r="D375" s="158"/>
-      <c r="E375" s="158"/>
+      <c r="C375" s="157"/>
+      <c r="D375" s="157"/>
+      <c r="E375" s="157"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -14944,12 +15097,12 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="111"/>
-      <c r="B383" s="158" t="s">
+      <c r="B383" s="157" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="158"/>
-      <c r="D383" s="158"/>
-      <c r="E383" s="158"/>
+      <c r="C383" s="157"/>
+      <c r="D383" s="157"/>
+      <c r="E383" s="157"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -15183,28 +15336,28 @@
     <mergeCell ref="B267:D267"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="44" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="425" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="43" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="423" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="424" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="41" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="253" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186">
-    <cfRule type="cellIs" dxfId="40" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="251" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15681,10 +15834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A52F28-3949-0E4C-AC35-967E0AD937B0}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C37"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15695,7 +15848,7 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="34.83203125" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="21" customWidth="1"/>
     <col min="9" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
@@ -15727,10 +15880,10 @@
       <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -16084,7 +16237,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G13" s="127"/>
       <c r="H13" s="122" t="s">
@@ -16153,9 +16306,9 @@
       <c r="A17" s="122">
         <v>119</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147" t="s">
-        <v>502</v>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146" t="s">
+        <v>501</v>
       </c>
       <c r="D17" s="121" t="s">
         <v>478</v>
@@ -16178,20 +16331,20 @@
       <c r="J17" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="138"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
     </row>
     <row r="18" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="122">
         <v>119</v>
       </c>
-      <c r="B18" s="146"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="121" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" s="121" t="s">
         <v>240</v>
@@ -16214,20 +16367,20 @@
       <c r="J18" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="138"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
     </row>
     <row r="19" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="122">
         <v>119</v>
       </c>
-      <c r="B19" s="146"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="121" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" s="121" t="s">
         <v>78</v>
@@ -16250,20 +16403,20 @@
       <c r="J19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="138"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
     </row>
     <row r="20" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="122">
         <v>119</v>
       </c>
-      <c r="B20" s="146"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="121" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" s="121" t="s">
         <v>91</v>
@@ -16286,31 +16439,31 @@
       <c r="J20" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="138"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
     </row>
     <row r="21" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122">
         <v>119</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="149" t="s">
-        <v>506</v>
-      </c>
-      <c r="D21" s="148" t="s">
+      <c r="B21" s="145"/>
+      <c r="C21" s="148" t="s">
+        <v>505</v>
+      </c>
+      <c r="D21" s="147" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="150" t="s">
+      <c r="E21" s="149" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="148" t="s">
+      <c r="F21" s="147" t="s">
         <v>486</v>
       </c>
-      <c r="G21" s="148">
+      <c r="G21" s="147">
         <v>60</v>
       </c>
       <c r="H21" s="122" t="s">
@@ -16322,29 +16475,29 @@
       <c r="J21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="138"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
     </row>
     <row r="22" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <v>119</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147" t="s">
-        <v>507</v>
-      </c>
-      <c r="D22" s="147" t="s">
-        <v>524</v>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146" t="s">
+        <v>506</v>
+      </c>
+      <c r="D22" s="146" t="s">
+        <v>523</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G22" s="121">
         <v>1</v>
@@ -16358,20 +16511,20 @@
       <c r="J22" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="138"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
     </row>
     <row r="23" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="122">
         <v>119</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147" t="s">
-        <v>508</v>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146" t="s">
+        <v>507</v>
       </c>
       <c r="D23" s="121" t="s">
         <v>235</v>
@@ -16394,20 +16547,20 @@
       <c r="J23" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="138"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
     </row>
     <row r="24" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="122">
         <v>119</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147" t="s">
-        <v>509</v>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146" t="s">
+        <v>508</v>
       </c>
       <c r="D24" s="121" t="s">
         <v>278</v>
@@ -16430,30 +16583,30 @@
       <c r="J24" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="138"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="122">
         <v>119</v>
       </c>
-      <c r="C25" s="147" t="s">
-        <v>510</v>
-      </c>
-      <c r="D25" s="147" t="s">
-        <v>513</v>
-      </c>
-      <c r="E25" s="151" t="s">
-        <v>526</v>
+      <c r="C25" s="146" t="s">
+        <v>509</v>
+      </c>
+      <c r="D25" s="146" t="s">
+        <v>512</v>
+      </c>
+      <c r="E25" s="150" t="s">
+        <v>525</v>
       </c>
       <c r="F25" t="s">
-        <v>525</v>
-      </c>
-      <c r="G25" s="147" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" s="146" t="s">
         <v>151</v>
       </c>
       <c r="H25" s="122" t="s">
@@ -16465,31 +16618,31 @@
       <c r="J25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="138"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="122">
         <v>119</v>
       </c>
-      <c r="C26" s="147" t="s">
-        <v>511</v>
-      </c>
-      <c r="D26" s="147" t="s">
-        <v>514</v>
-      </c>
-      <c r="E26" s="151" t="s">
-        <v>526</v>
+      <c r="C26" s="146" t="s">
+        <v>510</v>
+      </c>
+      <c r="D26" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>525</v>
       </c>
       <c r="F26" t="s">
-        <v>525</v>
-      </c>
-      <c r="G26" s="147" t="s">
-        <v>514</v>
+        <v>524</v>
+      </c>
+      <c r="G26" s="146" t="s">
+        <v>513</v>
       </c>
       <c r="H26" s="122" t="s">
         <v>12</v>
@@ -16500,31 +16653,31 @@
       <c r="J26" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="138"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="122">
         <v>119</v>
       </c>
-      <c r="C27" s="147" t="s">
-        <v>512</v>
-      </c>
-      <c r="D27" s="147" t="s">
-        <v>515</v>
-      </c>
-      <c r="E27" s="151" t="s">
-        <v>526</v>
+      <c r="C27" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" s="146" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" s="150" t="s">
+        <v>525</v>
       </c>
       <c r="F27" t="s">
-        <v>525</v>
-      </c>
-      <c r="G27" s="147" t="s">
-        <v>515</v>
+        <v>524</v>
+      </c>
+      <c r="G27" s="146" t="s">
+        <v>514</v>
       </c>
       <c r="H27" s="122" t="s">
         <v>12</v>
@@ -16535,20 +16688,20 @@
       <c r="J27" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="138"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="122">
         <v>119</v>
       </c>
       <c r="B28" s="40"/>
-      <c r="C28" s="148" t="s">
-        <v>516</v>
+      <c r="C28" s="147" t="s">
+        <v>515</v>
       </c>
       <c r="D28" s="121" t="s">
         <v>478</v>
@@ -16571,15 +16724,15 @@
       <c r="J28" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="142"/>
+      <c r="L28" s="141"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="122">
         <v>119</v>
       </c>
       <c r="B29" s="40"/>
-      <c r="C29" s="148" t="s">
-        <v>517</v>
+      <c r="C29" s="147" t="s">
+        <v>516</v>
       </c>
       <c r="D29" s="121" t="s">
         <v>240</v>
@@ -16609,8 +16762,8 @@
         <v>119</v>
       </c>
       <c r="B30" s="40"/>
-      <c r="C30" s="148" t="s">
-        <v>518</v>
+      <c r="C30" s="147" t="s">
+        <v>517</v>
       </c>
       <c r="D30" s="121" t="s">
         <v>78</v>
@@ -16642,8 +16795,8 @@
         <v>119</v>
       </c>
       <c r="B31" s="40"/>
-      <c r="C31" s="148" t="s">
-        <v>519</v>
+      <c r="C31" s="147" t="s">
+        <v>518</v>
       </c>
       <c r="D31" s="121" t="s">
         <v>91</v>
@@ -16673,8 +16826,8 @@
         <v>119</v>
       </c>
       <c r="B32" s="40"/>
-      <c r="C32" s="148" t="s">
-        <v>520</v>
+      <c r="C32" s="147" t="s">
+        <v>519</v>
       </c>
       <c r="D32" s="121" t="s">
         <v>272</v>
@@ -16699,13 +16852,13 @@
       </c>
       <c r="L32" s="122"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="122">
         <v>119</v>
       </c>
       <c r="B33" s="40"/>
-      <c r="C33" s="148" t="s">
-        <v>521</v>
+      <c r="C33" s="147" t="s">
+        <v>520</v>
       </c>
       <c r="D33" s="121" t="s">
         <v>235</v>
@@ -16729,13 +16882,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="122">
         <v>119</v>
       </c>
       <c r="B34" s="40"/>
-      <c r="C34" s="148" t="s">
-        <v>522</v>
+      <c r="C34" s="147" t="s">
+        <v>521</v>
       </c>
       <c r="D34" s="121" t="s">
         <v>278</v>
@@ -16759,51 +16912,1049 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="147"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C41" s="147"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C42" s="147"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="147"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C44" s="147"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C45" s="147"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C46" s="147" t="s">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="162" t="s">
+        <v>537</v>
+      </c>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="159">
+        <v>203</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="160" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F37" s="161" t="s">
+        <v>529</v>
+      </c>
+      <c r="G37" s="161" t="s">
+        <v>530</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="161"/>
+      <c r="S37" s="161"/>
+      <c r="T37" s="161"/>
+      <c r="U37" s="161"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="161"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="159">
+        <v>203</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="160" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F38" s="161" t="s">
+        <v>529</v>
+      </c>
+      <c r="G38" s="161" t="s">
+        <v>532</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
+      <c r="S38" s="161"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="161"/>
+      <c r="Z38" s="161"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="159">
+        <v>203</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="160" t="s">
+        <v>533</v>
+      </c>
+      <c r="D39" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F39" s="161" t="s">
+        <v>529</v>
+      </c>
+      <c r="G39" s="161" t="s">
+        <v>534</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="161"/>
+      <c r="S39" s="161"/>
+      <c r="T39" s="161"/>
+      <c r="U39" s="161"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="159">
+        <v>203</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="160" t="s">
+        <v>535</v>
+      </c>
+      <c r="D40" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" s="161" t="s">
+        <v>529</v>
+      </c>
+      <c r="G40" s="161" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="161"/>
+      <c r="S40" s="161"/>
+      <c r="T40" s="161"/>
+      <c r="U40" s="161"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C41" s="146"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C42" s="146"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="162" t="s">
+        <v>538</v>
+      </c>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="159">
+        <v>204</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D44" s="164" t="s">
+        <v>539</v>
+      </c>
+      <c r="E44" s="150" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G44" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="161"/>
+      <c r="U44" s="161"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="161"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="159">
+        <v>204</v>
+      </c>
+      <c r="C45" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D45" s="165" t="s">
+        <v>542</v>
+      </c>
+      <c r="E45" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F45" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G45" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="161"/>
+      <c r="S45" s="161"/>
+      <c r="T45" s="161"/>
+      <c r="U45" s="161"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="161"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="159">
+        <v>204</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D46" s="164" t="s">
+        <v>544</v>
+      </c>
+      <c r="E46" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F46" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G46" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="161"/>
+      <c r="R46" s="161"/>
+      <c r="S46" s="161"/>
+      <c r="T46" s="161"/>
+      <c r="U46" s="161"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="161"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="159">
+        <v>204</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D47" s="164" t="s">
+        <v>545</v>
+      </c>
+      <c r="E47" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F47" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G47" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="161"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="161"/>
+      <c r="S47" s="161"/>
+      <c r="T47" s="161"/>
+      <c r="U47" s="161"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="161"/>
+      <c r="Z47" s="161"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="159">
+        <v>204</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D48" s="164" t="s">
+        <v>546</v>
+      </c>
+      <c r="E48" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F48" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G48" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="161"/>
+      <c r="P48" s="161"/>
+      <c r="Q48" s="161"/>
+      <c r="R48" s="161"/>
+      <c r="S48" s="161"/>
+      <c r="T48" s="161"/>
+      <c r="U48" s="161"/>
+      <c r="V48" s="161"/>
+      <c r="W48" s="161"/>
+      <c r="X48" s="161"/>
+      <c r="Y48" s="161"/>
+      <c r="Z48" s="161"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="159">
+        <v>204</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D49" s="164" t="s">
+        <v>547</v>
+      </c>
+      <c r="E49" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F49" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G49" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="161"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="161"/>
+      <c r="S49" s="161"/>
+      <c r="T49" s="161"/>
+      <c r="U49" s="161"/>
+      <c r="V49" s="161"/>
+      <c r="W49" s="161"/>
+      <c r="X49" s="161"/>
+      <c r="Y49" s="161"/>
+      <c r="Z49" s="161"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A50" s="159">
+        <v>204</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D50" s="164" t="s">
+        <v>548</v>
+      </c>
+      <c r="E50" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F50" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G50" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="161"/>
+      <c r="P50" s="161"/>
+      <c r="Q50" s="161"/>
+      <c r="R50" s="161"/>
+      <c r="S50" s="161"/>
+      <c r="T50" s="161"/>
+      <c r="U50" s="161"/>
+      <c r="V50" s="161"/>
+      <c r="W50" s="161"/>
+      <c r="X50" s="161"/>
+      <c r="Y50" s="161"/>
+      <c r="Z50" s="161"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A51" s="159">
+        <v>204</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D51" s="164" t="s">
+        <v>549</v>
+      </c>
+      <c r="E51" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F51" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G51" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="161"/>
+      <c r="Q51" s="161"/>
+      <c r="R51" s="161"/>
+      <c r="S51" s="161"/>
+      <c r="T51" s="161"/>
+      <c r="U51" s="161"/>
+      <c r="V51" s="161"/>
+      <c r="W51" s="161"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="161"/>
+      <c r="Z51" s="161"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A52" s="159">
+        <v>204</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D52" s="164" t="s">
+        <v>550</v>
+      </c>
+      <c r="E52" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F52" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G52" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="161"/>
+      <c r="P52" s="161"/>
+      <c r="Q52" s="161"/>
+      <c r="R52" s="161"/>
+      <c r="S52" s="161"/>
+      <c r="T52" s="161"/>
+      <c r="U52" s="161"/>
+      <c r="V52" s="161"/>
+      <c r="W52" s="161"/>
+      <c r="X52" s="161"/>
+      <c r="Y52" s="161"/>
+      <c r="Z52" s="161"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A53" s="159">
+        <v>204</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D53" s="165" t="s">
+        <v>551</v>
+      </c>
+      <c r="E53" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="F53" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G53" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="161"/>
+      <c r="Q53" s="161"/>
+      <c r="R53" s="161"/>
+      <c r="S53" s="161"/>
+      <c r="T53" s="161"/>
+      <c r="U53" s="161"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="161"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="161"/>
+      <c r="Z53" s="161"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="159">
+        <v>204</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D54" s="164" t="s">
+        <v>552</v>
+      </c>
+      <c r="E54" s="150" t="s">
+        <v>540</v>
+      </c>
+      <c r="F54" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G54" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="161"/>
+      <c r="P54" s="161"/>
+      <c r="Q54" s="161"/>
+      <c r="R54" s="161"/>
+      <c r="S54" s="161"/>
+      <c r="T54" s="161"/>
+      <c r="U54" s="161"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="161"/>
+      <c r="X54" s="161"/>
+      <c r="Y54" s="161"/>
+      <c r="Z54" s="161"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="159">
+        <v>204</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D55" s="164" t="s">
+        <v>553</v>
+      </c>
+      <c r="E55" s="150" t="s">
+        <v>540</v>
+      </c>
+      <c r="F55" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G55" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="161"/>
+      <c r="Q55" s="161"/>
+      <c r="R55" s="161"/>
+      <c r="S55" s="161"/>
+      <c r="T55" s="161"/>
+      <c r="U55" s="161"/>
+      <c r="V55" s="161"/>
+      <c r="W55" s="161"/>
+      <c r="X55" s="161"/>
+      <c r="Y55" s="161"/>
+      <c r="Z55" s="161"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="159">
+        <v>204</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D56" s="164" t="s">
+        <v>553</v>
+      </c>
+      <c r="E56" s="150" t="s">
+        <v>540</v>
+      </c>
+      <c r="F56" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G56" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="161"/>
+      <c r="R56" s="161"/>
+      <c r="S56" s="161"/>
+      <c r="T56" s="161"/>
+      <c r="U56" s="161"/>
+      <c r="V56" s="161"/>
+      <c r="W56" s="161"/>
+      <c r="X56" s="161"/>
+      <c r="Y56" s="161"/>
+      <c r="Z56" s="161"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C57" s="146"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" s="126"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="162" t="s">
+        <v>554</v>
+      </c>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" s="159">
+        <v>205</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="160" t="s">
+        <v>526</v>
+      </c>
+      <c r="D59" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F59" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G59" s="161" t="s">
+        <v>530</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="161"/>
+      <c r="P59" s="161"/>
+      <c r="Q59" s="161"/>
+      <c r="R59" s="161"/>
+      <c r="S59" s="161"/>
+      <c r="T59" s="161"/>
+      <c r="U59" s="161"/>
+      <c r="V59" s="161"/>
+      <c r="W59" s="161"/>
+      <c r="X59" s="161"/>
+      <c r="Y59" s="161"/>
+      <c r="Z59" s="161"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" s="159">
+        <v>205</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="160" t="s">
+        <v>531</v>
+      </c>
+      <c r="D60" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F60" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G60" s="161" t="s">
+        <v>532</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="161"/>
+      <c r="R60" s="161"/>
+      <c r="S60" s="161"/>
+      <c r="T60" s="161"/>
+      <c r="U60" s="161"/>
+      <c r="V60" s="161"/>
+      <c r="W60" s="161"/>
+      <c r="X60" s="161"/>
+      <c r="Y60" s="161"/>
+      <c r="Z60" s="161"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="159">
+        <v>205</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="160" t="s">
+        <v>533</v>
+      </c>
+      <c r="D61" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F61" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G61" s="161" t="s">
+        <v>534</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="161"/>
+      <c r="P61" s="161"/>
+      <c r="Q61" s="161"/>
+      <c r="R61" s="161"/>
+      <c r="S61" s="161"/>
+      <c r="T61" s="161"/>
+      <c r="U61" s="161"/>
+      <c r="V61" s="161"/>
+      <c r="W61" s="161"/>
+      <c r="X61" s="161"/>
+      <c r="Y61" s="161"/>
+      <c r="Z61" s="161"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" s="159">
+        <v>205</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="160" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62" s="150" t="s">
+        <v>527</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F62" s="161" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" s="161" t="s">
+        <v>536</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="161"/>
+      <c r="P62" s="161"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="161"/>
+      <c r="S62" s="161"/>
+      <c r="T62" s="161"/>
+      <c r="U62" s="161"/>
+      <c r="V62" s="161"/>
+      <c r="W62" s="161"/>
+      <c r="X62" s="161"/>
+      <c r="Y62" s="161"/>
+      <c r="Z62" s="161"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C64" s="146"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="146" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="146" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="147" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="146" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="147" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="146" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="147" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="146" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="147" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16832,10 +17983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EC9DF9-63B0-FC42-A3BC-4352218A7067}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16891,608 +18042,108 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="C2" s="124" t="s">
-        <v>494</v>
-      </c>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="122"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="122"/>
       <c r="L2" s="135"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B7" s="12">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" s="12">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" s="12">
-        <v>8</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B10" s="12">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B11" s="12">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" s="12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B13" s="12">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B14" s="12">
-        <v>13</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B15" s="12">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B17" s="12">
-        <v>16</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="122"/>
-      <c r="L18" s="136"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="122"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="122"/>
-      <c r="L19" s="136"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="122"/>
-      <c r="L20" s="136"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="122"/>
-      <c r="L21" s="136"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="122"/>
-      <c r="L22" s="136"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="122"/>
-      <c r="L23" s="136"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="122"/>
-      <c r="L24" s="136"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="122"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="D30" s="128"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="122"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="122"/>
+      <c r="L3" s="135"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="122"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="122"/>
+      <c r="L4" s="135"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="122"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="122"/>
+      <c r="L5" s="135"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="122"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="122"/>
+      <c r="L6" s="135"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="122"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="122"/>
+      <c r="L7" s="135"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="122"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="122"/>
+      <c r="L8" s="135"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="122"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="122"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="122"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="122"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="122"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="122"/>
+      <c r="D14" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17512,19 +18163,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000E688B-F947-9948-AFCF-0CEEE04D2B40}">
-            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H3:H17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18021,17 +18659,17 @@
       </c>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="142" t="s">
         <v>491</v>
       </c>
-      <c r="G16" s="143"/>
-      <c r="H16" s="144" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="144" t="s">
+      <c r="G16" s="142"/>
+      <c r="H16" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="143" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="122" t="s">
@@ -18061,7 +18699,7 @@
       <c r="A19" s="122">
         <v>119</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="121" t="s">
         <v>477</v>
       </c>
@@ -18086,18 +18724,18 @@
       <c r="J19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="138"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
     </row>
     <row r="20" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="122">
         <v>119</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="121" t="s">
         <v>239</v>
       </c>
@@ -18122,18 +18760,18 @@
       <c r="J20" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="138"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
     </row>
     <row r="21" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122">
         <v>119</v>
       </c>
-      <c r="B21" s="137"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="121" t="s">
         <v>269</v>
       </c>
@@ -18158,18 +18796,18 @@
       <c r="J21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="138"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
     </row>
     <row r="22" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <v>119</v>
       </c>
-      <c r="B22" s="137"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="121" t="s">
         <v>270</v>
       </c>
@@ -18194,18 +18832,18 @@
       <c r="J22" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="138"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
     </row>
     <row r="23" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="122">
         <v>119</v>
       </c>
-      <c r="B23" s="137"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="121" t="s">
         <v>483</v>
       </c>
@@ -18230,18 +18868,18 @@
       <c r="J23" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="138"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
     </row>
     <row r="24" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="122">
         <v>119</v>
       </c>
-      <c r="B24" s="137"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="121" t="s">
         <v>484</v>
       </c>
@@ -18266,18 +18904,18 @@
       <c r="J24" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="138"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
     </row>
     <row r="25" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="122">
         <v>119</v>
       </c>
-      <c r="B25" s="137"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="121" t="s">
         <v>277</v>
       </c>
@@ -18302,12 +18940,12 @@
       <c r="J25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="138"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="122">
@@ -18337,12 +18975,12 @@
       <c r="J26" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="138"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="122">
@@ -18372,12 +19010,12 @@
       <c r="J27" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="139"/>
+      <c r="K27" s="138"/>
       <c r="L27" s="133"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="122">
@@ -18407,7 +19045,7 @@
       <c r="J28" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="142"/>
+      <c r="L28" s="141"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="122">

--- a/src/main/resources/modules/CommonTC.xlsx
+++ b/src/main/resources/modules/CommonTC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/modules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/gitrepo/Stable_23June_10.00PM/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3352CBC-19B5-B048-92B7-D59F83531D04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AE8E3A-5909-304E-BD91-6BF8409A2EB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="562">
   <si>
     <t>Action</t>
   </si>
@@ -1584,27 +1584,6 @@
     <t>Both</t>
   </si>
   <si>
-    <t>Varify Property Name_UIInput.compareValue</t>
-  </si>
-  <si>
-    <t>Verify Lease Name_UIInput.compareValue</t>
-  </si>
-  <si>
-    <t>Verify FASB/IASB Start Date_UIInput.compareValue</t>
-  </si>
-  <si>
-    <t>Verify FASB/IASB End Date_UIInput.compareValue</t>
-  </si>
-  <si>
-    <t>Verify # of Periods Count_UIInput.compareValue</t>
-  </si>
-  <si>
-    <t>Verify Presence of Imputed Interest field_UIInput.compareValue</t>
-  </si>
-  <si>
-    <t>Validate Calender Method_UIInput.compareValue</t>
-  </si>
-  <si>
     <t>FASB.FISchedule.NPVInterestRateValue</t>
   </si>
   <si>
@@ -1614,9 +1593,6 @@
     <t>FASB.FISchedule.DisplayCheckList</t>
   </si>
   <si>
-    <t>UIDropDown.CheckDropDownItem</t>
-  </si>
-  <si>
     <t>Check Duplicacy In Column Value:  # of Periods</t>
   </si>
   <si>
@@ -1705,13 +1681,55 @@
   </si>
   <si>
     <t>Period Receivable,6,$RecurringPayment_amount_0</t>
+  </si>
+  <si>
+    <t>UtilRevision.VerifyNoOfPeriodsInRevision</t>
+  </si>
+  <si>
+    <t>Space,$RecurringPayment_spaceInfo_0</t>
+  </si>
+  <si>
+    <t>Verify Straight Line is the Monthly Rental Amount</t>
+  </si>
+  <si>
+    <t>UITable.CompareEqualInTable</t>
+  </si>
+  <si>
+    <t>Space,$RecurringPayment_spaceInfo_0,Straight Line,$RecurringPayment_amount_0</t>
+  </si>
+  <si>
+    <t>Verify Rev Adj. Amount is $0.00</t>
+  </si>
+  <si>
+    <t>Space,$RecurringPayment_spaceInfo_0,Rev Adj. Amount,0</t>
+  </si>
+  <si>
+    <t>Go to FASB/IASB Schedule</t>
+  </si>
+  <si>
+    <t>FASB/IASB Schedule</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.Schedule2</t>
+  </si>
+  <si>
+    <t>Edit Revision Related Checks</t>
+  </si>
+  <si>
+    <t>UIText.compareNumber</t>
+  </si>
+  <si>
+    <t>FASB - Financing/IASB</t>
+  </si>
+  <si>
+    <t>UIDropDown.CheckItem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,8 +1834,20 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1897,12 +1927,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,7 +2052,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2369,9 +2393,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2406,36 +2427,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2450,6 +2442,52 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -3133,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3144,8 +3182,8 @@
     <col min="1" max="1" width="9.1640625" style="29"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="82.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3455,31 +3493,31 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="144">
+      <c r="A19" s="143">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>201</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="157" t="s">
         <v>493</v>
       </c>
       <c r="D19" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="130" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="144">
+      <c r="A20" s="143">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>203</v>
       </c>
-      <c r="C20" s="162" t="s">
-        <v>537</v>
+      <c r="C20" s="158" t="s">
+        <v>529</v>
       </c>
       <c r="D20" s="122" t="s">
         <v>2</v>
@@ -3489,14 +3527,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="144">
+      <c r="A21" s="143">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>204</v>
       </c>
-      <c r="C21" s="162" t="s">
-        <v>538</v>
+      <c r="C21" s="158" t="s">
+        <v>530</v>
       </c>
       <c r="D21" s="122" t="s">
         <v>2</v>
@@ -3506,14 +3544,37 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="144">
+      <c r="A22" s="143">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>205</v>
       </c>
-      <c r="C22" s="162" t="s">
-        <v>554</v>
+      <c r="C22" s="158" t="s">
+        <v>546</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="143">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>206</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3526,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView topLeftCell="A365" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3584,16 +3645,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
@@ -4736,16 +4797,16 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
     </row>
@@ -5979,16 +6040,16 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="155" t="s">
+      <c r="C79" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="155"/>
-      <c r="E79" s="155"/>
-      <c r="F79" s="155"/>
-      <c r="G79" s="155"/>
-      <c r="H79" s="155"/>
-      <c r="I79" s="155"/>
-      <c r="J79" s="155"/>
+      <c r="D79" s="163"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="163"/>
+      <c r="G79" s="163"/>
+      <c r="H79" s="163"/>
+      <c r="I79" s="163"/>
+      <c r="J79" s="163"/>
       <c r="K79" s="32"/>
       <c r="L79" s="33"/>
     </row>
@@ -7379,16 +7440,16 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="155" t="s">
+      <c r="C126" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="155"/>
-      <c r="E126" s="155"/>
-      <c r="F126" s="155"/>
-      <c r="G126" s="155"/>
-      <c r="H126" s="155"/>
-      <c r="I126" s="155"/>
-      <c r="J126" s="155"/>
+      <c r="D126" s="163"/>
+      <c r="E126" s="163"/>
+      <c r="F126" s="163"/>
+      <c r="G126" s="163"/>
+      <c r="H126" s="163"/>
+      <c r="I126" s="163"/>
+      <c r="J126" s="163"/>
       <c r="K126" s="32"/>
       <c r="L126" s="33"/>
     </row>
@@ -8730,11 +8791,11 @@
       </c>
     </row>
     <row r="170" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="156" t="s">
+      <c r="B170" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="C170" s="156"/>
-      <c r="D170" s="156"/>
+      <c r="C170" s="164"/>
+      <c r="D170" s="164"/>
       <c r="H170" s="75"/>
     </row>
     <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9243,11 +9304,11 @@
       <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="151" t="s">
+      <c r="B187" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="151"/>
-      <c r="D187" s="151"/>
+      <c r="C187" s="161"/>
+      <c r="D187" s="161"/>
       <c r="H187" s="83"/>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9566,11 +9627,11 @@
       </c>
     </row>
     <row r="201" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="152" t="s">
+      <c r="B201" s="165" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="152"/>
-      <c r="D201" s="152"/>
+      <c r="C201" s="165"/>
+      <c r="D201" s="165"/>
       <c r="H201" s="88"/>
     </row>
     <row r="202" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -10126,11 +10187,11 @@
       </c>
     </row>
     <row r="220" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="153" t="s">
+      <c r="B220" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C220" s="153"/>
-      <c r="D220" s="153"/>
+      <c r="C220" s="166"/>
+      <c r="D220" s="166"/>
       <c r="H220" s="75"/>
     </row>
     <row r="221" spans="1:12" s="95" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -11187,11 +11248,11 @@
       </c>
     </row>
     <row r="254" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="154" t="s">
+      <c r="B254" s="167" t="s">
         <v>204</v>
       </c>
-      <c r="C254" s="154"/>
-      <c r="D254" s="154"/>
+      <c r="C254" s="167"/>
+      <c r="D254" s="167"/>
       <c r="H254" s="83"/>
     </row>
     <row r="255" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11569,11 +11630,11 @@
       </c>
     </row>
     <row r="267" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="154" t="s">
+      <c r="B267" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C267" s="154"/>
-      <c r="D267" s="154"/>
+      <c r="C267" s="167"/>
+      <c r="D267" s="167"/>
       <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12289,11 +12350,11 @@
       </c>
     </row>
     <row r="291" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="151" t="s">
+      <c r="B291" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="151"/>
-      <c r="D291" s="151"/>
+      <c r="C291" s="161"/>
+      <c r="D291" s="161"/>
       <c r="H291" s="83"/>
     </row>
     <row r="292" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12593,11 +12654,11 @@
       </c>
     </row>
     <row r="301" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="158" t="s">
+      <c r="B301" s="162" t="s">
         <v>414</v>
       </c>
-      <c r="C301" s="158"/>
-      <c r="D301" s="158"/>
+      <c r="C301" s="162"/>
+      <c r="D301" s="162"/>
       <c r="H301" s="83"/>
     </row>
     <row r="302" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12864,12 +12925,12 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="111"/>
-      <c r="B310" s="157" t="s">
+      <c r="B310" s="160" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="157"/>
-      <c r="D310" s="157"/>
-      <c r="E310" s="157"/>
+      <c r="C310" s="160"/>
+      <c r="D310" s="160"/>
+      <c r="E310" s="160"/>
       <c r="F310" s="111"/>
       <c r="G310" s="111"/>
       <c r="H310" s="112"/>
@@ -13382,12 +13443,12 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="111"/>
-      <c r="B328" s="157" t="s">
+      <c r="B328" s="160" t="s">
         <v>440</v>
       </c>
-      <c r="C328" s="157"/>
-      <c r="D328" s="157"/>
-      <c r="E328" s="157"/>
+      <c r="C328" s="160"/>
+      <c r="D328" s="160"/>
+      <c r="E328" s="160"/>
       <c r="F328" s="111"/>
       <c r="G328" s="111"/>
       <c r="H328" s="112"/>
@@ -14390,12 +14451,12 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="111"/>
-      <c r="B360" s="157" t="s">
+      <c r="B360" s="160" t="s">
         <v>442</v>
       </c>
-      <c r="C360" s="157"/>
-      <c r="D360" s="157"/>
-      <c r="E360" s="157"/>
+      <c r="C360" s="160"/>
+      <c r="D360" s="160"/>
+      <c r="E360" s="160"/>
       <c r="F360" s="111"/>
       <c r="G360" s="111"/>
       <c r="H360" s="112"/>
@@ -14877,12 +14938,12 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="111"/>
-      <c r="B375" s="157" t="s">
+      <c r="B375" s="160" t="s">
         <v>462</v>
       </c>
-      <c r="C375" s="157"/>
-      <c r="D375" s="157"/>
-      <c r="E375" s="157"/>
+      <c r="C375" s="160"/>
+      <c r="D375" s="160"/>
+      <c r="E375" s="160"/>
       <c r="F375" s="111"/>
       <c r="G375" s="111"/>
       <c r="H375" s="112"/>
@@ -15097,12 +15158,12 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="111"/>
-      <c r="B383" s="157" t="s">
+      <c r="B383" s="160" t="s">
         <v>463</v>
       </c>
-      <c r="C383" s="157"/>
-      <c r="D383" s="157"/>
-      <c r="E383" s="157"/>
+      <c r="C383" s="160"/>
+      <c r="D383" s="160"/>
+      <c r="E383" s="160"/>
       <c r="F383" s="111"/>
       <c r="G383" s="111"/>
       <c r="H383" s="112"/>
@@ -15317,6 +15378,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="B170:D170"/>
     <mergeCell ref="B360:E360"/>
     <mergeCell ref="B291:D291"/>
     <mergeCell ref="B301:D301"/>
@@ -15324,16 +15395,6 @@
     <mergeCell ref="B383:E383"/>
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="B328:E328"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B267:D267"/>
   </mergeCells>
   <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="43" priority="425" operator="equal">
@@ -15834,10 +15895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A52F28-3949-0E4C-AC35-967E0AD937B0}">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15880,7 +15941,7 @@
       <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="154" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -16302,12 +16363,12 @@
       <c r="J16" s="126"/>
       <c r="L16" s="126"/>
     </row>
-    <row r="17" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="122">
         <v>119</v>
       </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="145" t="s">
         <v>501</v>
       </c>
       <c r="D17" s="121" t="s">
@@ -16331,18 +16392,18 @@
       <c r="J17" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-    </row>
-    <row r="18" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="136"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+    </row>
+    <row r="18" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="122">
         <v>119</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="121" t="s">
         <v>502</v>
       </c>
@@ -16367,18 +16428,18 @@
       <c r="J18" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="137"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-    </row>
-    <row r="19" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="136"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+    </row>
+    <row r="19" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="122">
         <v>119</v>
       </c>
-      <c r="B19" s="145"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="121" t="s">
         <v>503</v>
       </c>
@@ -16403,18 +16464,18 @@
       <c r="J19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="137"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-    </row>
-    <row r="20" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="136"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+    </row>
+    <row r="20" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="122">
         <v>119</v>
       </c>
-      <c r="B20" s="145"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="121" t="s">
         <v>504</v>
       </c>
@@ -16439,32 +16500,32 @@
       <c r="J20" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="137"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-    </row>
-    <row r="21" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="136"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+    </row>
+    <row r="21" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122">
         <v>119</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="148" t="s">
+      <c r="B21" s="144"/>
+      <c r="C21" s="172" t="s">
         <v>505</v>
       </c>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="149" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="147" t="s">
+      <c r="E21" s="173" t="s">
+        <v>559</v>
+      </c>
+      <c r="F21" s="174" t="s">
         <v>486</v>
       </c>
-      <c r="G21" s="147">
-        <v>60</v>
+      <c r="G21" s="159">
+        <v>72</v>
       </c>
       <c r="H21" s="122" t="s">
         <v>12</v>
@@ -16475,32 +16536,32 @@
       <c r="J21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="137"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-    </row>
-    <row r="22" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="136"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+    </row>
+    <row r="22" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <v>119</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="172" t="s">
         <v>506</v>
       </c>
-      <c r="D22" s="146" t="s">
-        <v>523</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" t="s">
-        <v>522</v>
-      </c>
-      <c r="G22" s="121">
-        <v>1</v>
+      <c r="D22" s="172" t="s">
+        <v>516</v>
+      </c>
+      <c r="E22" s="173" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>515</v>
+      </c>
+      <c r="G22" s="159">
+        <v>5</v>
       </c>
       <c r="H22" s="122" t="s">
         <v>12</v>
@@ -16511,33 +16572,31 @@
       <c r="J22" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="137"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-    </row>
-    <row r="23" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="136"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+    </row>
+    <row r="23" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="122">
         <v>119</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146" t="s">
+      <c r="B23" s="144"/>
+      <c r="C23" s="145" t="s">
         <v>507</v>
       </c>
       <c r="D23" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>236</v>
+      <c r="E23" s="122" t="s">
+        <v>50</v>
       </c>
       <c r="F23" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="G23" s="121" t="s">
-        <v>485</v>
-      </c>
+      <c r="G23" s="121"/>
       <c r="H23" s="122" t="s">
         <v>12</v>
       </c>
@@ -16547,19 +16606,19 @@
       <c r="J23" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="137"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-    </row>
-    <row r="24" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="136"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+    </row>
+    <row r="24" spans="1:26" s="123" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="122">
         <v>119</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146" t="s">
+      <c r="B24" s="144"/>
+      <c r="C24" s="145" t="s">
         <v>508</v>
       </c>
       <c r="D24" s="121" t="s">
@@ -16583,368 +16642,357 @@
       <c r="J24" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="137"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="137"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K24" s="136"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="122">
         <v>119</v>
       </c>
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="145" t="s">
         <v>509</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="145" t="s">
         <v>512</v>
       </c>
-      <c r="E25" s="150" t="s">
+      <c r="E25" s="146" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" t="s">
+        <v>517</v>
+      </c>
+      <c r="G25" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="136"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="136"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="122"/>
+      <c r="C26" s="168" t="s">
+        <v>510</v>
+      </c>
+      <c r="D26" s="168" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="169" t="s">
+        <v>561</v>
+      </c>
+      <c r="F26" s="170" t="s">
+        <v>517</v>
+      </c>
+      <c r="G26" s="171" t="s">
+        <v>560</v>
+      </c>
+      <c r="H26" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="136"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="122"/>
+      <c r="C27" s="168" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" s="168" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" s="169" t="s">
+        <v>561</v>
+      </c>
+      <c r="F27" s="170" t="s">
+        <v>517</v>
+      </c>
+      <c r="G27" s="168" t="s">
+        <v>514</v>
+      </c>
+      <c r="H27" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="136"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="122"/>
+      <c r="C28" s="145"/>
+      <c r="E28" s="146"/>
+      <c r="G28" s="145"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="150" t="s">
+        <v>529</v>
+      </c>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="147">
+        <v>203</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="148" t="s">
+        <v>518</v>
+      </c>
+      <c r="D30" s="146" t="s">
+        <v>519</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="F30" s="149" t="s">
+        <v>521</v>
+      </c>
+      <c r="G30" s="149" t="s">
+        <v>522</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="147">
+        <v>203</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="148" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" s="146" t="s">
+        <v>519</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="F31" s="149" t="s">
+        <v>521</v>
+      </c>
+      <c r="G31" s="149" t="s">
+        <v>524</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="147">
+        <v>203</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="148" t="s">
         <v>525</v>
       </c>
-      <c r="F25" t="s">
-        <v>524</v>
-      </c>
-      <c r="G25" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="137"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="122">
-        <v>119</v>
-      </c>
-      <c r="C26" s="146" t="s">
-        <v>510</v>
-      </c>
-      <c r="D26" s="146" t="s">
-        <v>513</v>
-      </c>
-      <c r="E26" s="150" t="s">
-        <v>525</v>
-      </c>
-      <c r="F26" t="s">
-        <v>524</v>
-      </c>
-      <c r="G26" s="146" t="s">
-        <v>513</v>
-      </c>
-      <c r="H26" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="137"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="122">
-        <v>119</v>
-      </c>
-      <c r="C27" s="146" t="s">
-        <v>511</v>
-      </c>
-      <c r="D27" s="146" t="s">
-        <v>514</v>
-      </c>
-      <c r="E27" s="150" t="s">
-        <v>525</v>
-      </c>
-      <c r="F27" t="s">
-        <v>524</v>
-      </c>
-      <c r="G27" s="146" t="s">
-        <v>514</v>
-      </c>
-      <c r="H27" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="137"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="122">
-        <v>119</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="147" t="s">
-        <v>515</v>
-      </c>
-      <c r="D28" s="121" t="s">
-        <v>478</v>
-      </c>
-      <c r="E28" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="121" t="s">
-        <v>479</v>
-      </c>
-      <c r="G28" s="121" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="141"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="122">
-        <v>119</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="147" t="s">
-        <v>516</v>
-      </c>
-      <c r="D29" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="121" t="s">
-        <v>480</v>
-      </c>
-      <c r="G29" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="H29" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="122"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="122">
-        <v>119</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="147" t="s">
-        <v>517</v>
-      </c>
-      <c r="D30" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="121" t="s">
-        <v>481</v>
-      </c>
-      <c r="G30" s="121" t="s">
-        <v>249</v>
-      </c>
-      <c r="H30" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="122">
-        <v>119</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="147" t="s">
-        <v>518</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="121" t="s">
-        <v>482</v>
-      </c>
-      <c r="G31" s="121" t="s">
-        <v>253</v>
-      </c>
-      <c r="H31" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="122"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="122">
-        <v>119</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="147" t="s">
+      <c r="D32" s="146" t="s">
         <v>519</v>
       </c>
-      <c r="D32" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="G32" s="121">
-        <v>60</v>
-      </c>
-      <c r="H32" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="122"/>
+      <c r="E32" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="F32" s="149" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32" s="149" t="s">
+        <v>526</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="122">
-        <v>119</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="147" t="s">
+      <c r="A33" s="147">
+        <v>203</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="148" t="s">
+        <v>527</v>
+      </c>
+      <c r="D33" s="146" t="s">
+        <v>519</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="121" t="s">
-        <v>487</v>
-      </c>
-      <c r="G33" s="121" t="s">
-        <v>485</v>
-      </c>
-      <c r="H33" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="122" t="s">
-        <v>12</v>
-      </c>
+      <c r="F33" s="149" t="s">
+        <v>521</v>
+      </c>
+      <c r="G33" s="149" t="s">
+        <v>528</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="122">
-        <v>119</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="147" t="s">
-        <v>521</v>
-      </c>
-      <c r="D34" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="121" t="s">
-        <v>488</v>
-      </c>
-      <c r="G34" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="H34" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="122" t="s">
-        <v>12</v>
-      </c>
+      <c r="C34" s="145"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C35" s="145"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="126"/>
       <c r="B36" s="126"/>
-      <c r="C36" s="162" t="s">
-        <v>537</v>
+      <c r="C36" s="150" t="s">
+        <v>530</v>
       </c>
       <c r="D36" s="123"/>
       <c r="E36" s="123"/>
       <c r="F36" s="123"/>
       <c r="G36" s="123"/>
-      <c r="H36" s="163"/>
+      <c r="H36" s="151"/>
       <c r="I36" s="123"/>
       <c r="J36" s="123"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="159">
-        <v>203</v>
+      <c r="A37" s="147">
+        <v>204</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="160" t="s">
-        <v>526</v>
-      </c>
-      <c r="D37" s="150" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="F37" s="161" t="s">
-        <v>529</v>
-      </c>
-      <c r="G37" s="161" t="s">
+      <c r="C37" s="152" t="s">
         <v>530</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>531</v>
+      </c>
+      <c r="E37" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="F37" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G37" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>12</v>
@@ -16959,38 +17007,37 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="161"/>
-      <c r="S37" s="161"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="161"/>
-      <c r="W37" s="161"/>
-      <c r="X37" s="161"/>
-      <c r="Y37" s="161"/>
-      <c r="Z37" s="161"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="149"/>
+      <c r="Z37" s="149"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="159">
-        <v>203</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="160" t="s">
-        <v>531</v>
-      </c>
-      <c r="D38" s="150" t="s">
-        <v>527</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="F38" s="161" t="s">
-        <v>529</v>
-      </c>
-      <c r="G38" s="161" t="s">
-        <v>532</v>
+      <c r="A38" s="147">
+        <v>204</v>
+      </c>
+      <c r="C38" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D38" s="153" t="s">
+        <v>534</v>
+      </c>
+      <c r="E38" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F38" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G38" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>12</v>
@@ -17005,38 +17052,38 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="161"/>
-      <c r="S38" s="161"/>
-      <c r="T38" s="161"/>
-      <c r="U38" s="161"/>
-      <c r="V38" s="161"/>
-      <c r="W38" s="161"/>
-      <c r="X38" s="161"/>
-      <c r="Y38" s="161"/>
-      <c r="Z38" s="161"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="149"/>
+      <c r="Z38" s="149"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="159">
-        <v>203</v>
+      <c r="A39" s="147">
+        <v>204</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="160" t="s">
+      <c r="C39" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>536</v>
+      </c>
+      <c r="E39" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F39" s="149" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="150" t="s">
-        <v>527</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="F39" s="161" t="s">
-        <v>529</v>
-      </c>
-      <c r="G39" s="161" t="s">
-        <v>534</v>
+      <c r="G39" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>12</v>
@@ -17051,38 +17098,38 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="161"/>
-      <c r="P39" s="161"/>
-      <c r="Q39" s="161"/>
-      <c r="R39" s="161"/>
-      <c r="S39" s="161"/>
-      <c r="T39" s="161"/>
-      <c r="U39" s="161"/>
-      <c r="V39" s="161"/>
-      <c r="W39" s="161"/>
-      <c r="X39" s="161"/>
-      <c r="Y39" s="161"/>
-      <c r="Z39" s="161"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="149"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="149"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="149"/>
+      <c r="Z39" s="149"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="159">
-        <v>203</v>
+      <c r="A40" s="147">
+        <v>204</v>
       </c>
       <c r="B40" s="15"/>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>537</v>
+      </c>
+      <c r="E40" s="146" t="s">
         <v>535</v>
       </c>
-      <c r="D40" s="150" t="s">
-        <v>527</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="F40" s="161" t="s">
-        <v>529</v>
-      </c>
-      <c r="G40" s="161" t="s">
-        <v>536</v>
+      <c r="F40" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G40" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>12</v>
@@ -17097,58 +17144,176 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="161"/>
-      <c r="P40" s="161"/>
-      <c r="Q40" s="161"/>
-      <c r="R40" s="161"/>
-      <c r="S40" s="161"/>
-      <c r="T40" s="161"/>
-      <c r="U40" s="161"/>
-      <c r="V40" s="161"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="161"/>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="161"/>
+      <c r="O40" s="149"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="149"/>
+      <c r="R40" s="149"/>
+      <c r="S40" s="149"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="149"/>
+      <c r="W40" s="149"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="149"/>
+      <c r="Z40" s="149"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C41" s="146"/>
+      <c r="A41" s="147">
+        <v>204</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D41" s="152" t="s">
+        <v>538</v>
+      </c>
+      <c r="E41" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F41" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G41" s="149" t="s">
+        <v>547</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="149"/>
+      <c r="P41" s="149"/>
+      <c r="Q41" s="149"/>
+      <c r="R41" s="149"/>
+      <c r="S41" s="149"/>
+      <c r="T41" s="149"/>
+      <c r="U41" s="149"/>
+      <c r="V41" s="149"/>
+      <c r="W41" s="149"/>
+      <c r="X41" s="149"/>
+      <c r="Y41" s="149"/>
+      <c r="Z41" s="149"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C42" s="146"/>
+      <c r="A42" s="147">
+        <v>204</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="152" t="s">
+        <v>539</v>
+      </c>
+      <c r="E42" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F42" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G42" s="149" t="s">
+        <v>547</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="149"/>
+      <c r="S42" s="149"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="149"/>
+      <c r="W42" s="149"/>
+      <c r="X42" s="149"/>
+      <c r="Y42" s="149"/>
+      <c r="Z42" s="149"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="162" t="s">
-        <v>538</v>
-      </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
+      <c r="A43" s="147">
+        <v>204</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D43" s="152" t="s">
+        <v>540</v>
+      </c>
+      <c r="E43" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F43" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G43" s="149" t="s">
+        <v>547</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="149"/>
+      <c r="P43" s="149"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="149"/>
+      <c r="V43" s="149"/>
+      <c r="W43" s="149"/>
+      <c r="X43" s="149"/>
+      <c r="Y43" s="149"/>
+      <c r="Z43" s="149"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="159">
+      <c r="A44" s="147">
         <v>204</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D44" s="164" t="s">
-        <v>539</v>
-      </c>
-      <c r="E44" s="150" t="s">
-        <v>540</v>
-      </c>
-      <c r="F44" s="161" t="s">
+      <c r="C44" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D44" s="152" t="s">
         <v>541</v>
       </c>
-      <c r="G44" s="161" t="s">
-        <v>555</v>
+      <c r="E44" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F44" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G44" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>12</v>
@@ -17163,37 +17328,38 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="161"/>
-      <c r="U44" s="161"/>
-      <c r="V44" s="161"/>
-      <c r="W44" s="161"/>
-      <c r="X44" s="161"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="161"/>
+      <c r="O44" s="149"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="149"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="149"/>
+      <c r="T44" s="149"/>
+      <c r="U44" s="149"/>
+      <c r="V44" s="149"/>
+      <c r="W44" s="149"/>
+      <c r="X44" s="149"/>
+      <c r="Y44" s="149"/>
+      <c r="Z44" s="149"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="159">
+      <c r="A45" s="147">
         <v>204</v>
       </c>
-      <c r="C45" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D45" s="165" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D45" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="E45" s="150" t="s">
-        <v>543</v>
-      </c>
-      <c r="F45" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G45" s="161" t="s">
-        <v>555</v>
+      <c r="E45" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F45" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G45" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>12</v>
@@ -17208,38 +17374,38 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="161"/>
-      <c r="R45" s="161"/>
-      <c r="S45" s="161"/>
-      <c r="T45" s="161"/>
-      <c r="U45" s="161"/>
-      <c r="V45" s="161"/>
-      <c r="W45" s="161"/>
-      <c r="X45" s="161"/>
-      <c r="Y45" s="161"/>
-      <c r="Z45" s="161"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="149"/>
+      <c r="Q45" s="149"/>
+      <c r="R45" s="149"/>
+      <c r="S45" s="149"/>
+      <c r="T45" s="149"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="149"/>
+      <c r="W45" s="149"/>
+      <c r="X45" s="149"/>
+      <c r="Y45" s="149"/>
+      <c r="Z45" s="149"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="159">
+      <c r="A46" s="147">
         <v>204</v>
       </c>
       <c r="B46" s="15"/>
-      <c r="C46" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D46" s="164" t="s">
-        <v>544</v>
-      </c>
-      <c r="E46" s="150" t="s">
+      <c r="C46" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D46" s="153" t="s">
         <v>543</v>
       </c>
-      <c r="F46" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G46" s="161" t="s">
-        <v>555</v>
+      <c r="E46" s="146" t="s">
+        <v>535</v>
+      </c>
+      <c r="F46" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G46" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>12</v>
@@ -17254,38 +17420,38 @@
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="161"/>
-      <c r="P46" s="161"/>
-      <c r="Q46" s="161"/>
-      <c r="R46" s="161"/>
-      <c r="S46" s="161"/>
-      <c r="T46" s="161"/>
-      <c r="U46" s="161"/>
-      <c r="V46" s="161"/>
-      <c r="W46" s="161"/>
-      <c r="X46" s="161"/>
-      <c r="Y46" s="161"/>
-      <c r="Z46" s="161"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="149"/>
+      <c r="S46" s="149"/>
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="149"/>
+      <c r="W46" s="149"/>
+      <c r="X46" s="149"/>
+      <c r="Y46" s="149"/>
+      <c r="Z46" s="149"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="159">
+      <c r="A47" s="147">
         <v>204</v>
       </c>
       <c r="B47" s="15"/>
-      <c r="C47" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D47" s="164" t="s">
-        <v>545</v>
-      </c>
-      <c r="E47" s="150" t="s">
-        <v>543</v>
-      </c>
-      <c r="F47" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G47" s="161" t="s">
-        <v>555</v>
+      <c r="C47" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>544</v>
+      </c>
+      <c r="E47" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="F47" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G47" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>12</v>
@@ -17300,38 +17466,38 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="161"/>
-      <c r="P47" s="161"/>
-      <c r="Q47" s="161"/>
-      <c r="R47" s="161"/>
-      <c r="S47" s="161"/>
-      <c r="T47" s="161"/>
-      <c r="U47" s="161"/>
-      <c r="V47" s="161"/>
-      <c r="W47" s="161"/>
-      <c r="X47" s="161"/>
-      <c r="Y47" s="161"/>
-      <c r="Z47" s="161"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="149"/>
+      <c r="S47" s="149"/>
+      <c r="T47" s="149"/>
+      <c r="U47" s="149"/>
+      <c r="V47" s="149"/>
+      <c r="W47" s="149"/>
+      <c r="X47" s="149"/>
+      <c r="Y47" s="149"/>
+      <c r="Z47" s="149"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="159">
+      <c r="A48" s="147">
         <v>204</v>
       </c>
       <c r="B48" s="15"/>
-      <c r="C48" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D48" s="164" t="s">
-        <v>546</v>
-      </c>
-      <c r="E48" s="150" t="s">
-        <v>543</v>
-      </c>
-      <c r="F48" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G48" s="161" t="s">
-        <v>555</v>
+      <c r="C48" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>545</v>
+      </c>
+      <c r="E48" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="F48" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G48" s="149" t="s">
+        <v>547</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>12</v>
@@ -17346,38 +17512,38 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
-      <c r="O48" s="161"/>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="161"/>
-      <c r="R48" s="161"/>
-      <c r="S48" s="161"/>
-      <c r="T48" s="161"/>
-      <c r="U48" s="161"/>
-      <c r="V48" s="161"/>
-      <c r="W48" s="161"/>
-      <c r="X48" s="161"/>
-      <c r="Y48" s="161"/>
-      <c r="Z48" s="161"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="149"/>
+      <c r="R48" s="149"/>
+      <c r="S48" s="149"/>
+      <c r="T48" s="149"/>
+      <c r="U48" s="149"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="159">
+      <c r="A49" s="147">
         <v>204</v>
       </c>
       <c r="B49" s="15"/>
-      <c r="C49" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D49" s="164" t="s">
+      <c r="C49" s="152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>545</v>
+      </c>
+      <c r="E49" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="F49" s="149" t="s">
+        <v>533</v>
+      </c>
+      <c r="G49" s="149" t="s">
         <v>547</v>
-      </c>
-      <c r="E49" s="150" t="s">
-        <v>543</v>
-      </c>
-      <c r="F49" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G49" s="161" t="s">
-        <v>555</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>12</v>
@@ -17392,130 +17558,55 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="161"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="161"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="161"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="161"/>
-      <c r="Y49" s="161"/>
-      <c r="Z49" s="161"/>
+      <c r="O49" s="149"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="149"/>
+      <c r="R49" s="149"/>
+      <c r="S49" s="149"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="149"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="149"/>
+      <c r="Z49" s="149"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" s="159">
-        <v>204</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D50" s="164" t="s">
-        <v>548</v>
-      </c>
-      <c r="E50" s="150" t="s">
-        <v>543</v>
-      </c>
-      <c r="F50" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G50" s="161" t="s">
-        <v>555</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
-      <c r="Q50" s="161"/>
-      <c r="R50" s="161"/>
-      <c r="S50" s="161"/>
-      <c r="T50" s="161"/>
-      <c r="U50" s="161"/>
-      <c r="V50" s="161"/>
-      <c r="W50" s="161"/>
-      <c r="X50" s="161"/>
-      <c r="Y50" s="161"/>
-      <c r="Z50" s="161"/>
+      <c r="C50" s="145"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="159">
-        <v>204</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D51" s="164" t="s">
-        <v>549</v>
-      </c>
-      <c r="E51" s="150" t="s">
-        <v>543</v>
-      </c>
-      <c r="F51" s="161" t="s">
-        <v>541</v>
-      </c>
-      <c r="G51" s="161" t="s">
-        <v>555</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="161"/>
-      <c r="Q51" s="161"/>
-      <c r="R51" s="161"/>
-      <c r="S51" s="161"/>
-      <c r="T51" s="161"/>
-      <c r="U51" s="161"/>
-      <c r="V51" s="161"/>
-      <c r="W51" s="161"/>
-      <c r="X51" s="161"/>
-      <c r="Y51" s="161"/>
-      <c r="Z51" s="161"/>
+      <c r="A51" s="126"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="150" t="s">
+        <v>546</v>
+      </c>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" s="159">
-        <v>204</v>
+      <c r="A52" s="147">
+        <v>205</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="C52" s="164" t="s">
-        <v>538</v>
-      </c>
-      <c r="D52" s="164" t="s">
-        <v>550</v>
-      </c>
-      <c r="E52" s="150" t="s">
-        <v>543</v>
